--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2021-2022\Appli lieux de stage David Filaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2021-2022\Appli lieux de stage David Filaire\Création de mag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7969E3A6-D9ED-4300-B28E-C9698DB20C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9A5CD-20B1-470B-8FD9-5FD35FDD0AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>04 92 36 71 90</t>
   </si>
   <si>
-    <t>44.07392008269911, 6.180825442328844</t>
-  </si>
-  <si>
     <t>http://bts-metiers-deau-digne.fr/</t>
   </si>
   <si>
@@ -1038,6 +1035,9 @@
   </si>
   <si>
     <t>43.42873911974564, 5.856885604694978</t>
+  </si>
+  <si>
+    <t>44.07351924149512, 6.180782525100236</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1871,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AS48" sqref="AS48"/>
+      <selection pane="bottomLeft" activeCell="AT58" sqref="AT58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="2" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>202</v>
       </c>
       <c r="D2" s="17" t="str">
         <f t="shared" ref="D2:D33" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
@@ -2169,20 +2169,20 @@
       <c r="AM2" s="10"/>
       <c r="AN2" s="26"/>
       <c r="AO2" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP2" s="48" t="s">
         <v>203</v>
-      </c>
-      <c r="AP2" s="48" t="s">
-        <v>204</v>
       </c>
       <c r="AQ2" s="51">
         <v>6210</v>
       </c>
       <c r="AR2" s="52"/>
       <c r="AS2" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT2" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU2" s="14"/>
       <c r="AV2" s="61"/>
@@ -2220,10 +2220,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D3" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2266,20 +2266,20 @@
       <c r="AM3" s="10"/>
       <c r="AN3" s="26"/>
       <c r="AO3" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="AP3" s="48" t="s">
         <v>324</v>
-      </c>
-      <c r="AP3" s="48" t="s">
-        <v>325</v>
       </c>
       <c r="AQ3" s="51">
         <v>4260</v>
       </c>
       <c r="AR3" s="52"/>
       <c r="AS3" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT3" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU3" s="14"/>
       <c r="AV3" s="61"/>
@@ -2314,13 +2314,13 @@
     </row>
     <row r="4" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2363,22 +2363,22 @@
       <c r="AM4" s="10"/>
       <c r="AN4" s="26"/>
       <c r="AO4" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="AP4" s="48" t="s">
         <v>317</v>
-      </c>
-      <c r="AP4" s="48" t="s">
-        <v>318</v>
       </c>
       <c r="AQ4" s="51">
         <v>6270</v>
       </c>
       <c r="AR4" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="AS4" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="AT4" s="54" t="s">
         <v>321</v>
-      </c>
-      <c r="AS4" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="AT4" s="54" t="s">
-        <v>322</v>
       </c>
       <c r="AU4" s="14"/>
       <c r="AV4" s="61"/>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="5" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>201</v>
-      </c>
       <c r="C5" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2462,22 +2462,22 @@
       <c r="AM5" s="10"/>
       <c r="AN5" s="26"/>
       <c r="AO5" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AP5" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AQ5" s="51">
         <v>13014</v>
       </c>
       <c r="AR5" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS5" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="AS5" s="53" t="s">
-        <v>308</v>
-      </c>
       <c r="AT5" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU5" s="14"/>
       <c r="AV5" s="61"/>
@@ -2515,10 +2515,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2561,22 +2561,22 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="26"/>
       <c r="AO6" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP6" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AQ6" s="51">
         <v>6120</v>
       </c>
       <c r="AR6" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS6" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT6" s="54" t="s">
         <v>302</v>
-      </c>
-      <c r="AS6" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT6" s="54" t="s">
-        <v>303</v>
       </c>
       <c r="AU6" s="14"/>
       <c r="AV6" s="61"/>
@@ -2614,10 +2614,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2660,20 +2660,20 @@
       <c r="AM7" s="10"/>
       <c r="AN7" s="26"/>
       <c r="AO7" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP7" s="48" t="s">
         <v>297</v>
-      </c>
-      <c r="AP7" s="48" t="s">
-        <v>298</v>
       </c>
       <c r="AQ7" s="51">
         <v>6140</v>
       </c>
       <c r="AR7" s="52"/>
       <c r="AS7" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT7" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AU7" s="14"/>
       <c r="AV7" s="61"/>
@@ -2711,10 +2711,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2757,22 +2757,22 @@
       <c r="AM8" s="10"/>
       <c r="AN8" s="26"/>
       <c r="AO8" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP8" s="48" t="s">
         <v>265</v>
-      </c>
-      <c r="AP8" s="48" t="s">
-        <v>266</v>
       </c>
       <c r="AQ8" s="51">
         <v>13210</v>
       </c>
       <c r="AR8" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS8" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="AS8" s="53" t="s">
+      <c r="AT8" s="54" t="s">
         <v>268</v>
-      </c>
-      <c r="AT8" s="54" t="s">
-        <v>269</v>
       </c>
       <c r="AU8" s="14"/>
       <c r="AV8" s="61"/>
@@ -2810,10 +2810,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2856,22 +2856,22 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="26"/>
       <c r="AO9" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AP9" s="48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AQ9" s="51">
         <v>13340</v>
       </c>
       <c r="AR9" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS9" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AT9" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AU9" s="14"/>
       <c r="AV9" s="61"/>
@@ -2906,13 +2906,13 @@
     </row>
     <row r="10" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>270</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>271</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2955,22 +2955,22 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="26"/>
       <c r="AO10" s="48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AP10" s="48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AQ10" s="51">
         <v>13800</v>
       </c>
       <c r="AR10" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS10" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT10" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU10" s="14"/>
       <c r="AV10" s="61"/>
@@ -3008,10 +3008,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3054,22 +3054,22 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP11" s="48" t="s">
         <v>252</v>
-      </c>
-      <c r="AP11" s="48" t="s">
-        <v>253</v>
       </c>
       <c r="AQ11" s="51">
         <v>4200</v>
       </c>
       <c r="AR11" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS11" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="AS11" s="53" t="s">
-        <v>257</v>
-      </c>
       <c r="AT11" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AU11" s="14"/>
       <c r="AV11" s="61"/>
@@ -3107,10 +3107,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3153,20 +3153,20 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP12" s="48" t="s">
         <v>207</v>
-      </c>
-      <c r="AP12" s="48" t="s">
-        <v>208</v>
       </c>
       <c r="AQ12" s="51">
         <v>84300</v>
       </c>
       <c r="AR12" s="52"/>
       <c r="AS12" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT12" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AU12" s="14"/>
       <c r="AV12" s="61"/>
@@ -3204,10 +3204,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3250,19 +3250,19 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP13" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AQ13" s="51">
         <v>83240</v>
       </c>
       <c r="AR13" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AS13" s="53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AT13" s="54"/>
       <c r="AU13" s="14"/>
@@ -3301,10 +3301,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3347,22 +3347,22 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP14" s="48" t="s">
         <v>224</v>
-      </c>
-      <c r="AP14" s="48" t="s">
-        <v>225</v>
       </c>
       <c r="AQ14" s="51">
         <v>4370</v>
       </c>
       <c r="AR14" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS14" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT14" s="54" t="s">
         <v>226</v>
-      </c>
-      <c r="AS14" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT14" s="54" t="s">
-        <v>227</v>
       </c>
       <c r="AU14" s="14"/>
       <c r="AV14" s="61"/>
@@ -3400,10 +3400,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3446,22 +3446,22 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="26"/>
       <c r="AO15" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP15" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AQ15" s="51">
         <v>5000</v>
       </c>
       <c r="AR15" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS15" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT15" s="54" t="s">
         <v>212</v>
-      </c>
-      <c r="AS15" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT15" s="54" t="s">
-        <v>213</v>
       </c>
       <c r="AU15" s="14"/>
       <c r="AV15" s="61"/>
@@ -3496,13 +3496,13 @@
     </row>
     <row r="16" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>214</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>215</v>
       </c>
       <c r="D16" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3545,7 +3545,7 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP16" s="48" t="s">
         <v>52</v>
@@ -3554,13 +3554,13 @@
         <v>4000</v>
       </c>
       <c r="AR16" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AS16" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AT16" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AU16" s="14"/>
       <c r="AV16" s="61"/>
@@ -3597,13 +3597,13 @@
     </row>
     <row r="17" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>281</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>282</v>
       </c>
       <c r="D17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3646,22 +3646,22 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP17" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AQ17" s="51">
         <v>6203</v>
       </c>
       <c r="AR17" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS17" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT17" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AU17" s="14"/>
       <c r="AV17" s="61"/>
@@ -3696,13 +3696,13 @@
     </row>
     <row r="18" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3745,22 +3745,22 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="26"/>
       <c r="AO18" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP18" s="48" t="s">
         <v>289</v>
-      </c>
-      <c r="AP18" s="48" t="s">
-        <v>290</v>
       </c>
       <c r="AQ18" s="51">
         <v>83390</v>
       </c>
       <c r="AR18" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS18" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="AS18" s="53" t="s">
-        <v>293</v>
-      </c>
       <c r="AT18" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AU18" s="14"/>
       <c r="AV18" s="61"/>
@@ -3798,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3844,20 +3844,20 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="26"/>
       <c r="AO19" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP19" s="48" t="s">
         <v>196</v>
-      </c>
-      <c r="AP19" s="48" t="s">
-        <v>197</v>
       </c>
       <c r="AQ19" s="51">
         <v>13600</v>
       </c>
       <c r="AR19" s="52"/>
       <c r="AS19" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT19" s="54" t="s">
         <v>198</v>
-      </c>
-      <c r="AT19" s="54" t="s">
-        <v>199</v>
       </c>
       <c r="AU19" s="14"/>
       <c r="AV19" s="61"/>
@@ -3892,13 +3892,13 @@
     </row>
     <row r="20" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B20" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>258</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>259</v>
       </c>
       <c r="D20" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3941,22 +3941,22 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="26"/>
       <c r="AO20" s="48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP20" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AQ20" s="51">
         <v>13600</v>
       </c>
       <c r="AR20" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS20" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="AS20" s="53" t="s">
-        <v>263</v>
-      </c>
       <c r="AT20" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AU20" s="14"/>
       <c r="AV20" s="61"/>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="46"/>
@@ -4037,22 +4037,22 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="26"/>
       <c r="AO21" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AP21" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AQ21" s="51">
         <v>83300</v>
       </c>
       <c r="AR21" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AS21" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT21" s="54" t="s">
         <v>330</v>
-      </c>
-      <c r="AT21" s="54" t="s">
-        <v>331</v>
       </c>
       <c r="AU21" s="14"/>
       <c r="AV21" s="61"/>
@@ -4088,10 +4088,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4134,22 +4134,22 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="26"/>
       <c r="AO22" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP22" s="48" t="s">
         <v>241</v>
-      </c>
-      <c r="AP22" s="48" t="s">
-        <v>242</v>
       </c>
       <c r="AQ22" s="51">
         <v>83460</v>
       </c>
       <c r="AR22" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="AS22" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="AS22" s="53" t="s">
-        <v>246</v>
-      </c>
       <c r="AT22" s="54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AU22" s="14"/>
       <c r="AV22" s="61"/>
@@ -4187,10 +4187,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4233,22 +4233,22 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="26"/>
       <c r="AO23" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP23" s="48" t="s">
         <v>192</v>
-      </c>
-      <c r="AP23" s="48" t="s">
-        <v>193</v>
       </c>
       <c r="AQ23" s="51">
         <v>4800</v>
       </c>
       <c r="AR23" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS23" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT23" s="54" t="s">
         <v>194</v>
-      </c>
-      <c r="AS23" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT23" s="54" t="s">
-        <v>195</v>
       </c>
       <c r="AU23" s="14"/>
       <c r="AV23" s="61"/>
@@ -4286,10 +4286,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4332,20 +4332,20 @@
       <c r="AM24" s="10"/>
       <c r="AN24" s="26"/>
       <c r="AO24" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP24" s="48" t="s">
         <v>186</v>
-      </c>
-      <c r="AP24" s="48" t="s">
-        <v>187</v>
       </c>
       <c r="AQ24" s="51">
         <v>13290</v>
       </c>
       <c r="AR24" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AS24" s="53"/>
       <c r="AT24" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AU24" s="14"/>
       <c r="AV24" s="61"/>
@@ -4383,10 +4383,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4429,22 +4429,22 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="26"/>
       <c r="AO25" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP25" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ25" s="51">
         <v>13250</v>
       </c>
       <c r="AR25" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AS25" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT25" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AU25" s="14"/>
       <c r="AV25" s="61"/>
@@ -4482,10 +4482,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4528,22 +4528,22 @@
       <c r="AM26" s="10"/>
       <c r="AN26" s="26"/>
       <c r="AO26" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP26" s="48" t="s">
         <v>176</v>
-      </c>
-      <c r="AP26" s="48" t="s">
-        <v>177</v>
       </c>
       <c r="AQ26" s="51">
         <v>830130</v>
       </c>
       <c r="AR26" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS26" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT26" s="54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AU26" s="14"/>
       <c r="AV26" s="61"/>
@@ -4581,10 +4581,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4627,20 +4627,20 @@
       <c r="AM27" s="10"/>
       <c r="AN27" s="26"/>
       <c r="AO27" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AP27" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AQ27" s="51">
         <v>84000</v>
       </c>
       <c r="AR27" s="52"/>
       <c r="AS27" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AT27" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AU27" s="14"/>
       <c r="AV27" s="61"/>
@@ -4676,10 +4676,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4722,22 +4722,22 @@
       <c r="AM28" s="10"/>
       <c r="AN28" s="26"/>
       <c r="AO28" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AP28" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AQ28" s="51">
         <v>84700</v>
       </c>
       <c r="AR28" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS28" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AT28" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AU28" s="14"/>
       <c r="AV28" s="61"/>
@@ -4775,10 +4775,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4821,20 +4821,20 @@
       <c r="AM29" s="10"/>
       <c r="AN29" s="26"/>
       <c r="AO29" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP29" s="48" t="s">
         <v>237</v>
-      </c>
-      <c r="AP29" s="48" t="s">
-        <v>238</v>
       </c>
       <c r="AQ29" s="51">
         <v>13209</v>
       </c>
       <c r="AR29" s="52"/>
       <c r="AS29" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT29" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AU29" s="14"/>
       <c r="AV29" s="61"/>
@@ -4872,10 +4872,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D30" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4918,22 +4918,22 @@
       <c r="AM30" s="10"/>
       <c r="AN30" s="26"/>
       <c r="AO30" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP30" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AQ30" s="51">
         <v>84200</v>
       </c>
       <c r="AR30" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AS30" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT30" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU30" s="14"/>
       <c r="AV30" s="61"/>
@@ -4971,10 +4971,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5017,22 +5017,22 @@
       <c r="AM31" s="10"/>
       <c r="AN31" s="26"/>
       <c r="AO31" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP31" s="48" t="s">
         <v>162</v>
-      </c>
-      <c r="AP31" s="48" t="s">
-        <v>163</v>
       </c>
       <c r="AQ31" s="51">
         <v>84290</v>
       </c>
       <c r="AR31" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS31" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT31" s="54" t="s">
         <v>164</v>
-      </c>
-      <c r="AS31" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT31" s="54" t="s">
-        <v>165</v>
       </c>
       <c r="AU31" s="14"/>
       <c r="AV31" s="61"/>
@@ -5069,13 +5069,13 @@
     </row>
     <row r="32" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="48" t="s">
         <v>229</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>230</v>
       </c>
       <c r="D32" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5119,19 +5119,19 @@
       <c r="AN32" s="26"/>
       <c r="AO32" s="48"/>
       <c r="AP32" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AQ32" s="51">
         <v>13108</v>
       </c>
       <c r="AR32" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS32" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="AS32" s="53" t="s">
-        <v>233</v>
-      </c>
       <c r="AT32" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AU32" s="14"/>
       <c r="AV32" s="61"/>
@@ -5166,13 +5166,13 @@
     </row>
     <row r="33" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="C33" s="48" t="s">
         <v>155</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>156</v>
       </c>
       <c r="D33" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5215,7 +5215,7 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="26"/>
       <c r="AO33" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AP33" s="48" t="s">
         <v>52</v>
@@ -5224,13 +5224,13 @@
         <v>4000</v>
       </c>
       <c r="AR33" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS33" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT33" s="54" t="s">
         <v>158</v>
-      </c>
-      <c r="AS33" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT33" s="54" t="s">
-        <v>159</v>
       </c>
       <c r="AU33" s="14"/>
       <c r="AV33" s="61"/>
@@ -5270,10 +5270,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="17" t="str">
         <f t="shared" ref="D34:D57" si="1">IF(BF34&lt;&gt;0,";2022_A="&amp;BF34," ")&amp;IF(BG34&lt;&gt;0," ; 2022_i="&amp;BG34," ")&amp;IF(BH34&lt;&gt;0,";2021_A="&amp;BH34," ")&amp;IF(BI34&lt;&gt;0," ; 2021_i="&amp;BI34," ")&amp;IF(BJ34&lt;&gt;0,";2020_A="&amp;BJ34," ")&amp;IF(BK34&lt;&gt;0," ; 2020_i="&amp;BK34," ")&amp;IF(BL34&lt;&gt;0,";2019_A="&amp;BL34," ")&amp;IF(BM34&lt;&gt;0," ; 2019_i="&amp;BM34," ")&amp;IF(BN34&lt;&gt;0,";2018_A="&amp;BN34," ")&amp;IF(BO34&lt;&gt;0," ; 2018_i="&amp;BO34," ")&amp;IF(BP34&lt;&gt;0," ; 2017_A="&amp;BP34," ")&amp;IF(BQ34&lt;&gt;0," ; 2017_i="&amp;BQ34," ")&amp;IF(BR34&lt;&gt;0," ; 2016_A="&amp;BR34," ")&amp;IF(BS34&lt;&gt;0," ; 2016_i="&amp;BS34," ")&amp;IF(BT34&lt;&gt;0," ; 2015_A="&amp;BT34," ")&amp;IF(BU34&lt;&gt;0," ; 2015_i="&amp;BU34," ")&amp;IF(BV34&lt;&gt;0," ; 2014_A="&amp;BV34," ")&amp;IF(BW34&lt;&gt;0," ; 2014_i="&amp;BW34," ")</f>
@@ -5316,22 +5316,22 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="26"/>
       <c r="AO34" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AP34" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AQ34" s="51">
         <v>13010</v>
       </c>
       <c r="AR34" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS34" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AT34" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="61"/>
@@ -5369,10 +5369,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5415,22 +5415,22 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="26"/>
       <c r="AO35" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP35" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AQ35" s="51">
         <v>83310</v>
       </c>
       <c r="AR35" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AS35" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AT35" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU35" s="14"/>
       <c r="AV35" s="61"/>
@@ -5468,10 +5468,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5514,22 +5514,22 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="26"/>
       <c r="AO36" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP36" s="48" t="s">
         <v>162</v>
-      </c>
-      <c r="AP36" s="48" t="s">
-        <v>163</v>
       </c>
       <c r="AQ36" s="51">
         <v>84290</v>
       </c>
       <c r="AR36" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS36" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT36" s="54" t="s">
         <v>164</v>
-      </c>
-      <c r="AS36" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT36" s="54" t="s">
-        <v>165</v>
       </c>
       <c r="AU36" s="14"/>
       <c r="AV36" s="61"/>
@@ -5567,10 +5567,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5613,22 +5613,22 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="26"/>
       <c r="AO37" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP37" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="AP37" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="AQ37" s="51">
         <v>84600</v>
       </c>
       <c r="AR37" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS37" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AT37" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AU37" s="14"/>
       <c r="AV37" s="61"/>
@@ -5666,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="48" t="s">
         <v>130</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>131</v>
       </c>
       <c r="D38" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5712,22 +5712,22 @@
       <c r="AM38" s="10"/>
       <c r="AN38" s="26"/>
       <c r="AO38" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP38" s="48" t="s">
         <v>132</v>
-      </c>
-      <c r="AP38" s="48" t="s">
-        <v>133</v>
       </c>
       <c r="AQ38" s="51">
         <v>13790</v>
       </c>
       <c r="AR38" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS38" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT38" s="54" t="s">
         <v>134</v>
-      </c>
-      <c r="AS38" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT38" s="54" t="s">
-        <v>135</v>
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="61"/>
@@ -5765,10 +5765,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D39" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5811,22 +5811,22 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="26"/>
       <c r="AO39" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP39" s="48" t="s">
         <v>127</v>
-      </c>
-      <c r="AP39" s="48" t="s">
-        <v>128</v>
       </c>
       <c r="AQ39" s="51">
         <v>4100</v>
       </c>
       <c r="AR39" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS39" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AT39" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU39" s="14"/>
       <c r="AV39" s="61"/>
@@ -5866,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5912,22 +5912,22 @@
       <c r="AM40" s="10"/>
       <c r="AN40" s="26"/>
       <c r="AO40" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP40" s="48" t="s">
         <v>127</v>
-      </c>
-      <c r="AP40" s="48" t="s">
-        <v>128</v>
       </c>
       <c r="AQ40" s="51">
         <v>4100</v>
       </c>
       <c r="AR40" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS40" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AT40" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU40" s="14"/>
       <c r="AV40" s="61"/>
@@ -5962,13 +5962,13 @@
     </row>
     <row r="41" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>201</v>
-      </c>
       <c r="C41" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6011,22 +6011,22 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="26"/>
       <c r="AO41" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP41" s="48" t="s">
         <v>127</v>
-      </c>
-      <c r="AP41" s="48" t="s">
-        <v>128</v>
       </c>
       <c r="AQ41" s="51">
         <v>4100</v>
       </c>
       <c r="AR41" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS41" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AT41" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU41" s="14"/>
       <c r="AV41" s="61"/>
@@ -6061,13 +6061,13 @@
     </row>
     <row r="42" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>123</v>
-      </c>
       <c r="C42" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D42" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6110,22 +6110,22 @@
       <c r="AM42" s="10"/>
       <c r="AN42" s="26"/>
       <c r="AO42" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP42" s="48" t="s">
         <v>127</v>
-      </c>
-      <c r="AP42" s="48" t="s">
-        <v>128</v>
       </c>
       <c r="AQ42" s="51">
         <v>4100</v>
       </c>
       <c r="AR42" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS42" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AT42" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU42" s="14"/>
       <c r="AV42" s="61"/>
@@ -6163,10 +6163,10 @@
         <v>12</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6209,22 +6209,22 @@
       <c r="AM43" s="10"/>
       <c r="AN43" s="26"/>
       <c r="AO43" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP43" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AQ43" s="51">
         <v>84200</v>
       </c>
       <c r="AR43" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AS43" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT43" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU43" s="14"/>
       <c r="AV43" s="61"/>
@@ -6264,10 +6264,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D44" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6310,20 +6310,20 @@
       <c r="AM44" s="10"/>
       <c r="AN44" s="26"/>
       <c r="AO44" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AP44" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ44" s="51">
         <v>4100</v>
       </c>
       <c r="AR44" s="52"/>
       <c r="AS44" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AT44" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AU44" s="14"/>
       <c r="AV44" s="61"/>
@@ -6361,10 +6361,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6407,7 +6407,7 @@
       <c r="AM45" s="10"/>
       <c r="AN45" s="26"/>
       <c r="AO45" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP45" s="48" t="s">
         <v>52</v>
@@ -6416,13 +6416,13 @@
         <v>4000</v>
       </c>
       <c r="AR45" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AS45" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT45" s="54" t="s">
         <v>115</v>
-      </c>
-      <c r="AT45" s="54" t="s">
-        <v>116</v>
       </c>
       <c r="AU45" s="14"/>
       <c r="AV45" s="61"/>
@@ -6462,10 +6462,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6508,22 +6508,22 @@
       <c r="AM46" s="10"/>
       <c r="AN46" s="26"/>
       <c r="AO46" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP46" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AQ46" s="51">
         <v>6130</v>
       </c>
       <c r="AR46" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS46" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT46" s="54" t="s">
         <v>108</v>
-      </c>
-      <c r="AS46" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT46" s="54" t="s">
-        <v>109</v>
       </c>
       <c r="AU46" s="14"/>
       <c r="AV46" s="61"/>
@@ -6567,10 +6567,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6613,22 +6613,22 @@
       <c r="AM47" s="10"/>
       <c r="AN47" s="26"/>
       <c r="AO47" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP47" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AQ47" s="51">
         <v>5200</v>
       </c>
       <c r="AR47" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS47" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT47" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="AS47" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT47" s="54" t="s">
-        <v>102</v>
       </c>
       <c r="AU47" s="14"/>
       <c r="AV47" s="61"/>
@@ -6666,10 +6666,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6712,22 +6712,22 @@
       <c r="AM48" s="10"/>
       <c r="AN48" s="26"/>
       <c r="AO48" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP48" s="48" t="s">
         <v>334</v>
-      </c>
-      <c r="AP48" s="48" t="s">
-        <v>335</v>
       </c>
       <c r="AQ48" s="51">
         <v>83470</v>
       </c>
       <c r="AR48" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS48" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT48" s="54" t="s">
         <v>336</v>
-      </c>
-      <c r="AS48" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT48" s="54" t="s">
-        <v>337</v>
       </c>
       <c r="AU48" s="14"/>
       <c r="AV48" s="61"/>
@@ -6765,10 +6765,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6811,22 +6811,22 @@
       <c r="AM49" s="10"/>
       <c r="AN49" s="26"/>
       <c r="AO49" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AP49" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ49" s="51">
         <v>13100</v>
       </c>
       <c r="AR49" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS49" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT49" s="54" t="s">
         <v>96</v>
-      </c>
-      <c r="AT49" s="54" t="s">
-        <v>97</v>
       </c>
       <c r="AU49" s="14"/>
       <c r="AV49" s="61"/>
@@ -6861,13 +6861,13 @@
     </row>
     <row r="50" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6910,22 +6910,22 @@
       <c r="AM50" s="10"/>
       <c r="AN50" s="26"/>
       <c r="AO50" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP50" s="48" t="s">
         <v>89</v>
-      </c>
-      <c r="AP50" s="48" t="s">
-        <v>90</v>
       </c>
       <c r="AQ50" s="51">
         <v>13400</v>
       </c>
       <c r="AR50" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS50" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT50" s="54" t="s">
         <v>91</v>
-      </c>
-      <c r="AS50" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT50" s="54" t="s">
-        <v>92</v>
       </c>
       <c r="AU50" s="14"/>
       <c r="AV50" s="61"/>
@@ -6960,13 +6960,13 @@
     </row>
     <row r="51" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7009,22 +7009,22 @@
       <c r="AM51" s="10"/>
       <c r="AN51" s="26"/>
       <c r="AO51" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP51" s="48" t="s">
         <v>81</v>
-      </c>
-      <c r="AP51" s="48" t="s">
-        <v>82</v>
       </c>
       <c r="AQ51" s="51">
         <v>83170</v>
       </c>
       <c r="AR51" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS51" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT51" s="54" t="s">
         <v>83</v>
-      </c>
-      <c r="AS51" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT51" s="54" t="s">
-        <v>84</v>
       </c>
       <c r="AU51" s="14"/>
       <c r="AV51" s="61"/>
@@ -7062,10 +7062,10 @@
         <v>12</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7108,22 +7108,22 @@
       <c r="AM52" s="10"/>
       <c r="AN52" s="26"/>
       <c r="AO52" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP52" s="48" t="s">
         <v>74</v>
-      </c>
-      <c r="AP52" s="48" t="s">
-        <v>75</v>
       </c>
       <c r="AQ52" s="51">
         <v>13002</v>
       </c>
       <c r="AR52" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS52" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AS52" s="53" t="s">
-        <v>79</v>
-      </c>
       <c r="AT52" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AU52" s="14"/>
       <c r="AV52" s="61"/>
@@ -7161,10 +7161,10 @@
         <v>12</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7207,22 +7207,22 @@
       <c r="AM53" s="10"/>
       <c r="AN53" s="26"/>
       <c r="AO53" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP53" s="48" t="s">
         <v>68</v>
-      </c>
-      <c r="AP53" s="48" t="s">
-        <v>69</v>
       </c>
       <c r="AQ53" s="51">
         <v>5000</v>
       </c>
       <c r="AR53" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS53" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="AS53" s="53" t="s">
-        <v>72</v>
-      </c>
       <c r="AT53" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU53" s="14"/>
       <c r="AV53" s="61"/>
@@ -7264,10 +7264,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7310,10 +7310,10 @@
       <c r="AM54" s="10"/>
       <c r="AN54" s="26"/>
       <c r="AO54" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP54" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ54" s="51">
         <v>83600</v>
@@ -7322,10 +7322,10 @@
         <v>33969329328</v>
       </c>
       <c r="AS54" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT54" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AU54" s="14"/>
       <c r="AV54" s="61"/>
@@ -7360,13 +7360,13 @@
     </row>
     <row r="55" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="47" t="s">
-        <v>123</v>
-      </c>
       <c r="C55" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="46"/>
@@ -7406,20 +7406,20 @@
       <c r="AM55" s="10"/>
       <c r="AN55" s="26"/>
       <c r="AO55" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AP55" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ55" s="51">
         <v>6414</v>
       </c>
       <c r="AR55" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AS55" s="53"/>
       <c r="AT55" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU55" s="14"/>
       <c r="AV55" s="61"/>
@@ -7455,10 +7455,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7501,20 +7501,20 @@
       <c r="AM56" s="10"/>
       <c r="AN56" s="26"/>
       <c r="AO56" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AP56" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AQ56" s="51">
         <v>83480</v>
       </c>
       <c r="AR56" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AS56" s="53"/>
       <c r="AT56" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU56" s="14"/>
       <c r="AV56" s="61"/>
@@ -7547,7 +7547,7 @@
       <c r="BW56" s="60"/>
       <c r="CN56" s="11"/>
     </row>
-    <row r="57" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>44</v>
       </c>
@@ -7610,10 +7610,10 @@
         <v>53</v>
       </c>
       <c r="AS57" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AT57" s="58" t="s">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="AU57" s="20"/>
       <c r="AV57" s="21"/>

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2021-2022\Appli lieux de stage David Filaire\Création de mag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9A5CD-20B1-470B-8FD9-5FD35FDD0AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B0B24-9E84-4433-96C0-44B22D744FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$58</definedName>
     <definedName name="d">Entreprises_Complet2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="342">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Année(s) de stage(s)</t>
   </si>
   <si>
-    <t>Pharmaceutique</t>
-  </si>
-  <si>
     <t>Points  i</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>Distribution eau potable</t>
   </si>
   <si>
-    <t>Environnement</t>
-  </si>
-  <si>
     <t>http://www.brignoles.fr/annuaire-general-20/regie-des-eaux-du-pays-de-la-provence-verte-297.html</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
     <t xml:space="preserve">04 92 32 42 10 </t>
   </si>
   <si>
-    <t>Provence Alpes agglomération (  site de Château Arnoux-Saint Auban)</t>
-  </si>
-  <si>
     <t>https://www.provencealpesagglo.fr/eau-et-assainissement/</t>
   </si>
   <si>
@@ -389,9 +380,6 @@
     <t>09 77 40 84 08</t>
   </si>
   <si>
-    <t>BCM</t>
-  </si>
-  <si>
     <t>Service public d'assainissement non collectif</t>
   </si>
   <si>
@@ -485,9 +473,6 @@
     <t xml:space="preserve">04 91 57 62 39 </t>
   </si>
   <si>
-    <t>Génétique</t>
-  </si>
-  <si>
     <t>Eaux de loisirs</t>
   </si>
   <si>
@@ -623,9 +608,6 @@
     <t>43.19970715132074, 5.590603051458919</t>
   </si>
   <si>
-    <t>Cosmétique</t>
-  </si>
-  <si>
     <t>Réseau d'eaux usées</t>
   </si>
   <si>
@@ -653,9 +635,6 @@
     <t>43.54838223644435, 6.939881720041175</t>
   </si>
   <si>
-    <t>Véolia-Eau ( STEP des Orres)</t>
-  </si>
-  <si>
     <t>15 Rue des Métiers</t>
   </si>
   <si>
@@ -668,12 +647,6 @@
     <t>SPANC</t>
   </si>
   <si>
-    <t>Provence Alpes agglomération (  Site route de Barles)</t>
-  </si>
-  <si>
-    <t>4 boulevard Klein</t>
-  </si>
-  <si>
     <t>44.12241412833348, 6.233621616011329</t>
   </si>
   <si>
@@ -797,9 +770,6 @@
     <t>https://www.sisteron.com/</t>
   </si>
   <si>
-    <t>Bueau d'Etudes</t>
-  </si>
-  <si>
     <t>ENVEO ingénierie</t>
   </si>
   <si>
@@ -962,27 +932,15 @@
     <t>Réseau eau potable</t>
   </si>
   <si>
-    <t>Microbiologie</t>
-  </si>
-  <si>
     <t>Usine eau potable</t>
   </si>
   <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>Industrie</t>
-  </si>
-  <si>
     <t>2648 RD 6007</t>
   </si>
   <si>
     <t>Villeneuve-loubet</t>
   </si>
   <si>
-    <t>ALLIOS ( Fabrication de peinture)</t>
-  </si>
-  <si>
     <t>https://www.soframap.com/</t>
   </si>
   <si>
@@ -1038,6 +996,60 @@
   </si>
   <si>
     <t>44.07351924149512, 6.180782525100236</t>
+  </si>
+  <si>
+    <t>Provence Alpes agglomération (Site de Château Arnoux-Saint Auban)</t>
+  </si>
+  <si>
+    <t>Provence Alpes agglomération ( Site route de Barles)</t>
+  </si>
+  <si>
+    <t>Eau potable</t>
+  </si>
+  <si>
+    <t>Réseaux d'eau potable</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t>Industrie (fabrication de peintures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLIOS </t>
+  </si>
+  <si>
+    <t>Traitement des eaux industrielles</t>
+  </si>
+  <si>
+    <t>Véolia-Eau (STEP des Orres)</t>
+  </si>
+  <si>
+    <t>Service Public d'Assainissement Non Collectif</t>
+  </si>
+  <si>
+    <t>Bureau d'études</t>
+  </si>
+  <si>
+    <t>Réalisation d'usines de depollution et réseaux d'eau</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ortec-group/</t>
+  </si>
+  <si>
+    <t>ORTEC industries</t>
+  </si>
+  <si>
+    <t>145 Route du guigonnet</t>
+  </si>
+  <si>
+    <t>Fos-sur-Mer</t>
+  </si>
+  <si>
+    <t>04 42 05 03 00</t>
+  </si>
+  <si>
+    <t>43.44861356348608, 4.931977243326394</t>
   </si>
 </sst>
 </file>
@@ -1869,12 +1881,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO202"/>
+  <dimension ref="A1:CO203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AT58" sqref="AT58"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="AT1" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AU1" s="30" t="s">
         <v>10</v>
@@ -2011,125 +2023,125 @@
       <c r="AZ1" s="36"/>
       <c r="BA1" s="36"/>
       <c r="BB1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BC1" s="38" t="s">
+      <c r="BF1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE1" s="38" t="s">
+      <c r="BO1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="BQ1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS1" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT1" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="BV1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="BF1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="BG1" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="BH1" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="BJ1" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="BK1" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="BL1" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM1" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN1" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="BO1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="BP1" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="BQ1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR1" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS1" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="BT1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="BU1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="BV1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="BW1" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="BX1" s="40" t="s">
-        <v>17</v>
-      </c>
       <c r="BY1" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BZ1" s="40"/>
       <c r="CA1" s="40"/>
       <c r="CB1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="CC1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="CC1" s="41" t="s">
+      <c r="CD1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="CD1" s="41" t="s">
+      <c r="CE1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="CE1" s="41" t="s">
+      <c r="CF1" s="41" t="s">
         <v>32</v>
-      </c>
-      <c r="CF1" s="41" t="s">
-        <v>33</v>
       </c>
       <c r="CG1" s="41"/>
       <c r="CH1" s="41"/>
       <c r="CI1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="CJ1" s="41" t="s">
+      <c r="CK1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="CK1" s="41" t="s">
+      <c r="CL1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="CL1" s="41" t="s">
+      <c r="CM1" s="41" t="s">
         <v>37</v>
-      </c>
-      <c r="CM1" s="41" t="s">
-        <v>38</v>
       </c>
       <c r="CN1" s="42"/>
     </row>
     <row r="2" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D2" s="17" t="str">
-        <f t="shared" ref="D2:D33" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
+        <f t="shared" ref="D2:D34" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
         <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E2" s="46"/>
@@ -2169,20 +2181,20 @@
       <c r="AM2" s="10"/>
       <c r="AN2" s="26"/>
       <c r="AO2" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AP2" s="48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AQ2" s="51">
         <v>6210</v>
       </c>
       <c r="AR2" s="52"/>
       <c r="AS2" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AT2" s="54" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AU2" s="14"/>
       <c r="AV2" s="61"/>
@@ -2217,13 +2229,13 @@
     </row>
     <row r="3" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D3" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2266,20 +2278,20 @@
       <c r="AM3" s="10"/>
       <c r="AN3" s="26"/>
       <c r="AO3" s="48" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AP3" s="48" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="AQ3" s="51">
         <v>4260</v>
       </c>
       <c r="AR3" s="52"/>
       <c r="AS3" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AT3" s="54" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AU3" s="14"/>
       <c r="AV3" s="61"/>
@@ -2314,13 +2326,13 @@
     </row>
     <row r="4" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2363,22 +2375,22 @@
       <c r="AM4" s="10"/>
       <c r="AN4" s="26"/>
       <c r="AO4" s="48" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AP4" s="48" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="AQ4" s="51">
         <v>6270</v>
       </c>
       <c r="AR4" s="52" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="AS4" s="53" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="AT4" s="54" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AU4" s="14"/>
       <c r="AV4" s="61"/>
@@ -2413,13 +2425,13 @@
     </row>
     <row r="5" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2462,22 +2474,22 @@
       <c r="AM5" s="10"/>
       <c r="AN5" s="26"/>
       <c r="AO5" s="48" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AP5" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AQ5" s="51">
         <v>13014</v>
       </c>
       <c r="AR5" s="52" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AS5" s="53" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AT5" s="54" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="AU5" s="14"/>
       <c r="AV5" s="61"/>
@@ -2512,13 +2524,13 @@
     </row>
     <row r="6" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2561,22 +2573,22 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="26"/>
       <c r="AO6" s="48" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AP6" s="48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AQ6" s="51">
         <v>6120</v>
       </c>
       <c r="AR6" s="52" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AS6" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AT6" s="54" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AU6" s="14"/>
       <c r="AV6" s="61"/>
@@ -2611,13 +2623,13 @@
     </row>
     <row r="7" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2660,20 +2672,20 @@
       <c r="AM7" s="10"/>
       <c r="AN7" s="26"/>
       <c r="AO7" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AP7" s="48" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AQ7" s="51">
         <v>6140</v>
       </c>
       <c r="AR7" s="52"/>
       <c r="AS7" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AT7" s="54" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AU7" s="14"/>
       <c r="AV7" s="61"/>
@@ -2708,13 +2720,13 @@
     </row>
     <row r="8" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2757,22 +2769,22 @@
       <c r="AM8" s="10"/>
       <c r="AN8" s="26"/>
       <c r="AO8" s="48" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AP8" s="48" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AQ8" s="51">
         <v>13210</v>
       </c>
       <c r="AR8" s="52" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AS8" s="53" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AT8" s="54" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AU8" s="14"/>
       <c r="AV8" s="61"/>
@@ -2807,13 +2819,13 @@
     </row>
     <row r="9" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>97</v>
+        <v>331</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2856,22 +2868,22 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="26"/>
       <c r="AO9" s="48" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AP9" s="48" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AQ9" s="51">
         <v>13340</v>
       </c>
       <c r="AR9" s="52" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AS9" s="53" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AT9" s="54" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AU9" s="14"/>
       <c r="AV9" s="61"/>
@@ -2906,17 +2918,17 @@
     </row>
     <row r="10" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>199</v>
+        <v>328</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">                  ; 2014_i=1</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -2955,22 +2967,22 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="26"/>
       <c r="AO10" s="48" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="AP10" s="48" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="AQ10" s="51">
-        <v>13800</v>
+        <v>13270</v>
       </c>
       <c r="AR10" s="52" t="s">
-        <v>193</v>
+        <v>340</v>
       </c>
       <c r="AS10" s="53" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="AT10" s="54" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="AU10" s="14"/>
       <c r="AV10" s="61"/>
@@ -2988,9 +3000,7 @@
       <c r="BJ10" s="59"/>
       <c r="BK10" s="59"/>
       <c r="BL10" s="59"/>
-      <c r="BM10" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM10" s="59"/>
       <c r="BN10" s="60"/>
       <c r="BO10" s="60"/>
       <c r="BP10" s="60"/>
@@ -3000,18 +3010,20 @@
       <c r="BT10" s="60"/>
       <c r="BU10" s="60"/>
       <c r="BV10" s="60"/>
-      <c r="BW10" s="60"/>
+      <c r="BW10" s="60">
+        <v>1</v>
+      </c>
       <c r="CN10" s="11"/>
     </row>
     <row r="11" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3054,22 +3066,22 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="48" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="AP11" s="48" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="AQ11" s="51">
-        <v>4200</v>
+        <v>13800</v>
       </c>
       <c r="AR11" s="52" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="AS11" s="53" t="s">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="AT11" s="54" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AU11" s="14"/>
       <c r="AV11" s="61"/>
@@ -3104,17 +3116,17 @@
     </row>
     <row r="12" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
@@ -3153,20 +3165,22 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="48" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="AP12" s="48" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="AQ12" s="51">
-        <v>84300</v>
-      </c>
-      <c r="AR12" s="52"/>
+        <v>4200</v>
+      </c>
+      <c r="AR12" s="52" t="s">
+        <v>246</v>
+      </c>
       <c r="AS12" s="53" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="AT12" s="54" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AU12" s="14"/>
       <c r="AV12" s="61"/>
@@ -3184,13 +3198,13 @@
       <c r="BJ12" s="59"/>
       <c r="BK12" s="59"/>
       <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
+      <c r="BM12" s="59">
+        <v>1</v>
+      </c>
       <c r="BN12" s="60"/>
       <c r="BO12" s="60"/>
       <c r="BP12" s="60"/>
-      <c r="BQ12" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ12" s="60"/>
       <c r="BR12" s="60"/>
       <c r="BS12" s="60"/>
       <c r="BT12" s="60"/>
@@ -3201,17 +3215,17 @@
     </row>
     <row r="13" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -3250,21 +3264,21 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="48" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="AP13" s="48" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="AQ13" s="51">
-        <v>83240</v>
-      </c>
-      <c r="AR13" s="52" t="s">
-        <v>220</v>
-      </c>
+        <v>84300</v>
+      </c>
+      <c r="AR13" s="52"/>
       <c r="AS13" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT13" s="54"/>
+        <v>107</v>
+      </c>
+      <c r="AT13" s="54" t="s">
+        <v>202</v>
+      </c>
       <c r="AU13" s="14"/>
       <c r="AV13" s="61"/>
       <c r="AW13" s="27"/>
@@ -3283,11 +3297,11 @@
       <c r="BL13" s="59"/>
       <c r="BM13" s="59"/>
       <c r="BN13" s="60"/>
-      <c r="BO13" s="60">
+      <c r="BO13" s="60"/>
+      <c r="BP13" s="60"/>
+      <c r="BQ13" s="60">
         <v>1</v>
       </c>
-      <c r="BP13" s="60"/>
-      <c r="BQ13" s="60"/>
       <c r="BR13" s="60"/>
       <c r="BS13" s="60"/>
       <c r="BT13" s="60"/>
@@ -3298,13 +3312,13 @@
     </row>
     <row r="14" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3347,23 +3361,21 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="48" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="AP14" s="48" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AQ14" s="51">
-        <v>4370</v>
+        <v>83240</v>
       </c>
       <c r="AR14" s="52" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AS14" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="AT14" s="54" t="s">
-        <v>226</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AT14" s="54"/>
       <c r="AU14" s="14"/>
       <c r="AV14" s="61"/>
       <c r="AW14" s="27"/>
@@ -3397,13 +3409,13 @@
     </row>
     <row r="15" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3446,22 +3458,22 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="26"/>
       <c r="AO15" s="48" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AP15" s="48" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="AQ15" s="51">
-        <v>5000</v>
+        <v>4370</v>
       </c>
       <c r="AR15" s="52" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AS15" s="53" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="AT15" s="54" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AU15" s="14"/>
       <c r="AV15" s="61"/>
@@ -3496,17 +3508,17 @@
     </row>
     <row r="16" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="D16" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1  ; 2018_i=1        </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
@@ -3545,22 +3557,22 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="48" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AP16" s="48" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AQ16" s="51">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AR16" s="52" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="AS16" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT16" s="53" t="s">
-        <v>216</v>
+        <v>96</v>
+      </c>
+      <c r="AT16" s="54" t="s">
+        <v>205</v>
       </c>
       <c r="AU16" s="14"/>
       <c r="AV16" s="61"/>
@@ -3578,9 +3590,7 @@
       <c r="BJ16" s="59"/>
       <c r="BK16" s="59"/>
       <c r="BL16" s="59"/>
-      <c r="BM16" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM16" s="59"/>
       <c r="BN16" s="60"/>
       <c r="BO16" s="60">
         <v>1</v>
@@ -3597,17 +3607,17 @@
     </row>
     <row r="17" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="D17" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">        ; 2019_i=1  ; 2018_i=1        </v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
@@ -3646,22 +3656,22 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="48" t="s">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="AP17" s="48" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="AQ17" s="51">
-        <v>6203</v>
+        <v>4000</v>
       </c>
       <c r="AR17" s="52" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="AS17" s="53" t="s">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="AT17" s="53" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="AU17" s="14"/>
       <c r="AV17" s="61"/>
@@ -3683,7 +3693,9 @@
         <v>1</v>
       </c>
       <c r="BN17" s="60"/>
-      <c r="BO17" s="60"/>
+      <c r="BO17" s="60">
+        <v>1</v>
+      </c>
       <c r="BP17" s="60"/>
       <c r="BQ17" s="60"/>
       <c r="BR17" s="60"/>
@@ -3696,13 +3708,13 @@
     </row>
     <row r="18" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3745,22 +3757,22 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="26"/>
       <c r="AO18" s="48" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="AP18" s="48" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="AQ18" s="51">
-        <v>83390</v>
+        <v>6203</v>
       </c>
       <c r="AR18" s="52" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AS18" s="53" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="AT18" s="53" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="AU18" s="14"/>
       <c r="AV18" s="61"/>
@@ -3795,17 +3807,17 @@
     </row>
     <row r="19" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="D19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -3844,20 +3856,22 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="26"/>
       <c r="AO19" s="48" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="AP19" s="48" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="AQ19" s="51">
-        <v>13600</v>
-      </c>
-      <c r="AR19" s="52"/>
+        <v>83390</v>
+      </c>
+      <c r="AR19" s="52" t="s">
+        <v>281</v>
+      </c>
       <c r="AS19" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT19" s="54" t="s">
-        <v>198</v>
+        <v>282</v>
+      </c>
+      <c r="AT19" s="53" t="s">
+        <v>280</v>
       </c>
       <c r="AU19" s="14"/>
       <c r="AV19" s="61"/>
@@ -3875,13 +3889,13 @@
       <c r="BJ19" s="59"/>
       <c r="BK19" s="59"/>
       <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
+      <c r="BM19" s="59">
+        <v>1</v>
+      </c>
       <c r="BN19" s="60"/>
       <c r="BO19" s="60"/>
       <c r="BP19" s="60"/>
-      <c r="BQ19" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ19" s="60"/>
       <c r="BR19" s="60"/>
       <c r="BS19" s="60"/>
       <c r="BT19" s="60"/>
@@ -3892,17 +3906,17 @@
     </row>
     <row r="20" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="D20" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
@@ -3941,22 +3955,20 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="26"/>
       <c r="AO20" s="48" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="AP20" s="48" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AQ20" s="51">
         <v>13600</v>
       </c>
-      <c r="AR20" s="52" t="s">
-        <v>261</v>
-      </c>
+      <c r="AR20" s="52"/>
       <c r="AS20" s="53" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="AT20" s="54" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="AU20" s="14"/>
       <c r="AV20" s="61"/>
@@ -3974,13 +3986,13 @@
       <c r="BJ20" s="59"/>
       <c r="BK20" s="59"/>
       <c r="BL20" s="59"/>
-      <c r="BM20" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM20" s="59"/>
       <c r="BN20" s="60"/>
       <c r="BO20" s="60"/>
       <c r="BP20" s="60"/>
-      <c r="BQ20" s="60"/>
+      <c r="BQ20" s="60">
+        <v>1</v>
+      </c>
       <c r="BR20" s="60"/>
       <c r="BS20" s="60"/>
       <c r="BT20" s="60"/>
@@ -3991,15 +4003,18 @@
     </row>
     <row r="21" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" s="17"/>
+        <v>248</v>
+      </c>
+      <c r="D21" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
+      </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
@@ -4037,22 +4052,22 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="26"/>
       <c r="AO21" s="48" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="AP21" s="48" t="s">
-        <v>327</v>
+        <v>191</v>
       </c>
       <c r="AQ21" s="51">
-        <v>83300</v>
+        <v>13600</v>
       </c>
       <c r="AR21" s="52" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="AS21" s="53" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="AT21" s="54" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="AU21" s="14"/>
       <c r="AV21" s="61"/>
@@ -4070,7 +4085,9 @@
       <c r="BJ21" s="59"/>
       <c r="BK21" s="59"/>
       <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
+      <c r="BM21" s="59">
+        <v>1</v>
+      </c>
       <c r="BN21" s="60"/>
       <c r="BO21" s="60"/>
       <c r="BP21" s="60"/>
@@ -4085,18 +4102,15 @@
     </row>
     <row r="22" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D22" s="17"/>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
@@ -4134,22 +4148,22 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="26"/>
       <c r="AO22" s="48" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="AP22" s="48" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="AQ22" s="51">
-        <v>83460</v>
+        <v>83300</v>
       </c>
       <c r="AR22" s="52" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="AS22" s="53" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="AT22" s="54" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="AU22" s="14"/>
       <c r="AV22" s="61"/>
@@ -4169,9 +4183,7 @@
       <c r="BL22" s="59"/>
       <c r="BM22" s="59"/>
       <c r="BN22" s="60"/>
-      <c r="BO22" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO22" s="60"/>
       <c r="BP22" s="60"/>
       <c r="BQ22" s="60"/>
       <c r="BR22" s="60"/>
@@ -4184,17 +4196,17 @@
     </row>
     <row r="23" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="D23" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
@@ -4233,22 +4245,22 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="26"/>
       <c r="AO23" s="48" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="AP23" s="48" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="AQ23" s="51">
-        <v>4800</v>
+        <v>83460</v>
       </c>
       <c r="AR23" s="52" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="AS23" s="53" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="AT23" s="54" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="AU23" s="14"/>
       <c r="AV23" s="61"/>
@@ -4268,11 +4280,11 @@
       <c r="BL23" s="59"/>
       <c r="BM23" s="59"/>
       <c r="BN23" s="60"/>
-      <c r="BO23" s="60"/>
+      <c r="BO23" s="60">
+        <v>1</v>
+      </c>
       <c r="BP23" s="60"/>
-      <c r="BQ23" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ23" s="60"/>
       <c r="BR23" s="60"/>
       <c r="BS23" s="60"/>
       <c r="BT23" s="60"/>
@@ -4283,13 +4295,13 @@
     </row>
     <row r="24" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D24" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4332,20 +4344,22 @@
       <c r="AM24" s="10"/>
       <c r="AN24" s="26"/>
       <c r="AO24" s="48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP24" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AQ24" s="51">
-        <v>13290</v>
+        <v>4800</v>
       </c>
       <c r="AR24" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS24" s="53"/>
+        <v>188</v>
+      </c>
+      <c r="AS24" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="AT24" s="54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AU24" s="14"/>
       <c r="AV24" s="61"/>
@@ -4380,13 +4394,13 @@
     </row>
     <row r="25" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D25" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4429,22 +4443,20 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="26"/>
       <c r="AO25" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP25" s="48" t="s">
         <v>181</v>
       </c>
       <c r="AQ25" s="51">
-        <v>13250</v>
+        <v>13290</v>
       </c>
       <c r="AR25" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="54" t="s">
         <v>183</v>
-      </c>
-      <c r="AS25" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT25" s="54" t="s">
-        <v>182</v>
       </c>
       <c r="AU25" s="14"/>
       <c r="AV25" s="61"/>
@@ -4479,17 +4491,17 @@
     </row>
     <row r="26" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D26" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
@@ -4528,22 +4540,22 @@
       <c r="AM26" s="10"/>
       <c r="AN26" s="26"/>
       <c r="AO26" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AP26" s="48" t="s">
         <v>176</v>
       </c>
       <c r="AQ26" s="51">
-        <v>830130</v>
+        <v>13250</v>
       </c>
       <c r="AR26" s="52" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AS26" s="53" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AT26" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AU26" s="14"/>
       <c r="AV26" s="61"/>
@@ -4565,30 +4577,30 @@
       <c r="BN26" s="60"/>
       <c r="BO26" s="60"/>
       <c r="BP26" s="60"/>
-      <c r="BQ26" s="60"/>
+      <c r="BQ26" s="60">
+        <v>1</v>
+      </c>
       <c r="BR26" s="60"/>
       <c r="BS26" s="60"/>
       <c r="BT26" s="60"/>
-      <c r="BU26" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU26" s="60"/>
       <c r="BV26" s="60"/>
       <c r="BW26" s="60"/>
       <c r="CN26" s="11"/>
     </row>
     <row r="27" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="D27" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4627,20 +4639,22 @@
       <c r="AM27" s="10"/>
       <c r="AN27" s="26"/>
       <c r="AO27" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP27" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ27" s="51">
+        <v>830130</v>
+      </c>
+      <c r="AR27" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS27" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT27" s="54" t="s">
         <v>173</v>
-      </c>
-      <c r="AP27" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ27" s="51">
-        <v>84000</v>
-      </c>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT27" s="54" t="s">
-        <v>171</v>
       </c>
       <c r="AU27" s="14"/>
       <c r="AV27" s="61"/>
@@ -4666,24 +4680,26 @@
       <c r="BR27" s="60"/>
       <c r="BS27" s="60"/>
       <c r="BT27" s="60"/>
-      <c r="BU27" s="60"/>
+      <c r="BU27" s="60">
+        <v>1</v>
+      </c>
       <c r="BV27" s="60"/>
       <c r="BW27" s="60"/>
       <c r="CN27" s="11"/>
     </row>
     <row r="28" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="D28" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4722,22 +4738,20 @@
       <c r="AM28" s="10"/>
       <c r="AN28" s="26"/>
       <c r="AO28" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AP28" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ28" s="51">
+        <v>84000</v>
+      </c>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT28" s="54" t="s">
         <v>166</v>
-      </c>
-      <c r="AQ28" s="51">
-        <v>84700</v>
-      </c>
-      <c r="AR28" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS28" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT28" s="54" t="s">
-        <v>170</v>
       </c>
       <c r="AU28" s="14"/>
       <c r="AV28" s="61"/>
@@ -4763,26 +4777,24 @@
       <c r="BR28" s="60"/>
       <c r="BS28" s="60"/>
       <c r="BT28" s="60"/>
-      <c r="BU28" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU28" s="60"/>
       <c r="BV28" s="60"/>
       <c r="BW28" s="60"/>
       <c r="CN28" s="11"/>
     </row>
     <row r="29" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="D29" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -4821,20 +4833,22 @@
       <c r="AM29" s="10"/>
       <c r="AN29" s="26"/>
       <c r="AO29" s="48" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="AP29" s="48" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="AQ29" s="51">
-        <v>13209</v>
-      </c>
-      <c r="AR29" s="52"/>
+        <v>84700</v>
+      </c>
+      <c r="AR29" s="52" t="s">
+        <v>160</v>
+      </c>
       <c r="AS29" s="53" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="AT29" s="54" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="AU29" s="14"/>
       <c r="AV29" s="61"/>
@@ -4854,32 +4868,32 @@
       <c r="BL29" s="59"/>
       <c r="BM29" s="59"/>
       <c r="BN29" s="60"/>
-      <c r="BO29" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO29" s="60"/>
       <c r="BP29" s="60"/>
       <c r="BQ29" s="60"/>
       <c r="BR29" s="60"/>
       <c r="BS29" s="60"/>
       <c r="BT29" s="60"/>
-      <c r="BU29" s="60"/>
+      <c r="BU29" s="60">
+        <v>1</v>
+      </c>
       <c r="BV29" s="60"/>
       <c r="BW29" s="60"/>
       <c r="CN29" s="11"/>
     </row>
     <row r="30" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="D30" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -4918,22 +4932,20 @@
       <c r="AM30" s="10"/>
       <c r="AN30" s="26"/>
       <c r="AO30" s="48" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="AP30" s="48" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="AQ30" s="51">
-        <v>84200</v>
-      </c>
-      <c r="AR30" s="52" t="s">
-        <v>120</v>
-      </c>
+        <v>13209</v>
+      </c>
+      <c r="AR30" s="52"/>
       <c r="AS30" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AT30" s="54" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="AU30" s="14"/>
       <c r="AV30" s="61"/>
@@ -4949,13 +4961,13 @@
       <c r="BH30" s="59"/>
       <c r="BI30" s="59"/>
       <c r="BJ30" s="59"/>
-      <c r="BK30" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK30" s="59"/>
       <c r="BL30" s="59"/>
       <c r="BM30" s="59"/>
       <c r="BN30" s="60"/>
-      <c r="BO30" s="60"/>
+      <c r="BO30" s="60">
+        <v>1</v>
+      </c>
       <c r="BP30" s="60"/>
       <c r="BQ30" s="60"/>
       <c r="BR30" s="60"/>
@@ -4968,17 +4980,17 @@
     </row>
     <row r="31" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="D31" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1          ; 2015_i=1  </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
@@ -5017,22 +5029,22 @@
       <c r="AM31" s="10"/>
       <c r="AN31" s="26"/>
       <c r="AO31" s="48" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="AP31" s="48" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="AQ31" s="51">
-        <v>84290</v>
+        <v>84200</v>
       </c>
       <c r="AR31" s="52" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="AS31" s="53" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="AT31" s="54" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="AU31" s="14"/>
       <c r="AV31" s="61"/>
@@ -5060,26 +5072,24 @@
       <c r="BR31" s="60"/>
       <c r="BS31" s="60"/>
       <c r="BT31" s="60"/>
-      <c r="BU31" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU31" s="60"/>
       <c r="BV31" s="60"/>
       <c r="BW31" s="60"/>
       <c r="CN31" s="11"/>
     </row>
     <row r="32" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="D32" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">      ; 2020_i=1          ; 2015_i=1  </v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
@@ -5117,21 +5127,23 @@
       <c r="AL32" s="10"/>
       <c r="AM32" s="10"/>
       <c r="AN32" s="26"/>
-      <c r="AO32" s="48"/>
+      <c r="AO32" s="48" t="s">
+        <v>156</v>
+      </c>
       <c r="AP32" s="48" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="AQ32" s="51">
-        <v>13108</v>
+        <v>84290</v>
       </c>
       <c r="AR32" s="52" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="AS32" s="53" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="AT32" s="54" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="AU32" s="14"/>
       <c r="AV32" s="61"/>
@@ -5147,36 +5159,38 @@
       <c r="BH32" s="59"/>
       <c r="BI32" s="59"/>
       <c r="BJ32" s="59"/>
-      <c r="BK32" s="59"/>
+      <c r="BK32" s="59">
+        <v>1</v>
+      </c>
       <c r="BL32" s="59"/>
       <c r="BM32" s="59"/>
       <c r="BN32" s="60"/>
-      <c r="BO32" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO32" s="60"/>
       <c r="BP32" s="60"/>
       <c r="BQ32" s="60"/>
       <c r="BR32" s="60"/>
       <c r="BS32" s="60"/>
       <c r="BT32" s="60"/>
-      <c r="BU32" s="60"/>
+      <c r="BU32" s="60">
+        <v>1</v>
+      </c>
       <c r="BV32" s="60"/>
       <c r="BW32" s="60"/>
       <c r="CN32" s="11"/>
     </row>
     <row r="33" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="D33" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1      ; 2015_i=1  </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
@@ -5214,23 +5228,21 @@
       <c r="AL33" s="10"/>
       <c r="AM33" s="10"/>
       <c r="AN33" s="26"/>
-      <c r="AO33" s="48" t="s">
-        <v>156</v>
-      </c>
+      <c r="AO33" s="48"/>
       <c r="AP33" s="48" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="AQ33" s="51">
-        <v>4000</v>
+        <v>13108</v>
       </c>
       <c r="AR33" s="52" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="AS33" s="53" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="AT33" s="54" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="AU33" s="14"/>
       <c r="AV33" s="61"/>
@@ -5258,26 +5270,24 @@
       <c r="BR33" s="60"/>
       <c r="BS33" s="60"/>
       <c r="BT33" s="60"/>
-      <c r="BU33" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU33" s="60"/>
       <c r="BV33" s="60"/>
       <c r="BW33" s="60"/>
       <c r="CN33" s="11"/>
     </row>
     <row r="34" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D34" s="17" t="str">
-        <f t="shared" ref="D34:D57" si="1">IF(BF34&lt;&gt;0,";2022_A="&amp;BF34," ")&amp;IF(BG34&lt;&gt;0," ; 2022_i="&amp;BG34," ")&amp;IF(BH34&lt;&gt;0,";2021_A="&amp;BH34," ")&amp;IF(BI34&lt;&gt;0," ; 2021_i="&amp;BI34," ")&amp;IF(BJ34&lt;&gt;0,";2020_A="&amp;BJ34," ")&amp;IF(BK34&lt;&gt;0," ; 2020_i="&amp;BK34," ")&amp;IF(BL34&lt;&gt;0,";2019_A="&amp;BL34," ")&amp;IF(BM34&lt;&gt;0," ; 2019_i="&amp;BM34," ")&amp;IF(BN34&lt;&gt;0,";2018_A="&amp;BN34," ")&amp;IF(BO34&lt;&gt;0," ; 2018_i="&amp;BO34," ")&amp;IF(BP34&lt;&gt;0," ; 2017_A="&amp;BP34," ")&amp;IF(BQ34&lt;&gt;0," ; 2017_i="&amp;BQ34," ")&amp;IF(BR34&lt;&gt;0," ; 2016_A="&amp;BR34," ")&amp;IF(BS34&lt;&gt;0," ; 2016_i="&amp;BS34," ")&amp;IF(BT34&lt;&gt;0," ; 2015_A="&amp;BT34," ")&amp;IF(BU34&lt;&gt;0," ; 2015_i="&amp;BU34," ")&amp;IF(BV34&lt;&gt;0," ; 2014_A="&amp;BV34," ")&amp;IF(BW34&lt;&gt;0," ; 2014_i="&amp;BW34," ")</f>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1      ; 2015_i=1  </v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
@@ -5316,22 +5326,22 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="26"/>
       <c r="AO34" s="48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AP34" s="48" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AQ34" s="51">
-        <v>13010</v>
+        <v>4000</v>
       </c>
       <c r="AR34" s="52" t="s">
         <v>152</v>
       </c>
       <c r="AS34" s="53" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AT34" s="54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="61"/>
@@ -5351,7 +5361,9 @@
       <c r="BL34" s="59"/>
       <c r="BM34" s="59"/>
       <c r="BN34" s="60"/>
-      <c r="BO34" s="60"/>
+      <c r="BO34" s="60">
+        <v>1</v>
+      </c>
       <c r="BP34" s="60"/>
       <c r="BQ34" s="60"/>
       <c r="BR34" s="60"/>
@@ -5366,16 +5378,16 @@
     </row>
     <row r="35" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D35" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D35:D58" si="1">IF(BF35&lt;&gt;0,";2022_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2022_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0,";2021_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2021_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0,";2020_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2020_i="&amp;BK35," ")&amp;IF(BL35&lt;&gt;0,";2019_A="&amp;BL35," ")&amp;IF(BM35&lt;&gt;0," ; 2019_i="&amp;BM35," ")&amp;IF(BN35&lt;&gt;0,";2018_A="&amp;BN35," ")&amp;IF(BO35&lt;&gt;0," ; 2018_i="&amp;BO35," ")&amp;IF(BP35&lt;&gt;0," ; 2017_A="&amp;BP35," ")&amp;IF(BQ35&lt;&gt;0," ; 2017_i="&amp;BQ35," ")&amp;IF(BR35&lt;&gt;0," ; 2016_A="&amp;BR35," ")&amp;IF(BS35&lt;&gt;0," ; 2016_i="&amp;BS35," ")&amp;IF(BT35&lt;&gt;0," ; 2015_A="&amp;BT35," ")&amp;IF(BU35&lt;&gt;0," ; 2015_i="&amp;BU35," ")&amp;IF(BV35&lt;&gt;0," ; 2014_A="&amp;BV35," ")&amp;IF(BW35&lt;&gt;0," ; 2014_i="&amp;BW35," ")</f>
         <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E35" s="46"/>
@@ -5415,22 +5427,22 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="26"/>
       <c r="AO35" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP35" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ35" s="51">
+        <v>13010</v>
+      </c>
+      <c r="AR35" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS35" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="AP35" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ35" s="51">
-        <v>83310</v>
-      </c>
-      <c r="AR35" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS35" s="53" t="s">
+      <c r="AT35" s="54" t="s">
         <v>147</v>
-      </c>
-      <c r="AT35" s="54" t="s">
-        <v>146</v>
       </c>
       <c r="AU35" s="14"/>
       <c r="AV35" s="61"/>
@@ -5465,17 +5477,17 @@
     </row>
     <row r="36" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="46"/>
@@ -5514,22 +5526,22 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="26"/>
       <c r="AO36" s="48" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="AP36" s="48" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="AQ36" s="51">
-        <v>84290</v>
+        <v>83310</v>
       </c>
       <c r="AR36" s="52" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AS36" s="53" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AT36" s="54" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="AU36" s="14"/>
       <c r="AV36" s="61"/>
@@ -5545,9 +5557,7 @@
       <c r="BH36" s="59"/>
       <c r="BI36" s="59"/>
       <c r="BJ36" s="59"/>
-      <c r="BK36" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK36" s="59"/>
       <c r="BL36" s="59"/>
       <c r="BM36" s="59"/>
       <c r="BN36" s="60"/>
@@ -5557,24 +5567,26 @@
       <c r="BR36" s="60"/>
       <c r="BS36" s="60"/>
       <c r="BT36" s="60"/>
-      <c r="BU36" s="60"/>
+      <c r="BU36" s="60">
+        <v>1</v>
+      </c>
       <c r="BV36" s="60"/>
       <c r="BW36" s="60"/>
       <c r="CN36" s="11"/>
     </row>
     <row r="37" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D37" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="46"/>
@@ -5613,22 +5625,22 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="26"/>
       <c r="AO37" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP37" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ37" s="51">
+        <v>84290</v>
+      </c>
+      <c r="AR37" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS37" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="AP37" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ37" s="51">
-        <v>84600</v>
-      </c>
-      <c r="AR37" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS37" s="53" t="s">
-        <v>140</v>
-      </c>
       <c r="AT37" s="54" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="AU37" s="14"/>
       <c r="AV37" s="61"/>
@@ -5644,7 +5656,9 @@
       <c r="BH37" s="59"/>
       <c r="BI37" s="59"/>
       <c r="BJ37" s="59"/>
-      <c r="BK37" s="59"/>
+      <c r="BK37" s="59">
+        <v>1</v>
+      </c>
       <c r="BL37" s="59"/>
       <c r="BM37" s="59"/>
       <c r="BN37" s="60"/>
@@ -5654,22 +5668,20 @@
       <c r="BR37" s="60"/>
       <c r="BS37" s="60"/>
       <c r="BT37" s="60"/>
-      <c r="BU37" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU37" s="60"/>
       <c r="BV37" s="60"/>
       <c r="BW37" s="60"/>
       <c r="CN37" s="11"/>
     </row>
     <row r="38" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D38" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5712,19 +5724,19 @@
       <c r="AM38" s="10"/>
       <c r="AN38" s="26"/>
       <c r="AO38" s="48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP38" s="48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AQ38" s="51">
-        <v>13790</v>
+        <v>84600</v>
       </c>
       <c r="AR38" s="52" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AS38" s="53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AT38" s="54" t="s">
         <v>134</v>
@@ -5762,17 +5774,17 @@
     </row>
     <row r="39" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>310</v>
+        <v>126</v>
       </c>
       <c r="D39" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1          </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
@@ -5811,22 +5823,22 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="26"/>
       <c r="AO39" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AP39" s="48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AQ39" s="51">
-        <v>4100</v>
+        <v>13790</v>
       </c>
       <c r="AR39" s="52" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AS39" s="53" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AT39" s="54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AU39" s="14"/>
       <c r="AV39" s="61"/>
@@ -5842,13 +5854,9 @@
       <c r="BH39" s="59"/>
       <c r="BI39" s="59"/>
       <c r="BJ39" s="59"/>
-      <c r="BK39" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK39" s="59"/>
       <c r="BL39" s="59"/>
-      <c r="BM39" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM39" s="59"/>
       <c r="BN39" s="60"/>
       <c r="BO39" s="60"/>
       <c r="BP39" s="60"/>
@@ -5856,24 +5864,26 @@
       <c r="BR39" s="60"/>
       <c r="BS39" s="60"/>
       <c r="BT39" s="60"/>
-      <c r="BU39" s="60"/>
+      <c r="BU39" s="60">
+        <v>1</v>
+      </c>
       <c r="BV39" s="60"/>
       <c r="BW39" s="60"/>
       <c r="CN39" s="11"/>
     </row>
     <row r="40" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="D40" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=2            </v>
+        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1          </v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="46"/>
@@ -5912,22 +5922,22 @@
       <c r="AM40" s="10"/>
       <c r="AN40" s="26"/>
       <c r="AO40" s="48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AP40" s="48" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AQ40" s="51">
         <v>4100</v>
       </c>
       <c r="AR40" s="52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AS40" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT40" s="54" t="s">
         <v>124</v>
-      </c>
-      <c r="AT40" s="54" t="s">
-        <v>128</v>
       </c>
       <c r="AU40" s="14"/>
       <c r="AV40" s="61"/>
@@ -5944,10 +5954,12 @@
       <c r="BI40" s="59"/>
       <c r="BJ40" s="59"/>
       <c r="BK40" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL40" s="59"/>
-      <c r="BM40" s="59"/>
+      <c r="BM40" s="59">
+        <v>1</v>
+      </c>
       <c r="BN40" s="60"/>
       <c r="BO40" s="60"/>
       <c r="BP40" s="60"/>
@@ -5962,17 +5974,17 @@
     </row>
     <row r="41" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>199</v>
+        <v>327</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D41" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">      ; 2020_i=2            </v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="46"/>
@@ -6011,22 +6023,22 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="26"/>
       <c r="AO41" s="48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AP41" s="48" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AQ41" s="51">
         <v>4100</v>
       </c>
       <c r="AR41" s="52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AS41" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT41" s="54" t="s">
         <v>124</v>
-      </c>
-      <c r="AT41" s="54" t="s">
-        <v>128</v>
       </c>
       <c r="AU41" s="14"/>
       <c r="AV41" s="61"/>
@@ -6043,7 +6055,7 @@
       <c r="BI41" s="59"/>
       <c r="BJ41" s="59"/>
       <c r="BK41" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL41" s="59"/>
       <c r="BM41" s="59"/>
@@ -6061,17 +6073,17 @@
     </row>
     <row r="42" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>309</v>
+        <v>119</v>
       </c>
       <c r="D42" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="46"/>
@@ -6110,22 +6122,22 @@
       <c r="AM42" s="10"/>
       <c r="AN42" s="26"/>
       <c r="AO42" s="48" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AP42" s="48" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AQ42" s="51">
         <v>4100</v>
       </c>
       <c r="AR42" s="52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AS42" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT42" s="54" t="s">
         <v>124</v>
-      </c>
-      <c r="AT42" s="54" t="s">
-        <v>128</v>
       </c>
       <c r="AU42" s="14"/>
       <c r="AV42" s="61"/>
@@ -6141,7 +6153,9 @@
       <c r="BH42" s="59"/>
       <c r="BI42" s="59"/>
       <c r="BJ42" s="59"/>
-      <c r="BK42" s="59"/>
+      <c r="BK42" s="59">
+        <v>1</v>
+      </c>
       <c r="BL42" s="59"/>
       <c r="BM42" s="59"/>
       <c r="BN42" s="60"/>
@@ -6151,26 +6165,24 @@
       <c r="BR42" s="60"/>
       <c r="BS42" s="60"/>
       <c r="BT42" s="60"/>
-      <c r="BU42" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU42" s="60"/>
       <c r="BV42" s="60"/>
       <c r="BW42" s="60"/>
       <c r="CN42" s="11"/>
     </row>
     <row r="43" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="D43" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1  ; 2015_i=1  </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="46"/>
@@ -6209,22 +6221,22 @@
       <c r="AM43" s="10"/>
       <c r="AN43" s="26"/>
       <c r="AO43" s="48" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AP43" s="48" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AQ43" s="51">
-        <v>84200</v>
+        <v>4100</v>
       </c>
       <c r="AR43" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS43" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="AS43" s="53" t="s">
-        <v>109</v>
-      </c>
       <c r="AT43" s="54" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AU43" s="14"/>
       <c r="AV43" s="61"/>
@@ -6248,9 +6260,7 @@
       <c r="BP43" s="60"/>
       <c r="BQ43" s="60"/>
       <c r="BR43" s="60"/>
-      <c r="BS43" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS43" s="60"/>
       <c r="BT43" s="60"/>
       <c r="BU43" s="60">
         <v>1</v>
@@ -6261,17 +6271,17 @@
     </row>
     <row r="44" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>293</v>
+        <v>113</v>
       </c>
       <c r="D44" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">              ; 2016_i=1  ; 2015_i=1  </v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="46"/>
@@ -6310,20 +6320,22 @@
       <c r="AM44" s="10"/>
       <c r="AN44" s="26"/>
       <c r="AO44" s="48" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="AP44" s="48" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AQ44" s="51">
-        <v>4100</v>
-      </c>
-      <c r="AR44" s="52"/>
+        <v>84200</v>
+      </c>
+      <c r="AR44" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="AS44" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT44" s="53" t="s">
-        <v>295</v>
+        <v>107</v>
+      </c>
+      <c r="AT44" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="AU44" s="14"/>
       <c r="AV44" s="61"/>
@@ -6341,34 +6353,36 @@
       <c r="BJ44" s="59"/>
       <c r="BK44" s="59"/>
       <c r="BL44" s="59"/>
-      <c r="BM44" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM44" s="59"/>
       <c r="BN44" s="60"/>
       <c r="BO44" s="60"/>
       <c r="BP44" s="60"/>
       <c r="BQ44" s="60"/>
       <c r="BR44" s="60"/>
-      <c r="BS44" s="60"/>
+      <c r="BS44" s="60">
+        <v>1</v>
+      </c>
       <c r="BT44" s="60"/>
-      <c r="BU44" s="60"/>
+      <c r="BU44" s="60">
+        <v>1</v>
+      </c>
       <c r="BV44" s="60"/>
       <c r="BW44" s="60"/>
       <c r="CN44" s="11"/>
     </row>
     <row r="45" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>113</v>
+        <v>283</v>
       </c>
       <c r="D45" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1      ; 2016_i=1    </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="46"/>
@@ -6407,22 +6421,20 @@
       <c r="AM45" s="10"/>
       <c r="AN45" s="26"/>
       <c r="AO45" s="48" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="AP45" s="48" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="AQ45" s="51">
-        <v>4000</v>
-      </c>
-      <c r="AR45" s="52" t="s">
-        <v>112</v>
-      </c>
+        <v>4100</v>
+      </c>
+      <c r="AR45" s="52"/>
       <c r="AS45" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT45" s="54" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="AT45" s="53" t="s">
+        <v>285</v>
       </c>
       <c r="AU45" s="14"/>
       <c r="AV45" s="61"/>
@@ -6448,9 +6460,7 @@
       <c r="BP45" s="60"/>
       <c r="BQ45" s="60"/>
       <c r="BR45" s="60"/>
-      <c r="BS45" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS45" s="60"/>
       <c r="BT45" s="60"/>
       <c r="BU45" s="60"/>
       <c r="BV45" s="60"/>
@@ -6459,17 +6469,17 @@
     </row>
     <row r="46" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="D46" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1      ; 2017_i=1  ; 2016_i=1  ; 2015_i=1  </v>
+        <v xml:space="preserve">        ; 2019_i=1      ; 2016_i=1    </v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="46"/>
@@ -6508,22 +6518,22 @@
       <c r="AM46" s="10"/>
       <c r="AN46" s="26"/>
       <c r="AO46" s="48" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AP46" s="48" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="AQ46" s="51">
-        <v>6130</v>
+        <v>4000</v>
       </c>
       <c r="AR46" s="52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AS46" s="53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AT46" s="54" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AU46" s="14"/>
       <c r="AV46" s="61"/>
@@ -6539,42 +6549,38 @@
       <c r="BH46" s="59"/>
       <c r="BI46" s="59"/>
       <c r="BJ46" s="59"/>
-      <c r="BK46" s="59">
+      <c r="BK46" s="59"/>
+      <c r="BL46" s="59"/>
+      <c r="BM46" s="59">
         <v>1</v>
       </c>
-      <c r="BL46" s="59"/>
-      <c r="BM46" s="59"/>
       <c r="BN46" s="60"/>
       <c r="BO46" s="60"/>
       <c r="BP46" s="60"/>
-      <c r="BQ46" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ46" s="60"/>
       <c r="BR46" s="60"/>
       <c r="BS46" s="60">
         <v>1</v>
       </c>
       <c r="BT46" s="60"/>
-      <c r="BU46" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU46" s="60"/>
       <c r="BV46" s="60"/>
       <c r="BW46" s="60"/>
       <c r="CN46" s="11"/>
     </row>
     <row r="47" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">      ; 2020_i=1      ; 2017_i=1  ; 2016_i=1  ; 2015_i=1  </v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="46"/>
@@ -6613,22 +6619,22 @@
       <c r="AM47" s="10"/>
       <c r="AN47" s="26"/>
       <c r="AO47" s="48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AP47" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ47" s="51">
+        <v>6130</v>
+      </c>
+      <c r="AR47" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="AQ47" s="51">
-        <v>5200</v>
-      </c>
-      <c r="AR47" s="52" t="s">
-        <v>100</v>
-      </c>
       <c r="AS47" s="53" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AT47" s="54" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AU47" s="14"/>
       <c r="AV47" s="61"/>
@@ -6644,36 +6650,42 @@
       <c r="BH47" s="59"/>
       <c r="BI47" s="59"/>
       <c r="BJ47" s="59"/>
-      <c r="BK47" s="59"/>
+      <c r="BK47" s="59">
+        <v>1</v>
+      </c>
       <c r="BL47" s="59"/>
       <c r="BM47" s="59"/>
       <c r="BN47" s="60"/>
       <c r="BO47" s="60"/>
       <c r="BP47" s="60"/>
-      <c r="BQ47" s="60"/>
+      <c r="BQ47" s="60">
+        <v>1</v>
+      </c>
       <c r="BR47" s="60"/>
       <c r="BS47" s="60">
         <v>1</v>
       </c>
       <c r="BT47" s="60"/>
-      <c r="BU47" s="60"/>
+      <c r="BU47" s="60">
+        <v>1</v>
+      </c>
       <c r="BV47" s="60"/>
       <c r="BW47" s="60"/>
       <c r="CN47" s="11"/>
     </row>
     <row r="48" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D48" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="46"/>
@@ -6712,22 +6724,22 @@
       <c r="AM48" s="10"/>
       <c r="AN48" s="26"/>
       <c r="AO48" s="48" t="s">
-        <v>333</v>
+        <v>97</v>
       </c>
       <c r="AP48" s="48" t="s">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="AQ48" s="51">
-        <v>83470</v>
+        <v>5200</v>
       </c>
       <c r="AR48" s="52" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="AS48" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AT48" s="54" t="s">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="AU48" s="14"/>
       <c r="AV48" s="61"/>
@@ -6743,9 +6755,7 @@
       <c r="BH48" s="59"/>
       <c r="BI48" s="59"/>
       <c r="BJ48" s="59"/>
-      <c r="BK48" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK48" s="59"/>
       <c r="BL48" s="59"/>
       <c r="BM48" s="59"/>
       <c r="BN48" s="60"/>
@@ -6753,7 +6763,9 @@
       <c r="BP48" s="60"/>
       <c r="BQ48" s="60"/>
       <c r="BR48" s="60"/>
-      <c r="BS48" s="60"/>
+      <c r="BS48" s="60">
+        <v>1</v>
+      </c>
       <c r="BT48" s="60"/>
       <c r="BU48" s="60"/>
       <c r="BV48" s="60"/>
@@ -6765,14 +6777,14 @@
         <v>0</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D49" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="46"/>
@@ -6811,22 +6823,22 @@
       <c r="AM49" s="10"/>
       <c r="AN49" s="26"/>
       <c r="AO49" s="48" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AP49" s="48" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="AQ49" s="51">
-        <v>13100</v>
+        <v>83470</v>
       </c>
       <c r="AR49" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS49" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="AS49" s="53" t="s">
-        <v>95</v>
-      </c>
       <c r="AT49" s="54" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="AU49" s="14"/>
       <c r="AV49" s="61"/>
@@ -6842,7 +6854,9 @@
       <c r="BH49" s="59"/>
       <c r="BI49" s="59"/>
       <c r="BJ49" s="59"/>
-      <c r="BK49" s="59"/>
+      <c r="BK49" s="59">
+        <v>1</v>
+      </c>
       <c r="BL49" s="59"/>
       <c r="BM49" s="59"/>
       <c r="BN49" s="60"/>
@@ -6850,9 +6864,7 @@
       <c r="BP49" s="60"/>
       <c r="BQ49" s="60"/>
       <c r="BR49" s="60"/>
-      <c r="BS49" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS49" s="60"/>
       <c r="BT49" s="60"/>
       <c r="BU49" s="60"/>
       <c r="BV49" s="60"/>
@@ -6861,13 +6873,13 @@
     </row>
     <row r="50" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>85</v>
+        <v>326</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="D50" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6910,22 +6922,22 @@
       <c r="AM50" s="10"/>
       <c r="AN50" s="26"/>
       <c r="AO50" s="48" t="s">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="AP50" s="48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AQ50" s="51">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="AR50" s="52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AS50" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AT50" s="54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AU50" s="14"/>
       <c r="AV50" s="61"/>
@@ -6960,13 +6972,13 @@
     </row>
     <row r="51" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="48" t="s">
         <v>85</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>79</v>
       </c>
       <c r="D51" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7009,22 +7021,22 @@
       <c r="AM51" s="10"/>
       <c r="AN51" s="26"/>
       <c r="AO51" s="48" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AP51" s="48" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AQ51" s="51">
-        <v>83170</v>
+        <v>13400</v>
       </c>
       <c r="AR51" s="52" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AS51" s="53" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AT51" s="54" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AU51" s="14"/>
       <c r="AV51" s="61"/>
@@ -7059,13 +7071,13 @@
     </row>
     <row r="52" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D52" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7108,22 +7120,22 @@
       <c r="AM52" s="10"/>
       <c r="AN52" s="26"/>
       <c r="AO52" s="48" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AP52" s="48" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AQ52" s="51">
-        <v>13002</v>
+        <v>83170</v>
       </c>
       <c r="AR52" s="52" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AS52" s="53" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AT52" s="54" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AU52" s="14"/>
       <c r="AV52" s="61"/>
@@ -7158,17 +7170,17 @@
     </row>
     <row r="53" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D53" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1    ; 2017_i=1  ; 2016_i=1    </v>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="46"/>
@@ -7207,22 +7219,22 @@
       <c r="AM53" s="10"/>
       <c r="AN53" s="26"/>
       <c r="AO53" s="48" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AP53" s="48" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AQ53" s="51">
-        <v>5000</v>
+        <v>13002</v>
       </c>
       <c r="AR53" s="52" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AS53" s="53" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AT53" s="54" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AU53" s="14"/>
       <c r="AV53" s="61"/>
@@ -7240,15 +7252,11 @@
       <c r="BJ53" s="59"/>
       <c r="BK53" s="59"/>
       <c r="BL53" s="59"/>
-      <c r="BM53" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM53" s="59"/>
       <c r="BN53" s="60"/>
       <c r="BO53" s="60"/>
       <c r="BP53" s="60"/>
-      <c r="BQ53" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ53" s="60"/>
       <c r="BR53" s="60"/>
       <c r="BS53" s="60">
         <v>1</v>
@@ -7261,17 +7269,17 @@
     </row>
     <row r="54" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D54" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">        ; 2019_i=1    ; 2017_i=1  ; 2016_i=1    </v>
       </c>
       <c r="E54" s="46"/>
       <c r="F54" s="46"/>
@@ -7310,22 +7318,22 @@
       <c r="AM54" s="10"/>
       <c r="AN54" s="26"/>
       <c r="AO54" s="48" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AP54" s="48" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AQ54" s="51">
-        <v>83600</v>
-      </c>
-      <c r="AR54" s="52">
-        <v>33969329328</v>
+        <v>5000</v>
+      </c>
+      <c r="AR54" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="AS54" s="53" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AT54" s="54" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AU54" s="14"/>
       <c r="AV54" s="61"/>
@@ -7343,11 +7351,15 @@
       <c r="BJ54" s="59"/>
       <c r="BK54" s="59"/>
       <c r="BL54" s="59"/>
-      <c r="BM54" s="59"/>
+      <c r="BM54" s="59">
+        <v>1</v>
+      </c>
       <c r="BN54" s="60"/>
       <c r="BO54" s="60"/>
       <c r="BP54" s="60"/>
-      <c r="BQ54" s="60"/>
+      <c r="BQ54" s="60">
+        <v>1</v>
+      </c>
       <c r="BR54" s="60"/>
       <c r="BS54" s="60">
         <v>1</v>
@@ -7360,15 +7372,18 @@
     </row>
     <row r="55" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>121</v>
+        <v>326</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="D55" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="D55" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
       <c r="E55" s="46"/>
       <c r="F55" s="46"/>
       <c r="G55" s="46"/>
@@ -7406,20 +7421,22 @@
       <c r="AM55" s="10"/>
       <c r="AN55" s="26"/>
       <c r="AO55" s="48" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="AP55" s="48" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="AQ55" s="51">
-        <v>6414</v>
-      </c>
-      <c r="AR55" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="AS55" s="53"/>
+        <v>83600</v>
+      </c>
+      <c r="AR55" s="52">
+        <v>33969329328</v>
+      </c>
+      <c r="AS55" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="AT55" s="54" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="AU55" s="14"/>
       <c r="AV55" s="61"/>
@@ -7443,7 +7460,9 @@
       <c r="BP55" s="60"/>
       <c r="BQ55" s="60"/>
       <c r="BR55" s="60"/>
-      <c r="BS55" s="60"/>
+      <c r="BS55" s="60">
+        <v>1</v>
+      </c>
       <c r="BT55" s="60"/>
       <c r="BU55" s="60"/>
       <c r="BV55" s="60"/>
@@ -7452,18 +7471,15 @@
     </row>
     <row r="56" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D56" s="17"/>
       <c r="E56" s="46"/>
       <c r="F56" s="46"/>
       <c r="G56" s="46"/>
@@ -7501,20 +7517,20 @@
       <c r="AM56" s="10"/>
       <c r="AN56" s="26"/>
       <c r="AO56" s="48" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="AP56" s="48" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="AQ56" s="51">
-        <v>83480</v>
+        <v>6414</v>
       </c>
       <c r="AR56" s="52" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="AS56" s="53"/>
       <c r="AT56" s="54" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="AU56" s="14"/>
       <c r="AV56" s="61"/>
@@ -7538,226 +7554,274 @@
       <c r="BP56" s="60"/>
       <c r="BQ56" s="60"/>
       <c r="BR56" s="60"/>
-      <c r="BS56" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS56" s="60"/>
       <c r="BT56" s="60"/>
       <c r="BU56" s="60"/>
       <c r="BV56" s="60"/>
       <c r="BW56" s="60"/>
       <c r="CN56" s="11"/>
     </row>
-    <row r="57" spans="1:93" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>50</v>
+    <row r="57" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="D57" s="17" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="26"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="26"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="26"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="26"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="26"/>
+      <c r="AO57" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP57" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ57" s="51">
+        <v>83480</v>
+      </c>
+      <c r="AR57" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS57" s="53"/>
+      <c r="AT57" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU57" s="14"/>
+      <c r="AV57" s="61"/>
+      <c r="AW57" s="27"/>
+      <c r="AX57" s="26"/>
+      <c r="AY57" s="27"/>
+      <c r="AZ57" s="27"/>
+      <c r="BA57" s="27"/>
+      <c r="BC57" s="45"/>
+      <c r="BE57" s="45"/>
+      <c r="BF57" s="59"/>
+      <c r="BG57" s="59"/>
+      <c r="BH57" s="59"/>
+      <c r="BI57" s="59"/>
+      <c r="BJ57" s="59"/>
+      <c r="BK57" s="59"/>
+      <c r="BL57" s="59"/>
+      <c r="BM57" s="59"/>
+      <c r="BN57" s="60"/>
+      <c r="BO57" s="60"/>
+      <c r="BP57" s="60"/>
+      <c r="BQ57" s="60"/>
+      <c r="BR57" s="60"/>
+      <c r="BS57" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT57" s="60"/>
+      <c r="BU57" s="60"/>
+      <c r="BV57" s="60"/>
+      <c r="BW57" s="60"/>
+      <c r="CN57" s="11"/>
+    </row>
+    <row r="58" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="17" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="18"/>
-      <c r="AI57" s="18"/>
-      <c r="AJ57" s="19"/>
-      <c r="AK57" s="18"/>
-      <c r="AL57" s="18"/>
-      <c r="AM57" s="18"/>
-      <c r="AN57" s="19"/>
-      <c r="AO57" s="50" t="s">
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="18"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="19"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="18"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="19"/>
+      <c r="AO58" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP58" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AP57" s="50" t="s">
+      <c r="AQ58" s="55">
+        <v>4000</v>
+      </c>
+      <c r="AR58" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="AQ57" s="55">
-        <v>4000</v>
-      </c>
-      <c r="AR57" s="56" t="s">
+      <c r="AS58" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AS57" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT57" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="AU57" s="20"/>
-      <c r="AV57" s="21"/>
-      <c r="AW57" s="25"/>
-      <c r="AX57" s="19"/>
-      <c r="AY57" s="25"/>
-      <c r="AZ57" s="25"/>
-      <c r="BA57" s="25"/>
-      <c r="BB57" s="9">
-        <f>RANK(BX57,$BX$2:$BX$57)+COUNTIF(BX$2:BX58,BX57)-1</f>
+      <c r="AT58" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU58" s="20"/>
+      <c r="AV58" s="21"/>
+      <c r="AW58" s="25"/>
+      <c r="AX58" s="19"/>
+      <c r="AY58" s="25"/>
+      <c r="AZ58" s="25"/>
+      <c r="BA58" s="25"/>
+      <c r="BB58" s="9">
+        <f>RANK(BX58,$BX$2:$BX$58)+COUNTIF(BX$2:BX59,BX58)-1</f>
         <v>1</v>
       </c>
-      <c r="BC57" s="12" t="str">
-        <f>"N° "&amp;BB57&amp;" "&amp;C57</f>
+      <c r="BC58" s="12" t="str">
+        <f>"N° "&amp;BB58&amp;" "&amp;C58</f>
         <v>N° 1 Lycée Pierre Gilles de Gennes</v>
       </c>
-      <c r="BD57" s="9">
-        <f>RANK(BY57,$BY$2:$BY$57)+COUNTIF(BY$2:BY58,BY57)-1</f>
+      <c r="BD58" s="9">
+        <f>RANK(BY58,$BY$2:$BY$58)+COUNTIF(BY$2:BY59,BY58)-1</f>
         <v>1</v>
       </c>
-      <c r="BE57" s="12" t="str">
-        <f>"N° "&amp;BD57&amp;" "&amp;C57</f>
+      <c r="BE58" s="12" t="str">
+        <f>"N° "&amp;BD58&amp;" "&amp;C58</f>
         <v>N° 1 Lycée Pierre Gilles de Gennes</v>
       </c>
-      <c r="BF57" s="12"/>
-      <c r="BG57" s="12"/>
-      <c r="BH57" s="12"/>
-      <c r="BI57" s="12"/>
-      <c r="BJ57" s="12"/>
-      <c r="BK57" s="12"/>
-      <c r="BL57" s="12"/>
-      <c r="BM57" s="12"/>
-      <c r="BX57" s="9">
-        <f>((BF57+BG57)*9)+((BH57+BI57)*8)+((BJ57+BK57)*7)+((BL57+BM57)*6)+((BN57+BO57)*5)+((BP57+BQ57)*4)+((BR57+BS57)*3)+((BT57+BU57)*2)+((BV57+BW57)*1)</f>
+      <c r="BF58" s="12"/>
+      <c r="BG58" s="12"/>
+      <c r="BH58" s="12"/>
+      <c r="BI58" s="12"/>
+      <c r="BJ58" s="12"/>
+      <c r="BK58" s="12"/>
+      <c r="BL58" s="12"/>
+      <c r="BM58" s="12"/>
+      <c r="BX58" s="9">
+        <f>((BF58+BG58)*9)+((BH58+BI58)*8)+((BJ58+BK58)*7)+((BL58+BM58)*6)+((BN58+BO58)*5)+((BP58+BQ58)*4)+((BR58+BS58)*3)+((BT58+BU58)*2)+((BV58+BW58)*1)</f>
         <v>0</v>
       </c>
-      <c r="BY57" s="9">
-        <f>((BG57)*9)+((BI57)*8)+((BK57)*7)+((BM57)*6)+((BO57)*5)+((BQ57)*4)+((BS57)*3)+((BU57)*2)+((BW57)*1)</f>
+      <c r="BY58" s="9">
+        <f>((BG58)*9)+((BI58)*8)+((BK58)*7)+((BM58)*6)+((BO58)*5)+((BQ58)*4)+((BS58)*3)+((BU58)*2)+((BW58)*1)</f>
         <v>0</v>
       </c>
-      <c r="BZ57" s="1">
-        <f>BJ57</f>
+      <c r="BZ58" s="1">
+        <f>BJ58</f>
         <v>0</v>
       </c>
-      <c r="CA57" s="1">
-        <f>BL57</f>
+      <c r="CA58" s="1">
+        <f>BL58</f>
         <v>0</v>
       </c>
-      <c r="CB57" s="1">
-        <f>BN57</f>
+      <c r="CB58" s="1">
+        <f>BN58</f>
         <v>0</v>
       </c>
-      <c r="CC57" s="1">
-        <f>BP57</f>
+      <c r="CC58" s="1">
+        <f>BP58</f>
         <v>0</v>
       </c>
-      <c r="CD57" s="1">
-        <f>BR57</f>
+      <c r="CD58" s="1">
+        <f>BR58</f>
         <v>0</v>
       </c>
-      <c r="CE57" s="1">
-        <f>BT57</f>
+      <c r="CE58" s="1">
+        <f>BT58</f>
         <v>0</v>
       </c>
-      <c r="CF57" s="1">
-        <f>BV57</f>
+      <c r="CF58" s="1">
+        <f>BV58</f>
         <v>0</v>
       </c>
-      <c r="CG57" s="1">
-        <f>BK57</f>
+      <c r="CG58" s="1">
+        <f>BK58</f>
         <v>0</v>
       </c>
-      <c r="CH57" s="1">
-        <f>BM57</f>
+      <c r="CH58" s="1">
+        <f>BM58</f>
         <v>0</v>
       </c>
-      <c r="CI57" s="1">
-        <f>BO57</f>
+      <c r="CI58" s="1">
+        <f>BO58</f>
         <v>0</v>
       </c>
-      <c r="CJ57" s="1">
-        <f>BQ57</f>
+      <c r="CJ58" s="1">
+        <f>BQ58</f>
         <v>0</v>
       </c>
-      <c r="CK57" s="1">
-        <f>BS57</f>
+      <c r="CK58" s="1">
+        <f>BS58</f>
         <v>0</v>
       </c>
-      <c r="CL57" s="1">
-        <f>BU57</f>
+      <c r="CL58" s="1">
+        <f>BU58</f>
         <v>0</v>
       </c>
-      <c r="CM57" s="1">
-        <f>BW57</f>
+      <c r="CM58" s="1">
+        <f>BW58</f>
         <v>0</v>
       </c>
-      <c r="CO57" s="16"/>
-    </row>
-    <row r="58" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="BB58" s="6"/>
-      <c r="BC58" s="6"/>
-      <c r="BD58" s="6"/>
-      <c r="BE58" s="6"/>
-      <c r="BF58" s="6"/>
-      <c r="BG58" s="6"/>
-      <c r="BH58" s="6"/>
-      <c r="BI58" s="6"/>
-      <c r="BJ58" s="6"/>
-      <c r="BK58" s="6"/>
-      <c r="BL58" s="6"/>
-      <c r="BM58" s="6"/>
-      <c r="BX58" s="6"/>
-      <c r="BY58" s="6"/>
-      <c r="BZ58" s="6"/>
-      <c r="CA58" s="6"/>
-      <c r="CB58" s="6"/>
-      <c r="CC58" s="6"/>
-      <c r="CD58" s="6"/>
-      <c r="CE58" s="6"/>
-      <c r="CF58" s="6"/>
-      <c r="CG58" s="6"/>
-      <c r="CH58" s="6"/>
-      <c r="CI58" s="6"/>
-      <c r="CJ58" s="6"/>
-      <c r="CK58" s="6"/>
-      <c r="CL58" s="6"/>
-      <c r="CM58" s="6"/>
+      <c r="CO58" s="16"/>
     </row>
     <row r="59" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D59" s="25"/>
@@ -14527,14 +14591,61 @@
       <c r="CL202" s="6"/>
       <c r="CM202" s="6"/>
     </row>
+    <row r="203" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="25"/>
+      <c r="G203" s="25"/>
+      <c r="H203" s="25"/>
+      <c r="I203" s="25"/>
+      <c r="J203" s="25"/>
+      <c r="K203" s="25"/>
+      <c r="L203" s="25"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="6"/>
+      <c r="BB203" s="6"/>
+      <c r="BC203" s="6"/>
+      <c r="BD203" s="6"/>
+      <c r="BE203" s="6"/>
+      <c r="BF203" s="6"/>
+      <c r="BG203" s="6"/>
+      <c r="BH203" s="6"/>
+      <c r="BI203" s="6"/>
+      <c r="BJ203" s="6"/>
+      <c r="BK203" s="6"/>
+      <c r="BL203" s="6"/>
+      <c r="BM203" s="6"/>
+      <c r="BX203" s="6"/>
+      <c r="BY203" s="6"/>
+      <c r="BZ203" s="6"/>
+      <c r="CA203" s="6"/>
+      <c r="CB203" s="6"/>
+      <c r="CC203" s="6"/>
+      <c r="CD203" s="6"/>
+      <c r="CE203" s="6"/>
+      <c r="CF203" s="6"/>
+      <c r="CG203" s="6"/>
+      <c r="CH203" s="6"/>
+      <c r="CI203" s="6"/>
+      <c r="CJ203" s="6"/>
+      <c r="CK203" s="6"/>
+      <c r="CL203" s="6"/>
+      <c r="CM203" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CN57" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN57">
-      <sortCondition ref="BB1:BB56"/>
+  <autoFilter ref="A1:CN58" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN58">
+      <sortCondition ref="BB1:BB57"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="AS54" r:id="rId1" xr:uid="{7A957ED5-82B4-42C4-A542-9FEBF47E5BF1}"/>
+    <hyperlink ref="AS55" r:id="rId1" xr:uid="{7A957ED5-82B4-42C4-A542-9FEBF47E5BF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2021-2022\Appli lieux de stage David Filaire\Création de mag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B0B24-9E84-4433-96C0-44B22D744FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E990468A-757B-4EC0-8B83-5876B382AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="342">
-  <si>
-    <t>Alimentaire</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="345">
   <si>
     <t>Produit</t>
   </si>
@@ -221,9 +218,6 @@
     <t>Communauté d'agglomération Gap-Tallard-Durance</t>
   </si>
   <si>
-    <t>Eau et Assainissement</t>
-  </si>
-  <si>
     <t>3 rue colonel Roux</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>44.56394285053571, 6.497731716151039</t>
   </si>
   <si>
-    <t>Veolia Eau- STEP Embrun</t>
-  </si>
-  <si>
     <t>Suez eau- STEP La Paoute Grasse</t>
   </si>
   <si>
@@ -458,9 +449,6 @@
     <t>http://www.sidecm.fr/plan_acces.aspx</t>
   </si>
   <si>
-    <t>Société des eaux de Marseille</t>
-  </si>
-  <si>
     <t>https://www.eauxdemarseille.fr/</t>
   </si>
   <si>
@@ -491,9 +479,6 @@
     <t>https://www.thermesdignelesbains.com/</t>
   </si>
   <si>
-    <t>Société du Canal de Provence</t>
-  </si>
-  <si>
     <t>24 bis route de Bollène</t>
   </si>
   <si>
@@ -542,18 +527,12 @@
     <t>La Garde</t>
   </si>
   <si>
-    <t>Compagnie des Eaux et de L'ozone- Veolia( station Amphora 100 000EH)</t>
-  </si>
-  <si>
     <t>43.111263909165245, 6.000289142948444</t>
   </si>
   <si>
     <t>270 Rue Pierre Duhem</t>
   </si>
   <si>
-    <t>Suez eau- STEP Aubignan et Malaucène</t>
-  </si>
-  <si>
     <t>Aix-en-Provence</t>
   </si>
   <si>
@@ -578,12 +557,6 @@
     <t>43.50875905814158, 5.410206826863742</t>
   </si>
   <si>
-    <t>Compagnie d'exploitation et de Comptage  (STEP La Pioline 165 000 EH)</t>
-  </si>
-  <si>
-    <t>Suez eau ( STEP Digne-les Bains)</t>
-  </si>
-  <si>
     <t>6 chemin des relargulers</t>
   </si>
   <si>
@@ -608,12 +581,6 @@
     <t>43.19970715132074, 5.590603051458919</t>
   </si>
   <si>
-    <t>Réseau d'eaux usées</t>
-  </si>
-  <si>
-    <t>Véolia Eau</t>
-  </si>
-  <si>
     <t>109 rue Charles de Mouchy</t>
   </si>
   <si>
@@ -623,9 +590,6 @@
     <t>43.548351131702454, 6.939849533534441</t>
   </si>
   <si>
-    <t>Suez eau ( STEP Cavaillon 22 500EH)</t>
-  </si>
-  <si>
     <t>162 avenue de Provence</t>
   </si>
   <si>
@@ -653,9 +617,6 @@
     <t>145 chemin des essarts</t>
   </si>
   <si>
-    <t>SIVOM du littoral des Maures( STEP Cavalaire-sur-mer 68 000 EH)</t>
-  </si>
-  <si>
     <t>https://www.sivom-littoraldesmaures.org/</t>
   </si>
   <si>
@@ -683,9 +644,6 @@
     <t>https://www.verdontourisme.com/offres/sivu-assainissement-haut-verdon-beauvezer-fr-2987864/</t>
   </si>
   <si>
-    <t>Réseau d'eau pluviale</t>
-  </si>
-  <si>
     <t>CEA Cadarache</t>
   </si>
   <si>
@@ -698,24 +656,15 @@
     <t>https://cadarache.cea.fr/cad</t>
   </si>
   <si>
-    <t>Société des eaux de Marseille Métropole</t>
-  </si>
-  <si>
     <t>43.68986873659511, 5.760941369811004</t>
   </si>
   <si>
-    <t>Veolia eau</t>
-  </si>
-  <si>
     <t>Chemin du petit Moulin</t>
   </si>
   <si>
     <t>Aix-en Provence</t>
   </si>
   <si>
-    <t>Suez eau ( STEP Aix Ouest 30 000 EH))</t>
-  </si>
-  <si>
     <t>43.50602277824719, 5.3359992607283875</t>
   </si>
   <si>
@@ -725,9 +674,6 @@
     <t>Taradeau</t>
   </si>
   <si>
-    <t>SIVU d'assainissement ( STEP Taradeau-Vidauban-les-arcs)</t>
-  </si>
-  <si>
     <t>43.44349228081907, 6.439110400892034</t>
   </si>
   <si>
@@ -758,9 +704,6 @@
     <t>Sisteron</t>
   </si>
   <si>
-    <t>Mairie de Sisteron ( STEP 13 000EH)</t>
-  </si>
-  <si>
     <t>44.19465382548717, 5.942853299053676</t>
   </si>
   <si>
@@ -806,9 +749,6 @@
     <t>Réseaux d'eaux usées</t>
   </si>
   <si>
-    <t>Suez-eau</t>
-  </si>
-  <si>
     <t>Istres</t>
   </si>
   <si>
@@ -836,9 +776,6 @@
     <t>http://valortec.fr/ et https://ortec-group.com/agences/valortec-rognac/?utm_source=local&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
   </si>
   <si>
-    <t>Réseau d'eau potable</t>
-  </si>
-  <si>
     <t>Régie Eau D'Azur</t>
   </si>
   <si>
@@ -896,9 +833,6 @@
     <t>1122 Avenue Gaston de Fontmichel</t>
   </si>
   <si>
-    <t>Suez Eau (STEP Aquaviva 300 000 EH)</t>
-  </si>
-  <si>
     <t>04 92 19 29 29</t>
   </si>
   <si>
@@ -920,18 +854,12 @@
     <t>https://www.seram-metropole.fr/services_aux_usagers/professionnels/industriels/</t>
   </si>
   <si>
-    <t>Suez eau -Carpentras</t>
-  </si>
-  <si>
     <t xml:space="preserve">DLVA( Durance Luberon Verdon Agglomération) </t>
   </si>
   <si>
     <t>DLVA( Durance Luberon Verdon Agglomération) STEP de Villeneuve</t>
   </si>
   <si>
-    <t>Réseau eau potable</t>
-  </si>
-  <si>
     <t>Usine eau potable</t>
   </si>
   <si>
@@ -950,9 +878,6 @@
     <t>43.62703355363094, 7.130074069535105</t>
   </si>
   <si>
-    <t>Veolia Eau ( STEP Allos 20 000EH)</t>
-  </si>
-  <si>
     <t>le plan, D908</t>
   </si>
   <si>
@@ -1001,9 +926,6 @@
     <t>Provence Alpes agglomération (Site de Château Arnoux-Saint Auban)</t>
   </si>
   <si>
-    <t>Provence Alpes agglomération ( Site route de Barles)</t>
-  </si>
-  <si>
     <t>Eau potable</t>
   </si>
   <si>
@@ -1022,18 +944,12 @@
     <t>Traitement des eaux industrielles</t>
   </si>
   <si>
-    <t>Véolia-Eau (STEP des Orres)</t>
-  </si>
-  <si>
     <t>Service Public d'Assainissement Non Collectif</t>
   </si>
   <si>
     <t>Bureau d'études</t>
   </si>
   <si>
-    <t>Réalisation d'usines de depollution et réseaux d'eau</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/company/ortec-group/</t>
   </si>
   <si>
@@ -1050,6 +966,99 @@
   </si>
   <si>
     <t>43.44861356348608, 4.931977243326394</t>
+  </si>
+  <si>
+    <t>Usine de dépollution des eaux usées domestiques</t>
+  </si>
+  <si>
+    <t>Usine de production d'eau potable</t>
+  </si>
+  <si>
+    <t>Distribution d'eau potable</t>
+  </si>
+  <si>
+    <t>Collecte des eaux usées et problèmes des Eaux Claires Parasites</t>
+  </si>
+  <si>
+    <t>Distribution d'eau potable aux abonnés</t>
+  </si>
+  <si>
+    <t>Réalisation d'usines de dépollution et réseaux d'eaux usées, eaux pluviales et eau potable</t>
+  </si>
+  <si>
+    <t>SIVU d'assainissement (STEP Taradeau-Vidauban-les-arcs)</t>
+  </si>
+  <si>
+    <t>Provence Alpes agglomération (Site route de Barles)</t>
+  </si>
+  <si>
+    <t>Veolia -Eau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCP (Société du Canal de Provence) </t>
+  </si>
+  <si>
+    <t>SCP(Société du Canal de Provence)</t>
+  </si>
+  <si>
+    <t>Veolia-Eau (STEP Embrun)</t>
+  </si>
+  <si>
+    <t>Véolia-Eau</t>
+  </si>
+  <si>
+    <t>Veolia-Eau_STEP Allos 20 000EH</t>
+  </si>
+  <si>
+    <t>Suez-Eau_STEP Aquaviva 300 000 EH</t>
+  </si>
+  <si>
+    <t>Suez-Eau</t>
+  </si>
+  <si>
+    <t>Suez Eau _STEP Cavaillon 22 500EH</t>
+  </si>
+  <si>
+    <t>Mairie de Sisteron _STEP 13 000EH</t>
+  </si>
+  <si>
+    <t>SIVOM du littoral des Maures_STEP Cavalaire-sur-Mer 68 000 EH</t>
+  </si>
+  <si>
+    <t>Véolia-Eau_STEP des Orres</t>
+  </si>
+  <si>
+    <t>Société des Eaux de Marseille Métropole</t>
+  </si>
+  <si>
+    <t>Suez-Eau _STEP Digne-les Bains 35 000EH</t>
+  </si>
+  <si>
+    <t>Compagnie d'exploitation et de Comptage _STEP La Pioline 165 000 EH</t>
+  </si>
+  <si>
+    <t>Suez-Eau_STEP Aubignan et Malaucène</t>
+  </si>
+  <si>
+    <t>Compagnie des Eaux et de L'ozone- Veolia-Eau_ STEP Amphora 100 000EH</t>
+  </si>
+  <si>
+    <t>Suez-Eau _STEP Aix Ouest 30 000 EH</t>
+  </si>
+  <si>
+    <t>Suez -Eau _site de Carpentras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau d'eau pluviale </t>
+  </si>
+  <si>
+    <t>Eaux récréatives</t>
+  </si>
+  <si>
+    <t>Société des Eaux de Marseille</t>
+  </si>
+  <si>
+    <t>DLVA(Durance Luberon Verdon Agglomération)</t>
   </si>
 </sst>
 </file>
@@ -1884,9 +1893,9 @@
   <dimension ref="A1:CO203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,16 +1955,16 @@
   <sheetData>
     <row r="1" spans="1:92" s="43" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
@@ -1994,28 +2003,28 @@
       <c r="AM1" s="30"/>
       <c r="AN1" s="30"/>
       <c r="AO1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AQ1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AQ1" s="35" t="s">
+      <c r="AR1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="AV1" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW1" s="36"/>
       <c r="AX1" s="36"/>
@@ -2023,122 +2032,122 @@
       <c r="AZ1" s="36"/>
       <c r="BA1" s="36"/>
       <c r="BB1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BC1" s="38" t="s">
+      <c r="BF1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="BD1" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE1" s="38" t="s">
+      <c r="BO1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="BP1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT1" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU1" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="BF1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="BH1" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI1" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ1" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="BK1" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="BL1" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM1" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN1" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="BO1" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="BP1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="BQ1" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="BR1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS1" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="BT1" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="BU1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="BV1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="BW1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="BX1" s="40" t="s">
-        <v>16</v>
-      </c>
       <c r="BY1" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BZ1" s="40"/>
       <c r="CA1" s="40"/>
       <c r="CB1" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="CC1" s="41" t="s">
+      <c r="CD1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="CD1" s="41" t="s">
+      <c r="CE1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="CE1" s="41" t="s">
+      <c r="CF1" s="41" t="s">
         <v>31</v>
-      </c>
-      <c r="CF1" s="41" t="s">
-        <v>32</v>
       </c>
       <c r="CG1" s="41"/>
       <c r="CH1" s="41"/>
       <c r="CI1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="CJ1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="CJ1" s="41" t="s">
+      <c r="CK1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="CK1" s="41" t="s">
+      <c r="CL1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="CL1" s="41" t="s">
+      <c r="CM1" s="41" t="s">
         <v>36</v>
-      </c>
-      <c r="CM1" s="41" t="s">
-        <v>37</v>
       </c>
       <c r="CN1" s="42"/>
     </row>
     <row r="2" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="D2" s="17" t="str">
         <f t="shared" ref="D2:D34" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
@@ -2181,20 +2190,20 @@
       <c r="AM2" s="10"/>
       <c r="AN2" s="26"/>
       <c r="AO2" s="48" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AP2" s="48" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AQ2" s="51">
         <v>6210</v>
       </c>
       <c r="AR2" s="52"/>
       <c r="AS2" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT2" s="54" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AU2" s="14"/>
       <c r="AV2" s="61"/>
@@ -2229,13 +2238,13 @@
     </row>
     <row r="3" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="D3" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2278,20 +2287,20 @@
       <c r="AM3" s="10"/>
       <c r="AN3" s="26"/>
       <c r="AO3" s="48" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AP3" s="48" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AQ3" s="51">
         <v>4260</v>
       </c>
       <c r="AR3" s="52"/>
       <c r="AS3" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT3" s="54" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AU3" s="14"/>
       <c r="AV3" s="61"/>
@@ -2326,13 +2335,13 @@
     </row>
     <row r="4" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2375,22 +2384,22 @@
       <c r="AM4" s="10"/>
       <c r="AN4" s="26"/>
       <c r="AO4" s="48" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AP4" s="48" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="AQ4" s="51">
         <v>6270</v>
       </c>
       <c r="AR4" s="52" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="AS4" s="53" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="AT4" s="54" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="AU4" s="14"/>
       <c r="AV4" s="61"/>
@@ -2425,13 +2434,13 @@
     </row>
     <row r="5" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2474,22 +2483,22 @@
       <c r="AM5" s="10"/>
       <c r="AN5" s="26"/>
       <c r="AO5" s="48" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="AP5" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AQ5" s="51">
         <v>13014</v>
       </c>
       <c r="AR5" s="52" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="AS5" s="53" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="AT5" s="54" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="AU5" s="14"/>
       <c r="AV5" s="61"/>
@@ -2524,13 +2533,13 @@
     </row>
     <row r="6" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2573,22 +2582,22 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="26"/>
       <c r="AO6" s="48" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="AP6" s="48" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AQ6" s="51">
         <v>6120</v>
       </c>
       <c r="AR6" s="52" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="AS6" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT6" s="54" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AU6" s="14"/>
       <c r="AV6" s="61"/>
@@ -2623,13 +2632,13 @@
     </row>
     <row r="7" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2672,20 +2681,20 @@
       <c r="AM7" s="10"/>
       <c r="AN7" s="26"/>
       <c r="AO7" s="48" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="AP7" s="48" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="AQ7" s="51">
         <v>6140</v>
       </c>
       <c r="AR7" s="52"/>
       <c r="AS7" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT7" s="54" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="AU7" s="14"/>
       <c r="AV7" s="61"/>
@@ -2720,13 +2729,13 @@
     </row>
     <row r="8" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2769,22 +2778,22 @@
       <c r="AM8" s="10"/>
       <c r="AN8" s="26"/>
       <c r="AO8" s="48" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AP8" s="48" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="AQ8" s="51">
         <v>13210</v>
       </c>
       <c r="AR8" s="52" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AS8" s="53" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AT8" s="54" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="AU8" s="14"/>
       <c r="AV8" s="61"/>
@@ -2819,13 +2828,13 @@
     </row>
     <row r="9" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2868,22 +2877,22 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="26"/>
       <c r="AO9" s="48" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="AP9" s="48" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AQ9" s="51">
         <v>13340</v>
       </c>
       <c r="AR9" s="52" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="AS9" s="53" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="AT9" s="54" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="AU9" s="14"/>
       <c r="AV9" s="61"/>
@@ -2918,13 +2927,13 @@
     </row>
     <row r="10" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2967,22 +2976,22 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="26"/>
       <c r="AO10" s="48" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="AP10" s="48" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="AQ10" s="51">
         <v>13270</v>
       </c>
       <c r="AR10" s="52" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="AS10" s="53" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="AT10" s="54" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="AU10" s="14"/>
       <c r="AV10" s="61"/>
@@ -3017,13 +3026,13 @@
     </row>
     <row r="11" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3066,22 +3075,22 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="48" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="AP11" s="48" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AQ11" s="51">
         <v>13800</v>
       </c>
       <c r="AR11" s="52" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AS11" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT11" s="54" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="AU11" s="14"/>
       <c r="AV11" s="61"/>
@@ -3116,13 +3125,13 @@
     </row>
     <row r="12" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3165,22 +3174,22 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="48" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="AP12" s="48" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="AQ12" s="51">
         <v>4200</v>
       </c>
       <c r="AR12" s="52" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="AS12" s="53" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="AT12" s="54" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="AU12" s="14"/>
       <c r="AV12" s="61"/>
@@ -3215,13 +3224,13 @@
     </row>
     <row r="13" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>199</v>
+        <v>330</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3264,20 +3273,20 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="48" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AP13" s="48" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AQ13" s="51">
         <v>84300</v>
       </c>
       <c r="AR13" s="52"/>
       <c r="AS13" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT13" s="54" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AU13" s="14"/>
       <c r="AV13" s="61"/>
@@ -3312,13 +3321,13 @@
     </row>
     <row r="14" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="D14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3361,19 +3370,19 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="48" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AP14" s="48" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AQ14" s="51">
         <v>83240</v>
       </c>
       <c r="AR14" s="52" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="AS14" s="53" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="AT14" s="54"/>
       <c r="AU14" s="14"/>
@@ -3409,13 +3418,13 @@
     </row>
     <row r="15" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3458,22 +3467,22 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="26"/>
       <c r="AO15" s="48" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AP15" s="48" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AQ15" s="51">
         <v>4370</v>
       </c>
       <c r="AR15" s="52" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AS15" s="53" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AT15" s="54" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AU15" s="14"/>
       <c r="AV15" s="61"/>
@@ -3508,13 +3517,13 @@
     </row>
     <row r="16" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D16" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3557,22 +3566,22 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="48" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AP16" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ16" s="51">
         <v>5000</v>
       </c>
       <c r="AR16" s="52" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="AS16" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT16" s="54" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AU16" s="14"/>
       <c r="AV16" s="61"/>
@@ -3607,13 +3616,13 @@
     </row>
     <row r="17" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3656,22 +3665,22 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AP17" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ17" s="51">
         <v>4000</v>
       </c>
       <c r="AR17" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AS17" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AT17" s="53" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AU17" s="14"/>
       <c r="AV17" s="61"/>
@@ -3708,13 +3717,13 @@
     </row>
     <row r="18" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3757,22 +3766,22 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="26"/>
       <c r="AO18" s="48" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="AP18" s="48" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AQ18" s="51">
         <v>6203</v>
       </c>
       <c r="AR18" s="52" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="AS18" s="53" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="AT18" s="53" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="AU18" s="14"/>
       <c r="AV18" s="61"/>
@@ -3807,13 +3816,13 @@
     </row>
     <row r="19" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D19" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3856,22 +3865,22 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="26"/>
       <c r="AO19" s="48" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="AP19" s="48" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="AQ19" s="51">
         <v>83390</v>
       </c>
       <c r="AR19" s="52" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="AS19" s="53" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="AT19" s="53" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="AU19" s="14"/>
       <c r="AV19" s="61"/>
@@ -3906,13 +3915,13 @@
     </row>
     <row r="20" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>224</v>
+        <v>334</v>
       </c>
       <c r="D20" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3955,20 +3964,20 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="26"/>
       <c r="AO20" s="48" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AP20" s="48" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AQ20" s="51">
         <v>13600</v>
       </c>
       <c r="AR20" s="52"/>
       <c r="AS20" s="53" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AT20" s="54" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AU20" s="14"/>
       <c r="AV20" s="61"/>
@@ -4003,13 +4012,13 @@
     </row>
     <row r="21" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D21" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4052,22 +4061,22 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="26"/>
       <c r="AO21" s="48" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="AP21" s="48" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AQ21" s="51">
         <v>13600</v>
       </c>
       <c r="AR21" s="52" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="AS21" s="53" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="AT21" s="54" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="AU21" s="14"/>
       <c r="AV21" s="61"/>
@@ -4102,13 +4111,13 @@
     </row>
     <row r="22" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="46"/>
@@ -4148,22 +4157,22 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="26"/>
       <c r="AO22" s="48" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AP22" s="48" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="AQ22" s="51">
         <v>83300</v>
       </c>
       <c r="AR22" s="52" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="AS22" s="53" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="AT22" s="54" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="AU22" s="14"/>
       <c r="AV22" s="61"/>
@@ -4196,13 +4205,13 @@
     </row>
     <row r="23" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="D23" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4245,22 +4254,22 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="26"/>
       <c r="AO23" s="48" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AP23" s="48" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AQ23" s="51">
         <v>83460</v>
       </c>
       <c r="AR23" s="52" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="AS23" s="53" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="AT23" s="54" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="AU23" s="14"/>
       <c r="AV23" s="61"/>
@@ -4295,13 +4304,13 @@
     </row>
     <row r="24" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="D24" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4344,22 +4353,22 @@
       <c r="AM24" s="10"/>
       <c r="AN24" s="26"/>
       <c r="AO24" s="48" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AP24" s="48" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AQ24" s="51">
         <v>4800</v>
       </c>
       <c r="AR24" s="52" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AS24" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT24" s="54" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AU24" s="14"/>
       <c r="AV24" s="61"/>
@@ -4394,13 +4403,13 @@
     </row>
     <row r="25" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>184</v>
+        <v>336</v>
       </c>
       <c r="D25" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4443,20 +4452,20 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="26"/>
       <c r="AO25" s="48" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AP25" s="48" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AQ25" s="51">
         <v>13290</v>
       </c>
       <c r="AR25" s="52" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AS25" s="53"/>
       <c r="AT25" s="54" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AU25" s="14"/>
       <c r="AV25" s="61"/>
@@ -4491,13 +4500,13 @@
     </row>
     <row r="26" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="D26" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4540,22 +4549,22 @@
       <c r="AM26" s="10"/>
       <c r="AN26" s="26"/>
       <c r="AO26" s="48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AP26" s="48" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AQ26" s="51">
         <v>13250</v>
       </c>
       <c r="AR26" s="52" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AS26" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT26" s="54" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AU26" s="14"/>
       <c r="AV26" s="61"/>
@@ -4590,13 +4599,13 @@
     </row>
     <row r="27" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D27" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4639,22 +4648,22 @@
       <c r="AM27" s="10"/>
       <c r="AN27" s="26"/>
       <c r="AO27" s="48" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AP27" s="48" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AQ27" s="51">
         <v>830130</v>
       </c>
       <c r="AR27" s="52" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AS27" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT27" s="54" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AU27" s="14"/>
       <c r="AV27" s="61"/>
@@ -4689,13 +4698,13 @@
     </row>
     <row r="28" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="D28" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4738,20 +4747,20 @@
       <c r="AM28" s="10"/>
       <c r="AN28" s="26"/>
       <c r="AO28" s="48" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AP28" s="48" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AQ28" s="51">
         <v>84000</v>
       </c>
       <c r="AR28" s="52"/>
       <c r="AS28" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT28" s="54" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AU28" s="14"/>
       <c r="AV28" s="61"/>
@@ -4784,13 +4793,13 @@
     </row>
     <row r="29" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D29" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4833,22 +4842,22 @@
       <c r="AM29" s="10"/>
       <c r="AN29" s="26"/>
       <c r="AO29" s="48" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AP29" s="48" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AQ29" s="51">
         <v>84700</v>
       </c>
       <c r="AR29" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS29" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT29" s="54" t="s">
         <v>160</v>
-      </c>
-      <c r="AS29" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT29" s="54" t="s">
-        <v>165</v>
       </c>
       <c r="AU29" s="14"/>
       <c r="AV29" s="61"/>
@@ -4883,13 +4892,13 @@
     </row>
     <row r="30" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="D30" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4932,20 +4941,20 @@
       <c r="AM30" s="10"/>
       <c r="AN30" s="26"/>
       <c r="AO30" s="48" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="AP30" s="48" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AQ30" s="51">
         <v>13209</v>
       </c>
       <c r="AR30" s="52"/>
       <c r="AS30" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT30" s="54" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="AU30" s="14"/>
       <c r="AV30" s="61"/>
@@ -4980,13 +4989,13 @@
     </row>
     <row r="31" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="D31" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5029,22 +5038,22 @@
       <c r="AM31" s="10"/>
       <c r="AN31" s="26"/>
       <c r="AO31" s="48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AP31" s="48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AQ31" s="51">
         <v>84200</v>
       </c>
       <c r="AR31" s="52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AS31" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT31" s="54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AU31" s="14"/>
       <c r="AV31" s="61"/>
@@ -5079,13 +5088,13 @@
     </row>
     <row r="32" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D32" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5128,22 +5137,22 @@
       <c r="AM32" s="10"/>
       <c r="AN32" s="26"/>
       <c r="AO32" s="48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AP32" s="48" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AQ32" s="51">
         <v>84290</v>
       </c>
       <c r="AR32" s="52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AS32" s="53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AT32" s="54" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AU32" s="14"/>
       <c r="AV32" s="61"/>
@@ -5180,13 +5189,13 @@
     </row>
     <row r="33" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D33" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5230,19 +5239,19 @@
       <c r="AN33" s="26"/>
       <c r="AO33" s="48"/>
       <c r="AP33" s="48" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="AQ33" s="51">
         <v>13108</v>
       </c>
       <c r="AR33" s="52" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AS33" s="53" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AT33" s="54" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="AU33" s="14"/>
       <c r="AV33" s="61"/>
@@ -5277,13 +5286,13 @@
     </row>
     <row r="34" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>149</v>
+        <v>342</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D34" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5326,22 +5335,22 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="26"/>
       <c r="AO34" s="48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AP34" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ34" s="51">
         <v>4000</v>
       </c>
       <c r="AR34" s="52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AS34" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AT34" s="54" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="61"/>
@@ -5378,13 +5387,13 @@
     </row>
     <row r="35" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="D35" s="17" t="str">
         <f t="shared" ref="D35:D58" si="1">IF(BF35&lt;&gt;0,";2022_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2022_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0,";2021_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2021_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0,";2020_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2020_i="&amp;BK35," ")&amp;IF(BL35&lt;&gt;0,";2019_A="&amp;BL35," ")&amp;IF(BM35&lt;&gt;0," ; 2019_i="&amp;BM35," ")&amp;IF(BN35&lt;&gt;0,";2018_A="&amp;BN35," ")&amp;IF(BO35&lt;&gt;0," ; 2018_i="&amp;BO35," ")&amp;IF(BP35&lt;&gt;0," ; 2017_A="&amp;BP35," ")&amp;IF(BQ35&lt;&gt;0," ; 2017_i="&amp;BQ35," ")&amp;IF(BR35&lt;&gt;0," ; 2016_A="&amp;BR35," ")&amp;IF(BS35&lt;&gt;0," ; 2016_i="&amp;BS35," ")&amp;IF(BT35&lt;&gt;0," ; 2015_A="&amp;BT35," ")&amp;IF(BU35&lt;&gt;0," ; 2015_i="&amp;BU35," ")&amp;IF(BV35&lt;&gt;0," ; 2014_A="&amp;BV35," ")&amp;IF(BW35&lt;&gt;0," ; 2014_i="&amp;BW35," ")</f>
@@ -5427,22 +5436,22 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="26"/>
       <c r="AO35" s="48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AP35" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AQ35" s="51">
         <v>13010</v>
       </c>
       <c r="AR35" s="52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AS35" s="53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AT35" s="54" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AU35" s="14"/>
       <c r="AV35" s="61"/>
@@ -5477,13 +5486,13 @@
     </row>
     <row r="36" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D36" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5526,22 +5535,22 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="26"/>
       <c r="AO36" s="48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AP36" s="48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AQ36" s="51">
         <v>83310</v>
       </c>
       <c r="AR36" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS36" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="AS36" s="53" t="s">
-        <v>143</v>
-      </c>
       <c r="AT36" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AU36" s="14"/>
       <c r="AV36" s="61"/>
@@ -5576,13 +5585,13 @@
     </row>
     <row r="37" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D37" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5625,22 +5634,22 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="26"/>
       <c r="AO37" s="48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AP37" s="48" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AQ37" s="51">
         <v>84290</v>
       </c>
       <c r="AR37" s="52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AS37" s="53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AT37" s="54" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AU37" s="14"/>
       <c r="AV37" s="61"/>
@@ -5675,13 +5684,13 @@
     </row>
     <row r="38" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D38" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5724,22 +5733,22 @@
       <c r="AM38" s="10"/>
       <c r="AN38" s="26"/>
       <c r="AO38" s="48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AP38" s="48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AQ38" s="51">
         <v>84600</v>
       </c>
       <c r="AR38" s="52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AS38" s="53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AT38" s="54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="61"/>
@@ -5774,13 +5783,13 @@
     </row>
     <row r="39" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D39" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5823,22 +5832,22 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="26"/>
       <c r="AO39" s="48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP39" s="48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AQ39" s="51">
         <v>13790</v>
       </c>
       <c r="AR39" s="52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AS39" s="53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AT39" s="54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AU39" s="14"/>
       <c r="AV39" s="61"/>
@@ -5873,13 +5882,13 @@
     </row>
     <row r="40" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D40" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5922,22 +5931,22 @@
       <c r="AM40" s="10"/>
       <c r="AN40" s="26"/>
       <c r="AO40" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AP40" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AQ40" s="51">
         <v>4100</v>
       </c>
       <c r="AR40" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS40" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT40" s="54" t="s">
         <v>121</v>
-      </c>
-      <c r="AS40" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT40" s="54" t="s">
-        <v>124</v>
       </c>
       <c r="AU40" s="14"/>
       <c r="AV40" s="61"/>
@@ -5974,13 +5983,13 @@
     </row>
     <row r="41" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>119</v>
+        <v>344</v>
       </c>
       <c r="D41" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6023,22 +6032,22 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="26"/>
       <c r="AO41" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AP41" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AQ41" s="51">
         <v>4100</v>
       </c>
       <c r="AR41" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS41" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT41" s="54" t="s">
         <v>121</v>
-      </c>
-      <c r="AS41" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT41" s="54" t="s">
-        <v>124</v>
       </c>
       <c r="AU41" s="14"/>
       <c r="AV41" s="61"/>
@@ -6073,13 +6082,13 @@
     </row>
     <row r="42" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D42" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6122,22 +6131,22 @@
       <c r="AM42" s="10"/>
       <c r="AN42" s="26"/>
       <c r="AO42" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AP42" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AQ42" s="51">
         <v>4100</v>
       </c>
       <c r="AR42" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS42" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT42" s="54" t="s">
         <v>121</v>
-      </c>
-      <c r="AS42" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT42" s="54" t="s">
-        <v>124</v>
       </c>
       <c r="AU42" s="14"/>
       <c r="AV42" s="61"/>
@@ -6172,13 +6181,13 @@
     </row>
     <row r="43" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="D43" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6221,22 +6230,22 @@
       <c r="AM43" s="10"/>
       <c r="AN43" s="26"/>
       <c r="AO43" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AP43" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AQ43" s="51">
         <v>4100</v>
       </c>
       <c r="AR43" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS43" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT43" s="54" t="s">
         <v>121</v>
-      </c>
-      <c r="AS43" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT43" s="54" t="s">
-        <v>124</v>
       </c>
       <c r="AU43" s="14"/>
       <c r="AV43" s="61"/>
@@ -6271,13 +6280,13 @@
     </row>
     <row r="44" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D44" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6320,22 +6329,22 @@
       <c r="AM44" s="10"/>
       <c r="AN44" s="26"/>
       <c r="AO44" s="48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AP44" s="48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AQ44" s="51">
         <v>84200</v>
       </c>
       <c r="AR44" s="52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AS44" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT44" s="54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AU44" s="14"/>
       <c r="AV44" s="61"/>
@@ -6372,13 +6381,13 @@
     </row>
     <row r="45" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D45" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6421,20 +6430,20 @@
       <c r="AM45" s="10"/>
       <c r="AN45" s="26"/>
       <c r="AO45" s="48" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="AP45" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AQ45" s="51">
         <v>4100</v>
       </c>
       <c r="AR45" s="52"/>
       <c r="AS45" s="53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AT45" s="53" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="AU45" s="14"/>
       <c r="AV45" s="61"/>
@@ -6469,13 +6478,13 @@
     </row>
     <row r="46" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="D46" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6518,22 +6527,22 @@
       <c r="AM46" s="10"/>
       <c r="AN46" s="26"/>
       <c r="AO46" s="48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AP46" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ46" s="51">
         <v>4000</v>
       </c>
       <c r="AR46" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AS46" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AT46" s="54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AU46" s="14"/>
       <c r="AV46" s="61"/>
@@ -6570,13 +6579,13 @@
     </row>
     <row r="47" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D47" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6619,22 +6628,22 @@
       <c r="AM47" s="10"/>
       <c r="AN47" s="26"/>
       <c r="AO47" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AP47" s="48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AQ47" s="51">
         <v>6130</v>
       </c>
       <c r="AR47" s="52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AS47" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AT47" s="54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AU47" s="14"/>
       <c r="AV47" s="61"/>
@@ -6675,13 +6684,13 @@
     </row>
     <row r="48" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="D48" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6724,22 +6733,22 @@
       <c r="AM48" s="10"/>
       <c r="AN48" s="26"/>
       <c r="AO48" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AP48" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AQ48" s="51">
         <v>5200</v>
       </c>
       <c r="AR48" s="52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS48" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT48" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU48" s="14"/>
       <c r="AV48" s="61"/>
@@ -6774,13 +6783,13 @@
     </row>
     <row r="49" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="D49" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6823,22 +6832,22 @@
       <c r="AM49" s="10"/>
       <c r="AN49" s="26"/>
       <c r="AO49" s="48" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="AP49" s="48" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="AQ49" s="51">
         <v>83470</v>
       </c>
       <c r="AR49" s="52" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="AS49" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AT49" s="54" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="AU49" s="14"/>
       <c r="AV49" s="61"/>
@@ -6873,13 +6882,13 @@
     </row>
     <row r="50" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="D50" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6922,22 +6931,22 @@
       <c r="AM50" s="10"/>
       <c r="AN50" s="26"/>
       <c r="AO50" s="48" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="AP50" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AQ50" s="51">
         <v>13100</v>
       </c>
       <c r="AR50" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS50" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="AS50" s="53" t="s">
-        <v>93</v>
-      </c>
       <c r="AT50" s="54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU50" s="14"/>
       <c r="AV50" s="61"/>
@@ -6972,13 +6981,13 @@
     </row>
     <row r="51" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B51" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="48" t="s">
         <v>83</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>85</v>
       </c>
       <c r="D51" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7021,22 +7030,22 @@
       <c r="AM51" s="10"/>
       <c r="AN51" s="26"/>
       <c r="AO51" s="48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AP51" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AQ51" s="51">
         <v>13400</v>
       </c>
       <c r="AR51" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS51" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="AS51" s="53" t="s">
-        <v>90</v>
-      </c>
       <c r="AT51" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AU51" s="14"/>
       <c r="AV51" s="61"/>
@@ -7071,13 +7080,13 @@
     </row>
     <row r="52" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7120,22 +7129,22 @@
       <c r="AM52" s="10"/>
       <c r="AN52" s="26"/>
       <c r="AO52" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AP52" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ52" s="51">
         <v>83170</v>
       </c>
       <c r="AR52" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AS52" s="53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AT52" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AU52" s="14"/>
       <c r="AV52" s="61"/>
@@ -7170,13 +7179,13 @@
     </row>
     <row r="53" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D53" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7219,22 +7228,22 @@
       <c r="AM53" s="10"/>
       <c r="AN53" s="26"/>
       <c r="AO53" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AP53" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AQ53" s="51">
         <v>13002</v>
       </c>
       <c r="AR53" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AS53" s="53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AT53" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AU53" s="14"/>
       <c r="AV53" s="61"/>
@@ -7269,13 +7278,13 @@
     </row>
     <row r="54" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>65</v>
+        <v>314</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7318,22 +7327,22 @@
       <c r="AM54" s="10"/>
       <c r="AN54" s="26"/>
       <c r="AO54" s="48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AP54" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ54" s="51">
         <v>5000</v>
       </c>
       <c r="AR54" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AS54" s="53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AT54" s="54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AU54" s="14"/>
       <c r="AV54" s="61"/>
@@ -7372,13 +7381,13 @@
     </row>
     <row r="55" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D55" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7421,10 +7430,10 @@
       <c r="AM55" s="10"/>
       <c r="AN55" s="26"/>
       <c r="AO55" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AP55" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AQ55" s="51">
         <v>83600</v>
@@ -7433,10 +7442,10 @@
         <v>33969329328</v>
       </c>
       <c r="AS55" s="53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AT55" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU55" s="14"/>
       <c r="AV55" s="61"/>
@@ -7471,13 +7480,13 @@
     </row>
     <row r="56" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="46"/>
@@ -7517,20 +7526,20 @@
       <c r="AM56" s="10"/>
       <c r="AN56" s="26"/>
       <c r="AO56" s="48" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="AP56" s="48" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="AQ56" s="51">
         <v>6414</v>
       </c>
       <c r="AR56" s="52" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="AS56" s="53"/>
       <c r="AT56" s="54" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AU56" s="14"/>
       <c r="AV56" s="61"/>
@@ -7563,13 +7572,13 @@
     </row>
     <row r="57" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7612,20 +7621,20 @@
       <c r="AM57" s="10"/>
       <c r="AN57" s="26"/>
       <c r="AO57" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AP57" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AQ57" s="51">
         <v>83480</v>
       </c>
       <c r="AR57" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS57" s="53"/>
       <c r="AT57" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AU57" s="14"/>
       <c r="AV57" s="61"/>
@@ -7660,13 +7669,13 @@
     </row>
     <row r="58" spans="1:93" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="50" t="s">
         <v>48</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>49</v>
       </c>
       <c r="D58" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7709,22 +7718,22 @@
       <c r="AM58" s="18"/>
       <c r="AN58" s="19"/>
       <c r="AO58" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP58" s="50" t="s">
         <v>50</v>
-      </c>
-      <c r="AP58" s="50" t="s">
-        <v>51</v>
       </c>
       <c r="AQ58" s="55">
         <v>4000</v>
       </c>
       <c r="AR58" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS58" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AS58" s="57" t="s">
-        <v>53</v>
-      </c>
       <c r="AT58" s="58" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="AU58" s="20"/>
       <c r="AV58" s="21"/>

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2021-2022\Appli lieux de stage David Filaire\Création de mag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E990468A-757B-4EC0-8B83-5876B382AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFD9BD-C11F-491C-A2C2-49348EEDE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$65</definedName>
     <definedName name="d">Entreprises_Complet2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="382">
   <si>
     <t>Produit</t>
   </si>
@@ -1059,6 +1059,117 @@
   </si>
   <si>
     <t>DLVA(Durance Luberon Verdon Agglomération)</t>
+  </si>
+  <si>
+    <t>Narbonne</t>
+  </si>
+  <si>
+    <t>14 rue Béranger</t>
+  </si>
+  <si>
+    <t>43.18929956715322, 3.010398183247846</t>
+  </si>
+  <si>
+    <t>Suez eau  STEP de Crest</t>
+  </si>
+  <si>
+    <t>Chemin des gardes</t>
+  </si>
+  <si>
+    <t>Montélimar</t>
+  </si>
+  <si>
+    <t>44.54571698431234, 4.724929292545911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09 77 40 84 08 </t>
+  </si>
+  <si>
+    <t>Syndicat Durance Luberon</t>
+  </si>
+  <si>
+    <t>109 avenue Jean Moulin</t>
+  </si>
+  <si>
+    <t>Pertuis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 90 79 06 95 </t>
+  </si>
+  <si>
+    <t>http://www.duranceluberon.fr/</t>
+  </si>
+  <si>
+    <t>43.700390196996146, 5.505157712539902</t>
+  </si>
+  <si>
+    <t>Suez-Eau_STEP Biot</t>
+  </si>
+  <si>
+    <t>3550 Route des dolines</t>
+  </si>
+  <si>
+    <t>Biot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 42 19 38 80 </t>
+  </si>
+  <si>
+    <t>43.6183640468954, 7.06208945938474</t>
+  </si>
+  <si>
+    <t>SATESE (Service d'assistance technique aux exploitants de station d'épuration)</t>
+  </si>
+  <si>
+    <t>26 avenue du Président Herriot</t>
+  </si>
+  <si>
+    <t>Valence</t>
+  </si>
+  <si>
+    <t>44.93558916325646, 4.894518670228891</t>
+  </si>
+  <si>
+    <t>04-75-79-82-63</t>
+  </si>
+  <si>
+    <t>https://www.mon-assainissement.fr/liste_satese.html</t>
+  </si>
+  <si>
+    <t>Eaux à usage industriel</t>
+  </si>
+  <si>
+    <t>EDFI CNPE</t>
+  </si>
+  <si>
+    <t>Gravelines</t>
+  </si>
+  <si>
+    <t>Route de la Digue Level</t>
+  </si>
+  <si>
+    <t>51.013031745507654, 2.1390865484267207</t>
+  </si>
+  <si>
+    <t>03 28 68 4640</t>
+  </si>
+  <si>
+    <t>https://www.gravelines-actioneco.fr/listing/centre-nucleaire-de-production-denergie-cnpe/</t>
+  </si>
+  <si>
+    <t>Centre Nucléaire de Production d'Électricite de Cruas-Meysse</t>
+  </si>
+  <si>
+    <t>04 75 49 30 00</t>
+  </si>
+  <si>
+    <t>44.63286846100014, 4.750856656731185</t>
+  </si>
+  <si>
+    <t>Cruas</t>
+  </si>
+  <si>
+    <t>https://www.edf.fr/centrale-nucleaire-cruas-meysse</t>
   </si>
 </sst>
 </file>
@@ -1890,12 +2001,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO203"/>
+  <dimension ref="A1:CO210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2261,7 @@
         <v>326</v>
       </c>
       <c r="D2" s="17" t="str">
-        <f t="shared" ref="D2:D34" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
+        <f t="shared" ref="D2:D39" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
         <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E2" s="46"/>
@@ -2539,11 +2650,11 @@
         <v>314</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
@@ -2582,22 +2693,22 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="26"/>
       <c r="AO6" s="48" t="s">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="AP6" s="48" t="s">
-        <v>186</v>
+        <v>361</v>
       </c>
       <c r="AQ6" s="51">
-        <v>6120</v>
+        <v>6410</v>
       </c>
       <c r="AR6" s="52" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="AS6" s="53" t="s">
         <v>104</v>
       </c>
       <c r="AT6" s="54" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="AU6" s="14"/>
       <c r="AV6" s="61"/>
@@ -2611,11 +2722,11 @@
       <c r="BF6" s="59"/>
       <c r="BG6" s="59"/>
       <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
+      <c r="BI6" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ6" s="59"/>
-      <c r="BK6" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK6" s="59"/>
       <c r="BL6" s="59"/>
       <c r="BM6" s="59"/>
       <c r="BN6" s="60"/>
@@ -2638,11 +2749,11 @@
         <v>314</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
@@ -2681,20 +2792,22 @@
       <c r="AM7" s="10"/>
       <c r="AN7" s="26"/>
       <c r="AO7" s="48" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AP7" s="48" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="AQ7" s="51">
-        <v>6140</v>
-      </c>
-      <c r="AR7" s="52"/>
+        <v>6120</v>
+      </c>
+      <c r="AR7" s="52" t="s">
+        <v>269</v>
+      </c>
       <c r="AS7" s="53" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AT7" s="54" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AU7" s="14"/>
       <c r="AV7" s="61"/>
@@ -2710,11 +2823,11 @@
       <c r="BH7" s="59"/>
       <c r="BI7" s="59"/>
       <c r="BJ7" s="59"/>
-      <c r="BK7" s="59"/>
+      <c r="BK7" s="59">
+        <v>1</v>
+      </c>
       <c r="BL7" s="59"/>
-      <c r="BM7" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM7" s="59"/>
       <c r="BN7" s="60"/>
       <c r="BO7" s="60"/>
       <c r="BP7" s="60"/>
@@ -2735,7 +2848,7 @@
         <v>314</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2778,22 +2891,20 @@
       <c r="AM8" s="10"/>
       <c r="AN8" s="26"/>
       <c r="AO8" s="48" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="AP8" s="48" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="AQ8" s="51">
-        <v>13210</v>
-      </c>
-      <c r="AR8" s="52" t="s">
-        <v>237</v>
-      </c>
+        <v>6140</v>
+      </c>
+      <c r="AR8" s="52"/>
       <c r="AS8" s="53" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="AT8" s="54" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="AU8" s="14"/>
       <c r="AV8" s="61"/>
@@ -2828,17 +2939,17 @@
     </row>
     <row r="9" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">    ; 2021_i=2              </v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -2877,22 +2988,22 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="26"/>
       <c r="AO9" s="48" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="AP9" s="48" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="AQ9" s="51">
-        <v>13340</v>
+        <v>84120</v>
       </c>
       <c r="AR9" s="52" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="AS9" s="53" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="AT9" s="54" t="s">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="AU9" s="14"/>
       <c r="AV9" s="61"/>
@@ -2906,13 +3017,13 @@
       <c r="BF9" s="59"/>
       <c r="BG9" s="59"/>
       <c r="BH9" s="59"/>
-      <c r="BI9" s="59"/>
+      <c r="BI9" s="59">
+        <v>2</v>
+      </c>
       <c r="BJ9" s="59"/>
       <c r="BK9" s="59"/>
       <c r="BL9" s="59"/>
-      <c r="BM9" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM9" s="59"/>
       <c r="BN9" s="60"/>
       <c r="BO9" s="60"/>
       <c r="BP9" s="60"/>
@@ -2930,14 +3041,14 @@
         <v>302</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                  ; 2014_i=1</v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -2975,23 +3086,21 @@
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="26"/>
-      <c r="AO10" s="48" t="s">
-        <v>310</v>
-      </c>
+      <c r="AO10" s="48"/>
       <c r="AP10" s="48" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="AQ10" s="51">
-        <v>13270</v>
+        <v>7350</v>
       </c>
       <c r="AR10" s="52" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="AS10" s="53" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="AT10" s="54" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="AU10" s="14"/>
       <c r="AV10" s="61"/>
@@ -3005,7 +3114,9 @@
       <c r="BF10" s="59"/>
       <c r="BG10" s="59"/>
       <c r="BH10" s="59"/>
-      <c r="BI10" s="59"/>
+      <c r="BI10" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ10" s="59"/>
       <c r="BK10" s="59"/>
       <c r="BL10" s="59"/>
@@ -3019,24 +3130,22 @@
       <c r="BT10" s="60"/>
       <c r="BU10" s="60"/>
       <c r="BV10" s="60"/>
-      <c r="BW10" s="60">
-        <v>1</v>
-      </c>
+      <c r="BW10" s="60"/>
       <c r="CN10" s="11"/>
     </row>
     <row r="11" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -3075,22 +3184,22 @@
       <c r="AM11" s="10"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="48" t="s">
-        <v>242</v>
+        <v>373</v>
       </c>
       <c r="AP11" s="48" t="s">
-        <v>241</v>
+        <v>372</v>
       </c>
       <c r="AQ11" s="51">
-        <v>13800</v>
+        <v>59820</v>
       </c>
       <c r="AR11" s="52" t="s">
-        <v>179</v>
+        <v>375</v>
       </c>
       <c r="AS11" s="53" t="s">
-        <v>104</v>
+        <v>376</v>
       </c>
       <c r="AT11" s="54" t="s">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="AU11" s="14"/>
       <c r="AV11" s="61"/>
@@ -3104,13 +3213,13 @@
       <c r="BF11" s="59"/>
       <c r="BG11" s="59"/>
       <c r="BH11" s="59"/>
-      <c r="BI11" s="59"/>
+      <c r="BI11" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ11" s="59"/>
       <c r="BK11" s="59"/>
       <c r="BL11" s="59"/>
-      <c r="BM11" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM11" s="59"/>
       <c r="BN11" s="60"/>
       <c r="BO11" s="60"/>
       <c r="BP11" s="60"/>
@@ -3131,7 +3240,7 @@
         <v>314</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3174,22 +3283,22 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="48" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="AP12" s="48" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AQ12" s="51">
-        <v>4200</v>
+        <v>13210</v>
       </c>
       <c r="AR12" s="52" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AS12" s="53" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AT12" s="54" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="AU12" s="14"/>
       <c r="AV12" s="61"/>
@@ -3224,17 +3333,17 @@
     </row>
     <row r="13" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -3273,20 +3382,22 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="48" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="AP13" s="48" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="AQ13" s="51">
-        <v>84300</v>
-      </c>
-      <c r="AR13" s="52"/>
+        <v>13340</v>
+      </c>
+      <c r="AR13" s="52" t="s">
+        <v>246</v>
+      </c>
       <c r="AS13" s="53" t="s">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="AT13" s="54" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="AU13" s="14"/>
       <c r="AV13" s="61"/>
@@ -3304,13 +3415,13 @@
       <c r="BJ13" s="59"/>
       <c r="BK13" s="59"/>
       <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
+      <c r="BM13" s="59">
+        <v>1</v>
+      </c>
       <c r="BN13" s="60"/>
       <c r="BO13" s="60"/>
       <c r="BP13" s="60"/>
-      <c r="BQ13" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ13" s="60"/>
       <c r="BR13" s="60"/>
       <c r="BS13" s="60"/>
       <c r="BT13" s="60"/>
@@ -3321,17 +3432,17 @@
     </row>
     <row r="14" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="D14" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">                  ; 2014_i=1</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -3370,21 +3481,23 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="48" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="AP14" s="48" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="AQ14" s="51">
-        <v>83240</v>
+        <v>13270</v>
       </c>
       <c r="AR14" s="52" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="AS14" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT14" s="54"/>
+        <v>308</v>
+      </c>
+      <c r="AT14" s="54" t="s">
+        <v>313</v>
+      </c>
       <c r="AU14" s="14"/>
       <c r="AV14" s="61"/>
       <c r="AW14" s="27"/>
@@ -3403,9 +3516,7 @@
       <c r="BL14" s="59"/>
       <c r="BM14" s="59"/>
       <c r="BN14" s="60"/>
-      <c r="BO14" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO14" s="60"/>
       <c r="BP14" s="60"/>
       <c r="BQ14" s="60"/>
       <c r="BR14" s="60"/>
@@ -3413,22 +3524,24 @@
       <c r="BT14" s="60"/>
       <c r="BU14" s="60"/>
       <c r="BV14" s="60"/>
-      <c r="BW14" s="60"/>
+      <c r="BW14" s="60">
+        <v>1</v>
+      </c>
       <c r="CN14" s="11"/>
     </row>
     <row r="15" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="D15" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
@@ -3467,22 +3580,22 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="26"/>
       <c r="AO15" s="48" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="AP15" s="48" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="AQ15" s="51">
-        <v>4370</v>
+        <v>13800</v>
       </c>
       <c r="AR15" s="52" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="AS15" s="53" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="AT15" s="54" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="AU15" s="14"/>
       <c r="AV15" s="61"/>
@@ -3500,11 +3613,11 @@
       <c r="BJ15" s="59"/>
       <c r="BK15" s="59"/>
       <c r="BL15" s="59"/>
-      <c r="BM15" s="59"/>
+      <c r="BM15" s="59">
+        <v>1</v>
+      </c>
       <c r="BN15" s="60"/>
-      <c r="BO15" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO15" s="60"/>
       <c r="BP15" s="60"/>
       <c r="BQ15" s="60"/>
       <c r="BR15" s="60"/>
@@ -3523,11 +3636,11 @@
         <v>314</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D16" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
@@ -3566,22 +3679,22 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="48" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AP16" s="48" t="s">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="AQ16" s="51">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="AR16" s="52" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="AS16" s="53" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="AT16" s="54" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AU16" s="14"/>
       <c r="AV16" s="61"/>
@@ -3599,11 +3712,11 @@
       <c r="BJ16" s="59"/>
       <c r="BK16" s="59"/>
       <c r="BL16" s="59"/>
-      <c r="BM16" s="59"/>
+      <c r="BM16" s="59">
+        <v>1</v>
+      </c>
       <c r="BN16" s="60"/>
-      <c r="BO16" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO16" s="60"/>
       <c r="BP16" s="60"/>
       <c r="BQ16" s="60"/>
       <c r="BR16" s="60"/>
@@ -3616,17 +3729,17 @@
     </row>
     <row r="17" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="D17" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1  ; 2018_i=1        </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
@@ -3665,22 +3778,20 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="48" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="AP17" s="48" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="AQ17" s="51">
-        <v>4000</v>
-      </c>
-      <c r="AR17" s="52" t="s">
-        <v>107</v>
-      </c>
+        <v>84300</v>
+      </c>
+      <c r="AR17" s="52"/>
       <c r="AS17" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT17" s="53" t="s">
-        <v>195</v>
+        <v>104</v>
+      </c>
+      <c r="AT17" s="54" t="s">
+        <v>190</v>
       </c>
       <c r="AU17" s="14"/>
       <c r="AV17" s="61"/>
@@ -3698,15 +3809,13 @@
       <c r="BJ17" s="59"/>
       <c r="BK17" s="59"/>
       <c r="BL17" s="59"/>
-      <c r="BM17" s="59">
+      <c r="BM17" s="59"/>
+      <c r="BN17" s="60"/>
+      <c r="BO17" s="60"/>
+      <c r="BP17" s="60"/>
+      <c r="BQ17" s="60">
         <v>1</v>
       </c>
-      <c r="BN17" s="60"/>
-      <c r="BO17" s="60">
-        <v>1</v>
-      </c>
-      <c r="BP17" s="60"/>
-      <c r="BQ17" s="60"/>
       <c r="BR17" s="60"/>
       <c r="BS17" s="60"/>
       <c r="BT17" s="60"/>
@@ -3717,17 +3826,17 @@
     </row>
     <row r="18" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="D18" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="46"/>
@@ -3766,23 +3875,21 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="26"/>
       <c r="AO18" s="48" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="AP18" s="48" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="AQ18" s="51">
-        <v>6203</v>
+        <v>83240</v>
       </c>
       <c r="AR18" s="52" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="AS18" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT18" s="53" t="s">
-        <v>254</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AT18" s="54"/>
       <c r="AU18" s="14"/>
       <c r="AV18" s="61"/>
       <c r="AW18" s="27"/>
@@ -3799,11 +3906,11 @@
       <c r="BJ18" s="59"/>
       <c r="BK18" s="59"/>
       <c r="BL18" s="59"/>
-      <c r="BM18" s="59">
+      <c r="BM18" s="59"/>
+      <c r="BN18" s="60"/>
+      <c r="BO18" s="60">
         <v>1</v>
       </c>
-      <c r="BN18" s="60"/>
-      <c r="BO18" s="60"/>
       <c r="BP18" s="60"/>
       <c r="BQ18" s="60"/>
       <c r="BR18" s="60"/>
@@ -3816,17 +3923,17 @@
     </row>
     <row r="19" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="D19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -3865,22 +3972,22 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="26"/>
       <c r="AO19" s="48" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="AP19" s="48" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="AQ19" s="51">
-        <v>83390</v>
+        <v>4370</v>
       </c>
       <c r="AR19" s="52" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="AS19" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="AT19" s="53" t="s">
-        <v>259</v>
+        <v>205</v>
+      </c>
+      <c r="AT19" s="54" t="s">
+        <v>204</v>
       </c>
       <c r="AU19" s="14"/>
       <c r="AV19" s="61"/>
@@ -3898,11 +4005,11 @@
       <c r="BJ19" s="59"/>
       <c r="BK19" s="59"/>
       <c r="BL19" s="59"/>
-      <c r="BM19" s="59">
+      <c r="BM19" s="59"/>
+      <c r="BN19" s="60"/>
+      <c r="BO19" s="60">
         <v>1</v>
       </c>
-      <c r="BN19" s="60"/>
-      <c r="BO19" s="60"/>
       <c r="BP19" s="60"/>
       <c r="BQ19" s="60"/>
       <c r="BR19" s="60"/>
@@ -3915,17 +4022,17 @@
     </row>
     <row r="20" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D20" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
@@ -3964,20 +4071,22 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="26"/>
       <c r="AO20" s="48" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AP20" s="48" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="AQ20" s="51">
-        <v>13600</v>
-      </c>
-      <c r="AR20" s="52"/>
+        <v>5000</v>
+      </c>
+      <c r="AR20" s="52" t="s">
+        <v>192</v>
+      </c>
       <c r="AS20" s="53" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="AT20" s="54" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AU20" s="14"/>
       <c r="AV20" s="61"/>
@@ -3997,11 +4106,11 @@
       <c r="BL20" s="59"/>
       <c r="BM20" s="59"/>
       <c r="BN20" s="60"/>
-      <c r="BO20" s="60"/>
+      <c r="BO20" s="60">
+        <v>1</v>
+      </c>
       <c r="BP20" s="60"/>
-      <c r="BQ20" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ20" s="60"/>
       <c r="BR20" s="60"/>
       <c r="BS20" s="60"/>
       <c r="BT20" s="60"/>
@@ -4012,17 +4121,17 @@
     </row>
     <row r="21" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="D21" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <f>IF(BF21&lt;&gt;0,";2022_A="&amp;BF21," ")&amp;IF(BG21&lt;&gt;0," ; 2022_i="&amp;BG21," ")&amp;IF(BH21&lt;&gt;0,";2021_A="&amp;BH21," ")&amp;IF(BI21&lt;&gt;0," ; 2021_i="&amp;BI21," ")&amp;IF(BJ21&lt;&gt;0,";2020_A="&amp;BJ21," ")&amp;IF(BK21&lt;&gt;0," ; 2020_i="&amp;BK21," ")&amp;IF(BL21&lt;&gt;0,";2019_A="&amp;BL21," ")&amp;IF(BM21&lt;&gt;0," ; 2019_i="&amp;BM21," ")&amp;IF(BN21&lt;&gt;0,";2018_A="&amp;BN21," ")&amp;IF(BO21&lt;&gt;0," ; 2018_i="&amp;BO21," ")&amp;IF(BP21&lt;&gt;0," ; 2017_A="&amp;BP21," ")&amp;IF(BQ21&lt;&gt;0," ; 2017_i="&amp;BQ21," ")&amp;IF(BR21&lt;&gt;0," ; 2016_A="&amp;BR21," ")&amp;IF(BS21&lt;&gt;0," ; 2016_i="&amp;BS21," ")&amp;IF(BT21&lt;&gt;0," ; 2015_A="&amp;BT21," ")&amp;IF(BU21&lt;&gt;0," ; 2015_i="&amp;BU21," ")&amp;IF(BV21&lt;&gt;0," ; 2014_A="&amp;BV21," ")&amp;IF(BW21&lt;&gt;0," ; 2014_i="&amp;BW21," ")</f>
+        <v xml:space="preserve">        ; 2019_i=1  ; 2018_i=1        </v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
@@ -4061,22 +4170,22 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="26"/>
       <c r="AO21" s="48" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="AP21" s="48" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="AQ21" s="51">
-        <v>13600</v>
+        <v>4000</v>
       </c>
       <c r="AR21" s="52" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="AS21" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT21" s="54" t="s">
-        <v>231</v>
+        <v>108</v>
+      </c>
+      <c r="AT21" s="53" t="s">
+        <v>195</v>
       </c>
       <c r="AU21" s="14"/>
       <c r="AV21" s="61"/>
@@ -4098,7 +4207,9 @@
         <v>1</v>
       </c>
       <c r="BN21" s="60"/>
-      <c r="BO21" s="60"/>
+      <c r="BO21" s="60">
+        <v>1</v>
+      </c>
       <c r="BP21" s="60"/>
       <c r="BQ21" s="60"/>
       <c r="BR21" s="60"/>
@@ -4111,15 +4222,18 @@
     </row>
     <row r="22" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>364</v>
+      </c>
+      <c r="D22" s="17" t="str">
+        <f>IF(BF22&lt;&gt;0,";2022_A="&amp;BF22," ")&amp;IF(BG22&lt;&gt;0," ; 2022_i="&amp;BG22," ")&amp;IF(BH22&lt;&gt;0,";2021_A="&amp;BH22," ")&amp;IF(BI22&lt;&gt;0," ; 2021_i="&amp;BI22," ")&amp;IF(BJ22&lt;&gt;0,";2020_A="&amp;BJ22," ")&amp;IF(BK22&lt;&gt;0," ; 2020_i="&amp;BK22," ")&amp;IF(BL22&lt;&gt;0,";2019_A="&amp;BL22," ")&amp;IF(BM22&lt;&gt;0," ; 2019_i="&amp;BM22," ")&amp;IF(BN22&lt;&gt;0,";2018_A="&amp;BN22," ")&amp;IF(BO22&lt;&gt;0," ; 2018_i="&amp;BO22," ")&amp;IF(BP22&lt;&gt;0," ; 2017_A="&amp;BP22," ")&amp;IF(BQ22&lt;&gt;0," ; 2017_i="&amp;BQ22," ")&amp;IF(BR22&lt;&gt;0," ; 2016_A="&amp;BR22," ")&amp;IF(BS22&lt;&gt;0," ; 2016_i="&amp;BS22," ")&amp;IF(BT22&lt;&gt;0," ; 2015_A="&amp;BT22," ")&amp;IF(BU22&lt;&gt;0," ; 2015_i="&amp;BU22," ")&amp;IF(BV22&lt;&gt;0," ; 2014_A="&amp;BV22," ")&amp;IF(BW22&lt;&gt;0," ; 2014_i="&amp;BW22," ")</f>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
+      </c>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
@@ -4157,22 +4271,22 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="26"/>
       <c r="AO22" s="48" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="AP22" s="48" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="AQ22" s="51">
-        <v>83300</v>
+        <v>26000</v>
       </c>
       <c r="AR22" s="52" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="AS22" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="AT22" s="54" t="s">
-        <v>291</v>
+        <v>369</v>
+      </c>
+      <c r="AT22" s="53" t="s">
+        <v>367</v>
       </c>
       <c r="AU22" s="14"/>
       <c r="AV22" s="61"/>
@@ -4186,7 +4300,9 @@
       <c r="BF22" s="59"/>
       <c r="BG22" s="59"/>
       <c r="BH22" s="59"/>
-      <c r="BI22" s="59"/>
+      <c r="BI22" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ22" s="59"/>
       <c r="BK22" s="59"/>
       <c r="BL22" s="59"/>
@@ -4205,17 +4321,17 @@
     </row>
     <row r="23" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="D23" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
@@ -4254,22 +4370,22 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="26"/>
       <c r="AO23" s="48" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="AP23" s="48" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AQ23" s="51">
-        <v>83460</v>
+        <v>6203</v>
       </c>
       <c r="AR23" s="52" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="AS23" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="AT23" s="54" t="s">
-        <v>216</v>
+        <v>252</v>
+      </c>
+      <c r="AT23" s="53" t="s">
+        <v>254</v>
       </c>
       <c r="AU23" s="14"/>
       <c r="AV23" s="61"/>
@@ -4287,11 +4403,11 @@
       <c r="BJ23" s="59"/>
       <c r="BK23" s="59"/>
       <c r="BL23" s="59"/>
-      <c r="BM23" s="59"/>
+      <c r="BM23" s="59">
+        <v>1</v>
+      </c>
       <c r="BN23" s="60"/>
-      <c r="BO23" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO23" s="60"/>
       <c r="BP23" s="60"/>
       <c r="BQ23" s="60"/>
       <c r="BR23" s="60"/>
@@ -4304,17 +4420,17 @@
     </row>
     <row r="24" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>335</v>
+        <v>256</v>
       </c>
       <c r="D24" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
@@ -4353,22 +4469,22 @@
       <c r="AM24" s="10"/>
       <c r="AN24" s="26"/>
       <c r="AO24" s="48" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="AP24" s="48" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="AQ24" s="51">
-        <v>4800</v>
+        <v>83390</v>
       </c>
       <c r="AR24" s="52" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="AS24" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT24" s="54" t="s">
-        <v>180</v>
+        <v>261</v>
+      </c>
+      <c r="AT24" s="53" t="s">
+        <v>259</v>
       </c>
       <c r="AU24" s="14"/>
       <c r="AV24" s="61"/>
@@ -4386,13 +4502,13 @@
       <c r="BJ24" s="59"/>
       <c r="BK24" s="59"/>
       <c r="BL24" s="59"/>
-      <c r="BM24" s="59"/>
+      <c r="BM24" s="59">
+        <v>1</v>
+      </c>
       <c r="BN24" s="60"/>
       <c r="BO24" s="60"/>
       <c r="BP24" s="60"/>
-      <c r="BQ24" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ24" s="60"/>
       <c r="BR24" s="60"/>
       <c r="BS24" s="60"/>
       <c r="BT24" s="60"/>
@@ -4403,13 +4519,13 @@
     </row>
     <row r="25" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>314</v>
+        <v>172</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D25" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4452,20 +4568,20 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="26"/>
       <c r="AO25" s="48" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AP25" s="48" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AQ25" s="51">
-        <v>13290</v>
-      </c>
-      <c r="AR25" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS25" s="53"/>
+        <v>13600</v>
+      </c>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="53" t="s">
+        <v>183</v>
+      </c>
       <c r="AT25" s="54" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AU25" s="14"/>
       <c r="AV25" s="61"/>
@@ -4500,17 +4616,17 @@
     </row>
     <row r="26" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="D26" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
@@ -4549,22 +4665,22 @@
       <c r="AM26" s="10"/>
       <c r="AN26" s="26"/>
       <c r="AO26" s="48" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="AP26" s="48" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AQ26" s="51">
-        <v>13250</v>
+        <v>13600</v>
       </c>
       <c r="AR26" s="52" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="AS26" s="53" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="AT26" s="54" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="AU26" s="14"/>
       <c r="AV26" s="61"/>
@@ -4582,13 +4698,13 @@
       <c r="BJ26" s="59"/>
       <c r="BK26" s="59"/>
       <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
+      <c r="BM26" s="59">
+        <v>1</v>
+      </c>
       <c r="BN26" s="60"/>
       <c r="BO26" s="60"/>
       <c r="BP26" s="60"/>
-      <c r="BQ26" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ26" s="60"/>
       <c r="BR26" s="60"/>
       <c r="BS26" s="60"/>
       <c r="BT26" s="60"/>
@@ -4599,18 +4715,15 @@
     </row>
     <row r="27" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D27" s="17"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
@@ -4648,22 +4761,22 @@
       <c r="AM27" s="10"/>
       <c r="AN27" s="26"/>
       <c r="AO27" s="48" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="AP27" s="48" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="AQ27" s="51">
-        <v>830130</v>
+        <v>83300</v>
       </c>
       <c r="AR27" s="52" t="s">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="AS27" s="53" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="AT27" s="54" t="s">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="AU27" s="14"/>
       <c r="AV27" s="61"/>
@@ -4689,9 +4802,7 @@
       <c r="BR27" s="60"/>
       <c r="BS27" s="60"/>
       <c r="BT27" s="60"/>
-      <c r="BU27" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU27" s="60"/>
       <c r="BV27" s="60"/>
       <c r="BW27" s="60"/>
       <c r="CN27" s="11"/>
@@ -4704,11 +4815,11 @@
         <v>314</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D28" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4747,20 +4858,22 @@
       <c r="AM28" s="10"/>
       <c r="AN28" s="26"/>
       <c r="AO28" s="48" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="AP28" s="48" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="AQ28" s="51">
-        <v>84000</v>
-      </c>
-      <c r="AR28" s="52"/>
+        <v>83460</v>
+      </c>
+      <c r="AR28" s="52" t="s">
+        <v>217</v>
+      </c>
       <c r="AS28" s="53" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="AT28" s="54" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="AU28" s="14"/>
       <c r="AV28" s="61"/>
@@ -4780,7 +4893,9 @@
       <c r="BL28" s="59"/>
       <c r="BM28" s="59"/>
       <c r="BN28" s="60"/>
-      <c r="BO28" s="60"/>
+      <c r="BO28" s="60">
+        <v>1</v>
+      </c>
       <c r="BP28" s="60"/>
       <c r="BQ28" s="60"/>
       <c r="BR28" s="60"/>
@@ -4799,11 +4914,11 @@
         <v>314</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>157</v>
+        <v>335</v>
       </c>
       <c r="D29" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -4842,22 +4957,22 @@
       <c r="AM29" s="10"/>
       <c r="AN29" s="26"/>
       <c r="AO29" s="48" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="AP29" s="48" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="AQ29" s="51">
-        <v>84700</v>
+        <v>4800</v>
       </c>
       <c r="AR29" s="52" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AS29" s="53" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="AT29" s="54" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AU29" s="14"/>
       <c r="AV29" s="61"/>
@@ -4879,13 +4994,13 @@
       <c r="BN29" s="60"/>
       <c r="BO29" s="60"/>
       <c r="BP29" s="60"/>
-      <c r="BQ29" s="60"/>
+      <c r="BQ29" s="60">
+        <v>1</v>
+      </c>
       <c r="BR29" s="60"/>
       <c r="BS29" s="60"/>
       <c r="BT29" s="60"/>
-      <c r="BU29" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU29" s="60"/>
       <c r="BV29" s="60"/>
       <c r="BW29" s="60"/>
       <c r="CN29" s="11"/>
@@ -4898,11 +5013,11 @@
         <v>314</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D30" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -4941,20 +5056,20 @@
       <c r="AM30" s="10"/>
       <c r="AN30" s="26"/>
       <c r="AO30" s="48" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="AP30" s="48" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="AQ30" s="51">
-        <v>13209</v>
-      </c>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="53" t="s">
-        <v>104</v>
-      </c>
+        <v>13290</v>
+      </c>
+      <c r="AR30" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS30" s="53"/>
       <c r="AT30" s="54" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="AU30" s="14"/>
       <c r="AV30" s="61"/>
@@ -4974,11 +5089,11 @@
       <c r="BL30" s="59"/>
       <c r="BM30" s="59"/>
       <c r="BN30" s="60"/>
-      <c r="BO30" s="60">
+      <c r="BO30" s="60"/>
+      <c r="BP30" s="60"/>
+      <c r="BQ30" s="60">
         <v>1</v>
       </c>
-      <c r="BP30" s="60"/>
-      <c r="BQ30" s="60"/>
       <c r="BR30" s="60"/>
       <c r="BS30" s="60"/>
       <c r="BT30" s="60"/>
@@ -4989,17 +5104,17 @@
     </row>
     <row r="31" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D31" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
@@ -5038,22 +5153,22 @@
       <c r="AM31" s="10"/>
       <c r="AN31" s="26"/>
       <c r="AO31" s="48" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AP31" s="48" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="AQ31" s="51">
-        <v>84200</v>
+        <v>13250</v>
       </c>
       <c r="AR31" s="52" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="AS31" s="53" t="s">
         <v>104</v>
       </c>
       <c r="AT31" s="54" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="AU31" s="14"/>
       <c r="AV31" s="61"/>
@@ -5069,15 +5184,15 @@
       <c r="BH31" s="59"/>
       <c r="BI31" s="59"/>
       <c r="BJ31" s="59"/>
-      <c r="BK31" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK31" s="59"/>
       <c r="BL31" s="59"/>
       <c r="BM31" s="59"/>
       <c r="BN31" s="60"/>
       <c r="BO31" s="60"/>
       <c r="BP31" s="60"/>
-      <c r="BQ31" s="60"/>
+      <c r="BQ31" s="60">
+        <v>1</v>
+      </c>
       <c r="BR31" s="60"/>
       <c r="BS31" s="60"/>
       <c r="BT31" s="60"/>
@@ -5094,11 +5209,11 @@
         <v>314</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c r="D32" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1          ; 2015_i=1  </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
@@ -5137,22 +5252,22 @@
       <c r="AM32" s="10"/>
       <c r="AN32" s="26"/>
       <c r="AO32" s="48" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AP32" s="48" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="AQ32" s="51">
-        <v>84290</v>
+        <v>830130</v>
       </c>
       <c r="AR32" s="52" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AS32" s="53" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AT32" s="54" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AU32" s="14"/>
       <c r="AV32" s="61"/>
@@ -5168,9 +5283,7 @@
       <c r="BH32" s="59"/>
       <c r="BI32" s="59"/>
       <c r="BJ32" s="59"/>
-      <c r="BK32" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK32" s="59"/>
       <c r="BL32" s="59"/>
       <c r="BM32" s="59"/>
       <c r="BN32" s="60"/>
@@ -5189,17 +5302,17 @@
     </row>
     <row r="33" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D33" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
@@ -5237,21 +5350,21 @@
       <c r="AL33" s="10"/>
       <c r="AM33" s="10"/>
       <c r="AN33" s="26"/>
-      <c r="AO33" s="48"/>
+      <c r="AO33" s="48" t="s">
+        <v>163</v>
+      </c>
       <c r="AP33" s="48" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="AQ33" s="51">
-        <v>13108</v>
-      </c>
-      <c r="AR33" s="52" t="s">
-        <v>208</v>
-      </c>
+        <v>84000</v>
+      </c>
+      <c r="AR33" s="52"/>
       <c r="AS33" s="53" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="AT33" s="54" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="AU33" s="14"/>
       <c r="AV33" s="61"/>
@@ -5271,9 +5384,7 @@
       <c r="BL33" s="59"/>
       <c r="BM33" s="59"/>
       <c r="BN33" s="60"/>
-      <c r="BO33" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO33" s="60"/>
       <c r="BP33" s="60"/>
       <c r="BQ33" s="60"/>
       <c r="BR33" s="60"/>
@@ -5286,17 +5397,17 @@
     </row>
     <row r="34" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D34" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1      ; 2015_i=1  </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
@@ -5335,22 +5446,22 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="26"/>
       <c r="AO34" s="48" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AP34" s="48" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="AQ34" s="51">
-        <v>4000</v>
+        <v>84700</v>
       </c>
       <c r="AR34" s="52" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AS34" s="53" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AT34" s="54" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="61"/>
@@ -5370,9 +5481,7 @@
       <c r="BL34" s="59"/>
       <c r="BM34" s="59"/>
       <c r="BN34" s="60"/>
-      <c r="BO34" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO34" s="60"/>
       <c r="BP34" s="60"/>
       <c r="BQ34" s="60"/>
       <c r="BR34" s="60"/>
@@ -5393,11 +5502,11 @@
         <v>314</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D35" s="17" t="str">
-        <f t="shared" ref="D35:D58" si="1">IF(BF35&lt;&gt;0,";2022_A="&amp;BF35," ")&amp;IF(BG35&lt;&gt;0," ; 2022_i="&amp;BG35," ")&amp;IF(BH35&lt;&gt;0,";2021_A="&amp;BH35," ")&amp;IF(BI35&lt;&gt;0," ; 2021_i="&amp;BI35," ")&amp;IF(BJ35&lt;&gt;0,";2020_A="&amp;BJ35," ")&amp;IF(BK35&lt;&gt;0," ; 2020_i="&amp;BK35," ")&amp;IF(BL35&lt;&gt;0,";2019_A="&amp;BL35," ")&amp;IF(BM35&lt;&gt;0," ; 2019_i="&amp;BM35," ")&amp;IF(BN35&lt;&gt;0,";2018_A="&amp;BN35," ")&amp;IF(BO35&lt;&gt;0," ; 2018_i="&amp;BO35," ")&amp;IF(BP35&lt;&gt;0," ; 2017_A="&amp;BP35," ")&amp;IF(BQ35&lt;&gt;0," ; 2017_i="&amp;BQ35," ")&amp;IF(BR35&lt;&gt;0," ; 2016_A="&amp;BR35," ")&amp;IF(BS35&lt;&gt;0," ; 2016_i="&amp;BS35," ")&amp;IF(BT35&lt;&gt;0," ; 2015_A="&amp;BT35," ")&amp;IF(BU35&lt;&gt;0," ; 2015_i="&amp;BU35," ")&amp;IF(BV35&lt;&gt;0," ; 2014_A="&amp;BV35," ")&amp;IF(BW35&lt;&gt;0," ; 2014_i="&amp;BW35," ")</f>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
@@ -5436,22 +5545,20 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="26"/>
       <c r="AO35" s="48" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="AP35" s="48" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="AQ35" s="51">
-        <v>13010</v>
-      </c>
-      <c r="AR35" s="52" t="s">
-        <v>144</v>
-      </c>
+        <v>13209</v>
+      </c>
+      <c r="AR35" s="52"/>
       <c r="AS35" s="53" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="AT35" s="54" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="AU35" s="14"/>
       <c r="AV35" s="61"/>
@@ -5471,32 +5578,32 @@
       <c r="BL35" s="59"/>
       <c r="BM35" s="59"/>
       <c r="BN35" s="60"/>
-      <c r="BO35" s="60"/>
+      <c r="BO35" s="60">
+        <v>1</v>
+      </c>
       <c r="BP35" s="60"/>
       <c r="BQ35" s="60"/>
       <c r="BR35" s="60"/>
       <c r="BS35" s="60"/>
       <c r="BT35" s="60"/>
-      <c r="BU35" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU35" s="60"/>
       <c r="BV35" s="60"/>
       <c r="BW35" s="60"/>
       <c r="CN35" s="11"/>
     </row>
     <row r="36" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="D36" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="46"/>
@@ -5535,22 +5642,22 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="26"/>
       <c r="AO36" s="48" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="AP36" s="48" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="AQ36" s="51">
-        <v>83310</v>
+        <v>84200</v>
       </c>
       <c r="AR36" s="52" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="AS36" s="53" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AT36" s="54" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="AU36" s="14"/>
       <c r="AV36" s="61"/>
@@ -5566,7 +5673,9 @@
       <c r="BH36" s="59"/>
       <c r="BI36" s="59"/>
       <c r="BJ36" s="59"/>
-      <c r="BK36" s="59"/>
+      <c r="BK36" s="59">
+        <v>1</v>
+      </c>
       <c r="BL36" s="59"/>
       <c r="BM36" s="59"/>
       <c r="BN36" s="60"/>
@@ -5576,26 +5685,24 @@
       <c r="BR36" s="60"/>
       <c r="BS36" s="60"/>
       <c r="BT36" s="60"/>
-      <c r="BU36" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU36" s="60"/>
       <c r="BV36" s="60"/>
       <c r="BW36" s="60"/>
       <c r="CN36" s="11"/>
     </row>
     <row r="37" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D37" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      ; 2020_i=1          ; 2015_i=1  </v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="46"/>
@@ -5677,24 +5784,26 @@
       <c r="BR37" s="60"/>
       <c r="BS37" s="60"/>
       <c r="BT37" s="60"/>
-      <c r="BU37" s="60"/>
+      <c r="BU37" s="60">
+        <v>1</v>
+      </c>
       <c r="BV37" s="60"/>
       <c r="BW37" s="60"/>
       <c r="CN37" s="11"/>
     </row>
     <row r="38" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="D38" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="46"/>
@@ -5732,23 +5841,21 @@
       <c r="AL38" s="10"/>
       <c r="AM38" s="10"/>
       <c r="AN38" s="26"/>
-      <c r="AO38" s="48" t="s">
-        <v>129</v>
-      </c>
+      <c r="AO38" s="48"/>
       <c r="AP38" s="48" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="AQ38" s="51">
-        <v>84600</v>
+        <v>13108</v>
       </c>
       <c r="AR38" s="52" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="AS38" s="53" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="AT38" s="54" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="61"/>
@@ -5768,32 +5875,32 @@
       <c r="BL38" s="59"/>
       <c r="BM38" s="59"/>
       <c r="BN38" s="60"/>
-      <c r="BO38" s="60"/>
+      <c r="BO38" s="60">
+        <v>1</v>
+      </c>
       <c r="BP38" s="60"/>
       <c r="BQ38" s="60"/>
       <c r="BR38" s="60"/>
       <c r="BS38" s="60"/>
       <c r="BT38" s="60"/>
-      <c r="BU38" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU38" s="60"/>
       <c r="BV38" s="60"/>
       <c r="BW38" s="60"/>
       <c r="CN38" s="11"/>
     </row>
     <row r="39" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D39" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1      ; 2015_i=1  </v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
@@ -5832,22 +5939,22 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="26"/>
       <c r="AO39" s="48" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="AP39" s="48" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="AQ39" s="51">
-        <v>13790</v>
+        <v>4000</v>
       </c>
       <c r="AR39" s="52" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="AS39" s="53" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AT39" s="54" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="AU39" s="14"/>
       <c r="AV39" s="61"/>
@@ -5867,7 +5974,9 @@
       <c r="BL39" s="59"/>
       <c r="BM39" s="59"/>
       <c r="BN39" s="60"/>
-      <c r="BO39" s="60"/>
+      <c r="BO39" s="60">
+        <v>1</v>
+      </c>
       <c r="BP39" s="60"/>
       <c r="BQ39" s="60"/>
       <c r="BR39" s="60"/>
@@ -5885,14 +5994,14 @@
         <v>73</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="D40" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1          </v>
+        <f t="shared" ref="D40:D65" si="1">IF(BF40&lt;&gt;0,";2022_A="&amp;BF40," ")&amp;IF(BG40&lt;&gt;0," ; 2022_i="&amp;BG40," ")&amp;IF(BH40&lt;&gt;0,";2021_A="&amp;BH40," ")&amp;IF(BI40&lt;&gt;0," ; 2021_i="&amp;BI40," ")&amp;IF(BJ40&lt;&gt;0,";2020_A="&amp;BJ40," ")&amp;IF(BK40&lt;&gt;0," ; 2020_i="&amp;BK40," ")&amp;IF(BL40&lt;&gt;0,";2019_A="&amp;BL40," ")&amp;IF(BM40&lt;&gt;0," ; 2019_i="&amp;BM40," ")&amp;IF(BN40&lt;&gt;0,";2018_A="&amp;BN40," ")&amp;IF(BO40&lt;&gt;0," ; 2018_i="&amp;BO40," ")&amp;IF(BP40&lt;&gt;0," ; 2017_A="&amp;BP40," ")&amp;IF(BQ40&lt;&gt;0," ; 2017_i="&amp;BQ40," ")&amp;IF(BR40&lt;&gt;0," ; 2016_A="&amp;BR40," ")&amp;IF(BS40&lt;&gt;0," ; 2016_i="&amp;BS40," ")&amp;IF(BT40&lt;&gt;0," ; 2015_A="&amp;BT40," ")&amp;IF(BU40&lt;&gt;0," ; 2015_i="&amp;BU40," ")&amp;IF(BV40&lt;&gt;0," ; 2014_A="&amp;BV40," ")&amp;IF(BW40&lt;&gt;0," ; 2014_i="&amp;BW40," ")</f>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="46"/>
@@ -5931,22 +6040,22 @@
       <c r="AM40" s="10"/>
       <c r="AN40" s="26"/>
       <c r="AO40" s="48" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="AP40" s="48" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="AQ40" s="51">
-        <v>4100</v>
+        <v>13010</v>
       </c>
       <c r="AR40" s="52" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="AS40" s="53" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AT40" s="54" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AU40" s="14"/>
       <c r="AV40" s="61"/>
@@ -5962,13 +6071,9 @@
       <c r="BH40" s="59"/>
       <c r="BI40" s="59"/>
       <c r="BJ40" s="59"/>
-      <c r="BK40" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK40" s="59"/>
       <c r="BL40" s="59"/>
-      <c r="BM40" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM40" s="59"/>
       <c r="BN40" s="60"/>
       <c r="BO40" s="60"/>
       <c r="BP40" s="60"/>
@@ -5976,24 +6081,26 @@
       <c r="BR40" s="60"/>
       <c r="BS40" s="60"/>
       <c r="BT40" s="60"/>
-      <c r="BU40" s="60"/>
+      <c r="BU40" s="60">
+        <v>1</v>
+      </c>
       <c r="BV40" s="60"/>
       <c r="BW40" s="60"/>
       <c r="CN40" s="11"/>
     </row>
     <row r="41" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>344</v>
+        <v>135</v>
       </c>
       <c r="D41" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=2            </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="46"/>
@@ -6032,22 +6139,22 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="26"/>
       <c r="AO41" s="48" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="AP41" s="48" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="AQ41" s="51">
-        <v>4100</v>
+        <v>83310</v>
       </c>
       <c r="AR41" s="52" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AS41" s="53" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="AT41" s="54" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AU41" s="14"/>
       <c r="AV41" s="61"/>
@@ -6063,9 +6170,7 @@
       <c r="BH41" s="59"/>
       <c r="BI41" s="59"/>
       <c r="BJ41" s="59"/>
-      <c r="BK41" s="59">
-        <v>2</v>
-      </c>
+      <c r="BK41" s="59"/>
       <c r="BL41" s="59"/>
       <c r="BM41" s="59"/>
       <c r="BN41" s="60"/>
@@ -6075,20 +6180,22 @@
       <c r="BR41" s="60"/>
       <c r="BS41" s="60"/>
       <c r="BT41" s="60"/>
-      <c r="BU41" s="60"/>
+      <c r="BU41" s="60">
+        <v>1</v>
+      </c>
       <c r="BV41" s="60"/>
       <c r="BW41" s="60"/>
       <c r="CN41" s="11"/>
     </row>
     <row r="42" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D42" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6131,22 +6238,22 @@
       <c r="AM42" s="10"/>
       <c r="AN42" s="26"/>
       <c r="AO42" s="48" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="AP42" s="48" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="AQ42" s="51">
-        <v>4100</v>
+        <v>84290</v>
       </c>
       <c r="AR42" s="52" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AS42" s="53" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="AT42" s="54" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="AU42" s="14"/>
       <c r="AV42" s="61"/>
@@ -6181,13 +6288,13 @@
     </row>
     <row r="43" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="D43" s="17" t="str">
         <f t="shared" si="1"/>
@@ -6230,22 +6337,22 @@
       <c r="AM43" s="10"/>
       <c r="AN43" s="26"/>
       <c r="AO43" s="48" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="AP43" s="48" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AQ43" s="51">
-        <v>4100</v>
+        <v>84600</v>
       </c>
       <c r="AR43" s="52" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="AS43" s="53" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="AT43" s="54" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AU43" s="14"/>
       <c r="AV43" s="61"/>
@@ -6280,17 +6387,17 @@
     </row>
     <row r="44" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D44" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1  ; 2015_i=1  </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="46"/>
@@ -6329,22 +6436,22 @@
       <c r="AM44" s="10"/>
       <c r="AN44" s="26"/>
       <c r="AO44" s="48" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AP44" s="48" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="AQ44" s="51">
-        <v>84200</v>
+        <v>13790</v>
       </c>
       <c r="AR44" s="52" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AS44" s="53" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="AT44" s="54" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AU44" s="14"/>
       <c r="AV44" s="61"/>
@@ -6368,9 +6475,7 @@
       <c r="BP44" s="60"/>
       <c r="BQ44" s="60"/>
       <c r="BR44" s="60"/>
-      <c r="BS44" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS44" s="60"/>
       <c r="BT44" s="60"/>
       <c r="BU44" s="60">
         <v>1</v>
@@ -6384,14 +6489,14 @@
         <v>73</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D45" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1          </v>
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="46"/>
@@ -6430,7 +6535,7 @@
       <c r="AM45" s="10"/>
       <c r="AN45" s="26"/>
       <c r="AO45" s="48" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="AP45" s="48" t="s">
         <v>120</v>
@@ -6438,12 +6543,14 @@
       <c r="AQ45" s="51">
         <v>4100</v>
       </c>
-      <c r="AR45" s="52"/>
+      <c r="AR45" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="AS45" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT45" s="53" t="s">
-        <v>264</v>
+        <v>117</v>
+      </c>
+      <c r="AT45" s="54" t="s">
+        <v>121</v>
       </c>
       <c r="AU45" s="14"/>
       <c r="AV45" s="61"/>
@@ -6459,7 +6566,9 @@
       <c r="BH45" s="59"/>
       <c r="BI45" s="59"/>
       <c r="BJ45" s="59"/>
-      <c r="BK45" s="59"/>
+      <c r="BK45" s="59">
+        <v>1</v>
+      </c>
       <c r="BL45" s="59"/>
       <c r="BM45" s="59">
         <v>1</v>
@@ -6478,17 +6587,17 @@
     </row>
     <row r="46" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="D46" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1      ; 2016_i=1    </v>
+        <v xml:space="preserve">      ; 2020_i=2            </v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="46"/>
@@ -6527,22 +6636,22 @@
       <c r="AM46" s="10"/>
       <c r="AN46" s="26"/>
       <c r="AO46" s="48" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AP46" s="48" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AQ46" s="51">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="AR46" s="52" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AS46" s="53" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AT46" s="54" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AU46" s="14"/>
       <c r="AV46" s="61"/>
@@ -6558,19 +6667,17 @@
       <c r="BH46" s="59"/>
       <c r="BI46" s="59"/>
       <c r="BJ46" s="59"/>
-      <c r="BK46" s="59"/>
+      <c r="BK46" s="59">
+        <v>2</v>
+      </c>
       <c r="BL46" s="59"/>
-      <c r="BM46" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM46" s="59"/>
       <c r="BN46" s="60"/>
       <c r="BO46" s="60"/>
       <c r="BP46" s="60"/>
       <c r="BQ46" s="60"/>
       <c r="BR46" s="60"/>
-      <c r="BS46" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS46" s="60"/>
       <c r="BT46" s="60"/>
       <c r="BU46" s="60"/>
       <c r="BV46" s="60"/>
@@ -6579,17 +6686,17 @@
     </row>
     <row r="47" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D47" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1      ; 2017_i=1  ; 2016_i=1  ; 2015_i=1  </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="46"/>
@@ -6628,22 +6735,22 @@
       <c r="AM47" s="10"/>
       <c r="AN47" s="26"/>
       <c r="AO47" s="48" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="AP47" s="48" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AQ47" s="51">
-        <v>6130</v>
+        <v>4100</v>
       </c>
       <c r="AR47" s="52" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="AS47" s="53" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AT47" s="54" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="AU47" s="14"/>
       <c r="AV47" s="61"/>
@@ -6667,34 +6774,28 @@
       <c r="BN47" s="60"/>
       <c r="BO47" s="60"/>
       <c r="BP47" s="60"/>
-      <c r="BQ47" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ47" s="60"/>
       <c r="BR47" s="60"/>
-      <c r="BS47" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS47" s="60"/>
       <c r="BT47" s="60"/>
-      <c r="BU47" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU47" s="60"/>
       <c r="BV47" s="60"/>
       <c r="BW47" s="60"/>
       <c r="CN47" s="11"/>
     </row>
     <row r="48" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="D48" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="46"/>
@@ -6733,22 +6834,22 @@
       <c r="AM48" s="10"/>
       <c r="AN48" s="26"/>
       <c r="AO48" s="48" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="AP48" s="48" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ48" s="51">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="AR48" s="52" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AS48" s="53" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="AT48" s="54" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="AU48" s="14"/>
       <c r="AV48" s="61"/>
@@ -6772,28 +6873,28 @@
       <c r="BP48" s="60"/>
       <c r="BQ48" s="60"/>
       <c r="BR48" s="60"/>
-      <c r="BS48" s="60">
+      <c r="BS48" s="60"/>
+      <c r="BT48" s="60"/>
+      <c r="BU48" s="60">
         <v>1</v>
       </c>
-      <c r="BT48" s="60"/>
-      <c r="BU48" s="60"/>
       <c r="BV48" s="60"/>
       <c r="BW48" s="60"/>
       <c r="CN48" s="11"/>
     </row>
-    <row r="49" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
       <c r="D49" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">              ; 2016_i=1  ; 2015_i=1  </v>
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="46"/>
@@ -6832,22 +6933,22 @@
       <c r="AM49" s="10"/>
       <c r="AN49" s="26"/>
       <c r="AO49" s="48" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="AP49" s="48" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="AQ49" s="51">
-        <v>83470</v>
+        <v>84200</v>
       </c>
       <c r="AR49" s="52" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AS49" s="53" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AT49" s="54" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="AU49" s="14"/>
       <c r="AV49" s="61"/>
@@ -6863,9 +6964,7 @@
       <c r="BH49" s="59"/>
       <c r="BI49" s="59"/>
       <c r="BJ49" s="59"/>
-      <c r="BK49" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK49" s="59"/>
       <c r="BL49" s="59"/>
       <c r="BM49" s="59"/>
       <c r="BN49" s="60"/>
@@ -6873,26 +6972,30 @@
       <c r="BP49" s="60"/>
       <c r="BQ49" s="60"/>
       <c r="BR49" s="60"/>
-      <c r="BS49" s="60"/>
+      <c r="BS49" s="60">
+        <v>1</v>
+      </c>
       <c r="BT49" s="60"/>
-      <c r="BU49" s="60"/>
+      <c r="BU49" s="60">
+        <v>1</v>
+      </c>
       <c r="BV49" s="60"/>
       <c r="BW49" s="60"/>
       <c r="CN49" s="11"/>
     </row>
-    <row r="50" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="D50" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="46"/>
@@ -6931,22 +7034,20 @@
       <c r="AM50" s="10"/>
       <c r="AN50" s="26"/>
       <c r="AO50" s="48" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="AP50" s="48" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AQ50" s="51">
-        <v>13100</v>
-      </c>
-      <c r="AR50" s="52" t="s">
-        <v>89</v>
-      </c>
+        <v>4100</v>
+      </c>
+      <c r="AR50" s="52"/>
       <c r="AS50" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT50" s="54" t="s">
-        <v>92</v>
+        <v>133</v>
+      </c>
+      <c r="AT50" s="53" t="s">
+        <v>264</v>
       </c>
       <c r="AU50" s="14"/>
       <c r="AV50" s="61"/>
@@ -6964,34 +7065,34 @@
       <c r="BJ50" s="59"/>
       <c r="BK50" s="59"/>
       <c r="BL50" s="59"/>
-      <c r="BM50" s="59"/>
+      <c r="BM50" s="59">
+        <v>1</v>
+      </c>
       <c r="BN50" s="60"/>
       <c r="BO50" s="60"/>
       <c r="BP50" s="60"/>
       <c r="BQ50" s="60"/>
       <c r="BR50" s="60"/>
-      <c r="BS50" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS50" s="60"/>
       <c r="BT50" s="60"/>
       <c r="BU50" s="60"/>
       <c r="BV50" s="60"/>
       <c r="BW50" s="60"/>
       <c r="CN50" s="11"/>
     </row>
-    <row r="51" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="D51" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">        ; 2019_i=1      ; 2016_i=1    </v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="46"/>
@@ -7030,22 +7131,22 @@
       <c r="AM51" s="10"/>
       <c r="AN51" s="26"/>
       <c r="AO51" s="48" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="AP51" s="48" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AQ51" s="51">
-        <v>13400</v>
+        <v>4000</v>
       </c>
       <c r="AR51" s="52" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="AS51" s="53" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="AT51" s="54" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="AU51" s="14"/>
       <c r="AV51" s="61"/>
@@ -7063,7 +7164,9 @@
       <c r="BJ51" s="59"/>
       <c r="BK51" s="59"/>
       <c r="BL51" s="59"/>
-      <c r="BM51" s="59"/>
+      <c r="BM51" s="59">
+        <v>1</v>
+      </c>
       <c r="BN51" s="60"/>
       <c r="BO51" s="60"/>
       <c r="BP51" s="60"/>
@@ -7078,19 +7181,19 @@
       <c r="BW51" s="60"/>
       <c r="CN51" s="11"/>
     </row>
-    <row r="52" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D52" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">      ; 2020_i=1      ; 2017_i=1  ; 2016_i=1  ; 2015_i=1  </v>
       </c>
       <c r="E52" s="46"/>
       <c r="F52" s="46"/>
@@ -7129,22 +7232,22 @@
       <c r="AM52" s="10"/>
       <c r="AN52" s="26"/>
       <c r="AO52" s="48" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AP52" s="48" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AQ52" s="51">
-        <v>83170</v>
+        <v>6130</v>
       </c>
       <c r="AR52" s="52" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AS52" s="53" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AT52" s="54" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AU52" s="14"/>
       <c r="AV52" s="61"/>
@@ -7160,24 +7263,30 @@
       <c r="BH52" s="59"/>
       <c r="BI52" s="59"/>
       <c r="BJ52" s="59"/>
-      <c r="BK52" s="59"/>
+      <c r="BK52" s="59">
+        <v>1</v>
+      </c>
       <c r="BL52" s="59"/>
       <c r="BM52" s="59"/>
       <c r="BN52" s="60"/>
       <c r="BO52" s="60"/>
       <c r="BP52" s="60"/>
-      <c r="BQ52" s="60"/>
+      <c r="BQ52" s="60">
+        <v>1</v>
+      </c>
       <c r="BR52" s="60"/>
       <c r="BS52" s="60">
         <v>1</v>
       </c>
       <c r="BT52" s="60"/>
-      <c r="BU52" s="60"/>
+      <c r="BU52" s="60">
+        <v>1</v>
+      </c>
       <c r="BV52" s="60"/>
       <c r="BW52" s="60"/>
       <c r="CN52" s="11"/>
     </row>
-    <row r="53" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>73</v>
       </c>
@@ -7185,11 +7294,11 @@
         <v>314</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="D53" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="46"/>
@@ -7228,22 +7337,22 @@
       <c r="AM53" s="10"/>
       <c r="AN53" s="26"/>
       <c r="AO53" s="48" t="s">
-        <v>70</v>
+        <v>349</v>
       </c>
       <c r="AP53" s="48" t="s">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="AQ53" s="51">
-        <v>13002</v>
+        <v>26200</v>
       </c>
       <c r="AR53" s="52" t="s">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AS53" s="53" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="AT53" s="54" t="s">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="AU53" s="14"/>
       <c r="AV53" s="61"/>
@@ -7257,7 +7366,9 @@
       <c r="BF53" s="59"/>
       <c r="BG53" s="59"/>
       <c r="BH53" s="59"/>
-      <c r="BI53" s="59"/>
+      <c r="BI53" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ53" s="59"/>
       <c r="BK53" s="59"/>
       <c r="BL53" s="59"/>
@@ -7267,16 +7378,14 @@
       <c r="BP53" s="60"/>
       <c r="BQ53" s="60"/>
       <c r="BR53" s="60"/>
-      <c r="BS53" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS53" s="60"/>
       <c r="BT53" s="60"/>
       <c r="BU53" s="60"/>
       <c r="BV53" s="60"/>
       <c r="BW53" s="60"/>
       <c r="CN53" s="11"/>
     </row>
-    <row r="54" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>73</v>
       </c>
@@ -7284,11 +7393,11 @@
         <v>314</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="D54" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1    ; 2017_i=1  ; 2016_i=1    </v>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
       </c>
       <c r="E54" s="46"/>
       <c r="F54" s="46"/>
@@ -7327,22 +7436,22 @@
       <c r="AM54" s="10"/>
       <c r="AN54" s="26"/>
       <c r="AO54" s="48" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="AP54" s="48" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AQ54" s="51">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="AR54" s="52" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="AS54" s="53" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="AT54" s="54" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="AU54" s="14"/>
       <c r="AV54" s="61"/>
@@ -7360,15 +7469,11 @@
       <c r="BJ54" s="59"/>
       <c r="BK54" s="59"/>
       <c r="BL54" s="59"/>
-      <c r="BM54" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM54" s="59"/>
       <c r="BN54" s="60"/>
       <c r="BO54" s="60"/>
       <c r="BP54" s="60"/>
-      <c r="BQ54" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ54" s="60"/>
       <c r="BR54" s="60"/>
       <c r="BS54" s="60">
         <v>1</v>
@@ -7379,19 +7484,19 @@
       <c r="BW54" s="60"/>
       <c r="CN54" s="11"/>
     </row>
-    <row r="55" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>301</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>60</v>
+        <v>324</v>
       </c>
       <c r="D55" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E55" s="46"/>
       <c r="F55" s="46"/>
@@ -7430,22 +7535,22 @@
       <c r="AM55" s="10"/>
       <c r="AN55" s="26"/>
       <c r="AO55" s="48" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="AP55" s="48" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="AQ55" s="51">
-        <v>83600</v>
-      </c>
-      <c r="AR55" s="52">
-        <v>33969329328</v>
+        <v>83470</v>
+      </c>
+      <c r="AR55" s="52" t="s">
+        <v>296</v>
       </c>
       <c r="AS55" s="53" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="AT55" s="54" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="AU55" s="14"/>
       <c r="AV55" s="61"/>
@@ -7461,7 +7566,9 @@
       <c r="BH55" s="59"/>
       <c r="BI55" s="59"/>
       <c r="BJ55" s="59"/>
-      <c r="BK55" s="59"/>
+      <c r="BK55" s="59">
+        <v>1</v>
+      </c>
       <c r="BL55" s="59"/>
       <c r="BM55" s="59"/>
       <c r="BN55" s="60"/>
@@ -7469,26 +7576,27 @@
       <c r="BP55" s="60"/>
       <c r="BQ55" s="60"/>
       <c r="BR55" s="60"/>
-      <c r="BS55" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS55" s="60"/>
       <c r="BT55" s="60"/>
       <c r="BU55" s="60"/>
       <c r="BV55" s="60"/>
       <c r="BW55" s="60"/>
       <c r="CN55" s="11"/>
     </row>
-    <row r="56" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="17"/>
+        <v>323</v>
+      </c>
+      <c r="D56" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
       <c r="E56" s="46"/>
       <c r="F56" s="46"/>
       <c r="G56" s="46"/>
@@ -7526,20 +7634,22 @@
       <c r="AM56" s="10"/>
       <c r="AN56" s="26"/>
       <c r="AO56" s="48" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="AP56" s="48" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="AQ56" s="51">
-        <v>6414</v>
+        <v>13100</v>
       </c>
       <c r="AR56" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS56" s="53"/>
+        <v>89</v>
+      </c>
+      <c r="AS56" s="53" t="s">
+        <v>91</v>
+      </c>
       <c r="AT56" s="54" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="AU56" s="14"/>
       <c r="AV56" s="61"/>
@@ -7563,22 +7673,24 @@
       <c r="BP56" s="60"/>
       <c r="BQ56" s="60"/>
       <c r="BR56" s="60"/>
-      <c r="BS56" s="60"/>
+      <c r="BS56" s="60">
+        <v>1</v>
+      </c>
       <c r="BT56" s="60"/>
       <c r="BU56" s="60"/>
       <c r="BV56" s="60"/>
       <c r="BW56" s="60"/>
       <c r="CN56" s="11"/>
     </row>
-    <row r="57" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D57" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7621,20 +7733,22 @@
       <c r="AM57" s="10"/>
       <c r="AN57" s="26"/>
       <c r="AO57" s="48" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AP57" s="48" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AQ57" s="51">
-        <v>83480</v>
+        <v>13400</v>
       </c>
       <c r="AR57" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS57" s="53"/>
+        <v>86</v>
+      </c>
+      <c r="AS57" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="AT57" s="54" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="AU57" s="14"/>
       <c r="AV57" s="61"/>
@@ -7667,501 +7781,865 @@
       <c r="BW57" s="60"/>
       <c r="CN57" s="11"/>
     </row>
-    <row r="58" spans="1:93" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>48</v>
+    <row r="58" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="D58" s="17" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="26"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="26"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="26"/>
+      <c r="AO58" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP58" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ58" s="51">
+        <v>83170</v>
+      </c>
+      <c r="AR58" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS58" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT58" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU58" s="14"/>
+      <c r="AV58" s="61"/>
+      <c r="AW58" s="27"/>
+      <c r="AX58" s="26"/>
+      <c r="AY58" s="27"/>
+      <c r="AZ58" s="27"/>
+      <c r="BA58" s="27"/>
+      <c r="BC58" s="45"/>
+      <c r="BE58" s="45"/>
+      <c r="BF58" s="59"/>
+      <c r="BG58" s="59"/>
+      <c r="BH58" s="59"/>
+      <c r="BI58" s="59"/>
+      <c r="BJ58" s="59"/>
+      <c r="BK58" s="59"/>
+      <c r="BL58" s="59"/>
+      <c r="BM58" s="59"/>
+      <c r="BN58" s="60"/>
+      <c r="BO58" s="60"/>
+      <c r="BP58" s="60"/>
+      <c r="BQ58" s="60"/>
+      <c r="BR58" s="60"/>
+      <c r="BS58" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT58" s="60"/>
+      <c r="BU58" s="60"/>
+      <c r="BV58" s="60"/>
+      <c r="BW58" s="60"/>
+      <c r="CN58" s="11"/>
+    </row>
+    <row r="59" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="26"/>
+      <c r="AG59" s="26"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="26"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="26"/>
+      <c r="AO59" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP59" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ59" s="51">
+        <v>13002</v>
+      </c>
+      <c r="AR59" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS59" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT59" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU59" s="14"/>
+      <c r="AV59" s="61"/>
+      <c r="AW59" s="27"/>
+      <c r="AX59" s="26"/>
+      <c r="AY59" s="27"/>
+      <c r="AZ59" s="27"/>
+      <c r="BA59" s="27"/>
+      <c r="BC59" s="45"/>
+      <c r="BE59" s="45"/>
+      <c r="BF59" s="59"/>
+      <c r="BG59" s="59"/>
+      <c r="BH59" s="59"/>
+      <c r="BI59" s="59"/>
+      <c r="BJ59" s="59"/>
+      <c r="BK59" s="59"/>
+      <c r="BL59" s="59"/>
+      <c r="BM59" s="59"/>
+      <c r="BN59" s="60"/>
+      <c r="BO59" s="60"/>
+      <c r="BP59" s="60"/>
+      <c r="BQ59" s="60"/>
+      <c r="BR59" s="60"/>
+      <c r="BS59" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT59" s="60"/>
+      <c r="BU59" s="60"/>
+      <c r="BV59" s="60"/>
+      <c r="BW59" s="60"/>
+      <c r="CN59" s="11"/>
+    </row>
+    <row r="60" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1    ; 2017_i=1  ; 2016_i=1    </v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="26"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="26"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="26"/>
+      <c r="AO60" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP60" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ60" s="51">
+        <v>5000</v>
+      </c>
+      <c r="AR60" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS60" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT60" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU60" s="14"/>
+      <c r="AV60" s="61"/>
+      <c r="AW60" s="27"/>
+      <c r="AX60" s="26"/>
+      <c r="AY60" s="27"/>
+      <c r="AZ60" s="27"/>
+      <c r="BA60" s="27"/>
+      <c r="BC60" s="45"/>
+      <c r="BE60" s="45"/>
+      <c r="BF60" s="59"/>
+      <c r="BG60" s="59"/>
+      <c r="BH60" s="59"/>
+      <c r="BI60" s="59"/>
+      <c r="BJ60" s="59"/>
+      <c r="BK60" s="59">
+        <v>1</v>
+      </c>
+      <c r="BL60" s="59"/>
+      <c r="BM60" s="59">
+        <v>1</v>
+      </c>
+      <c r="BN60" s="60"/>
+      <c r="BO60" s="60"/>
+      <c r="BP60" s="60"/>
+      <c r="BQ60" s="60">
+        <v>1</v>
+      </c>
+      <c r="BR60" s="60"/>
+      <c r="BS60" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT60" s="60"/>
+      <c r="BU60" s="60"/>
+      <c r="BV60" s="60"/>
+      <c r="BW60" s="60"/>
+      <c r="CN60" s="11"/>
+    </row>
+    <row r="61" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="26"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="26"/>
+      <c r="AG61" s="26"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="26"/>
+      <c r="AK61" s="10"/>
+      <c r="AL61" s="10"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="26"/>
+      <c r="AO61" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP61" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ61" s="51">
+        <v>83600</v>
+      </c>
+      <c r="AR61" s="52">
+        <v>33969329328</v>
+      </c>
+      <c r="AS61" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT61" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU61" s="14"/>
+      <c r="AV61" s="61"/>
+      <c r="AW61" s="27"/>
+      <c r="AX61" s="26"/>
+      <c r="AY61" s="27"/>
+      <c r="AZ61" s="27"/>
+      <c r="BA61" s="27"/>
+      <c r="BC61" s="45"/>
+      <c r="BE61" s="45"/>
+      <c r="BF61" s="59"/>
+      <c r="BG61" s="59"/>
+      <c r="BH61" s="59"/>
+      <c r="BI61" s="59"/>
+      <c r="BJ61" s="59"/>
+      <c r="BK61" s="59"/>
+      <c r="BL61" s="59"/>
+      <c r="BM61" s="59"/>
+      <c r="BN61" s="60"/>
+      <c r="BO61" s="60"/>
+      <c r="BP61" s="60"/>
+      <c r="BQ61" s="60"/>
+      <c r="BR61" s="60"/>
+      <c r="BS61" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT61" s="60"/>
+      <c r="BU61" s="60"/>
+      <c r="BV61" s="60"/>
+      <c r="BW61" s="60"/>
+      <c r="CN61" s="11"/>
+    </row>
+    <row r="62" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="17" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="19"/>
-      <c r="AG58" s="19"/>
-      <c r="AH58" s="18"/>
-      <c r="AI58" s="18"/>
-      <c r="AJ58" s="19"/>
-      <c r="AK58" s="18"/>
-      <c r="AL58" s="18"/>
-      <c r="AM58" s="18"/>
-      <c r="AN58" s="19"/>
-      <c r="AO58" s="50" t="s">
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="26"/>
+      <c r="AH62" s="10"/>
+      <c r="AI62" s="10"/>
+      <c r="AJ62" s="26"/>
+      <c r="AK62" s="10"/>
+      <c r="AL62" s="10"/>
+      <c r="AM62" s="10"/>
+      <c r="AN62" s="26"/>
+      <c r="AO62" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP62" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ62" s="51">
+        <v>6414</v>
+      </c>
+      <c r="AR62" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS62" s="53"/>
+      <c r="AT62" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU62" s="14"/>
+      <c r="AV62" s="61"/>
+      <c r="AW62" s="27"/>
+      <c r="AX62" s="26"/>
+      <c r="AY62" s="27"/>
+      <c r="AZ62" s="27"/>
+      <c r="BA62" s="27"/>
+      <c r="BC62" s="45"/>
+      <c r="BE62" s="45"/>
+      <c r="BF62" s="59"/>
+      <c r="BG62" s="59"/>
+      <c r="BH62" s="59"/>
+      <c r="BI62" s="59"/>
+      <c r="BJ62" s="59"/>
+      <c r="BK62" s="59"/>
+      <c r="BL62" s="59"/>
+      <c r="BM62" s="59"/>
+      <c r="BN62" s="60"/>
+      <c r="BO62" s="60"/>
+      <c r="BP62" s="60"/>
+      <c r="BQ62" s="60"/>
+      <c r="BR62" s="60"/>
+      <c r="BS62" s="60"/>
+      <c r="BT62" s="60"/>
+      <c r="BU62" s="60"/>
+      <c r="BV62" s="60"/>
+      <c r="BW62" s="60"/>
+      <c r="CN62" s="11"/>
+    </row>
+    <row r="63" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
+      </c>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="26"/>
+      <c r="AG63" s="26"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="26"/>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="26"/>
+      <c r="AO63" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP63" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ63" s="51">
+        <v>11100</v>
+      </c>
+      <c r="AR63" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS63" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT63" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU63" s="14"/>
+      <c r="AV63" s="61"/>
+      <c r="AW63" s="27"/>
+      <c r="AX63" s="26"/>
+      <c r="AY63" s="27"/>
+      <c r="AZ63" s="27"/>
+      <c r="BA63" s="27"/>
+      <c r="BC63" s="45"/>
+      <c r="BE63" s="45"/>
+      <c r="BF63" s="59"/>
+      <c r="BG63" s="59"/>
+      <c r="BH63" s="59"/>
+      <c r="BI63" s="59">
+        <v>1</v>
+      </c>
+      <c r="BJ63" s="59"/>
+      <c r="BK63" s="59"/>
+      <c r="BL63" s="59"/>
+      <c r="BM63" s="59"/>
+      <c r="BN63" s="60"/>
+      <c r="BO63" s="60"/>
+      <c r="BP63" s="60"/>
+      <c r="BQ63" s="60"/>
+      <c r="BR63" s="60"/>
+      <c r="BS63" s="60"/>
+      <c r="BT63" s="60"/>
+      <c r="BU63" s="60"/>
+      <c r="BV63" s="60"/>
+      <c r="BW63" s="60"/>
+      <c r="CN63" s="11"/>
+    </row>
+    <row r="64" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="26"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="26"/>
+      <c r="AA64" s="26"/>
+      <c r="AB64" s="26"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="26"/>
+      <c r="AG64" s="26"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="26"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="26"/>
+      <c r="AO64" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP64" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ64" s="51">
+        <v>83480</v>
+      </c>
+      <c r="AR64" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS64" s="53"/>
+      <c r="AT64" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU64" s="14"/>
+      <c r="AV64" s="61"/>
+      <c r="AW64" s="27"/>
+      <c r="AX64" s="26"/>
+      <c r="AY64" s="27"/>
+      <c r="AZ64" s="27"/>
+      <c r="BA64" s="27"/>
+      <c r="BC64" s="45"/>
+      <c r="BE64" s="45"/>
+      <c r="BF64" s="59"/>
+      <c r="BG64" s="59"/>
+      <c r="BH64" s="59"/>
+      <c r="BI64" s="59"/>
+      <c r="BJ64" s="59"/>
+      <c r="BK64" s="59"/>
+      <c r="BL64" s="59"/>
+      <c r="BM64" s="59"/>
+      <c r="BN64" s="60"/>
+      <c r="BO64" s="60"/>
+      <c r="BP64" s="60"/>
+      <c r="BQ64" s="60"/>
+      <c r="BR64" s="60"/>
+      <c r="BS64" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT64" s="60"/>
+      <c r="BU64" s="60"/>
+      <c r="BV64" s="60"/>
+      <c r="BW64" s="60"/>
+      <c r="CN64" s="11"/>
+    </row>
+    <row r="65" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="19"/>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="18"/>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="19"/>
+      <c r="AH65" s="18"/>
+      <c r="AI65" s="18"/>
+      <c r="AJ65" s="19"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="18"/>
+      <c r="AN65" s="19"/>
+      <c r="AO65" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AP58" s="50" t="s">
+      <c r="AP65" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AQ58" s="55">
+      <c r="AQ65" s="55">
         <v>4000</v>
       </c>
-      <c r="AR58" s="56" t="s">
+      <c r="AR65" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AS58" s="57" t="s">
+      <c r="AS65" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AT58" s="58" t="s">
+      <c r="AT65" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="AU58" s="20"/>
-      <c r="AV58" s="21"/>
-      <c r="AW58" s="25"/>
-      <c r="AX58" s="19"/>
-      <c r="AY58" s="25"/>
-      <c r="AZ58" s="25"/>
-      <c r="BA58" s="25"/>
-      <c r="BB58" s="9">
-        <f>RANK(BX58,$BX$2:$BX$58)+COUNTIF(BX$2:BX59,BX58)-1</f>
+      <c r="AU65" s="20"/>
+      <c r="AV65" s="21"/>
+      <c r="AW65" s="25"/>
+      <c r="AX65" s="19"/>
+      <c r="AY65" s="25"/>
+      <c r="AZ65" s="25"/>
+      <c r="BA65" s="25"/>
+      <c r="BB65" s="9">
+        <f>RANK(BX65,$BX$2:$BX$65)+COUNTIF(BX$2:BX66,BX65)-1</f>
         <v>1</v>
       </c>
-      <c r="BC58" s="12" t="str">
-        <f>"N° "&amp;BB58&amp;" "&amp;C58</f>
+      <c r="BC65" s="12" t="str">
+        <f>"N° "&amp;BB65&amp;" "&amp;C65</f>
         <v>N° 1 Lycée Pierre Gilles de Gennes</v>
       </c>
-      <c r="BD58" s="9">
-        <f>RANK(BY58,$BY$2:$BY$58)+COUNTIF(BY$2:BY59,BY58)-1</f>
+      <c r="BD65" s="9">
+        <f>RANK(BY65,$BY$2:$BY$65)+COUNTIF(BY$2:BY66,BY65)-1</f>
         <v>1</v>
       </c>
-      <c r="BE58" s="12" t="str">
-        <f>"N° "&amp;BD58&amp;" "&amp;C58</f>
+      <c r="BE65" s="12" t="str">
+        <f>"N° "&amp;BD65&amp;" "&amp;C65</f>
         <v>N° 1 Lycée Pierre Gilles de Gennes</v>
       </c>
-      <c r="BF58" s="12"/>
-      <c r="BG58" s="12"/>
-      <c r="BH58" s="12"/>
-      <c r="BI58" s="12"/>
-      <c r="BJ58" s="12"/>
-      <c r="BK58" s="12"/>
-      <c r="BL58" s="12"/>
-      <c r="BM58" s="12"/>
-      <c r="BX58" s="9">
-        <f>((BF58+BG58)*9)+((BH58+BI58)*8)+((BJ58+BK58)*7)+((BL58+BM58)*6)+((BN58+BO58)*5)+((BP58+BQ58)*4)+((BR58+BS58)*3)+((BT58+BU58)*2)+((BV58+BW58)*1)</f>
+      <c r="BF65" s="12"/>
+      <c r="BG65" s="12"/>
+      <c r="BH65" s="12"/>
+      <c r="BI65" s="12"/>
+      <c r="BJ65" s="12"/>
+      <c r="BK65" s="12"/>
+      <c r="BL65" s="12"/>
+      <c r="BM65" s="12"/>
+      <c r="BX65" s="9">
+        <f>((BF65+BG65)*9)+((BH65+BI65)*8)+((BJ65+BK65)*7)+((BL65+BM65)*6)+((BN65+BO65)*5)+((BP65+BQ65)*4)+((BR65+BS65)*3)+((BT65+BU65)*2)+((BV65+BW65)*1)</f>
         <v>0</v>
       </c>
-      <c r="BY58" s="9">
-        <f>((BG58)*9)+((BI58)*8)+((BK58)*7)+((BM58)*6)+((BO58)*5)+((BQ58)*4)+((BS58)*3)+((BU58)*2)+((BW58)*1)</f>
+      <c r="BY65" s="9">
+        <f>((BG65)*9)+((BI65)*8)+((BK65)*7)+((BM65)*6)+((BO65)*5)+((BQ65)*4)+((BS65)*3)+((BU65)*2)+((BW65)*1)</f>
         <v>0</v>
       </c>
-      <c r="BZ58" s="1">
-        <f>BJ58</f>
+      <c r="BZ65" s="1">
+        <f>BJ65</f>
         <v>0</v>
       </c>
-      <c r="CA58" s="1">
-        <f>BL58</f>
+      <c r="CA65" s="1">
+        <f>BL65</f>
         <v>0</v>
       </c>
-      <c r="CB58" s="1">
-        <f>BN58</f>
+      <c r="CB65" s="1">
+        <f>BN65</f>
         <v>0</v>
       </c>
-      <c r="CC58" s="1">
-        <f>BP58</f>
+      <c r="CC65" s="1">
+        <f>BP65</f>
         <v>0</v>
       </c>
-      <c r="CD58" s="1">
-        <f>BR58</f>
+      <c r="CD65" s="1">
+        <f>BR65</f>
         <v>0</v>
       </c>
-      <c r="CE58" s="1">
-        <f>BT58</f>
+      <c r="CE65" s="1">
+        <f>BT65</f>
         <v>0</v>
       </c>
-      <c r="CF58" s="1">
-        <f>BV58</f>
+      <c r="CF65" s="1">
+        <f>BV65</f>
         <v>0</v>
       </c>
-      <c r="CG58" s="1">
-        <f>BK58</f>
+      <c r="CG65" s="1">
+        <f>BK65</f>
         <v>0</v>
       </c>
-      <c r="CH58" s="1">
-        <f>BM58</f>
+      <c r="CH65" s="1">
+        <f>BM65</f>
         <v>0</v>
       </c>
-      <c r="CI58" s="1">
-        <f>BO58</f>
+      <c r="CI65" s="1">
+        <f>BO65</f>
         <v>0</v>
       </c>
-      <c r="CJ58" s="1">
-        <f>BQ58</f>
+      <c r="CJ65" s="1">
+        <f>BQ65</f>
         <v>0</v>
       </c>
-      <c r="CK58" s="1">
-        <f>BS58</f>
+      <c r="CK65" s="1">
+        <f>BS65</f>
         <v>0</v>
       </c>
-      <c r="CL58" s="1">
-        <f>BU58</f>
+      <c r="CL65" s="1">
+        <f>BU65</f>
         <v>0</v>
       </c>
-      <c r="CM58" s="1">
-        <f>BW58</f>
+      <c r="CM65" s="1">
+        <f>BW65</f>
         <v>0</v>
       </c>
-      <c r="CO58" s="16"/>
-    </row>
-    <row r="59" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="BB59" s="6"/>
-      <c r="BC59" s="6"/>
-      <c r="BD59" s="6"/>
-      <c r="BE59" s="6"/>
-      <c r="BF59" s="6"/>
-      <c r="BG59" s="6"/>
-      <c r="BH59" s="6"/>
-      <c r="BI59" s="6"/>
-      <c r="BJ59" s="6"/>
-      <c r="BK59" s="6"/>
-      <c r="BL59" s="6"/>
-      <c r="BM59" s="6"/>
-      <c r="BX59" s="6"/>
-      <c r="BY59" s="6"/>
-      <c r="BZ59" s="6"/>
-      <c r="CA59" s="6"/>
-      <c r="CB59" s="6"/>
-      <c r="CC59" s="6"/>
-      <c r="CD59" s="6"/>
-      <c r="CE59" s="6"/>
-      <c r="CF59" s="6"/>
-      <c r="CG59" s="6"/>
-      <c r="CH59" s="6"/>
-      <c r="CI59" s="6"/>
-      <c r="CJ59" s="6"/>
-      <c r="CK59" s="6"/>
-      <c r="CL59" s="6"/>
-      <c r="CM59" s="6"/>
-    </row>
-    <row r="60" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="BB60" s="6"/>
-      <c r="BC60" s="6"/>
-      <c r="BD60" s="6"/>
-      <c r="BE60" s="6"/>
-      <c r="BF60" s="6"/>
-      <c r="BG60" s="6"/>
-      <c r="BH60" s="6"/>
-      <c r="BI60" s="6"/>
-      <c r="BJ60" s="6"/>
-      <c r="BK60" s="6"/>
-      <c r="BL60" s="6"/>
-      <c r="BM60" s="6"/>
-      <c r="BX60" s="6"/>
-      <c r="BY60" s="6"/>
-      <c r="BZ60" s="6"/>
-      <c r="CA60" s="6"/>
-      <c r="CB60" s="6"/>
-      <c r="CC60" s="6"/>
-      <c r="CD60" s="6"/>
-      <c r="CE60" s="6"/>
-      <c r="CF60" s="6"/>
-      <c r="CG60" s="6"/>
-      <c r="CH60" s="6"/>
-      <c r="CI60" s="6"/>
-      <c r="CJ60" s="6"/>
-      <c r="CK60" s="6"/>
-      <c r="CL60" s="6"/>
-      <c r="CM60" s="6"/>
-    </row>
-    <row r="61" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="BB61" s="6"/>
-      <c r="BC61" s="6"/>
-      <c r="BD61" s="6"/>
-      <c r="BE61" s="6"/>
-      <c r="BF61" s="6"/>
-      <c r="BG61" s="6"/>
-      <c r="BH61" s="6"/>
-      <c r="BI61" s="6"/>
-      <c r="BJ61" s="6"/>
-      <c r="BK61" s="6"/>
-      <c r="BL61" s="6"/>
-      <c r="BM61" s="6"/>
-      <c r="BX61" s="6"/>
-      <c r="BY61" s="6"/>
-      <c r="BZ61" s="6"/>
-      <c r="CA61" s="6"/>
-      <c r="CB61" s="6"/>
-      <c r="CC61" s="6"/>
-      <c r="CD61" s="6"/>
-      <c r="CE61" s="6"/>
-      <c r="CF61" s="6"/>
-      <c r="CG61" s="6"/>
-      <c r="CH61" s="6"/>
-      <c r="CI61" s="6"/>
-      <c r="CJ61" s="6"/>
-      <c r="CK61" s="6"/>
-      <c r="CL61" s="6"/>
-      <c r="CM61" s="6"/>
-    </row>
-    <row r="62" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="BB62" s="6"/>
-      <c r="BC62" s="6"/>
-      <c r="BD62" s="6"/>
-      <c r="BE62" s="6"/>
-      <c r="BF62" s="6"/>
-      <c r="BG62" s="6"/>
-      <c r="BH62" s="6"/>
-      <c r="BI62" s="6"/>
-      <c r="BJ62" s="6"/>
-      <c r="BK62" s="6"/>
-      <c r="BL62" s="6"/>
-      <c r="BM62" s="6"/>
-      <c r="BX62" s="6"/>
-      <c r="BY62" s="6"/>
-      <c r="BZ62" s="6"/>
-      <c r="CA62" s="6"/>
-      <c r="CB62" s="6"/>
-      <c r="CC62" s="6"/>
-      <c r="CD62" s="6"/>
-      <c r="CE62" s="6"/>
-      <c r="CF62" s="6"/>
-      <c r="CG62" s="6"/>
-      <c r="CH62" s="6"/>
-      <c r="CI62" s="6"/>
-      <c r="CJ62" s="6"/>
-      <c r="CK62" s="6"/>
-      <c r="CL62" s="6"/>
-      <c r="CM62" s="6"/>
-    </row>
-    <row r="63" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="BB63" s="6"/>
-      <c r="BC63" s="6"/>
-      <c r="BD63" s="6"/>
-      <c r="BE63" s="6"/>
-      <c r="BF63" s="6"/>
-      <c r="BG63" s="6"/>
-      <c r="BH63" s="6"/>
-      <c r="BI63" s="6"/>
-      <c r="BJ63" s="6"/>
-      <c r="BK63" s="6"/>
-      <c r="BL63" s="6"/>
-      <c r="BM63" s="6"/>
-      <c r="BX63" s="6"/>
-      <c r="BY63" s="6"/>
-      <c r="BZ63" s="6"/>
-      <c r="CA63" s="6"/>
-      <c r="CB63" s="6"/>
-      <c r="CC63" s="6"/>
-      <c r="CD63" s="6"/>
-      <c r="CE63" s="6"/>
-      <c r="CF63" s="6"/>
-      <c r="CG63" s="6"/>
-      <c r="CH63" s="6"/>
-      <c r="CI63" s="6"/>
-      <c r="CJ63" s="6"/>
-      <c r="CK63" s="6"/>
-      <c r="CL63" s="6"/>
-      <c r="CM63" s="6"/>
-    </row>
-    <row r="64" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="BB64" s="6"/>
-      <c r="BC64" s="6"/>
-      <c r="BD64" s="6"/>
-      <c r="BE64" s="6"/>
-      <c r="BF64" s="6"/>
-      <c r="BG64" s="6"/>
-      <c r="BH64" s="6"/>
-      <c r="BI64" s="6"/>
-      <c r="BJ64" s="6"/>
-      <c r="BK64" s="6"/>
-      <c r="BL64" s="6"/>
-      <c r="BM64" s="6"/>
-      <c r="BX64" s="6"/>
-      <c r="BY64" s="6"/>
-      <c r="BZ64" s="6"/>
-      <c r="CA64" s="6"/>
-      <c r="CB64" s="6"/>
-      <c r="CC64" s="6"/>
-      <c r="CD64" s="6"/>
-      <c r="CE64" s="6"/>
-      <c r="CF64" s="6"/>
-      <c r="CG64" s="6"/>
-      <c r="CH64" s="6"/>
-      <c r="CI64" s="6"/>
-      <c r="CJ64" s="6"/>
-      <c r="CK64" s="6"/>
-      <c r="CL64" s="6"/>
-      <c r="CM64" s="6"/>
-    </row>
-    <row r="65" spans="4:91" x14ac:dyDescent="0.25">
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="BB65" s="6"/>
-      <c r="BC65" s="6"/>
-      <c r="BD65" s="6"/>
-      <c r="BE65" s="6"/>
-      <c r="BF65" s="6"/>
-      <c r="BG65" s="6"/>
-      <c r="BH65" s="6"/>
-      <c r="BI65" s="6"/>
-      <c r="BJ65" s="6"/>
-      <c r="BK65" s="6"/>
-      <c r="BL65" s="6"/>
-      <c r="BM65" s="6"/>
-      <c r="BX65" s="6"/>
-      <c r="BY65" s="6"/>
-      <c r="BZ65" s="6"/>
-      <c r="CA65" s="6"/>
-      <c r="CB65" s="6"/>
-      <c r="CC65" s="6"/>
-      <c r="CD65" s="6"/>
-      <c r="CE65" s="6"/>
-      <c r="CF65" s="6"/>
-      <c r="CG65" s="6"/>
-      <c r="CH65" s="6"/>
-      <c r="CI65" s="6"/>
-      <c r="CJ65" s="6"/>
-      <c r="CK65" s="6"/>
-      <c r="CL65" s="6"/>
-      <c r="CM65" s="6"/>
-    </row>
-    <row r="66" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="CO65" s="16"/>
+    </row>
+    <row r="66" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
@@ -8208,7 +8686,7 @@
       <c r="CL66" s="6"/>
       <c r="CM66" s="6"/>
     </row>
-    <row r="67" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
@@ -8255,7 +8733,7 @@
       <c r="CL67" s="6"/>
       <c r="CM67" s="6"/>
     </row>
-    <row r="68" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
@@ -8302,7 +8780,7 @@
       <c r="CL68" s="6"/>
       <c r="CM68" s="6"/>
     </row>
-    <row r="69" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
@@ -8349,7 +8827,7 @@
       <c r="CL69" s="6"/>
       <c r="CM69" s="6"/>
     </row>
-    <row r="70" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
@@ -8396,7 +8874,7 @@
       <c r="CL70" s="6"/>
       <c r="CM70" s="6"/>
     </row>
-    <row r="71" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
@@ -8443,7 +8921,7 @@
       <c r="CL71" s="6"/>
       <c r="CM71" s="6"/>
     </row>
-    <row r="72" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -8490,7 +8968,7 @@
       <c r="CL72" s="6"/>
       <c r="CM72" s="6"/>
     </row>
-    <row r="73" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
@@ -8537,7 +9015,7 @@
       <c r="CL73" s="6"/>
       <c r="CM73" s="6"/>
     </row>
-    <row r="74" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
@@ -8584,7 +9062,7 @@
       <c r="CL74" s="6"/>
       <c r="CM74" s="6"/>
     </row>
-    <row r="75" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
@@ -8631,7 +9109,7 @@
       <c r="CL75" s="6"/>
       <c r="CM75" s="6"/>
     </row>
-    <row r="76" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
@@ -8678,7 +9156,7 @@
       <c r="CL76" s="6"/>
       <c r="CM76" s="6"/>
     </row>
-    <row r="77" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
@@ -8725,7 +9203,7 @@
       <c r="CL77" s="6"/>
       <c r="CM77" s="6"/>
     </row>
-    <row r="78" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
@@ -8772,7 +9250,7 @@
       <c r="CL78" s="6"/>
       <c r="CM78" s="6"/>
     </row>
-    <row r="79" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -8819,7 +9297,7 @@
       <c r="CL79" s="6"/>
       <c r="CM79" s="6"/>
     </row>
-    <row r="80" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
@@ -14647,16 +15125,348 @@
       <c r="CL203" s="6"/>
       <c r="CM203" s="6"/>
     </row>
+    <row r="204" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="25"/>
+      <c r="H204" s="25"/>
+      <c r="I204" s="25"/>
+      <c r="J204" s="25"/>
+      <c r="K204" s="25"/>
+      <c r="L204" s="25"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="6"/>
+      <c r="BB204" s="6"/>
+      <c r="BC204" s="6"/>
+      <c r="BD204" s="6"/>
+      <c r="BE204" s="6"/>
+      <c r="BF204" s="6"/>
+      <c r="BG204" s="6"/>
+      <c r="BH204" s="6"/>
+      <c r="BI204" s="6"/>
+      <c r="BJ204" s="6"/>
+      <c r="BK204" s="6"/>
+      <c r="BL204" s="6"/>
+      <c r="BM204" s="6"/>
+      <c r="BX204" s="6"/>
+      <c r="BY204" s="6"/>
+      <c r="BZ204" s="6"/>
+      <c r="CA204" s="6"/>
+      <c r="CB204" s="6"/>
+      <c r="CC204" s="6"/>
+      <c r="CD204" s="6"/>
+      <c r="CE204" s="6"/>
+      <c r="CF204" s="6"/>
+      <c r="CG204" s="6"/>
+      <c r="CH204" s="6"/>
+      <c r="CI204" s="6"/>
+      <c r="CJ204" s="6"/>
+      <c r="CK204" s="6"/>
+      <c r="CL204" s="6"/>
+      <c r="CM204" s="6"/>
+    </row>
+    <row r="205" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="25"/>
+      <c r="H205" s="25"/>
+      <c r="I205" s="25"/>
+      <c r="J205" s="25"/>
+      <c r="K205" s="25"/>
+      <c r="L205" s="25"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="6"/>
+      <c r="BB205" s="6"/>
+      <c r="BC205" s="6"/>
+      <c r="BD205" s="6"/>
+      <c r="BE205" s="6"/>
+      <c r="BF205" s="6"/>
+      <c r="BG205" s="6"/>
+      <c r="BH205" s="6"/>
+      <c r="BI205" s="6"/>
+      <c r="BJ205" s="6"/>
+      <c r="BK205" s="6"/>
+      <c r="BL205" s="6"/>
+      <c r="BM205" s="6"/>
+      <c r="BX205" s="6"/>
+      <c r="BY205" s="6"/>
+      <c r="BZ205" s="6"/>
+      <c r="CA205" s="6"/>
+      <c r="CB205" s="6"/>
+      <c r="CC205" s="6"/>
+      <c r="CD205" s="6"/>
+      <c r="CE205" s="6"/>
+      <c r="CF205" s="6"/>
+      <c r="CG205" s="6"/>
+      <c r="CH205" s="6"/>
+      <c r="CI205" s="6"/>
+      <c r="CJ205" s="6"/>
+      <c r="CK205" s="6"/>
+      <c r="CL205" s="6"/>
+      <c r="CM205" s="6"/>
+    </row>
+    <row r="206" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D206" s="25"/>
+      <c r="E206" s="25"/>
+      <c r="F206" s="25"/>
+      <c r="G206" s="25"/>
+      <c r="H206" s="25"/>
+      <c r="I206" s="25"/>
+      <c r="J206" s="25"/>
+      <c r="K206" s="25"/>
+      <c r="L206" s="25"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6"/>
+      <c r="T206" s="6"/>
+      <c r="BB206" s="6"/>
+      <c r="BC206" s="6"/>
+      <c r="BD206" s="6"/>
+      <c r="BE206" s="6"/>
+      <c r="BF206" s="6"/>
+      <c r="BG206" s="6"/>
+      <c r="BH206" s="6"/>
+      <c r="BI206" s="6"/>
+      <c r="BJ206" s="6"/>
+      <c r="BK206" s="6"/>
+      <c r="BL206" s="6"/>
+      <c r="BM206" s="6"/>
+      <c r="BX206" s="6"/>
+      <c r="BY206" s="6"/>
+      <c r="BZ206" s="6"/>
+      <c r="CA206" s="6"/>
+      <c r="CB206" s="6"/>
+      <c r="CC206" s="6"/>
+      <c r="CD206" s="6"/>
+      <c r="CE206" s="6"/>
+      <c r="CF206" s="6"/>
+      <c r="CG206" s="6"/>
+      <c r="CH206" s="6"/>
+      <c r="CI206" s="6"/>
+      <c r="CJ206" s="6"/>
+      <c r="CK206" s="6"/>
+      <c r="CL206" s="6"/>
+      <c r="CM206" s="6"/>
+    </row>
+    <row r="207" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D207" s="25"/>
+      <c r="E207" s="25"/>
+      <c r="F207" s="25"/>
+      <c r="G207" s="25"/>
+      <c r="H207" s="25"/>
+      <c r="I207" s="25"/>
+      <c r="J207" s="25"/>
+      <c r="K207" s="25"/>
+      <c r="L207" s="25"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="6"/>
+      <c r="BB207" s="6"/>
+      <c r="BC207" s="6"/>
+      <c r="BD207" s="6"/>
+      <c r="BE207" s="6"/>
+      <c r="BF207" s="6"/>
+      <c r="BG207" s="6"/>
+      <c r="BH207" s="6"/>
+      <c r="BI207" s="6"/>
+      <c r="BJ207" s="6"/>
+      <c r="BK207" s="6"/>
+      <c r="BL207" s="6"/>
+      <c r="BM207" s="6"/>
+      <c r="BX207" s="6"/>
+      <c r="BY207" s="6"/>
+      <c r="BZ207" s="6"/>
+      <c r="CA207" s="6"/>
+      <c r="CB207" s="6"/>
+      <c r="CC207" s="6"/>
+      <c r="CD207" s="6"/>
+      <c r="CE207" s="6"/>
+      <c r="CF207" s="6"/>
+      <c r="CG207" s="6"/>
+      <c r="CH207" s="6"/>
+      <c r="CI207" s="6"/>
+      <c r="CJ207" s="6"/>
+      <c r="CK207" s="6"/>
+      <c r="CL207" s="6"/>
+      <c r="CM207" s="6"/>
+    </row>
+    <row r="208" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="25"/>
+      <c r="K208" s="25"/>
+      <c r="L208" s="25"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="6"/>
+      <c r="T208" s="6"/>
+      <c r="BB208" s="6"/>
+      <c r="BC208" s="6"/>
+      <c r="BD208" s="6"/>
+      <c r="BE208" s="6"/>
+      <c r="BF208" s="6"/>
+      <c r="BG208" s="6"/>
+      <c r="BH208" s="6"/>
+      <c r="BI208" s="6"/>
+      <c r="BJ208" s="6"/>
+      <c r="BK208" s="6"/>
+      <c r="BL208" s="6"/>
+      <c r="BM208" s="6"/>
+      <c r="BX208" s="6"/>
+      <c r="BY208" s="6"/>
+      <c r="BZ208" s="6"/>
+      <c r="CA208" s="6"/>
+      <c r="CB208" s="6"/>
+      <c r="CC208" s="6"/>
+      <c r="CD208" s="6"/>
+      <c r="CE208" s="6"/>
+      <c r="CF208" s="6"/>
+      <c r="CG208" s="6"/>
+      <c r="CH208" s="6"/>
+      <c r="CI208" s="6"/>
+      <c r="CJ208" s="6"/>
+      <c r="CK208" s="6"/>
+      <c r="CL208" s="6"/>
+      <c r="CM208" s="6"/>
+    </row>
+    <row r="209" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D209" s="25"/>
+      <c r="E209" s="25"/>
+      <c r="F209" s="25"/>
+      <c r="G209" s="25"/>
+      <c r="H209" s="25"/>
+      <c r="I209" s="25"/>
+      <c r="J209" s="25"/>
+      <c r="K209" s="25"/>
+      <c r="L209" s="25"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="6"/>
+      <c r="T209" s="6"/>
+      <c r="BB209" s="6"/>
+      <c r="BC209" s="6"/>
+      <c r="BD209" s="6"/>
+      <c r="BE209" s="6"/>
+      <c r="BF209" s="6"/>
+      <c r="BG209" s="6"/>
+      <c r="BH209" s="6"/>
+      <c r="BI209" s="6"/>
+      <c r="BJ209" s="6"/>
+      <c r="BK209" s="6"/>
+      <c r="BL209" s="6"/>
+      <c r="BM209" s="6"/>
+      <c r="BX209" s="6"/>
+      <c r="BY209" s="6"/>
+      <c r="BZ209" s="6"/>
+      <c r="CA209" s="6"/>
+      <c r="CB209" s="6"/>
+      <c r="CC209" s="6"/>
+      <c r="CD209" s="6"/>
+      <c r="CE209" s="6"/>
+      <c r="CF209" s="6"/>
+      <c r="CG209" s="6"/>
+      <c r="CH209" s="6"/>
+      <c r="CI209" s="6"/>
+      <c r="CJ209" s="6"/>
+      <c r="CK209" s="6"/>
+      <c r="CL209" s="6"/>
+      <c r="CM209" s="6"/>
+    </row>
+    <row r="210" spans="4:91" x14ac:dyDescent="0.25">
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="25"/>
+      <c r="H210" s="25"/>
+      <c r="I210" s="25"/>
+      <c r="J210" s="25"/>
+      <c r="K210" s="25"/>
+      <c r="L210" s="25"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6"/>
+      <c r="T210" s="6"/>
+      <c r="BB210" s="6"/>
+      <c r="BC210" s="6"/>
+      <c r="BD210" s="6"/>
+      <c r="BE210" s="6"/>
+      <c r="BF210" s="6"/>
+      <c r="BG210" s="6"/>
+      <c r="BH210" s="6"/>
+      <c r="BI210" s="6"/>
+      <c r="BJ210" s="6"/>
+      <c r="BK210" s="6"/>
+      <c r="BL210" s="6"/>
+      <c r="BM210" s="6"/>
+      <c r="BX210" s="6"/>
+      <c r="BY210" s="6"/>
+      <c r="BZ210" s="6"/>
+      <c r="CA210" s="6"/>
+      <c r="CB210" s="6"/>
+      <c r="CC210" s="6"/>
+      <c r="CD210" s="6"/>
+      <c r="CE210" s="6"/>
+      <c r="CF210" s="6"/>
+      <c r="CG210" s="6"/>
+      <c r="CH210" s="6"/>
+      <c r="CI210" s="6"/>
+      <c r="CJ210" s="6"/>
+      <c r="CK210" s="6"/>
+      <c r="CL210" s="6"/>
+      <c r="CM210" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CN58" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN58">
-      <sortCondition ref="BB1:BB57"/>
+  <autoFilter ref="A1:CN65" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN65">
+      <sortCondition ref="BB1:BB64"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="AS55" r:id="rId1" xr:uid="{7A957ED5-82B4-42C4-A542-9FEBF47E5BF1}"/>
+    <hyperlink ref="AS61" r:id="rId1" xr:uid="{7A957ED5-82B4-42C4-A542-9FEBF47E5BF1}"/>
+    <hyperlink ref="AS63" r:id="rId2" xr:uid="{3A8C7F76-5F55-4A52-94BF-819B86627B71}"/>
+    <hyperlink ref="AS9" r:id="rId3" xr:uid="{F393EE3D-E0B3-457A-88A9-3356E8BECEFD}"/>
+    <hyperlink ref="AS11" r:id="rId4" xr:uid="{32E863A6-0F3A-42DF-9A10-4CB806489D40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2021-2022\Appli lieux de stage David Filaire\Création de mag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2022-2023\Modifs appli recherche de stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DFD9BD-C11F-491C-A2C2-49348EEDE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E5F930-1CBF-4942-9D58-7392FB443944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$72</definedName>
     <definedName name="d">Entreprises_Complet2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="414">
   <si>
     <t>Produit</t>
   </si>
@@ -497,9 +509,6 @@
     <t>Sorgues</t>
   </si>
   <si>
-    <t>SITTEU ( Syndicat Intercommunal pour le Transport et le Traitement des Eaux Usées)</t>
-  </si>
-  <si>
     <t>http://www.sitteu.fr/</t>
   </si>
   <si>
@@ -596,9 +605,6 @@
     <t>Cavaillon</t>
   </si>
   <si>
-    <t>43.54838223644435, 6.939881720041175</t>
-  </si>
-  <si>
     <t>15 Rue des Métiers</t>
   </si>
   <si>
@@ -1170,6 +1176,108 @@
   </si>
   <si>
     <t>https://www.edf.fr/centrale-nucleaire-cruas-meysse</t>
+  </si>
+  <si>
+    <t>SITTEU ( Syndicat Intercommunal)</t>
+  </si>
+  <si>
+    <t>43.83113423190147, 5.036477029494515</t>
+  </si>
+  <si>
+    <t>SUEZ-STEP Digne</t>
+  </si>
+  <si>
+    <t>44.055410613180975, 6.16406428231317</t>
+  </si>
+  <si>
+    <t>Route du chaffaut</t>
+  </si>
+  <si>
+    <t>SUEZ  STEP Briançon</t>
+  </si>
+  <si>
+    <t>44.87921992903438, 6.62115937263836</t>
+  </si>
+  <si>
+    <t>Briançon</t>
+  </si>
+  <si>
+    <t>ZI du Chazal</t>
+  </si>
+  <si>
+    <t>https://www.suez.fr/fr-fr</t>
+  </si>
+  <si>
+    <t>Ollioulles</t>
+  </si>
+  <si>
+    <t>3500 Route du Gros Cerveau</t>
+  </si>
+  <si>
+    <t>Canal de provence( Centre d'explotation)</t>
+  </si>
+  <si>
+    <t>43.152712437982736, 5.840663030682622</t>
+  </si>
+  <si>
+    <t>333 Promenade des Anglais</t>
+  </si>
+  <si>
+    <t>04 93 21 11 61</t>
+  </si>
+  <si>
+    <t>43.6783463300395, 7.229469284657715</t>
+  </si>
+  <si>
+    <t>SUEZ</t>
+  </si>
+  <si>
+    <t>https://www.suez.com/fr/carrieres/nos-offres-d-emplois-recrutement</t>
+  </si>
+  <si>
+    <t>43.19605677368103, 6.547206869965893</t>
+  </si>
+  <si>
+    <t>Suez-Water Technologies&amp;Solutions</t>
+  </si>
+  <si>
+    <t>Rue du Docteur Berrehail</t>
+  </si>
+  <si>
+    <t>Crolles</t>
+  </si>
+  <si>
+    <t>04 38 92 19 41</t>
+  </si>
+  <si>
+    <t>45.265334116121245, 5.885153129513935</t>
+  </si>
+  <si>
+    <t>Chleaué SICIC</t>
+  </si>
+  <si>
+    <t>15 allée des Genêts</t>
+  </si>
+  <si>
+    <t>09 53 40 22 98</t>
+  </si>
+  <si>
+    <t>https://www.chleaue.org/</t>
+  </si>
+  <si>
+    <t>44.23189552451525, 5.9122739</t>
+  </si>
+  <si>
+    <t>Provence Alpes agglomération ( site de Digne-les Bains)</t>
+  </si>
+  <si>
+    <t>Quartier les Isnards-Route de Barles</t>
+  </si>
+  <si>
+    <t>https://www.provencealpesagglo.fr/service-public-dassainissement-non-collectif-spanc/</t>
+  </si>
+  <si>
+    <t>44.12276221487113, 6.233537854635984</t>
   </si>
 </sst>
 </file>
@@ -2001,70 +2109,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO210"/>
+  <dimension ref="A1:CO217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="AT10" sqref="AT10"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" style="24" customWidth="1"/>
-    <col min="5" max="12" width="30.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="47.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="47.140625" style="16" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="16.84375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.84375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.84375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="44.3828125" style="24" customWidth="1"/>
+    <col min="5" max="12" width="30.69140625" style="24" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.15234375" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.84375" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="22.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.15234375" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.84375" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="22.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="47.15234375" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="47.15234375" style="16" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="47" style="7" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="32.69140625" style="2" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="44" style="16" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="46.140625" style="23" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="46.15234375" style="23" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="47" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="27.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="46.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="59.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="44.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="33.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="32.69140625" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="27.15234375" style="2" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="46.69140625" style="7" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="59.84375" style="7" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="44.3828125" style="2" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="25.15234375" style="2" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="33.53515625" style="2" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="36" style="2" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="32.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="25.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="33.5703125" style="7" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="33.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="37.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="41" max="42" width="33.28515625" style="7" customWidth="1"/>
-    <col min="43" max="43" width="33.28515625" style="8" customWidth="1"/>
-    <col min="44" max="46" width="33.28515625" style="2" customWidth="1"/>
-    <col min="47" max="47" width="33.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="45.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="17.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="15.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="32.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" style="2"/>
-    <col min="55" max="55" width="24.7109375" style="2" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" style="2"/>
-    <col min="57" max="63" width="24.7109375" style="2" customWidth="1"/>
+    <col min="36" max="36" width="32.69140625" style="2" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="25.15234375" style="7" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="33.53515625" style="7" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="33.3828125" style="7" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="37.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="41" max="42" width="33.3046875" style="7" customWidth="1"/>
+    <col min="43" max="43" width="33.3046875" style="8" customWidth="1"/>
+    <col min="44" max="46" width="33.3046875" style="2" customWidth="1"/>
+    <col min="47" max="47" width="33.3046875" style="7" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="45.3828125" style="5" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="17.69140625" style="2" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="21.15234375" style="3" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="15.3828125" style="2" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="37.69140625" style="2" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="32.69140625" style="2" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="11.3828125" style="2"/>
+    <col min="55" max="55" width="24.69140625" style="2" customWidth="1"/>
+    <col min="56" max="56" width="11.3828125" style="2"/>
+    <col min="57" max="63" width="24.69140625" style="2" customWidth="1"/>
     <col min="64" max="64" width="19" style="2" customWidth="1"/>
-    <col min="65" max="65" width="18.5703125" style="2" customWidth="1"/>
-    <col min="66" max="75" width="15.7109375" style="13" customWidth="1"/>
-    <col min="76" max="16384" width="11.42578125" style="2"/>
+    <col min="65" max="65" width="18.53515625" style="2" customWidth="1"/>
+    <col min="66" max="75" width="15.69140625" style="13" customWidth="1"/>
+    <col min="76" max="16384" width="11.3828125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="43" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" s="43" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
@@ -2250,18 +2358,18 @@
       </c>
       <c r="CN1" s="42"/>
     </row>
-    <row r="2" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" s="17" t="str">
-        <f t="shared" ref="D2:D39" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
+        <f t="shared" ref="D2:D45" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
         <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E2" s="46"/>
@@ -2301,10 +2409,10 @@
       <c r="AM2" s="10"/>
       <c r="AN2" s="26"/>
       <c r="AO2" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP2" s="48" t="s">
         <v>185</v>
-      </c>
-      <c r="AP2" s="48" t="s">
-        <v>186</v>
       </c>
       <c r="AQ2" s="51">
         <v>6210</v>
@@ -2314,7 +2422,7 @@
         <v>94</v>
       </c>
       <c r="AT2" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AU2" s="14"/>
       <c r="AV2" s="61"/>
@@ -2347,15 +2455,15 @@
       <c r="BW2" s="60"/>
       <c r="CN2" s="11"/>
     </row>
-    <row r="3" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D3" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2398,10 +2506,10 @@
       <c r="AM3" s="10"/>
       <c r="AN3" s="26"/>
       <c r="AO3" s="48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AP3" s="48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AQ3" s="51">
         <v>4260</v>
@@ -2411,7 +2519,7 @@
         <v>94</v>
       </c>
       <c r="AT3" s="54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AU3" s="14"/>
       <c r="AV3" s="61"/>
@@ -2444,19 +2552,19 @@
       <c r="BW3" s="60"/>
       <c r="CN3" s="11"/>
     </row>
-    <row r="4" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">;2022_A=1                 </v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -2495,22 +2603,20 @@
       <c r="AM4" s="10"/>
       <c r="AN4" s="26"/>
       <c r="AO4" s="48" t="s">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="AP4" s="48" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="AQ4" s="51">
-        <v>6270</v>
-      </c>
-      <c r="AR4" s="52" t="s">
-        <v>282</v>
-      </c>
+        <v>5100</v>
+      </c>
+      <c r="AR4" s="52"/>
       <c r="AS4" s="53" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="AT4" s="54" t="s">
-        <v>283</v>
+        <v>386</v>
       </c>
       <c r="AU4" s="14"/>
       <c r="AV4" s="61"/>
@@ -2521,14 +2627,14 @@
       <c r="BA4" s="27"/>
       <c r="BC4" s="45"/>
       <c r="BE4" s="45"/>
-      <c r="BF4" s="59"/>
+      <c r="BF4" s="59">
+        <v>1</v>
+      </c>
       <c r="BG4" s="59"/>
       <c r="BH4" s="59"/>
       <c r="BI4" s="59"/>
       <c r="BJ4" s="59"/>
-      <c r="BK4" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK4" s="59"/>
       <c r="BL4" s="59"/>
       <c r="BM4" s="59"/>
       <c r="BN4" s="60"/>
@@ -2543,15 +2649,15 @@
       <c r="BW4" s="60"/>
       <c r="CN4" s="11"/>
     </row>
-    <row r="5" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="D5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2594,22 +2700,22 @@
       <c r="AM5" s="10"/>
       <c r="AN5" s="26"/>
       <c r="AO5" s="48" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AP5" s="48" t="s">
-        <v>71</v>
+        <v>278</v>
       </c>
       <c r="AQ5" s="51">
-        <v>13014</v>
+        <v>6270</v>
       </c>
       <c r="AR5" s="52" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AS5" s="53" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AT5" s="54" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AU5" s="14"/>
       <c r="AV5" s="61"/>
@@ -2642,19 +2748,19 @@
       <c r="BW5" s="60"/>
       <c r="CN5" s="11"/>
     </row>
-    <row r="6" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>359</v>
+        <v>269</v>
       </c>
       <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
@@ -2693,22 +2799,22 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="26"/>
       <c r="AO6" s="48" t="s">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="AP6" s="48" t="s">
-        <v>361</v>
+        <v>71</v>
       </c>
       <c r="AQ6" s="51">
-        <v>6410</v>
+        <v>13014</v>
       </c>
       <c r="AR6" s="52" t="s">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="AS6" s="53" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="AT6" s="54" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="AU6" s="14"/>
       <c r="AV6" s="61"/>
@@ -2722,11 +2828,11 @@
       <c r="BF6" s="59"/>
       <c r="BG6" s="59"/>
       <c r="BH6" s="59"/>
-      <c r="BI6" s="59">
+      <c r="BI6" s="59"/>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="59">
         <v>1</v>
       </c>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
       <c r="BL6" s="59"/>
       <c r="BM6" s="59"/>
       <c r="BN6" s="60"/>
@@ -2741,19 +2847,19 @@
       <c r="BW6" s="60"/>
       <c r="CN6" s="11"/>
     </row>
-    <row r="7" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
@@ -2792,22 +2898,22 @@
       <c r="AM7" s="10"/>
       <c r="AN7" s="26"/>
       <c r="AO7" s="48" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="AP7" s="48" t="s">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="AQ7" s="51">
-        <v>6120</v>
+        <v>6410</v>
       </c>
       <c r="AR7" s="52" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="AS7" s="53" t="s">
         <v>104</v>
       </c>
       <c r="AT7" s="54" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="AU7" s="14"/>
       <c r="AV7" s="61"/>
@@ -2821,11 +2927,11 @@
       <c r="BF7" s="59"/>
       <c r="BG7" s="59"/>
       <c r="BH7" s="59"/>
-      <c r="BI7" s="59"/>
+      <c r="BI7" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ7" s="59"/>
-      <c r="BK7" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK7" s="59"/>
       <c r="BL7" s="59"/>
       <c r="BM7" s="59"/>
       <c r="BN7" s="60"/>
@@ -2840,19 +2946,19 @@
       <c r="BW7" s="60"/>
       <c r="CN7" s="11"/>
     </row>
-    <row r="8" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>326</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">  ; 2022_i=1    ; 2020_i=1            </v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -2891,20 +2997,22 @@
       <c r="AM8" s="10"/>
       <c r="AN8" s="26"/>
       <c r="AO8" s="48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP8" s="48" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="AQ8" s="51">
-        <v>6140</v>
-      </c>
-      <c r="AR8" s="52"/>
+        <v>6120</v>
+      </c>
+      <c r="AR8" s="52" t="s">
+        <v>267</v>
+      </c>
       <c r="AS8" s="53" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AT8" s="54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AU8" s="14"/>
       <c r="AV8" s="61"/>
@@ -2916,15 +3024,17 @@
       <c r="BC8" s="45"/>
       <c r="BE8" s="45"/>
       <c r="BF8" s="59"/>
-      <c r="BG8" s="59"/>
+      <c r="BG8" s="59">
+        <v>1</v>
+      </c>
       <c r="BH8" s="59"/>
       <c r="BI8" s="59"/>
       <c r="BJ8" s="59"/>
-      <c r="BK8" s="59"/>
+      <c r="BK8" s="59">
+        <v>1</v>
+      </c>
       <c r="BL8" s="59"/>
-      <c r="BM8" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM8" s="59"/>
       <c r="BN8" s="60"/>
       <c r="BO8" s="60"/>
       <c r="BP8" s="60"/>
@@ -2937,19 +3047,19 @@
       <c r="BW8" s="60"/>
       <c r="CN8" s="11"/>
     </row>
-    <row r="9" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ; 2021_i=2              </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -2988,22 +3098,20 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="26"/>
       <c r="AO9" s="48" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="AP9" s="48" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="AQ9" s="51">
-        <v>84120</v>
-      </c>
-      <c r="AR9" s="52" t="s">
-        <v>356</v>
-      </c>
+        <v>6140</v>
+      </c>
+      <c r="AR9" s="52"/>
       <c r="AS9" s="53" t="s">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="AT9" s="54" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="AU9" s="14"/>
       <c r="AV9" s="61"/>
@@ -3017,13 +3125,13 @@
       <c r="BF9" s="59"/>
       <c r="BG9" s="59"/>
       <c r="BH9" s="59"/>
-      <c r="BI9" s="59">
-        <v>2</v>
-      </c>
+      <c r="BI9" s="59"/>
       <c r="BJ9" s="59"/>
       <c r="BK9" s="59"/>
       <c r="BL9" s="59"/>
-      <c r="BM9" s="59"/>
+      <c r="BM9" s="59">
+        <v>1</v>
+      </c>
       <c r="BN9" s="60"/>
       <c r="BO9" s="60"/>
       <c r="BP9" s="60"/>
@@ -3036,19 +3144,19 @@
       <c r="BW9" s="60"/>
       <c r="CN9" s="11"/>
     </row>
-    <row r="10" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="47" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">    ; 2021_i=2              </v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -3086,21 +3194,23 @@
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="26"/>
-      <c r="AO10" s="48"/>
+      <c r="AO10" s="48" t="s">
+        <v>352</v>
+      </c>
       <c r="AP10" s="48" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="AQ10" s="51">
-        <v>7350</v>
+        <v>84120</v>
       </c>
       <c r="AR10" s="52" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="AS10" s="53" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="AT10" s="54" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="AU10" s="14"/>
       <c r="AV10" s="61"/>
@@ -3115,7 +3225,7 @@
       <c r="BG10" s="59"/>
       <c r="BH10" s="59"/>
       <c r="BI10" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ10" s="59"/>
       <c r="BK10" s="59"/>
@@ -3133,15 +3243,15 @@
       <c r="BW10" s="60"/>
       <c r="CN10" s="11"/>
     </row>
-    <row r="11" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3183,23 +3293,21 @@
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="26"/>
-      <c r="AO11" s="48" t="s">
-        <v>373</v>
-      </c>
+      <c r="AO11" s="48"/>
       <c r="AP11" s="48" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AQ11" s="51">
-        <v>59820</v>
+        <v>7350</v>
       </c>
       <c r="AR11" s="52" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AS11" s="53" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AT11" s="54" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AU11" s="14"/>
       <c r="AV11" s="61"/>
@@ -3232,19 +3340,19 @@
       <c r="BW11" s="60"/>
       <c r="CN11" s="11"/>
     </row>
-    <row r="12" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
@@ -3283,22 +3391,22 @@
       <c r="AM12" s="10"/>
       <c r="AN12" s="26"/>
       <c r="AO12" s="48" t="s">
-        <v>235</v>
+        <v>371</v>
       </c>
       <c r="AP12" s="48" t="s">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="AQ12" s="51">
-        <v>13210</v>
+        <v>59820</v>
       </c>
       <c r="AR12" s="52" t="s">
-        <v>237</v>
+        <v>373</v>
       </c>
       <c r="AS12" s="53" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AT12" s="54" t="s">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="AU12" s="14"/>
       <c r="AV12" s="61"/>
@@ -3312,13 +3420,13 @@
       <c r="BF12" s="59"/>
       <c r="BG12" s="59"/>
       <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
+      <c r="BI12" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ12" s="59"/>
       <c r="BK12" s="59"/>
       <c r="BL12" s="59"/>
-      <c r="BM12" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM12" s="59"/>
       <c r="BN12" s="60"/>
       <c r="BO12" s="60"/>
       <c r="BP12" s="60"/>
@@ -3331,15 +3439,15 @@
       <c r="BW12" s="60"/>
       <c r="CN12" s="11"/>
     </row>
-    <row r="13" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3382,22 +3490,22 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="48" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AP13" s="48" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AQ13" s="51">
-        <v>13340</v>
+        <v>13210</v>
       </c>
       <c r="AR13" s="52" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AS13" s="53" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="AT13" s="54" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AU13" s="14"/>
       <c r="AV13" s="61"/>
@@ -3430,19 +3538,19 @@
       <c r="BW13" s="60"/>
       <c r="CN13" s="11"/>
     </row>
-    <row r="14" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="D14" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                  ; 2014_i=1</v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -3481,22 +3589,22 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="48" t="s">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="AP14" s="48" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="AQ14" s="51">
-        <v>13270</v>
+        <v>13340</v>
       </c>
       <c r="AR14" s="52" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="AS14" s="53" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="AT14" s="54" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="AU14" s="14"/>
       <c r="AV14" s="61"/>
@@ -3514,7 +3622,9 @@
       <c r="BJ14" s="59"/>
       <c r="BK14" s="59"/>
       <c r="BL14" s="59"/>
-      <c r="BM14" s="59"/>
+      <c r="BM14" s="59">
+        <v>1</v>
+      </c>
       <c r="BN14" s="60"/>
       <c r="BO14" s="60"/>
       <c r="BP14" s="60"/>
@@ -3524,24 +3634,22 @@
       <c r="BT14" s="60"/>
       <c r="BU14" s="60"/>
       <c r="BV14" s="60"/>
-      <c r="BW14" s="60">
-        <v>1</v>
-      </c>
+      <c r="BW14" s="60"/>
       <c r="CN14" s="11"/>
     </row>
-    <row r="15" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="D15" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
@@ -3580,22 +3688,22 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="26"/>
       <c r="AO15" s="48" t="s">
-        <v>242</v>
+        <v>401</v>
       </c>
       <c r="AP15" s="48" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="AQ15" s="51">
-        <v>13800</v>
+        <v>38920</v>
       </c>
       <c r="AR15" s="52" t="s">
-        <v>179</v>
+        <v>403</v>
       </c>
       <c r="AS15" s="53" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="AT15" s="54" t="s">
-        <v>243</v>
+        <v>404</v>
       </c>
       <c r="AU15" s="14"/>
       <c r="AV15" s="61"/>
@@ -3607,15 +3715,15 @@
       <c r="BC15" s="45"/>
       <c r="BE15" s="45"/>
       <c r="BF15" s="59"/>
-      <c r="BG15" s="59"/>
+      <c r="BG15" s="59">
+        <v>1</v>
+      </c>
       <c r="BH15" s="59"/>
       <c r="BI15" s="59"/>
       <c r="BJ15" s="59"/>
       <c r="BK15" s="59"/>
       <c r="BL15" s="59"/>
-      <c r="BM15" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM15" s="59"/>
       <c r="BN15" s="60"/>
       <c r="BO15" s="60"/>
       <c r="BP15" s="60"/>
@@ -3628,19 +3736,19 @@
       <c r="BW15" s="60"/>
       <c r="CN15" s="11"/>
     </row>
-    <row r="16" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D16" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">                  ; 2014_i=1</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
@@ -3679,22 +3787,22 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="48" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="AP16" s="48" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="AQ16" s="51">
-        <v>4200</v>
+        <v>13270</v>
       </c>
       <c r="AR16" s="52" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="AS16" s="53" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="AT16" s="54" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="AU16" s="14"/>
       <c r="AV16" s="61"/>
@@ -3712,9 +3820,7 @@
       <c r="BJ16" s="59"/>
       <c r="BK16" s="59"/>
       <c r="BL16" s="59"/>
-      <c r="BM16" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM16" s="59"/>
       <c r="BN16" s="60"/>
       <c r="BO16" s="60"/>
       <c r="BP16" s="60"/>
@@ -3724,22 +3830,24 @@
       <c r="BT16" s="60"/>
       <c r="BU16" s="60"/>
       <c r="BV16" s="60"/>
-      <c r="BW16" s="60"/>
+      <c r="BW16" s="60">
+        <v>1</v>
+      </c>
       <c r="CN16" s="11"/>
     </row>
-    <row r="17" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="47" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D17" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
@@ -3778,20 +3886,22 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="48" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="AP17" s="48" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="AQ17" s="51">
-        <v>84300</v>
-      </c>
-      <c r="AR17" s="52"/>
+        <v>13800</v>
+      </c>
+      <c r="AR17" s="52" t="s">
+        <v>178</v>
+      </c>
       <c r="AS17" s="53" t="s">
         <v>104</v>
       </c>
       <c r="AT17" s="54" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="AU17" s="14"/>
       <c r="AV17" s="61"/>
@@ -3809,13 +3919,13 @@
       <c r="BJ17" s="59"/>
       <c r="BK17" s="59"/>
       <c r="BL17" s="59"/>
-      <c r="BM17" s="59"/>
+      <c r="BM17" s="59">
+        <v>1</v>
+      </c>
       <c r="BN17" s="60"/>
       <c r="BO17" s="60"/>
       <c r="BP17" s="60"/>
-      <c r="BQ17" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ17" s="60"/>
       <c r="BR17" s="60"/>
       <c r="BS17" s="60"/>
       <c r="BT17" s="60"/>
@@ -3824,19 +3934,19 @@
       <c r="BW17" s="60"/>
       <c r="CN17" s="11"/>
     </row>
-    <row r="18" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D18" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="46"/>
@@ -3875,21 +3985,23 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="26"/>
       <c r="AO18" s="48" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="AP18" s="48" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="AQ18" s="51">
-        <v>83240</v>
+        <v>4200</v>
       </c>
       <c r="AR18" s="52" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AS18" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT18" s="54"/>
+        <v>226</v>
+      </c>
+      <c r="AT18" s="54" t="s">
+        <v>224</v>
+      </c>
       <c r="AU18" s="14"/>
       <c r="AV18" s="61"/>
       <c r="AW18" s="27"/>
@@ -3906,11 +4018,11 @@
       <c r="BJ18" s="59"/>
       <c r="BK18" s="59"/>
       <c r="BL18" s="59"/>
-      <c r="BM18" s="59"/>
+      <c r="BM18" s="59">
+        <v>1</v>
+      </c>
       <c r="BN18" s="60"/>
-      <c r="BO18" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO18" s="60"/>
       <c r="BP18" s="60"/>
       <c r="BQ18" s="60"/>
       <c r="BR18" s="60"/>
@@ -3921,19 +4033,19 @@
       <c r="BW18" s="60"/>
       <c r="CN18" s="11"/>
     </row>
-    <row r="19" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="D19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -3972,22 +4084,20 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="26"/>
       <c r="AO19" s="48" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="AP19" s="48" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AQ19" s="51">
-        <v>4370</v>
-      </c>
-      <c r="AR19" s="52" t="s">
-        <v>203</v>
-      </c>
+        <v>84300</v>
+      </c>
+      <c r="AR19" s="52"/>
       <c r="AS19" s="53" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="AT19" s="54" t="s">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="AU19" s="14"/>
       <c r="AV19" s="61"/>
@@ -4007,11 +4117,11 @@
       <c r="BL19" s="59"/>
       <c r="BM19" s="59"/>
       <c r="BN19" s="60"/>
-      <c r="BO19" s="60">
+      <c r="BO19" s="60"/>
+      <c r="BP19" s="60"/>
+      <c r="BQ19" s="60">
         <v>1</v>
       </c>
-      <c r="BP19" s="60"/>
-      <c r="BQ19" s="60"/>
       <c r="BR19" s="60"/>
       <c r="BS19" s="60"/>
       <c r="BT19" s="60"/>
@@ -4020,15 +4130,15 @@
       <c r="BW19" s="60"/>
       <c r="CN19" s="11"/>
     </row>
-    <row r="20" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D20" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4071,22 +4181,22 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="26"/>
       <c r="AO20" s="48" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AP20" s="48" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="AQ20" s="51">
-        <v>5000</v>
+        <v>83240</v>
       </c>
       <c r="AR20" s="52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AS20" s="53" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="AT20" s="54" t="s">
-        <v>193</v>
+        <v>399</v>
       </c>
       <c r="AU20" s="14"/>
       <c r="AV20" s="61"/>
@@ -4119,19 +4229,19 @@
       <c r="BW20" s="60"/>
       <c r="CN20" s="11"/>
     </row>
-    <row r="21" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="47" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="D21" s="17" t="str">
-        <f>IF(BF21&lt;&gt;0,";2022_A="&amp;BF21," ")&amp;IF(BG21&lt;&gt;0," ; 2022_i="&amp;BG21," ")&amp;IF(BH21&lt;&gt;0,";2021_A="&amp;BH21," ")&amp;IF(BI21&lt;&gt;0," ; 2021_i="&amp;BI21," ")&amp;IF(BJ21&lt;&gt;0,";2020_A="&amp;BJ21," ")&amp;IF(BK21&lt;&gt;0," ; 2020_i="&amp;BK21," ")&amp;IF(BL21&lt;&gt;0,";2019_A="&amp;BL21," ")&amp;IF(BM21&lt;&gt;0," ; 2019_i="&amp;BM21," ")&amp;IF(BN21&lt;&gt;0,";2018_A="&amp;BN21," ")&amp;IF(BO21&lt;&gt;0," ; 2018_i="&amp;BO21," ")&amp;IF(BP21&lt;&gt;0," ; 2017_A="&amp;BP21," ")&amp;IF(BQ21&lt;&gt;0," ; 2017_i="&amp;BQ21," ")&amp;IF(BR21&lt;&gt;0," ; 2016_A="&amp;BR21," ")&amp;IF(BS21&lt;&gt;0," ; 2016_i="&amp;BS21," ")&amp;IF(BT21&lt;&gt;0," ; 2015_A="&amp;BT21," ")&amp;IF(BU21&lt;&gt;0," ; 2015_i="&amp;BU21," ")&amp;IF(BV21&lt;&gt;0," ; 2014_A="&amp;BV21," ")&amp;IF(BW21&lt;&gt;0," ; 2014_i="&amp;BW21," ")</f>
-        <v xml:space="preserve">        ; 2019_i=1  ; 2018_i=1        </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  ; 2022_i=1        ; 2018_i=1        </v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
@@ -4170,22 +4280,22 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="26"/>
       <c r="AO21" s="48" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="AP21" s="48" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AQ21" s="51">
-        <v>4000</v>
+        <v>4370</v>
       </c>
       <c r="AR21" s="52" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="AS21" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT21" s="53" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="AT21" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="AU21" s="14"/>
       <c r="AV21" s="61"/>
@@ -4197,15 +4307,15 @@
       <c r="BC21" s="45"/>
       <c r="BE21" s="45"/>
       <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
+      <c r="BG21" s="59">
+        <v>1</v>
+      </c>
       <c r="BH21" s="59"/>
       <c r="BI21" s="59"/>
       <c r="BJ21" s="59"/>
       <c r="BK21" s="59"/>
       <c r="BL21" s="59"/>
-      <c r="BM21" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM21" s="59"/>
       <c r="BN21" s="60"/>
       <c r="BO21" s="60">
         <v>1</v>
@@ -4220,19 +4330,19 @@
       <c r="BW21" s="60"/>
       <c r="CN21" s="11"/>
     </row>
-    <row r="22" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="D22" s="17" t="str">
-        <f>IF(BF22&lt;&gt;0,";2022_A="&amp;BF22," ")&amp;IF(BG22&lt;&gt;0," ; 2022_i="&amp;BG22," ")&amp;IF(BH22&lt;&gt;0,";2021_A="&amp;BH22," ")&amp;IF(BI22&lt;&gt;0," ; 2021_i="&amp;BI22," ")&amp;IF(BJ22&lt;&gt;0,";2020_A="&amp;BJ22," ")&amp;IF(BK22&lt;&gt;0," ; 2020_i="&amp;BK22," ")&amp;IF(BL22&lt;&gt;0,";2019_A="&amp;BL22," ")&amp;IF(BM22&lt;&gt;0," ; 2019_i="&amp;BM22," ")&amp;IF(BN22&lt;&gt;0,";2018_A="&amp;BN22," ")&amp;IF(BO22&lt;&gt;0," ; 2018_i="&amp;BO22," ")&amp;IF(BP22&lt;&gt;0," ; 2017_A="&amp;BP22," ")&amp;IF(BQ22&lt;&gt;0," ; 2017_i="&amp;BQ22," ")&amp;IF(BR22&lt;&gt;0," ; 2016_A="&amp;BR22," ")&amp;IF(BS22&lt;&gt;0," ; 2016_i="&amp;BS22," ")&amp;IF(BT22&lt;&gt;0," ; 2015_A="&amp;BT22," ")&amp;IF(BU22&lt;&gt;0," ; 2015_i="&amp;BU22," ")&amp;IF(BV22&lt;&gt;0," ; 2014_A="&amp;BV22," ")&amp;IF(BW22&lt;&gt;0," ; 2014_i="&amp;BW22," ")</f>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
@@ -4271,22 +4381,22 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="26"/>
       <c r="AO22" s="48" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="AP22" s="48" t="s">
-        <v>366</v>
+        <v>249</v>
       </c>
       <c r="AQ22" s="51">
-        <v>26000</v>
+        <v>6000</v>
       </c>
       <c r="AR22" s="52" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="AS22" s="53" t="s">
-        <v>369</v>
-      </c>
-      <c r="AT22" s="53" t="s">
-        <v>367</v>
+        <v>398</v>
+      </c>
+      <c r="AT22" s="54" t="s">
+        <v>396</v>
       </c>
       <c r="AU22" s="14"/>
       <c r="AV22" s="61"/>
@@ -4298,11 +4408,11 @@
       <c r="BC22" s="45"/>
       <c r="BE22" s="45"/>
       <c r="BF22" s="59"/>
-      <c r="BG22" s="59"/>
+      <c r="BG22" s="59">
+        <v>1</v>
+      </c>
       <c r="BH22" s="59"/>
-      <c r="BI22" s="59">
-        <v>1</v>
-      </c>
+      <c r="BI22" s="59"/>
       <c r="BJ22" s="59"/>
       <c r="BK22" s="59"/>
       <c r="BL22" s="59"/>
@@ -4319,19 +4429,19 @@
       <c r="BW22" s="60"/>
       <c r="CN22" s="11"/>
     </row>
-    <row r="23" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="D23" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
@@ -4370,22 +4480,22 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="26"/>
       <c r="AO23" s="48" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="AP23" s="48" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="AQ23" s="51">
-        <v>6203</v>
+        <v>5000</v>
       </c>
       <c r="AR23" s="52" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="AS23" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT23" s="53" t="s">
-        <v>254</v>
+        <v>94</v>
+      </c>
+      <c r="AT23" s="54" t="s">
+        <v>191</v>
       </c>
       <c r="AU23" s="14"/>
       <c r="AV23" s="61"/>
@@ -4403,11 +4513,11 @@
       <c r="BJ23" s="59"/>
       <c r="BK23" s="59"/>
       <c r="BL23" s="59"/>
-      <c r="BM23" s="59">
+      <c r="BM23" s="59"/>
+      <c r="BN23" s="60"/>
+      <c r="BO23" s="60">
         <v>1</v>
       </c>
-      <c r="BN23" s="60"/>
-      <c r="BO23" s="60"/>
       <c r="BP23" s="60"/>
       <c r="BQ23" s="60"/>
       <c r="BR23" s="60"/>
@@ -4418,19 +4528,19 @@
       <c r="BW23" s="60"/>
       <c r="CN23" s="11"/>
     </row>
-    <row r="24" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="47" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="D24" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <f>IF(BF24&lt;&gt;0,";2022_A="&amp;BF24," ")&amp;IF(BG24&lt;&gt;0," ; 2022_i="&amp;BG24," ")&amp;IF(BH24&lt;&gt;0,";2021_A="&amp;BH24," ")&amp;IF(BI24&lt;&gt;0," ; 2021_i="&amp;BI24," ")&amp;IF(BJ24&lt;&gt;0,";2020_A="&amp;BJ24," ")&amp;IF(BK24&lt;&gt;0," ; 2020_i="&amp;BK24," ")&amp;IF(BL24&lt;&gt;0,";2019_A="&amp;BL24," ")&amp;IF(BM24&lt;&gt;0," ; 2019_i="&amp;BM24," ")&amp;IF(BN24&lt;&gt;0,";2018_A="&amp;BN24," ")&amp;IF(BO24&lt;&gt;0," ; 2018_i="&amp;BO24," ")&amp;IF(BP24&lt;&gt;0," ; 2017_A="&amp;BP24," ")&amp;IF(BQ24&lt;&gt;0," ; 2017_i="&amp;BQ24," ")&amp;IF(BR24&lt;&gt;0," ; 2016_A="&amp;BR24," ")&amp;IF(BS24&lt;&gt;0," ; 2016_i="&amp;BS24," ")&amp;IF(BT24&lt;&gt;0," ; 2015_A="&amp;BT24," ")&amp;IF(BU24&lt;&gt;0," ; 2015_i="&amp;BU24," ")&amp;IF(BV24&lt;&gt;0," ; 2014_A="&amp;BV24," ")&amp;IF(BW24&lt;&gt;0," ; 2014_i="&amp;BW24," ")</f>
+        <v xml:space="preserve">        ; 2019_i=1  ; 2018_i=1        </v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
@@ -4469,22 +4579,22 @@
       <c r="AM24" s="10"/>
       <c r="AN24" s="26"/>
       <c r="AO24" s="48" t="s">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="AP24" s="48" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="AQ24" s="51">
-        <v>83390</v>
+        <v>4000</v>
       </c>
       <c r="AR24" s="52" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="AS24" s="53" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="AT24" s="53" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="AU24" s="14"/>
       <c r="AV24" s="61"/>
@@ -4506,7 +4616,9 @@
         <v>1</v>
       </c>
       <c r="BN24" s="60"/>
-      <c r="BO24" s="60"/>
+      <c r="BO24" s="60">
+        <v>1</v>
+      </c>
       <c r="BP24" s="60"/>
       <c r="BQ24" s="60"/>
       <c r="BR24" s="60"/>
@@ -4517,19 +4629,19 @@
       <c r="BW24" s="60"/>
       <c r="CN24" s="11"/>
     </row>
-    <row r="25" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>172</v>
+        <v>312</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="D25" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <f>IF(BF25&lt;&gt;0,";2022_A="&amp;BF25," ")&amp;IF(BG25&lt;&gt;0," ; 2022_i="&amp;BG25," ")&amp;IF(BH25&lt;&gt;0,";2021_A="&amp;BH25," ")&amp;IF(BI25&lt;&gt;0," ; 2021_i="&amp;BI25," ")&amp;IF(BJ25&lt;&gt;0,";2020_A="&amp;BJ25," ")&amp;IF(BK25&lt;&gt;0," ; 2020_i="&amp;BK25," ")&amp;IF(BL25&lt;&gt;0,";2019_A="&amp;BL25," ")&amp;IF(BM25&lt;&gt;0," ; 2019_i="&amp;BM25," ")&amp;IF(BN25&lt;&gt;0,";2018_A="&amp;BN25," ")&amp;IF(BO25&lt;&gt;0," ; 2018_i="&amp;BO25," ")&amp;IF(BP25&lt;&gt;0," ; 2017_A="&amp;BP25," ")&amp;IF(BQ25&lt;&gt;0," ; 2017_i="&amp;BQ25," ")&amp;IF(BR25&lt;&gt;0," ; 2016_A="&amp;BR25," ")&amp;IF(BS25&lt;&gt;0," ; 2016_i="&amp;BS25," ")&amp;IF(BT25&lt;&gt;0," ; 2015_A="&amp;BT25," ")&amp;IF(BU25&lt;&gt;0," ; 2015_i="&amp;BU25," ")&amp;IF(BV25&lt;&gt;0," ; 2014_A="&amp;BV25," ")&amp;IF(BW25&lt;&gt;0," ; 2014_i="&amp;BW25," ")</f>
+        <v xml:space="preserve">;2022_A=1                 </v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46"/>
@@ -4568,20 +4680,20 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="26"/>
       <c r="AO25" s="48" t="s">
-        <v>181</v>
+        <v>384</v>
       </c>
       <c r="AP25" s="48" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="AQ25" s="51">
-        <v>13600</v>
+        <v>4000</v>
       </c>
       <c r="AR25" s="52"/>
       <c r="AS25" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT25" s="54" t="s">
-        <v>184</v>
+        <v>384</v>
+      </c>
+      <c r="AT25" s="53" t="s">
+        <v>383</v>
       </c>
       <c r="AU25" s="14"/>
       <c r="AV25" s="61"/>
@@ -4592,7 +4704,9 @@
       <c r="BA25" s="27"/>
       <c r="BC25" s="45"/>
       <c r="BE25" s="45"/>
-      <c r="BF25" s="59"/>
+      <c r="BF25" s="59">
+        <v>1</v>
+      </c>
       <c r="BG25" s="59"/>
       <c r="BH25" s="59"/>
       <c r="BI25" s="59"/>
@@ -4603,9 +4717,7 @@
       <c r="BN25" s="60"/>
       <c r="BO25" s="60"/>
       <c r="BP25" s="60"/>
-      <c r="BQ25" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ25" s="60"/>
       <c r="BR25" s="60"/>
       <c r="BS25" s="60"/>
       <c r="BT25" s="60"/>
@@ -4614,19 +4726,19 @@
       <c r="BW25" s="60"/>
       <c r="CN25" s="11"/>
     </row>
-    <row r="26" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="47" t="s">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="D26" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <f>IF(BF26&lt;&gt;0,";2022_A="&amp;BF26," ")&amp;IF(BG26&lt;&gt;0," ; 2022_i="&amp;BG26," ")&amp;IF(BH26&lt;&gt;0,";2021_A="&amp;BH26," ")&amp;IF(BI26&lt;&gt;0," ; 2021_i="&amp;BI26," ")&amp;IF(BJ26&lt;&gt;0,";2020_A="&amp;BJ26," ")&amp;IF(BK26&lt;&gt;0," ; 2020_i="&amp;BK26," ")&amp;IF(BL26&lt;&gt;0,";2019_A="&amp;BL26," ")&amp;IF(BM26&lt;&gt;0," ; 2019_i="&amp;BM26," ")&amp;IF(BN26&lt;&gt;0,";2018_A="&amp;BN26," ")&amp;IF(BO26&lt;&gt;0," ; 2018_i="&amp;BO26," ")&amp;IF(BP26&lt;&gt;0," ; 2017_A="&amp;BP26," ")&amp;IF(BQ26&lt;&gt;0," ; 2017_i="&amp;BQ26," ")&amp;IF(BR26&lt;&gt;0," ; 2016_A="&amp;BR26," ")&amp;IF(BS26&lt;&gt;0," ; 2016_i="&amp;BS26," ")&amp;IF(BT26&lt;&gt;0," ; 2015_A="&amp;BT26," ")&amp;IF(BU26&lt;&gt;0," ; 2015_i="&amp;BU26," ")&amp;IF(BV26&lt;&gt;0," ; 2014_A="&amp;BV26," ")&amp;IF(BW26&lt;&gt;0," ; 2014_i="&amp;BW26," ")</f>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
@@ -4665,22 +4777,22 @@
       <c r="AM26" s="10"/>
       <c r="AN26" s="26"/>
       <c r="AO26" s="48" t="s">
-        <v>230</v>
+        <v>363</v>
       </c>
       <c r="AP26" s="48" t="s">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="AQ26" s="51">
-        <v>13600</v>
+        <v>26000</v>
       </c>
       <c r="AR26" s="52" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="AS26" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT26" s="54" t="s">
-        <v>231</v>
+        <v>367</v>
+      </c>
+      <c r="AT26" s="53" t="s">
+        <v>365</v>
       </c>
       <c r="AU26" s="14"/>
       <c r="AV26" s="61"/>
@@ -4694,13 +4806,13 @@
       <c r="BF26" s="59"/>
       <c r="BG26" s="59"/>
       <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
+      <c r="BI26" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ26" s="59"/>
       <c r="BK26" s="59"/>
       <c r="BL26" s="59"/>
-      <c r="BM26" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM26" s="59"/>
       <c r="BN26" s="60"/>
       <c r="BO26" s="60"/>
       <c r="BP26" s="60"/>
@@ -4713,17 +4825,20 @@
       <c r="BW26" s="60"/>
       <c r="CN26" s="11"/>
     </row>
-    <row r="27" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="D27" s="17"/>
+        <v>248</v>
+      </c>
+      <c r="D27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
+      </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
@@ -4761,22 +4876,22 @@
       <c r="AM27" s="10"/>
       <c r="AN27" s="26"/>
       <c r="AO27" s="48" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="AP27" s="48" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="AQ27" s="51">
-        <v>83300</v>
+        <v>6203</v>
       </c>
       <c r="AR27" s="52" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS27" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="AT27" s="54" t="s">
-        <v>291</v>
+        <v>250</v>
+      </c>
+      <c r="AT27" s="53" t="s">
+        <v>252</v>
       </c>
       <c r="AU27" s="14"/>
       <c r="AV27" s="61"/>
@@ -4794,7 +4909,9 @@
       <c r="BJ27" s="59"/>
       <c r="BK27" s="59"/>
       <c r="BL27" s="59"/>
-      <c r="BM27" s="59"/>
+      <c r="BM27" s="59">
+        <v>1</v>
+      </c>
       <c r="BN27" s="60"/>
       <c r="BO27" s="60"/>
       <c r="BP27" s="60"/>
@@ -4807,19 +4924,19 @@
       <c r="BW27" s="60"/>
       <c r="CN27" s="11"/>
     </row>
-    <row r="28" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="D28" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">  ; 2022_i=1      ; 2019_i=1          </v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4858,22 +4975,22 @@
       <c r="AM28" s="10"/>
       <c r="AN28" s="26"/>
       <c r="AO28" s="48" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="AP28" s="48" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="AQ28" s="51">
-        <v>83460</v>
+        <v>83390</v>
       </c>
       <c r="AR28" s="52" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="AS28" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="AT28" s="54" t="s">
-        <v>216</v>
+        <v>259</v>
+      </c>
+      <c r="AT28" s="53" t="s">
+        <v>257</v>
       </c>
       <c r="AU28" s="14"/>
       <c r="AV28" s="61"/>
@@ -4885,17 +5002,19 @@
       <c r="BC28" s="45"/>
       <c r="BE28" s="45"/>
       <c r="BF28" s="59"/>
-      <c r="BG28" s="59"/>
+      <c r="BG28" s="59">
+        <v>1</v>
+      </c>
       <c r="BH28" s="59"/>
       <c r="BI28" s="59"/>
       <c r="BJ28" s="59"/>
       <c r="BK28" s="59"/>
       <c r="BL28" s="59"/>
-      <c r="BM28" s="59"/>
+      <c r="BM28" s="59">
+        <v>1</v>
+      </c>
       <c r="BN28" s="60"/>
-      <c r="BO28" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO28" s="60"/>
       <c r="BP28" s="60"/>
       <c r="BQ28" s="60"/>
       <c r="BR28" s="60"/>
@@ -4906,19 +5025,19 @@
       <c r="BW28" s="60"/>
       <c r="CN28" s="11"/>
     </row>
-    <row r="29" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="47" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="D29" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">;2022_A=1                 </v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -4957,22 +5076,22 @@
       <c r="AM29" s="10"/>
       <c r="AN29" s="26"/>
       <c r="AO29" s="48" t="s">
-        <v>177</v>
+        <v>391</v>
       </c>
       <c r="AP29" s="48" t="s">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="AQ29" s="51">
-        <v>4800</v>
-      </c>
-      <c r="AR29" s="52" t="s">
-        <v>179</v>
+        <v>83190</v>
+      </c>
+      <c r="AR29" s="52">
+        <v>969390900</v>
       </c>
       <c r="AS29" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT29" s="54" t="s">
-        <v>180</v>
+        <v>91</v>
+      </c>
+      <c r="AT29" s="53" t="s">
+        <v>393</v>
       </c>
       <c r="AU29" s="14"/>
       <c r="AV29" s="61"/>
@@ -4983,7 +5102,9 @@
       <c r="BA29" s="27"/>
       <c r="BC29" s="45"/>
       <c r="BE29" s="45"/>
-      <c r="BF29" s="59"/>
+      <c r="BF29" s="59">
+        <v>1</v>
+      </c>
       <c r="BG29" s="59"/>
       <c r="BH29" s="59"/>
       <c r="BI29" s="59"/>
@@ -4994,9 +5115,7 @@
       <c r="BN29" s="60"/>
       <c r="BO29" s="60"/>
       <c r="BP29" s="60"/>
-      <c r="BQ29" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ29" s="60"/>
       <c r="BR29" s="60"/>
       <c r="BS29" s="60"/>
       <c r="BT29" s="60"/>
@@ -5005,15 +5124,15 @@
       <c r="BW29" s="60"/>
       <c r="CN29" s="11"/>
     </row>
-    <row r="30" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="47" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D30" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5056,20 +5175,20 @@
       <c r="AM30" s="10"/>
       <c r="AN30" s="26"/>
       <c r="AO30" s="48" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AP30" s="48" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AQ30" s="51">
-        <v>13290</v>
-      </c>
-      <c r="AR30" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS30" s="53"/>
+        <v>13600</v>
+      </c>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="53" t="s">
+        <v>182</v>
+      </c>
       <c r="AT30" s="54" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AU30" s="14"/>
       <c r="AV30" s="61"/>
@@ -5102,19 +5221,19 @@
       <c r="BW30" s="60"/>
       <c r="CN30" s="11"/>
     </row>
-    <row r="31" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="D31" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">  ; 2022_i=1  ; 2021_i=1              </v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
@@ -5153,22 +5272,22 @@
       <c r="AM31" s="10"/>
       <c r="AN31" s="26"/>
       <c r="AO31" s="48" t="s">
-        <v>168</v>
+        <v>406</v>
       </c>
       <c r="AP31" s="48" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="AQ31" s="51">
-        <v>13250</v>
+        <v>4200</v>
       </c>
       <c r="AR31" s="52" t="s">
-        <v>171</v>
+        <v>407</v>
       </c>
       <c r="AS31" s="53" t="s">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="AT31" s="54" t="s">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="AU31" s="14"/>
       <c r="AV31" s="61"/>
@@ -5180,9 +5299,13 @@
       <c r="BC31" s="45"/>
       <c r="BE31" s="45"/>
       <c r="BF31" s="59"/>
-      <c r="BG31" s="59"/>
+      <c r="BG31" s="59">
+        <v>1</v>
+      </c>
       <c r="BH31" s="59"/>
-      <c r="BI31" s="59"/>
+      <c r="BI31" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ31" s="59"/>
       <c r="BK31" s="59"/>
       <c r="BL31" s="59"/>
@@ -5190,9 +5313,7 @@
       <c r="BN31" s="60"/>
       <c r="BO31" s="60"/>
       <c r="BP31" s="60"/>
-      <c r="BQ31" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ31" s="60"/>
       <c r="BR31" s="60"/>
       <c r="BS31" s="60"/>
       <c r="BT31" s="60"/>
@@ -5201,19 +5322,19 @@
       <c r="BW31" s="60"/>
       <c r="CN31" s="11"/>
     </row>
-    <row r="32" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="47" t="s">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="D32" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
@@ -5252,22 +5373,22 @@
       <c r="AM32" s="10"/>
       <c r="AN32" s="26"/>
       <c r="AO32" s="48" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="AP32" s="48" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AQ32" s="51">
-        <v>830130</v>
+        <v>13600</v>
       </c>
       <c r="AR32" s="52" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AS32" s="53" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="AT32" s="54" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="AU32" s="14"/>
       <c r="AV32" s="61"/>
@@ -5285,7 +5406,9 @@
       <c r="BJ32" s="59"/>
       <c r="BK32" s="59"/>
       <c r="BL32" s="59"/>
-      <c r="BM32" s="59"/>
+      <c r="BM32" s="59">
+        <v>1</v>
+      </c>
       <c r="BN32" s="60"/>
       <c r="BO32" s="60"/>
       <c r="BP32" s="60"/>
@@ -5293,26 +5416,24 @@
       <c r="BR32" s="60"/>
       <c r="BS32" s="60"/>
       <c r="BT32" s="60"/>
-      <c r="BU32" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU32" s="60"/>
       <c r="BV32" s="60"/>
       <c r="BW32" s="60"/>
       <c r="CN32" s="11"/>
     </row>
-    <row r="33" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="47" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="D33" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
@@ -5351,20 +5472,22 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="26"/>
       <c r="AO33" s="48" t="s">
-        <v>163</v>
+        <v>287</v>
       </c>
       <c r="AP33" s="48" t="s">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="AQ33" s="51">
-        <v>84000</v>
-      </c>
-      <c r="AR33" s="52"/>
+        <v>83300</v>
+      </c>
+      <c r="AR33" s="52" t="s">
+        <v>290</v>
+      </c>
       <c r="AS33" s="53" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="AT33" s="54" t="s">
-        <v>161</v>
+        <v>289</v>
       </c>
       <c r="AU33" s="14"/>
       <c r="AV33" s="61"/>
@@ -5378,7 +5501,9 @@
       <c r="BF33" s="59"/>
       <c r="BG33" s="59"/>
       <c r="BH33" s="59"/>
-      <c r="BI33" s="59"/>
+      <c r="BI33" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ33" s="59"/>
       <c r="BK33" s="59"/>
       <c r="BL33" s="59"/>
@@ -5395,19 +5520,19 @@
       <c r="BW33" s="60"/>
       <c r="CN33" s="11"/>
     </row>
-    <row r="34" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="D34" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
@@ -5446,22 +5571,22 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="26"/>
       <c r="AO34" s="48" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="AP34" s="48" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="AQ34" s="51">
-        <v>84700</v>
+        <v>83460</v>
       </c>
       <c r="AR34" s="52" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="AS34" s="53" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="AT34" s="54" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="61"/>
@@ -5481,32 +5606,32 @@
       <c r="BL34" s="59"/>
       <c r="BM34" s="59"/>
       <c r="BN34" s="60"/>
-      <c r="BO34" s="60"/>
+      <c r="BO34" s="60">
+        <v>1</v>
+      </c>
       <c r="BP34" s="60"/>
       <c r="BQ34" s="60"/>
       <c r="BR34" s="60"/>
       <c r="BS34" s="60"/>
       <c r="BT34" s="60"/>
-      <c r="BU34" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU34" s="60"/>
       <c r="BV34" s="60"/>
       <c r="BW34" s="60"/>
       <c r="CN34" s="11"/>
     </row>
-    <row r="35" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D35" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
@@ -5545,20 +5670,22 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="26"/>
       <c r="AO35" s="48" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="AP35" s="48" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="AQ35" s="51">
-        <v>13209</v>
-      </c>
-      <c r="AR35" s="52"/>
+        <v>4800</v>
+      </c>
+      <c r="AR35" s="52" t="s">
+        <v>178</v>
+      </c>
       <c r="AS35" s="53" t="s">
         <v>104</v>
       </c>
       <c r="AT35" s="54" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="AU35" s="14"/>
       <c r="AV35" s="61"/>
@@ -5578,11 +5705,11 @@
       <c r="BL35" s="59"/>
       <c r="BM35" s="59"/>
       <c r="BN35" s="60"/>
-      <c r="BO35" s="60">
+      <c r="BO35" s="60"/>
+      <c r="BP35" s="60"/>
+      <c r="BQ35" s="60">
         <v>1</v>
       </c>
-      <c r="BP35" s="60"/>
-      <c r="BQ35" s="60"/>
       <c r="BR35" s="60"/>
       <c r="BS35" s="60"/>
       <c r="BT35" s="60"/>
@@ -5591,19 +5718,19 @@
       <c r="BW35" s="60"/>
       <c r="CN35" s="11"/>
     </row>
-    <row r="36" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D36" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E36" s="46"/>
       <c r="F36" s="46"/>
@@ -5642,22 +5769,20 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="26"/>
       <c r="AO36" s="48" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="AP36" s="48" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="AQ36" s="51">
-        <v>84200</v>
+        <v>13290</v>
       </c>
       <c r="AR36" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS36" s="53" t="s">
-        <v>104</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AS36" s="53"/>
       <c r="AT36" s="54" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="AU36" s="14"/>
       <c r="AV36" s="61"/>
@@ -5673,15 +5798,15 @@
       <c r="BH36" s="59"/>
       <c r="BI36" s="59"/>
       <c r="BJ36" s="59"/>
-      <c r="BK36" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK36" s="59"/>
       <c r="BL36" s="59"/>
       <c r="BM36" s="59"/>
       <c r="BN36" s="60"/>
       <c r="BO36" s="60"/>
       <c r="BP36" s="60"/>
-      <c r="BQ36" s="60"/>
+      <c r="BQ36" s="60">
+        <v>1</v>
+      </c>
       <c r="BR36" s="60"/>
       <c r="BS36" s="60"/>
       <c r="BT36" s="60"/>
@@ -5690,19 +5815,19 @@
       <c r="BW36" s="60"/>
       <c r="CN36" s="11"/>
     </row>
-    <row r="37" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="D37" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1          ; 2015_i=1  </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E37" s="46"/>
       <c r="F37" s="46"/>
@@ -5741,22 +5866,22 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="26"/>
       <c r="AO37" s="48" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AP37" s="48" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="AQ37" s="51">
-        <v>84290</v>
+        <v>13250</v>
       </c>
       <c r="AR37" s="52" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AS37" s="53" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AT37" s="54" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AU37" s="14"/>
       <c r="AV37" s="61"/>
@@ -5772,38 +5897,36 @@
       <c r="BH37" s="59"/>
       <c r="BI37" s="59"/>
       <c r="BJ37" s="59"/>
-      <c r="BK37" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK37" s="59"/>
       <c r="BL37" s="59"/>
       <c r="BM37" s="59"/>
       <c r="BN37" s="60"/>
       <c r="BO37" s="60"/>
       <c r="BP37" s="60"/>
-      <c r="BQ37" s="60"/>
+      <c r="BQ37" s="60">
+        <v>1</v>
+      </c>
       <c r="BR37" s="60"/>
       <c r="BS37" s="60"/>
       <c r="BT37" s="60"/>
-      <c r="BU37" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU37" s="60"/>
       <c r="BV37" s="60"/>
       <c r="BW37" s="60"/>
       <c r="CN37" s="11"/>
     </row>
-    <row r="38" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="47" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="D38" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="46"/>
@@ -5841,21 +5964,23 @@
       <c r="AL38" s="10"/>
       <c r="AM38" s="10"/>
       <c r="AN38" s="26"/>
-      <c r="AO38" s="48"/>
+      <c r="AO38" s="48" t="s">
+        <v>164</v>
+      </c>
       <c r="AP38" s="48" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AQ38" s="51">
-        <v>13108</v>
+        <v>830130</v>
       </c>
       <c r="AR38" s="52" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="AS38" s="53" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="AT38" s="54" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="61"/>
@@ -5875,32 +6000,32 @@
       <c r="BL38" s="59"/>
       <c r="BM38" s="59"/>
       <c r="BN38" s="60"/>
-      <c r="BO38" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO38" s="60"/>
       <c r="BP38" s="60"/>
       <c r="BQ38" s="60"/>
       <c r="BR38" s="60"/>
       <c r="BS38" s="60"/>
       <c r="BT38" s="60"/>
-      <c r="BU38" s="60"/>
+      <c r="BU38" s="60">
+        <v>1</v>
+      </c>
       <c r="BV38" s="60"/>
       <c r="BW38" s="60"/>
       <c r="CN38" s="11"/>
     </row>
-    <row r="39" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="47" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="D39" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1      ; 2015_i=1  </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
@@ -5939,22 +6064,20 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="26"/>
       <c r="AO39" s="48" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AP39" s="48" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="AQ39" s="51">
-        <v>4000</v>
-      </c>
-      <c r="AR39" s="52" t="s">
-        <v>148</v>
-      </c>
+        <v>84000</v>
+      </c>
+      <c r="AR39" s="52"/>
       <c r="AS39" s="53" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="AT39" s="54" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AU39" s="14"/>
       <c r="AV39" s="61"/>
@@ -5982,25 +6105,23 @@
       <c r="BR39" s="60"/>
       <c r="BS39" s="60"/>
       <c r="BT39" s="60"/>
-      <c r="BU39" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU39" s="60"/>
       <c r="BV39" s="60"/>
       <c r="BW39" s="60"/>
       <c r="CN39" s="11"/>
     </row>
-    <row r="40" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="D40" s="17" t="str">
-        <f t="shared" ref="D40:D65" si="1">IF(BF40&lt;&gt;0,";2022_A="&amp;BF40," ")&amp;IF(BG40&lt;&gt;0," ; 2022_i="&amp;BG40," ")&amp;IF(BH40&lt;&gt;0,";2021_A="&amp;BH40," ")&amp;IF(BI40&lt;&gt;0," ; 2021_i="&amp;BI40," ")&amp;IF(BJ40&lt;&gt;0,";2020_A="&amp;BJ40," ")&amp;IF(BK40&lt;&gt;0," ; 2020_i="&amp;BK40," ")&amp;IF(BL40&lt;&gt;0,";2019_A="&amp;BL40," ")&amp;IF(BM40&lt;&gt;0," ; 2019_i="&amp;BM40," ")&amp;IF(BN40&lt;&gt;0,";2018_A="&amp;BN40," ")&amp;IF(BO40&lt;&gt;0," ; 2018_i="&amp;BO40," ")&amp;IF(BP40&lt;&gt;0," ; 2017_A="&amp;BP40," ")&amp;IF(BQ40&lt;&gt;0," ; 2017_i="&amp;BQ40," ")&amp;IF(BR40&lt;&gt;0," ; 2016_A="&amp;BR40," ")&amp;IF(BS40&lt;&gt;0," ; 2016_i="&amp;BS40," ")&amp;IF(BT40&lt;&gt;0," ; 2015_A="&amp;BT40," ")&amp;IF(BU40&lt;&gt;0," ; 2015_i="&amp;BU40," ")&amp;IF(BV40&lt;&gt;0," ; 2014_A="&amp;BV40," ")&amp;IF(BW40&lt;&gt;0," ; 2014_i="&amp;BW40," ")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E40" s="46"/>
@@ -6040,22 +6161,22 @@
       <c r="AM40" s="10"/>
       <c r="AN40" s="26"/>
       <c r="AO40" s="48" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="AP40" s="48" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="AQ40" s="51">
-        <v>13010</v>
+        <v>84700</v>
       </c>
       <c r="AR40" s="52" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AS40" s="53" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="AT40" s="54" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="AU40" s="14"/>
       <c r="AV40" s="61"/>
@@ -6088,19 +6209,19 @@
       <c r="BW40" s="60"/>
       <c r="CN40" s="11"/>
     </row>
-    <row r="41" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>135</v>
+        <v>337</v>
       </c>
       <c r="D41" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="46"/>
@@ -6139,22 +6260,20 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="26"/>
       <c r="AO41" s="48" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="AP41" s="48" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="AQ41" s="51">
-        <v>83310</v>
-      </c>
-      <c r="AR41" s="52" t="s">
-        <v>137</v>
-      </c>
+        <v>13209</v>
+      </c>
+      <c r="AR41" s="52"/>
       <c r="AS41" s="53" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AT41" s="54" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="AU41" s="14"/>
       <c r="AV41" s="61"/>
@@ -6174,31 +6293,31 @@
       <c r="BL41" s="59"/>
       <c r="BM41" s="59"/>
       <c r="BN41" s="60"/>
-      <c r="BO41" s="60"/>
+      <c r="BO41" s="60">
+        <v>1</v>
+      </c>
       <c r="BP41" s="60"/>
       <c r="BQ41" s="60"/>
       <c r="BR41" s="60"/>
       <c r="BS41" s="60"/>
       <c r="BT41" s="60"/>
-      <c r="BU41" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU41" s="60"/>
       <c r="BV41" s="60"/>
       <c r="BW41" s="60"/>
       <c r="CN41" s="11"/>
     </row>
-    <row r="42" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c r="D42" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E42" s="46"/>
@@ -6238,22 +6357,22 @@
       <c r="AM42" s="10"/>
       <c r="AN42" s="26"/>
       <c r="AO42" s="48" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="AP42" s="48" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="AQ42" s="51">
-        <v>84290</v>
+        <v>84200</v>
       </c>
       <c r="AR42" s="52" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="AS42" s="53" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AT42" s="54" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AU42" s="14"/>
       <c r="AV42" s="61"/>
@@ -6286,19 +6405,19 @@
       <c r="BW42" s="60"/>
       <c r="CN42" s="11"/>
     </row>
-    <row r="43" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D43" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      ; 2020_i=1          ; 2015_i=1  </v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="46"/>
@@ -6337,22 +6456,22 @@
       <c r="AM43" s="10"/>
       <c r="AN43" s="26"/>
       <c r="AO43" s="48" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AP43" s="48" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="AQ43" s="51">
-        <v>84600</v>
+        <v>84290</v>
       </c>
       <c r="AR43" s="52" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="AS43" s="53" t="s">
         <v>133</v>
       </c>
       <c r="AT43" s="54" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="AU43" s="14"/>
       <c r="AV43" s="61"/>
@@ -6368,7 +6487,9 @@
       <c r="BH43" s="59"/>
       <c r="BI43" s="59"/>
       <c r="BJ43" s="59"/>
-      <c r="BK43" s="59"/>
+      <c r="BK43" s="59">
+        <v>1</v>
+      </c>
       <c r="BL43" s="59"/>
       <c r="BM43" s="59"/>
       <c r="BN43" s="60"/>
@@ -6385,19 +6506,19 @@
       <c r="BW43" s="60"/>
       <c r="CN43" s="11"/>
     </row>
-    <row r="44" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="47" t="s">
         <v>300</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>122</v>
+        <v>339</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="D44" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="46"/>
@@ -6435,23 +6556,21 @@
       <c r="AL44" s="10"/>
       <c r="AM44" s="10"/>
       <c r="AN44" s="26"/>
-      <c r="AO44" s="48" t="s">
-        <v>124</v>
-      </c>
+      <c r="AO44" s="48"/>
       <c r="AP44" s="48" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="AQ44" s="51">
-        <v>13790</v>
+        <v>13108</v>
       </c>
       <c r="AR44" s="52" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="AS44" s="53" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="AT44" s="54" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="AU44" s="14"/>
       <c r="AV44" s="61"/>
@@ -6471,32 +6590,32 @@
       <c r="BL44" s="59"/>
       <c r="BM44" s="59"/>
       <c r="BN44" s="60"/>
-      <c r="BO44" s="60"/>
+      <c r="BO44" s="60">
+        <v>1</v>
+      </c>
       <c r="BP44" s="60"/>
       <c r="BQ44" s="60"/>
       <c r="BR44" s="60"/>
       <c r="BS44" s="60"/>
       <c r="BT44" s="60"/>
-      <c r="BU44" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU44" s="60"/>
       <c r="BV44" s="60"/>
       <c r="BW44" s="60"/>
       <c r="CN44" s="11"/>
     </row>
-    <row r="45" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="47" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="D45" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1          </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1      ; 2015_i=1  </v>
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="46"/>
@@ -6535,22 +6654,22 @@
       <c r="AM45" s="10"/>
       <c r="AN45" s="26"/>
       <c r="AO45" s="48" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AP45" s="48" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AQ45" s="51">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="AR45" s="52" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AS45" s="53" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="AT45" s="54" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="AU45" s="14"/>
       <c r="AV45" s="61"/>
@@ -6566,38 +6685,38 @@
       <c r="BH45" s="59"/>
       <c r="BI45" s="59"/>
       <c r="BJ45" s="59"/>
-      <c r="BK45" s="59">
+      <c r="BK45" s="59"/>
+      <c r="BL45" s="59"/>
+      <c r="BM45" s="59"/>
+      <c r="BN45" s="60"/>
+      <c r="BO45" s="60">
         <v>1</v>
       </c>
-      <c r="BL45" s="59"/>
-      <c r="BM45" s="59">
-        <v>1</v>
-      </c>
-      <c r="BN45" s="60"/>
-      <c r="BO45" s="60"/>
       <c r="BP45" s="60"/>
       <c r="BQ45" s="60"/>
       <c r="BR45" s="60"/>
       <c r="BS45" s="60"/>
       <c r="BT45" s="60"/>
-      <c r="BU45" s="60"/>
+      <c r="BU45" s="60">
+        <v>1</v>
+      </c>
       <c r="BV45" s="60"/>
       <c r="BW45" s="60"/>
       <c r="CN45" s="11"/>
     </row>
-    <row r="46" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D46" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=2            </v>
+        <f t="shared" ref="D46:D72" si="1">IF(BF46&lt;&gt;0,";2022_A="&amp;BF46," ")&amp;IF(BG46&lt;&gt;0," ; 2022_i="&amp;BG46," ")&amp;IF(BH46&lt;&gt;0,";2021_A="&amp;BH46," ")&amp;IF(BI46&lt;&gt;0," ; 2021_i="&amp;BI46," ")&amp;IF(BJ46&lt;&gt;0,";2020_A="&amp;BJ46," ")&amp;IF(BK46&lt;&gt;0," ; 2020_i="&amp;BK46," ")&amp;IF(BL46&lt;&gt;0,";2019_A="&amp;BL46," ")&amp;IF(BM46&lt;&gt;0," ; 2019_i="&amp;BM46," ")&amp;IF(BN46&lt;&gt;0,";2018_A="&amp;BN46," ")&amp;IF(BO46&lt;&gt;0," ; 2018_i="&amp;BO46," ")&amp;IF(BP46&lt;&gt;0," ; 2017_A="&amp;BP46," ")&amp;IF(BQ46&lt;&gt;0," ; 2017_i="&amp;BQ46," ")&amp;IF(BR46&lt;&gt;0," ; 2016_A="&amp;BR46," ")&amp;IF(BS46&lt;&gt;0," ; 2016_i="&amp;BS46," ")&amp;IF(BT46&lt;&gt;0," ; 2015_A="&amp;BT46," ")&amp;IF(BU46&lt;&gt;0," ; 2015_i="&amp;BU46," ")&amp;IF(BV46&lt;&gt;0," ; 2014_A="&amp;BV46," ")&amp;IF(BW46&lt;&gt;0," ; 2014_i="&amp;BW46," ")</f>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="46"/>
@@ -6636,22 +6755,22 @@
       <c r="AM46" s="10"/>
       <c r="AN46" s="26"/>
       <c r="AO46" s="48" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="AP46" s="48" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="AQ46" s="51">
-        <v>4100</v>
+        <v>13010</v>
       </c>
       <c r="AR46" s="52" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="AS46" s="53" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AT46" s="54" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AU46" s="14"/>
       <c r="AV46" s="61"/>
@@ -6667,9 +6786,7 @@
       <c r="BH46" s="59"/>
       <c r="BI46" s="59"/>
       <c r="BJ46" s="59"/>
-      <c r="BK46" s="59">
-        <v>2</v>
-      </c>
+      <c r="BK46" s="59"/>
       <c r="BL46" s="59"/>
       <c r="BM46" s="59"/>
       <c r="BN46" s="60"/>
@@ -6679,24 +6796,26 @@
       <c r="BR46" s="60"/>
       <c r="BS46" s="60"/>
       <c r="BT46" s="60"/>
-      <c r="BU46" s="60"/>
+      <c r="BU46" s="60">
+        <v>1</v>
+      </c>
       <c r="BV46" s="60"/>
       <c r="BW46" s="60"/>
       <c r="CN46" s="11"/>
     </row>
-    <row r="47" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="47" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D47" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="46"/>
@@ -6735,22 +6854,22 @@
       <c r="AM47" s="10"/>
       <c r="AN47" s="26"/>
       <c r="AO47" s="48" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="AP47" s="48" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="AQ47" s="51">
-        <v>4100</v>
+        <v>83310</v>
       </c>
       <c r="AR47" s="52" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AS47" s="53" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="AT47" s="54" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="AU47" s="14"/>
       <c r="AV47" s="61"/>
@@ -6766,9 +6885,7 @@
       <c r="BH47" s="59"/>
       <c r="BI47" s="59"/>
       <c r="BJ47" s="59"/>
-      <c r="BK47" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK47" s="59"/>
       <c r="BL47" s="59"/>
       <c r="BM47" s="59"/>
       <c r="BN47" s="60"/>
@@ -6778,24 +6895,26 @@
       <c r="BR47" s="60"/>
       <c r="BS47" s="60"/>
       <c r="BT47" s="60"/>
-      <c r="BU47" s="60"/>
+      <c r="BU47" s="60">
+        <v>1</v>
+      </c>
       <c r="BV47" s="60"/>
       <c r="BW47" s="60"/>
       <c r="CN47" s="11"/>
     </row>
-    <row r="48" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="47" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="D48" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="46"/>
@@ -6834,22 +6953,22 @@
       <c r="AM48" s="10"/>
       <c r="AN48" s="26"/>
       <c r="AO48" s="48" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="AP48" s="48" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="AQ48" s="51">
-        <v>4100</v>
+        <v>84290</v>
       </c>
       <c r="AR48" s="52" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="AS48" s="53" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="AT48" s="54" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="AU48" s="14"/>
       <c r="AV48" s="61"/>
@@ -6865,7 +6984,9 @@
       <c r="BH48" s="59"/>
       <c r="BI48" s="59"/>
       <c r="BJ48" s="59"/>
-      <c r="BK48" s="59"/>
+      <c r="BK48" s="59">
+        <v>1</v>
+      </c>
       <c r="BL48" s="59"/>
       <c r="BM48" s="59"/>
       <c r="BN48" s="60"/>
@@ -6875,26 +6996,24 @@
       <c r="BR48" s="60"/>
       <c r="BS48" s="60"/>
       <c r="BT48" s="60"/>
-      <c r="BU48" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU48" s="60"/>
       <c r="BV48" s="60"/>
       <c r="BW48" s="60"/>
       <c r="CN48" s="11"/>
     </row>
-    <row r="49" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D49" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1  ; 2015_i=1  </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="46"/>
@@ -6933,22 +7052,22 @@
       <c r="AM49" s="10"/>
       <c r="AN49" s="26"/>
       <c r="AO49" s="48" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AP49" s="48" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AQ49" s="51">
-        <v>84200</v>
+        <v>84600</v>
       </c>
       <c r="AR49" s="52" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="AS49" s="53" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AT49" s="54" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AU49" s="14"/>
       <c r="AV49" s="61"/>
@@ -6972,9 +7091,7 @@
       <c r="BP49" s="60"/>
       <c r="BQ49" s="60"/>
       <c r="BR49" s="60"/>
-      <c r="BS49" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS49" s="60"/>
       <c r="BT49" s="60"/>
       <c r="BU49" s="60">
         <v>1</v>
@@ -6983,19 +7100,19 @@
       <c r="BW49" s="60"/>
       <c r="CN49" s="11"/>
     </row>
-    <row r="50" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="47" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="D50" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="46"/>
@@ -7034,20 +7151,22 @@
       <c r="AM50" s="10"/>
       <c r="AN50" s="26"/>
       <c r="AO50" s="48" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="AP50" s="48" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AQ50" s="51">
-        <v>4100</v>
-      </c>
-      <c r="AR50" s="52"/>
+        <v>13790</v>
+      </c>
+      <c r="AR50" s="52" t="s">
+        <v>126</v>
+      </c>
       <c r="AS50" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT50" s="53" t="s">
-        <v>264</v>
+        <v>128</v>
+      </c>
+      <c r="AT50" s="54" t="s">
+        <v>127</v>
       </c>
       <c r="AU50" s="14"/>
       <c r="AV50" s="61"/>
@@ -7065,9 +7184,7 @@
       <c r="BJ50" s="59"/>
       <c r="BK50" s="59"/>
       <c r="BL50" s="59"/>
-      <c r="BM50" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM50" s="59"/>
       <c r="BN50" s="60"/>
       <c r="BO50" s="60"/>
       <c r="BP50" s="60"/>
@@ -7075,24 +7192,26 @@
       <c r="BR50" s="60"/>
       <c r="BS50" s="60"/>
       <c r="BT50" s="60"/>
-      <c r="BU50" s="60"/>
+      <c r="BU50" s="60">
+        <v>1</v>
+      </c>
       <c r="BV50" s="60"/>
       <c r="BW50" s="60"/>
       <c r="CN50" s="11"/>
     </row>
-    <row r="51" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>314</v>
+        <v>93</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D51" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1      ; 2016_i=1    </v>
+        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1          </v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="46"/>
@@ -7131,22 +7250,22 @@
       <c r="AM51" s="10"/>
       <c r="AN51" s="26"/>
       <c r="AO51" s="48" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AP51" s="48" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AQ51" s="51">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="AR51" s="52" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AS51" s="53" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="AT51" s="54" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AU51" s="14"/>
       <c r="AV51" s="61"/>
@@ -7162,7 +7281,9 @@
       <c r="BH51" s="59"/>
       <c r="BI51" s="59"/>
       <c r="BJ51" s="59"/>
-      <c r="BK51" s="59"/>
+      <c r="BK51" s="59">
+        <v>1</v>
+      </c>
       <c r="BL51" s="59"/>
       <c r="BM51" s="59">
         <v>1</v>
@@ -7172,28 +7293,26 @@
       <c r="BP51" s="60"/>
       <c r="BQ51" s="60"/>
       <c r="BR51" s="60"/>
-      <c r="BS51" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS51" s="60"/>
       <c r="BT51" s="60"/>
       <c r="BU51" s="60"/>
       <c r="BV51" s="60"/>
       <c r="BW51" s="60"/>
       <c r="CN51" s="11"/>
     </row>
-    <row r="52" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="47" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>98</v>
+        <v>342</v>
       </c>
       <c r="D52" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1      ; 2017_i=1  ; 2016_i=1  ; 2015_i=1  </v>
+        <v xml:space="preserve">      ; 2020_i=2            </v>
       </c>
       <c r="E52" s="46"/>
       <c r="F52" s="46"/>
@@ -7232,22 +7351,22 @@
       <c r="AM52" s="10"/>
       <c r="AN52" s="26"/>
       <c r="AO52" s="48" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="AP52" s="48" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AQ52" s="51">
-        <v>6130</v>
+        <v>4100</v>
       </c>
       <c r="AR52" s="52" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="AS52" s="53" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AT52" s="54" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="AU52" s="14"/>
       <c r="AV52" s="61"/>
@@ -7264,41 +7383,35 @@
       <c r="BI52" s="59"/>
       <c r="BJ52" s="59"/>
       <c r="BK52" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL52" s="59"/>
       <c r="BM52" s="59"/>
       <c r="BN52" s="60"/>
       <c r="BO52" s="60"/>
       <c r="BP52" s="60"/>
-      <c r="BQ52" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ52" s="60"/>
       <c r="BR52" s="60"/>
-      <c r="BS52" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS52" s="60"/>
       <c r="BT52" s="60"/>
-      <c r="BU52" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU52" s="60"/>
       <c r="BV52" s="60"/>
       <c r="BW52" s="60"/>
       <c r="CN52" s="11"/>
     </row>
-    <row r="53" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="47" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="D53" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">  ; 2022_i=1    ; 2020_i=1            </v>
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="46"/>
@@ -7337,22 +7450,22 @@
       <c r="AM53" s="10"/>
       <c r="AN53" s="26"/>
       <c r="AO53" s="48" t="s">
-        <v>349</v>
+        <v>119</v>
       </c>
       <c r="AP53" s="48" t="s">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AQ53" s="51">
-        <v>26200</v>
+        <v>4100</v>
       </c>
       <c r="AR53" s="52" t="s">
-        <v>352</v>
+        <v>118</v>
       </c>
       <c r="AS53" s="53" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AT53" s="54" t="s">
-        <v>351</v>
+        <v>121</v>
       </c>
       <c r="AU53" s="14"/>
       <c r="AV53" s="61"/>
@@ -7364,13 +7477,15 @@
       <c r="BC53" s="45"/>
       <c r="BE53" s="45"/>
       <c r="BF53" s="59"/>
-      <c r="BG53" s="59"/>
+      <c r="BG53" s="59">
+        <v>1</v>
+      </c>
       <c r="BH53" s="59"/>
-      <c r="BI53" s="59">
+      <c r="BI53" s="59"/>
+      <c r="BJ53" s="59"/>
+      <c r="BK53" s="59">
         <v>1</v>
       </c>
-      <c r="BJ53" s="59"/>
-      <c r="BK53" s="59"/>
       <c r="BL53" s="59"/>
       <c r="BM53" s="59"/>
       <c r="BN53" s="60"/>
@@ -7385,19 +7500,19 @@
       <c r="BW53" s="60"/>
       <c r="CN53" s="11"/>
     </row>
-    <row r="54" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="47" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="D54" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E54" s="46"/>
       <c r="F54" s="46"/>
@@ -7436,22 +7551,22 @@
       <c r="AM54" s="10"/>
       <c r="AN54" s="26"/>
       <c r="AO54" s="48" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="AP54" s="48" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ54" s="51">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="AR54" s="52" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AS54" s="53" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="AT54" s="54" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="AU54" s="14"/>
       <c r="AV54" s="61"/>
@@ -7475,28 +7590,28 @@
       <c r="BP54" s="60"/>
       <c r="BQ54" s="60"/>
       <c r="BR54" s="60"/>
-      <c r="BS54" s="60">
+      <c r="BS54" s="60"/>
+      <c r="BT54" s="60"/>
+      <c r="BU54" s="60">
         <v>1</v>
       </c>
-      <c r="BT54" s="60"/>
-      <c r="BU54" s="60"/>
       <c r="BV54" s="60"/>
       <c r="BW54" s="60"/>
       <c r="CN54" s="11"/>
     </row>
-    <row r="55" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
       <c r="D55" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">              ; 2016_i=1  ; 2015_i=1  </v>
       </c>
       <c r="E55" s="46"/>
       <c r="F55" s="46"/>
@@ -7535,22 +7650,22 @@
       <c r="AM55" s="10"/>
       <c r="AN55" s="26"/>
       <c r="AO55" s="48" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="AP55" s="48" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="AQ55" s="51">
-        <v>83470</v>
+        <v>84200</v>
       </c>
       <c r="AR55" s="52" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AS55" s="53" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AT55" s="54" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="AU55" s="14"/>
       <c r="AV55" s="61"/>
@@ -7566,9 +7681,7 @@
       <c r="BH55" s="59"/>
       <c r="BI55" s="59"/>
       <c r="BJ55" s="59"/>
-      <c r="BK55" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK55" s="59"/>
       <c r="BL55" s="59"/>
       <c r="BM55" s="59"/>
       <c r="BN55" s="60"/>
@@ -7576,26 +7689,30 @@
       <c r="BP55" s="60"/>
       <c r="BQ55" s="60"/>
       <c r="BR55" s="60"/>
-      <c r="BS55" s="60"/>
+      <c r="BS55" s="60">
+        <v>1</v>
+      </c>
       <c r="BT55" s="60"/>
-      <c r="BU55" s="60"/>
+      <c r="BU55" s="60">
+        <v>1</v>
+      </c>
       <c r="BV55" s="60"/>
       <c r="BW55" s="60"/>
       <c r="CN55" s="11"/>
     </row>
-    <row r="56" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="D56" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">  ; 2022_i=1      ; 2019_i=1          </v>
       </c>
       <c r="E56" s="46"/>
       <c r="F56" s="46"/>
@@ -7634,22 +7751,20 @@
       <c r="AM56" s="10"/>
       <c r="AN56" s="26"/>
       <c r="AO56" s="48" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="AP56" s="48" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AQ56" s="51">
-        <v>13100</v>
-      </c>
-      <c r="AR56" s="52" t="s">
-        <v>89</v>
-      </c>
+        <v>4100</v>
+      </c>
+      <c r="AR56" s="52"/>
       <c r="AS56" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT56" s="54" t="s">
-        <v>92</v>
+        <v>133</v>
+      </c>
+      <c r="AT56" s="53" t="s">
+        <v>262</v>
       </c>
       <c r="AU56" s="14"/>
       <c r="AV56" s="61"/>
@@ -7661,40 +7776,42 @@
       <c r="BC56" s="45"/>
       <c r="BE56" s="45"/>
       <c r="BF56" s="59"/>
-      <c r="BG56" s="59"/>
+      <c r="BG56" s="59">
+        <v>1</v>
+      </c>
       <c r="BH56" s="59"/>
       <c r="BI56" s="59"/>
       <c r="BJ56" s="59"/>
       <c r="BK56" s="59"/>
       <c r="BL56" s="59"/>
-      <c r="BM56" s="59"/>
+      <c r="BM56" s="59">
+        <v>1</v>
+      </c>
       <c r="BN56" s="60"/>
       <c r="BO56" s="60"/>
       <c r="BP56" s="60"/>
       <c r="BQ56" s="60"/>
       <c r="BR56" s="60"/>
-      <c r="BS56" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS56" s="60"/>
       <c r="BT56" s="60"/>
       <c r="BU56" s="60"/>
       <c r="BV56" s="60"/>
       <c r="BW56" s="60"/>
       <c r="CN56" s="11"/>
     </row>
-    <row r="57" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="47" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="D57" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E57" s="46"/>
       <c r="F57" s="46"/>
@@ -7733,22 +7850,20 @@
       <c r="AM57" s="10"/>
       <c r="AN57" s="26"/>
       <c r="AO57" s="48" t="s">
-        <v>84</v>
+        <v>411</v>
       </c>
       <c r="AP57" s="48" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AQ57" s="51">
-        <v>13400</v>
-      </c>
-      <c r="AR57" s="52" t="s">
-        <v>86</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="AR57" s="52"/>
       <c r="AS57" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT57" s="54" t="s">
-        <v>87</v>
+        <v>412</v>
+      </c>
+      <c r="AT57" s="53" t="s">
+        <v>413</v>
       </c>
       <c r="AU57" s="14"/>
       <c r="AV57" s="61"/>
@@ -7760,7 +7875,9 @@
       <c r="BC57" s="45"/>
       <c r="BE57" s="45"/>
       <c r="BF57" s="59"/>
-      <c r="BG57" s="59"/>
+      <c r="BG57" s="59">
+        <v>1</v>
+      </c>
       <c r="BH57" s="59"/>
       <c r="BI57" s="59"/>
       <c r="BJ57" s="59"/>
@@ -7772,28 +7889,26 @@
       <c r="BP57" s="60"/>
       <c r="BQ57" s="60"/>
       <c r="BR57" s="60"/>
-      <c r="BS57" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS57" s="60"/>
       <c r="BT57" s="60"/>
       <c r="BU57" s="60"/>
       <c r="BV57" s="60"/>
       <c r="BW57" s="60"/>
       <c r="CN57" s="11"/>
     </row>
-    <row r="58" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="D58" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">        ; 2019_i=1      ; 2016_i=1    </v>
       </c>
       <c r="E58" s="46"/>
       <c r="F58" s="46"/>
@@ -7832,22 +7947,22 @@
       <c r="AM58" s="10"/>
       <c r="AN58" s="26"/>
       <c r="AO58" s="48" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="AP58" s="48" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="AQ58" s="51">
-        <v>83170</v>
+        <v>4000</v>
       </c>
       <c r="AR58" s="52" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AS58" s="53" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AT58" s="54" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AU58" s="14"/>
       <c r="AV58" s="61"/>
@@ -7865,7 +7980,9 @@
       <c r="BJ58" s="59"/>
       <c r="BK58" s="59"/>
       <c r="BL58" s="59"/>
-      <c r="BM58" s="59"/>
+      <c r="BM58" s="59">
+        <v>1</v>
+      </c>
       <c r="BN58" s="60"/>
       <c r="BO58" s="60"/>
       <c r="BP58" s="60"/>
@@ -7880,19 +7997,19 @@
       <c r="BW58" s="60"/>
       <c r="CN58" s="11"/>
     </row>
-    <row r="59" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D59" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">      ; 2020_i=1      ; 2017_i=1  ; 2016_i=1  ; 2015_i=1  </v>
       </c>
       <c r="E59" s="46"/>
       <c r="F59" s="46"/>
@@ -7931,22 +8048,22 @@
       <c r="AM59" s="10"/>
       <c r="AN59" s="26"/>
       <c r="AO59" s="48" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="AP59" s="48" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="AQ59" s="51">
-        <v>13002</v>
+        <v>6130</v>
       </c>
       <c r="AR59" s="52" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AS59" s="53" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="AT59" s="54" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AU59" s="14"/>
       <c r="AV59" s="61"/>
@@ -7962,36 +8079,42 @@
       <c r="BH59" s="59"/>
       <c r="BI59" s="59"/>
       <c r="BJ59" s="59"/>
-      <c r="BK59" s="59"/>
+      <c r="BK59" s="59">
+        <v>1</v>
+      </c>
       <c r="BL59" s="59"/>
       <c r="BM59" s="59"/>
       <c r="BN59" s="60"/>
       <c r="BO59" s="60"/>
       <c r="BP59" s="60"/>
-      <c r="BQ59" s="60"/>
+      <c r="BQ59" s="60">
+        <v>1</v>
+      </c>
       <c r="BR59" s="60"/>
       <c r="BS59" s="60">
         <v>1</v>
       </c>
       <c r="BT59" s="60"/>
-      <c r="BU59" s="60"/>
+      <c r="BU59" s="60">
+        <v>1</v>
+      </c>
       <c r="BV59" s="60"/>
       <c r="BW59" s="60"/>
       <c r="CN59" s="11"/>
     </row>
-    <row r="60" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>63</v>
+        <v>346</v>
       </c>
       <c r="D60" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1    ; 2017_i=1  ; 2016_i=1    </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E60" s="46"/>
       <c r="F60" s="46"/>
@@ -8030,22 +8153,22 @@
       <c r="AM60" s="10"/>
       <c r="AN60" s="26"/>
       <c r="AO60" s="48" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="AP60" s="48" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="AQ60" s="51">
-        <v>5000</v>
+        <v>26200</v>
       </c>
       <c r="AR60" s="52" t="s">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="AS60" s="53" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AT60" s="54" t="s">
-        <v>66</v>
+        <v>349</v>
       </c>
       <c r="AU60" s="14"/>
       <c r="AV60" s="61"/>
@@ -8059,40 +8182,34 @@
       <c r="BF60" s="59"/>
       <c r="BG60" s="59"/>
       <c r="BH60" s="59"/>
-      <c r="BI60" s="59"/>
+      <c r="BI60" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ60" s="59"/>
-      <c r="BK60" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK60" s="59"/>
       <c r="BL60" s="59"/>
-      <c r="BM60" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM60" s="59"/>
       <c r="BN60" s="60"/>
       <c r="BO60" s="60"/>
       <c r="BP60" s="60"/>
-      <c r="BQ60" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ60" s="60"/>
       <c r="BR60" s="60"/>
-      <c r="BS60" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS60" s="60"/>
       <c r="BT60" s="60"/>
       <c r="BU60" s="60"/>
       <c r="BV60" s="60"/>
       <c r="BW60" s="60"/>
       <c r="CN60" s="11"/>
     </row>
-    <row r="61" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="47" t="s">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="D61" s="17" t="str">
         <f t="shared" si="1"/>
@@ -8135,22 +8252,22 @@
       <c r="AM61" s="10"/>
       <c r="AN61" s="26"/>
       <c r="AO61" s="48" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AP61" s="48" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AQ61" s="51">
-        <v>83600</v>
-      </c>
-      <c r="AR61" s="52">
-        <v>33969329328</v>
+        <v>5200</v>
+      </c>
+      <c r="AR61" s="52" t="s">
+        <v>96</v>
       </c>
       <c r="AS61" s="53" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AT61" s="54" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="AU61" s="14"/>
       <c r="AV61" s="61"/>
@@ -8183,19 +8300,19 @@
       <c r="BW61" s="60"/>
       <c r="CN61" s="11"/>
     </row>
-    <row r="62" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="D62" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E62" s="46"/>
       <c r="F62" s="46"/>
@@ -8234,20 +8351,22 @@
       <c r="AM62" s="10"/>
       <c r="AN62" s="26"/>
       <c r="AO62" s="48" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="AP62" s="48" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="AQ62" s="51">
-        <v>6414</v>
+        <v>83470</v>
       </c>
       <c r="AR62" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS62" s="53"/>
+        <v>294</v>
+      </c>
+      <c r="AS62" s="53" t="s">
+        <v>91</v>
+      </c>
       <c r="AT62" s="54" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="AU62" s="14"/>
       <c r="AV62" s="61"/>
@@ -8263,7 +8382,9 @@
       <c r="BH62" s="59"/>
       <c r="BI62" s="59"/>
       <c r="BJ62" s="59"/>
-      <c r="BK62" s="59"/>
+      <c r="BK62" s="59">
+        <v>1</v>
+      </c>
       <c r="BL62" s="59"/>
       <c r="BM62" s="59"/>
       <c r="BN62" s="60"/>
@@ -8278,19 +8399,19 @@
       <c r="BW62" s="60"/>
       <c r="CN62" s="11"/>
     </row>
-    <row r="63" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="D63" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
       </c>
       <c r="E63" s="46"/>
       <c r="F63" s="46"/>
@@ -8329,22 +8450,22 @@
       <c r="AM63" s="10"/>
       <c r="AN63" s="26"/>
       <c r="AO63" s="48" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="AP63" s="48" t="s">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="AQ63" s="51">
-        <v>11100</v>
+        <v>13100</v>
       </c>
       <c r="AR63" s="52" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="AS63" s="53" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="AT63" s="54" t="s">
-        <v>347</v>
+        <v>92</v>
       </c>
       <c r="AU63" s="14"/>
       <c r="AV63" s="61"/>
@@ -8358,9 +8479,7 @@
       <c r="BF63" s="59"/>
       <c r="BG63" s="59"/>
       <c r="BH63" s="59"/>
-      <c r="BI63" s="59">
-        <v>1</v>
-      </c>
+      <c r="BI63" s="59"/>
       <c r="BJ63" s="59"/>
       <c r="BK63" s="59"/>
       <c r="BL63" s="59"/>
@@ -8370,22 +8489,24 @@
       <c r="BP63" s="60"/>
       <c r="BQ63" s="60"/>
       <c r="BR63" s="60"/>
-      <c r="BS63" s="60"/>
+      <c r="BS63" s="60">
+        <v>1</v>
+      </c>
       <c r="BT63" s="60"/>
       <c r="BU63" s="60"/>
       <c r="BV63" s="60"/>
       <c r="BW63" s="60"/>
       <c r="CN63" s="11"/>
     </row>
-    <row r="64" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D64" s="17" t="str">
         <f t="shared" si="1"/>
@@ -8428,20 +8549,22 @@
       <c r="AM64" s="10"/>
       <c r="AN64" s="26"/>
       <c r="AO64" s="48" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AP64" s="48" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AQ64" s="51">
-        <v>83480</v>
+        <v>13400</v>
       </c>
       <c r="AR64" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS64" s="53"/>
+        <v>86</v>
+      </c>
+      <c r="AS64" s="53" t="s">
+        <v>88</v>
+      </c>
       <c r="AT64" s="54" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="AU64" s="14"/>
       <c r="AV64" s="61"/>
@@ -8474,501 +8597,867 @@
       <c r="BW64" s="60"/>
       <c r="CN64" s="11"/>
     </row>
-    <row r="65" spans="1:93" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="50" t="s">
-        <v>48</v>
+    <row r="65" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="D65" s="17" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="26"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="26"/>
+      <c r="AA65" s="26"/>
+      <c r="AB65" s="26"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="26"/>
+      <c r="AG65" s="26"/>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="26"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="26"/>
+      <c r="AO65" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP65" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ65" s="51">
+        <v>83170</v>
+      </c>
+      <c r="AR65" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS65" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT65" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU65" s="14"/>
+      <c r="AV65" s="61"/>
+      <c r="AW65" s="27"/>
+      <c r="AX65" s="26"/>
+      <c r="AY65" s="27"/>
+      <c r="AZ65" s="27"/>
+      <c r="BA65" s="27"/>
+      <c r="BC65" s="45"/>
+      <c r="BE65" s="45"/>
+      <c r="BF65" s="59"/>
+      <c r="BG65" s="59"/>
+      <c r="BH65" s="59"/>
+      <c r="BI65" s="59"/>
+      <c r="BJ65" s="59"/>
+      <c r="BK65" s="59"/>
+      <c r="BL65" s="59"/>
+      <c r="BM65" s="59"/>
+      <c r="BN65" s="60"/>
+      <c r="BO65" s="60"/>
+      <c r="BP65" s="60"/>
+      <c r="BQ65" s="60"/>
+      <c r="BR65" s="60"/>
+      <c r="BS65" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT65" s="60"/>
+      <c r="BU65" s="60"/>
+      <c r="BV65" s="60"/>
+      <c r="BW65" s="60"/>
+      <c r="CN65" s="11"/>
+    </row>
+    <row r="66" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="26"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="26"/>
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="26"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="26"/>
+      <c r="AG66" s="26"/>
+      <c r="AH66" s="10"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="10"/>
+      <c r="AL66" s="10"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="26"/>
+      <c r="AO66" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP66" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ66" s="51">
+        <v>13002</v>
+      </c>
+      <c r="AR66" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS66" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT66" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU66" s="14"/>
+      <c r="AV66" s="61"/>
+      <c r="AW66" s="27"/>
+      <c r="AX66" s="26"/>
+      <c r="AY66" s="27"/>
+      <c r="AZ66" s="27"/>
+      <c r="BA66" s="27"/>
+      <c r="BC66" s="45"/>
+      <c r="BE66" s="45"/>
+      <c r="BF66" s="59"/>
+      <c r="BG66" s="59"/>
+      <c r="BH66" s="59"/>
+      <c r="BI66" s="59"/>
+      <c r="BJ66" s="59"/>
+      <c r="BK66" s="59"/>
+      <c r="BL66" s="59"/>
+      <c r="BM66" s="59"/>
+      <c r="BN66" s="60"/>
+      <c r="BO66" s="60"/>
+      <c r="BP66" s="60"/>
+      <c r="BQ66" s="60"/>
+      <c r="BR66" s="60"/>
+      <c r="BS66" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT66" s="60"/>
+      <c r="BU66" s="60"/>
+      <c r="BV66" s="60"/>
+      <c r="BW66" s="60"/>
+      <c r="CN66" s="11"/>
+    </row>
+    <row r="67" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1    ; 2017_i=1  ; 2016_i=1    </v>
+      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="26"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="26"/>
+      <c r="AA67" s="26"/>
+      <c r="AB67" s="26"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="26"/>
+      <c r="AG67" s="26"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="26"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="26"/>
+      <c r="AO67" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP67" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ67" s="51">
+        <v>5000</v>
+      </c>
+      <c r="AR67" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS67" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT67" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU67" s="14"/>
+      <c r="AV67" s="61"/>
+      <c r="AW67" s="27"/>
+      <c r="AX67" s="26"/>
+      <c r="AY67" s="27"/>
+      <c r="AZ67" s="27"/>
+      <c r="BA67" s="27"/>
+      <c r="BC67" s="45"/>
+      <c r="BE67" s="45"/>
+      <c r="BF67" s="59"/>
+      <c r="BG67" s="59"/>
+      <c r="BH67" s="59"/>
+      <c r="BI67" s="59"/>
+      <c r="BJ67" s="59"/>
+      <c r="BK67" s="59">
+        <v>1</v>
+      </c>
+      <c r="BL67" s="59"/>
+      <c r="BM67" s="59">
+        <v>1</v>
+      </c>
+      <c r="BN67" s="60"/>
+      <c r="BO67" s="60"/>
+      <c r="BP67" s="60"/>
+      <c r="BQ67" s="60">
+        <v>1</v>
+      </c>
+      <c r="BR67" s="60"/>
+      <c r="BS67" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT67" s="60"/>
+      <c r="BU67" s="60"/>
+      <c r="BV67" s="60"/>
+      <c r="BW67" s="60"/>
+      <c r="CN67" s="11"/>
+    </row>
+    <row r="68" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="26"/>
+      <c r="AB68" s="26"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="26"/>
+      <c r="AG68" s="26"/>
+      <c r="AH68" s="10"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="26"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="26"/>
+      <c r="AO68" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP68" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ68" s="51">
+        <v>83600</v>
+      </c>
+      <c r="AR68" s="52">
+        <v>33969329328</v>
+      </c>
+      <c r="AS68" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT68" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU68" s="14"/>
+      <c r="AV68" s="61"/>
+      <c r="AW68" s="27"/>
+      <c r="AX68" s="26"/>
+      <c r="AY68" s="27"/>
+      <c r="AZ68" s="27"/>
+      <c r="BA68" s="27"/>
+      <c r="BC68" s="45"/>
+      <c r="BE68" s="45"/>
+      <c r="BF68" s="59"/>
+      <c r="BG68" s="59"/>
+      <c r="BH68" s="59"/>
+      <c r="BI68" s="59"/>
+      <c r="BJ68" s="59"/>
+      <c r="BK68" s="59"/>
+      <c r="BL68" s="59"/>
+      <c r="BM68" s="59"/>
+      <c r="BN68" s="60"/>
+      <c r="BO68" s="60"/>
+      <c r="BP68" s="60"/>
+      <c r="BQ68" s="60"/>
+      <c r="BR68" s="60"/>
+      <c r="BS68" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT68" s="60"/>
+      <c r="BU68" s="60"/>
+      <c r="BV68" s="60"/>
+      <c r="BW68" s="60"/>
+      <c r="CN68" s="11"/>
+    </row>
+    <row r="69" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="26"/>
+      <c r="AG69" s="26"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="26"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="26"/>
+      <c r="AO69" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP69" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ69" s="51">
+        <v>6414</v>
+      </c>
+      <c r="AR69" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS69" s="53"/>
+      <c r="AT69" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU69" s="14"/>
+      <c r="AV69" s="61"/>
+      <c r="AW69" s="27"/>
+      <c r="AX69" s="26"/>
+      <c r="AY69" s="27"/>
+      <c r="AZ69" s="27"/>
+      <c r="BA69" s="27"/>
+      <c r="BC69" s="45"/>
+      <c r="BE69" s="45"/>
+      <c r="BF69" s="59"/>
+      <c r="BG69" s="59">
+        <v>1</v>
+      </c>
+      <c r="BH69" s="59"/>
+      <c r="BI69" s="59"/>
+      <c r="BJ69" s="59"/>
+      <c r="BK69" s="59"/>
+      <c r="BL69" s="59"/>
+      <c r="BM69" s="59"/>
+      <c r="BN69" s="60"/>
+      <c r="BO69" s="60"/>
+      <c r="BP69" s="60"/>
+      <c r="BQ69" s="60"/>
+      <c r="BR69" s="60"/>
+      <c r="BS69" s="60"/>
+      <c r="BT69" s="60"/>
+      <c r="BU69" s="60"/>
+      <c r="BV69" s="60"/>
+      <c r="BW69" s="60"/>
+      <c r="CN69" s="11"/>
+    </row>
+    <row r="70" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
+      </c>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="26"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="26"/>
+      <c r="AA70" s="26"/>
+      <c r="AB70" s="26"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="26"/>
+      <c r="AG70" s="26"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="26"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="26"/>
+      <c r="AO70" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP70" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="AQ70" s="51">
+        <v>11100</v>
+      </c>
+      <c r="AR70" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS70" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT70" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU70" s="14"/>
+      <c r="AV70" s="61"/>
+      <c r="AW70" s="27"/>
+      <c r="AX70" s="26"/>
+      <c r="AY70" s="27"/>
+      <c r="AZ70" s="27"/>
+      <c r="BA70" s="27"/>
+      <c r="BC70" s="45"/>
+      <c r="BE70" s="45"/>
+      <c r="BF70" s="59"/>
+      <c r="BG70" s="59"/>
+      <c r="BH70" s="59"/>
+      <c r="BI70" s="59">
+        <v>1</v>
+      </c>
+      <c r="BJ70" s="59"/>
+      <c r="BK70" s="59"/>
+      <c r="BL70" s="59"/>
+      <c r="BM70" s="59"/>
+      <c r="BN70" s="60"/>
+      <c r="BO70" s="60"/>
+      <c r="BP70" s="60"/>
+      <c r="BQ70" s="60"/>
+      <c r="BR70" s="60"/>
+      <c r="BS70" s="60"/>
+      <c r="BT70" s="60"/>
+      <c r="BU70" s="60"/>
+      <c r="BV70" s="60"/>
+      <c r="BW70" s="60"/>
+      <c r="CN70" s="11"/>
+    </row>
+    <row r="71" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="26"/>
+      <c r="AG71" s="26"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="26"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="26"/>
+      <c r="AO71" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP71" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ71" s="51">
+        <v>83480</v>
+      </c>
+      <c r="AR71" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS71" s="53"/>
+      <c r="AT71" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU71" s="14"/>
+      <c r="AV71" s="61"/>
+      <c r="AW71" s="27"/>
+      <c r="AX71" s="26"/>
+      <c r="AY71" s="27"/>
+      <c r="AZ71" s="27"/>
+      <c r="BA71" s="27"/>
+      <c r="BC71" s="45"/>
+      <c r="BE71" s="45"/>
+      <c r="BF71" s="59"/>
+      <c r="BG71" s="59"/>
+      <c r="BH71" s="59"/>
+      <c r="BI71" s="59"/>
+      <c r="BJ71" s="59"/>
+      <c r="BK71" s="59"/>
+      <c r="BL71" s="59"/>
+      <c r="BM71" s="59"/>
+      <c r="BN71" s="60"/>
+      <c r="BO71" s="60"/>
+      <c r="BP71" s="60"/>
+      <c r="BQ71" s="60"/>
+      <c r="BR71" s="60"/>
+      <c r="BS71" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT71" s="60"/>
+      <c r="BU71" s="60"/>
+      <c r="BV71" s="60"/>
+      <c r="BW71" s="60"/>
+      <c r="CN71" s="11"/>
+    </row>
+    <row r="72" spans="1:93" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A72" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="17" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="18"/>
-      <c r="Z65" s="19"/>
-      <c r="AA65" s="19"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="18"/>
-      <c r="AD65" s="18"/>
-      <c r="AE65" s="18"/>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="19"/>
-      <c r="AH65" s="18"/>
-      <c r="AI65" s="18"/>
-      <c r="AJ65" s="19"/>
-      <c r="AK65" s="18"/>
-      <c r="AL65" s="18"/>
-      <c r="AM65" s="18"/>
-      <c r="AN65" s="19"/>
-      <c r="AO65" s="50" t="s">
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="18"/>
+      <c r="AE72" s="18"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="18"/>
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="19"/>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="18"/>
+      <c r="AM72" s="18"/>
+      <c r="AN72" s="19"/>
+      <c r="AO72" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AP65" s="50" t="s">
+      <c r="AP72" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AQ65" s="55">
+      <c r="AQ72" s="55">
         <v>4000</v>
       </c>
-      <c r="AR65" s="56" t="s">
+      <c r="AR72" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AS65" s="57" t="s">
+      <c r="AS72" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AT65" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU65" s="20"/>
-      <c r="AV65" s="21"/>
-      <c r="AW65" s="25"/>
-      <c r="AX65" s="19"/>
-      <c r="AY65" s="25"/>
-      <c r="AZ65" s="25"/>
-      <c r="BA65" s="25"/>
-      <c r="BB65" s="9">
-        <f>RANK(BX65,$BX$2:$BX$65)+COUNTIF(BX$2:BX66,BX65)-1</f>
+      <c r="AT72" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="AU72" s="20"/>
+      <c r="AV72" s="21"/>
+      <c r="AW72" s="25"/>
+      <c r="AX72" s="19"/>
+      <c r="AY72" s="25"/>
+      <c r="AZ72" s="25"/>
+      <c r="BA72" s="25"/>
+      <c r="BB72" s="9">
+        <f>RANK(BX72,$BX$2:$BX$72)+COUNTIF(BX$2:BX73,BX72)-1</f>
         <v>1</v>
       </c>
-      <c r="BC65" s="12" t="str">
-        <f>"N° "&amp;BB65&amp;" "&amp;C65</f>
+      <c r="BC72" s="12" t="str">
+        <f>"N° "&amp;BB72&amp;" "&amp;C72</f>
         <v>N° 1 Lycée Pierre Gilles de Gennes</v>
       </c>
-      <c r="BD65" s="9">
-        <f>RANK(BY65,$BY$2:$BY$65)+COUNTIF(BY$2:BY66,BY65)-1</f>
+      <c r="BD72" s="9">
+        <f>RANK(BY72,$BY$2:$BY$72)+COUNTIF(BY$2:BY73,BY72)-1</f>
         <v>1</v>
       </c>
-      <c r="BE65" s="12" t="str">
-        <f>"N° "&amp;BD65&amp;" "&amp;C65</f>
+      <c r="BE72" s="12" t="str">
+        <f>"N° "&amp;BD72&amp;" "&amp;C72</f>
         <v>N° 1 Lycée Pierre Gilles de Gennes</v>
       </c>
-      <c r="BF65" s="12"/>
-      <c r="BG65" s="12"/>
-      <c r="BH65" s="12"/>
-      <c r="BI65" s="12"/>
-      <c r="BJ65" s="12"/>
-      <c r="BK65" s="12"/>
-      <c r="BL65" s="12"/>
-      <c r="BM65" s="12"/>
-      <c r="BX65" s="9">
-        <f>((BF65+BG65)*9)+((BH65+BI65)*8)+((BJ65+BK65)*7)+((BL65+BM65)*6)+((BN65+BO65)*5)+((BP65+BQ65)*4)+((BR65+BS65)*3)+((BT65+BU65)*2)+((BV65+BW65)*1)</f>
+      <c r="BF72" s="12"/>
+      <c r="BG72" s="12"/>
+      <c r="BH72" s="12"/>
+      <c r="BI72" s="12"/>
+      <c r="BJ72" s="12"/>
+      <c r="BK72" s="12"/>
+      <c r="BL72" s="12"/>
+      <c r="BM72" s="12"/>
+      <c r="BX72" s="9">
+        <f>((BF72+BG72)*9)+((BH72+BI72)*8)+((BJ72+BK72)*7)+((BL72+BM72)*6)+((BN72+BO72)*5)+((BP72+BQ72)*4)+((BR72+BS72)*3)+((BT72+BU72)*2)+((BV72+BW72)*1)</f>
         <v>0</v>
       </c>
-      <c r="BY65" s="9">
-        <f>((BG65)*9)+((BI65)*8)+((BK65)*7)+((BM65)*6)+((BO65)*5)+((BQ65)*4)+((BS65)*3)+((BU65)*2)+((BW65)*1)</f>
+      <c r="BY72" s="9">
+        <f>((BG72)*9)+((BI72)*8)+((BK72)*7)+((BM72)*6)+((BO72)*5)+((BQ72)*4)+((BS72)*3)+((BU72)*2)+((BW72)*1)</f>
         <v>0</v>
       </c>
-      <c r="BZ65" s="1">
-        <f>BJ65</f>
+      <c r="BZ72" s="1">
+        <f>BJ72</f>
         <v>0</v>
       </c>
-      <c r="CA65" s="1">
-        <f>BL65</f>
+      <c r="CA72" s="1">
+        <f>BL72</f>
         <v>0</v>
       </c>
-      <c r="CB65" s="1">
-        <f>BN65</f>
+      <c r="CB72" s="1">
+        <f>BN72</f>
         <v>0</v>
       </c>
-      <c r="CC65" s="1">
-        <f>BP65</f>
+      <c r="CC72" s="1">
+        <f>BP72</f>
         <v>0</v>
       </c>
-      <c r="CD65" s="1">
-        <f>BR65</f>
+      <c r="CD72" s="1">
+        <f>BR72</f>
         <v>0</v>
       </c>
-      <c r="CE65" s="1">
-        <f>BT65</f>
+      <c r="CE72" s="1">
+        <f>BT72</f>
         <v>0</v>
       </c>
-      <c r="CF65" s="1">
-        <f>BV65</f>
+      <c r="CF72" s="1">
+        <f>BV72</f>
         <v>0</v>
       </c>
-      <c r="CG65" s="1">
-        <f>BK65</f>
+      <c r="CG72" s="1">
+        <f>BK72</f>
         <v>0</v>
       </c>
-      <c r="CH65" s="1">
-        <f>BM65</f>
+      <c r="CH72" s="1">
+        <f>BM72</f>
         <v>0</v>
       </c>
-      <c r="CI65" s="1">
-        <f>BO65</f>
+      <c r="CI72" s="1">
+        <f>BO72</f>
         <v>0</v>
       </c>
-      <c r="CJ65" s="1">
-        <f>BQ65</f>
+      <c r="CJ72" s="1">
+        <f>BQ72</f>
         <v>0</v>
       </c>
-      <c r="CK65" s="1">
-        <f>BS65</f>
+      <c r="CK72" s="1">
+        <f>BS72</f>
         <v>0</v>
       </c>
-      <c r="CL65" s="1">
-        <f>BU65</f>
+      <c r="CL72" s="1">
+        <f>BU72</f>
         <v>0</v>
       </c>
-      <c r="CM65" s="1">
-        <f>BW65</f>
+      <c r="CM72" s="1">
+        <f>BW72</f>
         <v>0</v>
       </c>
-      <c r="CO65" s="16"/>
-    </row>
-    <row r="66" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="BB66" s="6"/>
-      <c r="BC66" s="6"/>
-      <c r="BD66" s="6"/>
-      <c r="BE66" s="6"/>
-      <c r="BF66" s="6"/>
-      <c r="BG66" s="6"/>
-      <c r="BH66" s="6"/>
-      <c r="BI66" s="6"/>
-      <c r="BJ66" s="6"/>
-      <c r="BK66" s="6"/>
-      <c r="BL66" s="6"/>
-      <c r="BM66" s="6"/>
-      <c r="BX66" s="6"/>
-      <c r="BY66" s="6"/>
-      <c r="BZ66" s="6"/>
-      <c r="CA66" s="6"/>
-      <c r="CB66" s="6"/>
-      <c r="CC66" s="6"/>
-      <c r="CD66" s="6"/>
-      <c r="CE66" s="6"/>
-      <c r="CF66" s="6"/>
-      <c r="CG66" s="6"/>
-      <c r="CH66" s="6"/>
-      <c r="CI66" s="6"/>
-      <c r="CJ66" s="6"/>
-      <c r="CK66" s="6"/>
-      <c r="CL66" s="6"/>
-      <c r="CM66" s="6"/>
-    </row>
-    <row r="67" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="BB67" s="6"/>
-      <c r="BC67" s="6"/>
-      <c r="BD67" s="6"/>
-      <c r="BE67" s="6"/>
-      <c r="BF67" s="6"/>
-      <c r="BG67" s="6"/>
-      <c r="BH67" s="6"/>
-      <c r="BI67" s="6"/>
-      <c r="BJ67" s="6"/>
-      <c r="BK67" s="6"/>
-      <c r="BL67" s="6"/>
-      <c r="BM67" s="6"/>
-      <c r="BX67" s="6"/>
-      <c r="BY67" s="6"/>
-      <c r="BZ67" s="6"/>
-      <c r="CA67" s="6"/>
-      <c r="CB67" s="6"/>
-      <c r="CC67" s="6"/>
-      <c r="CD67" s="6"/>
-      <c r="CE67" s="6"/>
-      <c r="CF67" s="6"/>
-      <c r="CG67" s="6"/>
-      <c r="CH67" s="6"/>
-      <c r="CI67" s="6"/>
-      <c r="CJ67" s="6"/>
-      <c r="CK67" s="6"/>
-      <c r="CL67" s="6"/>
-      <c r="CM67" s="6"/>
-    </row>
-    <row r="68" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="BB68" s="6"/>
-      <c r="BC68" s="6"/>
-      <c r="BD68" s="6"/>
-      <c r="BE68" s="6"/>
-      <c r="BF68" s="6"/>
-      <c r="BG68" s="6"/>
-      <c r="BH68" s="6"/>
-      <c r="BI68" s="6"/>
-      <c r="BJ68" s="6"/>
-      <c r="BK68" s="6"/>
-      <c r="BL68" s="6"/>
-      <c r="BM68" s="6"/>
-      <c r="BX68" s="6"/>
-      <c r="BY68" s="6"/>
-      <c r="BZ68" s="6"/>
-      <c r="CA68" s="6"/>
-      <c r="CB68" s="6"/>
-      <c r="CC68" s="6"/>
-      <c r="CD68" s="6"/>
-      <c r="CE68" s="6"/>
-      <c r="CF68" s="6"/>
-      <c r="CG68" s="6"/>
-      <c r="CH68" s="6"/>
-      <c r="CI68" s="6"/>
-      <c r="CJ68" s="6"/>
-      <c r="CK68" s="6"/>
-      <c r="CL68" s="6"/>
-      <c r="CM68" s="6"/>
-    </row>
-    <row r="69" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="BB69" s="6"/>
-      <c r="BC69" s="6"/>
-      <c r="BD69" s="6"/>
-      <c r="BE69" s="6"/>
-      <c r="BF69" s="6"/>
-      <c r="BG69" s="6"/>
-      <c r="BH69" s="6"/>
-      <c r="BI69" s="6"/>
-      <c r="BJ69" s="6"/>
-      <c r="BK69" s="6"/>
-      <c r="BL69" s="6"/>
-      <c r="BM69" s="6"/>
-      <c r="BX69" s="6"/>
-      <c r="BY69" s="6"/>
-      <c r="BZ69" s="6"/>
-      <c r="CA69" s="6"/>
-      <c r="CB69" s="6"/>
-      <c r="CC69" s="6"/>
-      <c r="CD69" s="6"/>
-      <c r="CE69" s="6"/>
-      <c r="CF69" s="6"/>
-      <c r="CG69" s="6"/>
-      <c r="CH69" s="6"/>
-      <c r="CI69" s="6"/>
-      <c r="CJ69" s="6"/>
-      <c r="CK69" s="6"/>
-      <c r="CL69" s="6"/>
-      <c r="CM69" s="6"/>
-    </row>
-    <row r="70" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="BB70" s="6"/>
-      <c r="BC70" s="6"/>
-      <c r="BD70" s="6"/>
-      <c r="BE70" s="6"/>
-      <c r="BF70" s="6"/>
-      <c r="BG70" s="6"/>
-      <c r="BH70" s="6"/>
-      <c r="BI70" s="6"/>
-      <c r="BJ70" s="6"/>
-      <c r="BK70" s="6"/>
-      <c r="BL70" s="6"/>
-      <c r="BM70" s="6"/>
-      <c r="BX70" s="6"/>
-      <c r="BY70" s="6"/>
-      <c r="BZ70" s="6"/>
-      <c r="CA70" s="6"/>
-      <c r="CB70" s="6"/>
-      <c r="CC70" s="6"/>
-      <c r="CD70" s="6"/>
-      <c r="CE70" s="6"/>
-      <c r="CF70" s="6"/>
-      <c r="CG70" s="6"/>
-      <c r="CH70" s="6"/>
-      <c r="CI70" s="6"/>
-      <c r="CJ70" s="6"/>
-      <c r="CK70" s="6"/>
-      <c r="CL70" s="6"/>
-      <c r="CM70" s="6"/>
-    </row>
-    <row r="71" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="BB71" s="6"/>
-      <c r="BC71" s="6"/>
-      <c r="BD71" s="6"/>
-      <c r="BE71" s="6"/>
-      <c r="BF71" s="6"/>
-      <c r="BG71" s="6"/>
-      <c r="BH71" s="6"/>
-      <c r="BI71" s="6"/>
-      <c r="BJ71" s="6"/>
-      <c r="BK71" s="6"/>
-      <c r="BL71" s="6"/>
-      <c r="BM71" s="6"/>
-      <c r="BX71" s="6"/>
-      <c r="BY71" s="6"/>
-      <c r="BZ71" s="6"/>
-      <c r="CA71" s="6"/>
-      <c r="CB71" s="6"/>
-      <c r="CC71" s="6"/>
-      <c r="CD71" s="6"/>
-      <c r="CE71" s="6"/>
-      <c r="CF71" s="6"/>
-      <c r="CG71" s="6"/>
-      <c r="CH71" s="6"/>
-      <c r="CI71" s="6"/>
-      <c r="CJ71" s="6"/>
-      <c r="CK71" s="6"/>
-      <c r="CL71" s="6"/>
-      <c r="CM71" s="6"/>
-    </row>
-    <row r="72" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="BB72" s="6"/>
-      <c r="BC72" s="6"/>
-      <c r="BD72" s="6"/>
-      <c r="BE72" s="6"/>
-      <c r="BF72" s="6"/>
-      <c r="BG72" s="6"/>
-      <c r="BH72" s="6"/>
-      <c r="BI72" s="6"/>
-      <c r="BJ72" s="6"/>
-      <c r="BK72" s="6"/>
-      <c r="BL72" s="6"/>
-      <c r="BM72" s="6"/>
-      <c r="BX72" s="6"/>
-      <c r="BY72" s="6"/>
-      <c r="BZ72" s="6"/>
-      <c r="CA72" s="6"/>
-      <c r="CB72" s="6"/>
-      <c r="CC72" s="6"/>
-      <c r="CD72" s="6"/>
-      <c r="CE72" s="6"/>
-      <c r="CF72" s="6"/>
-      <c r="CG72" s="6"/>
-      <c r="CH72" s="6"/>
-      <c r="CI72" s="6"/>
-      <c r="CJ72" s="6"/>
-      <c r="CK72" s="6"/>
-      <c r="CL72" s="6"/>
-      <c r="CM72" s="6"/>
-    </row>
-    <row r="73" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CO72" s="16"/>
+    </row>
+    <row r="73" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
@@ -9015,7 +9504,7 @@
       <c r="CL73" s="6"/>
       <c r="CM73" s="6"/>
     </row>
-    <row r="74" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
@@ -9062,7 +9551,7 @@
       <c r="CL74" s="6"/>
       <c r="CM74" s="6"/>
     </row>
-    <row r="75" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
@@ -9109,7 +9598,7 @@
       <c r="CL75" s="6"/>
       <c r="CM75" s="6"/>
     </row>
-    <row r="76" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
@@ -9156,7 +9645,7 @@
       <c r="CL76" s="6"/>
       <c r="CM76" s="6"/>
     </row>
-    <row r="77" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
@@ -9203,7 +9692,7 @@
       <c r="CL77" s="6"/>
       <c r="CM77" s="6"/>
     </row>
-    <row r="78" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
@@ -9250,7 +9739,7 @@
       <c r="CL78" s="6"/>
       <c r="CM78" s="6"/>
     </row>
-    <row r="79" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -9297,7 +9786,7 @@
       <c r="CL79" s="6"/>
       <c r="CM79" s="6"/>
     </row>
-    <row r="80" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
@@ -9344,7 +9833,7 @@
       <c r="CL80" s="6"/>
       <c r="CM80" s="6"/>
     </row>
-    <row r="81" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
@@ -9391,7 +9880,7 @@
       <c r="CL81" s="6"/>
       <c r="CM81" s="6"/>
     </row>
-    <row r="82" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
@@ -9438,7 +9927,7 @@
       <c r="CL82" s="6"/>
       <c r="CM82" s="6"/>
     </row>
-    <row r="83" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
@@ -9485,7 +9974,7 @@
       <c r="CL83" s="6"/>
       <c r="CM83" s="6"/>
     </row>
-    <row r="84" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
@@ -9532,7 +10021,7 @@
       <c r="CL84" s="6"/>
       <c r="CM84" s="6"/>
     </row>
-    <row r="85" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
@@ -9579,7 +10068,7 @@
       <c r="CL85" s="6"/>
       <c r="CM85" s="6"/>
     </row>
-    <row r="86" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
@@ -9626,7 +10115,7 @@
       <c r="CL86" s="6"/>
       <c r="CM86" s="6"/>
     </row>
-    <row r="87" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
@@ -9673,7 +10162,7 @@
       <c r="CL87" s="6"/>
       <c r="CM87" s="6"/>
     </row>
-    <row r="88" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
@@ -9720,7 +10209,7 @@
       <c r="CL88" s="6"/>
       <c r="CM88" s="6"/>
     </row>
-    <row r="89" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
@@ -9767,7 +10256,7 @@
       <c r="CL89" s="6"/>
       <c r="CM89" s="6"/>
     </row>
-    <row r="90" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
@@ -9814,7 +10303,7 @@
       <c r="CL90" s="6"/>
       <c r="CM90" s="6"/>
     </row>
-    <row r="91" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
@@ -9861,7 +10350,7 @@
       <c r="CL91" s="6"/>
       <c r="CM91" s="6"/>
     </row>
-    <row r="92" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
@@ -9908,7 +10397,7 @@
       <c r="CL92" s="6"/>
       <c r="CM92" s="6"/>
     </row>
-    <row r="93" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
@@ -9955,7 +10444,7 @@
       <c r="CL93" s="6"/>
       <c r="CM93" s="6"/>
     </row>
-    <row r="94" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
@@ -10002,7 +10491,7 @@
       <c r="CL94" s="6"/>
       <c r="CM94" s="6"/>
     </row>
-    <row r="95" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
@@ -10049,7 +10538,7 @@
       <c r="CL95" s="6"/>
       <c r="CM95" s="6"/>
     </row>
-    <row r="96" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
@@ -10096,7 +10585,7 @@
       <c r="CL96" s="6"/>
       <c r="CM96" s="6"/>
     </row>
-    <row r="97" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
@@ -10143,7 +10632,7 @@
       <c r="CL97" s="6"/>
       <c r="CM97" s="6"/>
     </row>
-    <row r="98" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
@@ -10190,7 +10679,7 @@
       <c r="CL98" s="6"/>
       <c r="CM98" s="6"/>
     </row>
-    <row r="99" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D99" s="25"/>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
@@ -10237,7 +10726,7 @@
       <c r="CL99" s="6"/>
       <c r="CM99" s="6"/>
     </row>
-    <row r="100" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
@@ -10284,7 +10773,7 @@
       <c r="CL100" s="6"/>
       <c r="CM100" s="6"/>
     </row>
-    <row r="101" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
@@ -10331,7 +10820,7 @@
       <c r="CL101" s="6"/>
       <c r="CM101" s="6"/>
     </row>
-    <row r="102" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
@@ -10378,7 +10867,7 @@
       <c r="CL102" s="6"/>
       <c r="CM102" s="6"/>
     </row>
-    <row r="103" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
@@ -10425,7 +10914,7 @@
       <c r="CL103" s="6"/>
       <c r="CM103" s="6"/>
     </row>
-    <row r="104" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
@@ -10472,7 +10961,7 @@
       <c r="CL104" s="6"/>
       <c r="CM104" s="6"/>
     </row>
-    <row r="105" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D105" s="25"/>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
@@ -10519,7 +11008,7 @@
       <c r="CL105" s="6"/>
       <c r="CM105" s="6"/>
     </row>
-    <row r="106" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D106" s="25"/>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
@@ -10566,7 +11055,7 @@
       <c r="CL106" s="6"/>
       <c r="CM106" s="6"/>
     </row>
-    <row r="107" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
@@ -10613,7 +11102,7 @@
       <c r="CL107" s="6"/>
       <c r="CM107" s="6"/>
     </row>
-    <row r="108" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
@@ -10660,7 +11149,7 @@
       <c r="CL108" s="6"/>
       <c r="CM108" s="6"/>
     </row>
-    <row r="109" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D109" s="25"/>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
@@ -10707,7 +11196,7 @@
       <c r="CL109" s="6"/>
       <c r="CM109" s="6"/>
     </row>
-    <row r="110" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
@@ -10754,7 +11243,7 @@
       <c r="CL110" s="6"/>
       <c r="CM110" s="6"/>
     </row>
-    <row r="111" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D111" s="25"/>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
@@ -10801,7 +11290,7 @@
       <c r="CL111" s="6"/>
       <c r="CM111" s="6"/>
     </row>
-    <row r="112" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D112" s="25"/>
       <c r="E112" s="25"/>
       <c r="F112" s="25"/>
@@ -10848,7 +11337,7 @@
       <c r="CL112" s="6"/>
       <c r="CM112" s="6"/>
     </row>
-    <row r="113" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
       <c r="F113" s="25"/>
@@ -10895,7 +11384,7 @@
       <c r="CL113" s="6"/>
       <c r="CM113" s="6"/>
     </row>
-    <row r="114" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D114" s="25"/>
       <c r="E114" s="25"/>
       <c r="F114" s="25"/>
@@ -10942,7 +11431,7 @@
       <c r="CL114" s="6"/>
       <c r="CM114" s="6"/>
     </row>
-    <row r="115" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D115" s="25"/>
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
@@ -10989,7 +11478,7 @@
       <c r="CL115" s="6"/>
       <c r="CM115" s="6"/>
     </row>
-    <row r="116" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D116" s="25"/>
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
@@ -11036,7 +11525,7 @@
       <c r="CL116" s="6"/>
       <c r="CM116" s="6"/>
     </row>
-    <row r="117" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D117" s="25"/>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
@@ -11083,7 +11572,7 @@
       <c r="CL117" s="6"/>
       <c r="CM117" s="6"/>
     </row>
-    <row r="118" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
@@ -11130,7 +11619,7 @@
       <c r="CL118" s="6"/>
       <c r="CM118" s="6"/>
     </row>
-    <row r="119" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D119" s="25"/>
       <c r="E119" s="25"/>
       <c r="F119" s="25"/>
@@ -11177,7 +11666,7 @@
       <c r="CL119" s="6"/>
       <c r="CM119" s="6"/>
     </row>
-    <row r="120" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D120" s="25"/>
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
@@ -11224,7 +11713,7 @@
       <c r="CL120" s="6"/>
       <c r="CM120" s="6"/>
     </row>
-    <row r="121" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
@@ -11271,7 +11760,7 @@
       <c r="CL121" s="6"/>
       <c r="CM121" s="6"/>
     </row>
-    <row r="122" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
       <c r="F122" s="25"/>
@@ -11318,7 +11807,7 @@
       <c r="CL122" s="6"/>
       <c r="CM122" s="6"/>
     </row>
-    <row r="123" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
@@ -11365,7 +11854,7 @@
       <c r="CL123" s="6"/>
       <c r="CM123" s="6"/>
     </row>
-    <row r="124" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D124" s="25"/>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
@@ -11412,7 +11901,7 @@
       <c r="CL124" s="6"/>
       <c r="CM124" s="6"/>
     </row>
-    <row r="125" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
@@ -11459,7 +11948,7 @@
       <c r="CL125" s="6"/>
       <c r="CM125" s="6"/>
     </row>
-    <row r="126" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
       <c r="F126" s="25"/>
@@ -11506,7 +11995,7 @@
       <c r="CL126" s="6"/>
       <c r="CM126" s="6"/>
     </row>
-    <row r="127" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D127" s="25"/>
       <c r="E127" s="25"/>
       <c r="F127" s="25"/>
@@ -11553,7 +12042,7 @@
       <c r="CL127" s="6"/>
       <c r="CM127" s="6"/>
     </row>
-    <row r="128" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D128" s="25"/>
       <c r="E128" s="25"/>
       <c r="F128" s="25"/>
@@ -11600,7 +12089,7 @@
       <c r="CL128" s="6"/>
       <c r="CM128" s="6"/>
     </row>
-    <row r="129" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
       <c r="F129" s="25"/>
@@ -11647,7 +12136,7 @@
       <c r="CL129" s="6"/>
       <c r="CM129" s="6"/>
     </row>
-    <row r="130" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
@@ -11694,7 +12183,7 @@
       <c r="CL130" s="6"/>
       <c r="CM130" s="6"/>
     </row>
-    <row r="131" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
@@ -11741,7 +12230,7 @@
       <c r="CL131" s="6"/>
       <c r="CM131" s="6"/>
     </row>
-    <row r="132" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
       <c r="F132" s="25"/>
@@ -11788,7 +12277,7 @@
       <c r="CL132" s="6"/>
       <c r="CM132" s="6"/>
     </row>
-    <row r="133" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
       <c r="F133" s="25"/>
@@ -11835,7 +12324,7 @@
       <c r="CL133" s="6"/>
       <c r="CM133" s="6"/>
     </row>
-    <row r="134" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
@@ -11882,7 +12371,7 @@
       <c r="CL134" s="6"/>
       <c r="CM134" s="6"/>
     </row>
-    <row r="135" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
       <c r="F135" s="25"/>
@@ -11929,7 +12418,7 @@
       <c r="CL135" s="6"/>
       <c r="CM135" s="6"/>
     </row>
-    <row r="136" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
@@ -11976,7 +12465,7 @@
       <c r="CL136" s="6"/>
       <c r="CM136" s="6"/>
     </row>
-    <row r="137" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
       <c r="F137" s="25"/>
@@ -12023,7 +12512,7 @@
       <c r="CL137" s="6"/>
       <c r="CM137" s="6"/>
     </row>
-    <row r="138" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
@@ -12070,7 +12559,7 @@
       <c r="CL138" s="6"/>
       <c r="CM138" s="6"/>
     </row>
-    <row r="139" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
@@ -12117,7 +12606,7 @@
       <c r="CL139" s="6"/>
       <c r="CM139" s="6"/>
     </row>
-    <row r="140" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
@@ -12164,7 +12653,7 @@
       <c r="CL140" s="6"/>
       <c r="CM140" s="6"/>
     </row>
-    <row r="141" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
       <c r="F141" s="25"/>
@@ -12211,7 +12700,7 @@
       <c r="CL141" s="6"/>
       <c r="CM141" s="6"/>
     </row>
-    <row r="142" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
@@ -12258,7 +12747,7 @@
       <c r="CL142" s="6"/>
       <c r="CM142" s="6"/>
     </row>
-    <row r="143" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
       <c r="F143" s="25"/>
@@ -12305,7 +12794,7 @@
       <c r="CL143" s="6"/>
       <c r="CM143" s="6"/>
     </row>
-    <row r="144" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
       <c r="F144" s="25"/>
@@ -12352,7 +12841,7 @@
       <c r="CL144" s="6"/>
       <c r="CM144" s="6"/>
     </row>
-    <row r="145" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D145" s="25"/>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
@@ -12399,7 +12888,7 @@
       <c r="CL145" s="6"/>
       <c r="CM145" s="6"/>
     </row>
-    <row r="146" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D146" s="25"/>
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
@@ -12446,7 +12935,7 @@
       <c r="CL146" s="6"/>
       <c r="CM146" s="6"/>
     </row>
-    <row r="147" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
       <c r="F147" s="25"/>
@@ -12493,7 +12982,7 @@
       <c r="CL147" s="6"/>
       <c r="CM147" s="6"/>
     </row>
-    <row r="148" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
@@ -12540,7 +13029,7 @@
       <c r="CL148" s="6"/>
       <c r="CM148" s="6"/>
     </row>
-    <row r="149" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
@@ -12587,7 +13076,7 @@
       <c r="CL149" s="6"/>
       <c r="CM149" s="6"/>
     </row>
-    <row r="150" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D150" s="25"/>
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
@@ -12634,7 +13123,7 @@
       <c r="CL150" s="6"/>
       <c r="CM150" s="6"/>
     </row>
-    <row r="151" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
@@ -12681,7 +13170,7 @@
       <c r="CL151" s="6"/>
       <c r="CM151" s="6"/>
     </row>
-    <row r="152" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
@@ -12728,7 +13217,7 @@
       <c r="CL152" s="6"/>
       <c r="CM152" s="6"/>
     </row>
-    <row r="153" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
@@ -12775,7 +13264,7 @@
       <c r="CL153" s="6"/>
       <c r="CM153" s="6"/>
     </row>
-    <row r="154" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D154" s="25"/>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
@@ -12822,7 +13311,7 @@
       <c r="CL154" s="6"/>
       <c r="CM154" s="6"/>
     </row>
-    <row r="155" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
@@ -12869,7 +13358,7 @@
       <c r="CL155" s="6"/>
       <c r="CM155" s="6"/>
     </row>
-    <row r="156" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
@@ -12916,7 +13405,7 @@
       <c r="CL156" s="6"/>
       <c r="CM156" s="6"/>
     </row>
-    <row r="157" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
@@ -12963,7 +13452,7 @@
       <c r="CL157" s="6"/>
       <c r="CM157" s="6"/>
     </row>
-    <row r="158" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D158" s="25"/>
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
@@ -13010,7 +13499,7 @@
       <c r="CL158" s="6"/>
       <c r="CM158" s="6"/>
     </row>
-    <row r="159" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D159" s="25"/>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
@@ -13057,7 +13546,7 @@
       <c r="CL159" s="6"/>
       <c r="CM159" s="6"/>
     </row>
-    <row r="160" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D160" s="25"/>
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
@@ -13104,7 +13593,7 @@
       <c r="CL160" s="6"/>
       <c r="CM160" s="6"/>
     </row>
-    <row r="161" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D161" s="25"/>
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
@@ -13151,7 +13640,7 @@
       <c r="CL161" s="6"/>
       <c r="CM161" s="6"/>
     </row>
-    <row r="162" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D162" s="25"/>
       <c r="E162" s="25"/>
       <c r="F162" s="25"/>
@@ -13198,7 +13687,7 @@
       <c r="CL162" s="6"/>
       <c r="CM162" s="6"/>
     </row>
-    <row r="163" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D163" s="25"/>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
@@ -13245,7 +13734,7 @@
       <c r="CL163" s="6"/>
       <c r="CM163" s="6"/>
     </row>
-    <row r="164" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D164" s="25"/>
       <c r="E164" s="25"/>
       <c r="F164" s="25"/>
@@ -13292,7 +13781,7 @@
       <c r="CL164" s="6"/>
       <c r="CM164" s="6"/>
     </row>
-    <row r="165" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D165" s="25"/>
       <c r="E165" s="25"/>
       <c r="F165" s="25"/>
@@ -13339,7 +13828,7 @@
       <c r="CL165" s="6"/>
       <c r="CM165" s="6"/>
     </row>
-    <row r="166" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D166" s="25"/>
       <c r="E166" s="25"/>
       <c r="F166" s="25"/>
@@ -13386,7 +13875,7 @@
       <c r="CL166" s="6"/>
       <c r="CM166" s="6"/>
     </row>
-    <row r="167" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D167" s="25"/>
       <c r="E167" s="25"/>
       <c r="F167" s="25"/>
@@ -13433,7 +13922,7 @@
       <c r="CL167" s="6"/>
       <c r="CM167" s="6"/>
     </row>
-    <row r="168" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D168" s="25"/>
       <c r="E168" s="25"/>
       <c r="F168" s="25"/>
@@ -13480,7 +13969,7 @@
       <c r="CL168" s="6"/>
       <c r="CM168" s="6"/>
     </row>
-    <row r="169" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D169" s="25"/>
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
@@ -13527,7 +14016,7 @@
       <c r="CL169" s="6"/>
       <c r="CM169" s="6"/>
     </row>
-    <row r="170" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D170" s="25"/>
       <c r="E170" s="25"/>
       <c r="F170" s="25"/>
@@ -13574,7 +14063,7 @@
       <c r="CL170" s="6"/>
       <c r="CM170" s="6"/>
     </row>
-    <row r="171" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D171" s="25"/>
       <c r="E171" s="25"/>
       <c r="F171" s="25"/>
@@ -13621,7 +14110,7 @@
       <c r="CL171" s="6"/>
       <c r="CM171" s="6"/>
     </row>
-    <row r="172" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D172" s="25"/>
       <c r="E172" s="25"/>
       <c r="F172" s="25"/>
@@ -13668,7 +14157,7 @@
       <c r="CL172" s="6"/>
       <c r="CM172" s="6"/>
     </row>
-    <row r="173" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D173" s="25"/>
       <c r="E173" s="25"/>
       <c r="F173" s="25"/>
@@ -13715,7 +14204,7 @@
       <c r="CL173" s="6"/>
       <c r="CM173" s="6"/>
     </row>
-    <row r="174" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D174" s="25"/>
       <c r="E174" s="25"/>
       <c r="F174" s="25"/>
@@ -13762,7 +14251,7 @@
       <c r="CL174" s="6"/>
       <c r="CM174" s="6"/>
     </row>
-    <row r="175" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D175" s="25"/>
       <c r="E175" s="25"/>
       <c r="F175" s="25"/>
@@ -13809,7 +14298,7 @@
       <c r="CL175" s="6"/>
       <c r="CM175" s="6"/>
     </row>
-    <row r="176" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D176" s="25"/>
       <c r="E176" s="25"/>
       <c r="F176" s="25"/>
@@ -13856,7 +14345,7 @@
       <c r="CL176" s="6"/>
       <c r="CM176" s="6"/>
     </row>
-    <row r="177" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D177" s="25"/>
       <c r="E177" s="25"/>
       <c r="F177" s="25"/>
@@ -13903,7 +14392,7 @@
       <c r="CL177" s="6"/>
       <c r="CM177" s="6"/>
     </row>
-    <row r="178" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D178" s="25"/>
       <c r="E178" s="25"/>
       <c r="F178" s="25"/>
@@ -13950,7 +14439,7 @@
       <c r="CL178" s="6"/>
       <c r="CM178" s="6"/>
     </row>
-    <row r="179" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D179" s="25"/>
       <c r="E179" s="25"/>
       <c r="F179" s="25"/>
@@ -13997,7 +14486,7 @@
       <c r="CL179" s="6"/>
       <c r="CM179" s="6"/>
     </row>
-    <row r="180" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D180" s="25"/>
       <c r="E180" s="25"/>
       <c r="F180" s="25"/>
@@ -14044,7 +14533,7 @@
       <c r="CL180" s="6"/>
       <c r="CM180" s="6"/>
     </row>
-    <row r="181" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D181" s="25"/>
       <c r="E181" s="25"/>
       <c r="F181" s="25"/>
@@ -14091,7 +14580,7 @@
       <c r="CL181" s="6"/>
       <c r="CM181" s="6"/>
     </row>
-    <row r="182" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D182" s="25"/>
       <c r="E182" s="25"/>
       <c r="F182" s="25"/>
@@ -14138,7 +14627,7 @@
       <c r="CL182" s="6"/>
       <c r="CM182" s="6"/>
     </row>
-    <row r="183" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D183" s="25"/>
       <c r="E183" s="25"/>
       <c r="F183" s="25"/>
@@ -14185,7 +14674,7 @@
       <c r="CL183" s="6"/>
       <c r="CM183" s="6"/>
     </row>
-    <row r="184" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D184" s="25"/>
       <c r="E184" s="25"/>
       <c r="F184" s="25"/>
@@ -14232,7 +14721,7 @@
       <c r="CL184" s="6"/>
       <c r="CM184" s="6"/>
     </row>
-    <row r="185" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D185" s="25"/>
       <c r="E185" s="25"/>
       <c r="F185" s="25"/>
@@ -14279,7 +14768,7 @@
       <c r="CL185" s="6"/>
       <c r="CM185" s="6"/>
     </row>
-    <row r="186" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D186" s="25"/>
       <c r="E186" s="25"/>
       <c r="F186" s="25"/>
@@ -14326,7 +14815,7 @@
       <c r="CL186" s="6"/>
       <c r="CM186" s="6"/>
     </row>
-    <row r="187" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
       <c r="F187" s="25"/>
@@ -14373,7 +14862,7 @@
       <c r="CL187" s="6"/>
       <c r="CM187" s="6"/>
     </row>
-    <row r="188" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D188" s="25"/>
       <c r="E188" s="25"/>
       <c r="F188" s="25"/>
@@ -14420,7 +14909,7 @@
       <c r="CL188" s="6"/>
       <c r="CM188" s="6"/>
     </row>
-    <row r="189" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D189" s="25"/>
       <c r="E189" s="25"/>
       <c r="F189" s="25"/>
@@ -14467,7 +14956,7 @@
       <c r="CL189" s="6"/>
       <c r="CM189" s="6"/>
     </row>
-    <row r="190" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D190" s="25"/>
       <c r="E190" s="25"/>
       <c r="F190" s="25"/>
@@ -14514,7 +15003,7 @@
       <c r="CL190" s="6"/>
       <c r="CM190" s="6"/>
     </row>
-    <row r="191" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D191" s="25"/>
       <c r="E191" s="25"/>
       <c r="F191" s="25"/>
@@ -14561,7 +15050,7 @@
       <c r="CL191" s="6"/>
       <c r="CM191" s="6"/>
     </row>
-    <row r="192" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D192" s="25"/>
       <c r="E192" s="25"/>
       <c r="F192" s="25"/>
@@ -14608,7 +15097,7 @@
       <c r="CL192" s="6"/>
       <c r="CM192" s="6"/>
     </row>
-    <row r="193" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D193" s="25"/>
       <c r="E193" s="25"/>
       <c r="F193" s="25"/>
@@ -14655,7 +15144,7 @@
       <c r="CL193" s="6"/>
       <c r="CM193" s="6"/>
     </row>
-    <row r="194" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D194" s="25"/>
       <c r="E194" s="25"/>
       <c r="F194" s="25"/>
@@ -14702,7 +15191,7 @@
       <c r="CL194" s="6"/>
       <c r="CM194" s="6"/>
     </row>
-    <row r="195" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D195" s="25"/>
       <c r="E195" s="25"/>
       <c r="F195" s="25"/>
@@ -14749,7 +15238,7 @@
       <c r="CL195" s="6"/>
       <c r="CM195" s="6"/>
     </row>
-    <row r="196" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D196" s="25"/>
       <c r="E196" s="25"/>
       <c r="F196" s="25"/>
@@ -14796,7 +15285,7 @@
       <c r="CL196" s="6"/>
       <c r="CM196" s="6"/>
     </row>
-    <row r="197" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D197" s="25"/>
       <c r="E197" s="25"/>
       <c r="F197" s="25"/>
@@ -14843,7 +15332,7 @@
       <c r="CL197" s="6"/>
       <c r="CM197" s="6"/>
     </row>
-    <row r="198" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D198" s="25"/>
       <c r="E198" s="25"/>
       <c r="F198" s="25"/>
@@ -14890,7 +15379,7 @@
       <c r="CL198" s="6"/>
       <c r="CM198" s="6"/>
     </row>
-    <row r="199" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D199" s="25"/>
       <c r="E199" s="25"/>
       <c r="F199" s="25"/>
@@ -14937,7 +15426,7 @@
       <c r="CL199" s="6"/>
       <c r="CM199" s="6"/>
     </row>
-    <row r="200" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D200" s="25"/>
       <c r="E200" s="25"/>
       <c r="F200" s="25"/>
@@ -14984,7 +15473,7 @@
       <c r="CL200" s="6"/>
       <c r="CM200" s="6"/>
     </row>
-    <row r="201" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D201" s="25"/>
       <c r="E201" s="25"/>
       <c r="F201" s="25"/>
@@ -15031,7 +15520,7 @@
       <c r="CL201" s="6"/>
       <c r="CM201" s="6"/>
     </row>
-    <row r="202" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D202" s="25"/>
       <c r="E202" s="25"/>
       <c r="F202" s="25"/>
@@ -15078,7 +15567,7 @@
       <c r="CL202" s="6"/>
       <c r="CM202" s="6"/>
     </row>
-    <row r="203" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D203" s="25"/>
       <c r="E203" s="25"/>
       <c r="F203" s="25"/>
@@ -15125,7 +15614,7 @@
       <c r="CL203" s="6"/>
       <c r="CM203" s="6"/>
     </row>
-    <row r="204" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D204" s="25"/>
       <c r="E204" s="25"/>
       <c r="F204" s="25"/>
@@ -15172,7 +15661,7 @@
       <c r="CL204" s="6"/>
       <c r="CM204" s="6"/>
     </row>
-    <row r="205" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D205" s="25"/>
       <c r="E205" s="25"/>
       <c r="F205" s="25"/>
@@ -15219,7 +15708,7 @@
       <c r="CL205" s="6"/>
       <c r="CM205" s="6"/>
     </row>
-    <row r="206" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D206" s="25"/>
       <c r="E206" s="25"/>
       <c r="F206" s="25"/>
@@ -15266,7 +15755,7 @@
       <c r="CL206" s="6"/>
       <c r="CM206" s="6"/>
     </row>
-    <row r="207" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D207" s="25"/>
       <c r="E207" s="25"/>
       <c r="F207" s="25"/>
@@ -15313,7 +15802,7 @@
       <c r="CL207" s="6"/>
       <c r="CM207" s="6"/>
     </row>
-    <row r="208" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D208" s="25"/>
       <c r="E208" s="25"/>
       <c r="F208" s="25"/>
@@ -15360,7 +15849,7 @@
       <c r="CL208" s="6"/>
       <c r="CM208" s="6"/>
     </row>
-    <row r="209" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D209" s="25"/>
       <c r="E209" s="25"/>
       <c r="F209" s="25"/>
@@ -15407,7 +15896,7 @@
       <c r="CL209" s="6"/>
       <c r="CM209" s="6"/>
     </row>
-    <row r="210" spans="4:91" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:91" x14ac:dyDescent="0.4">
       <c r="D210" s="25"/>
       <c r="E210" s="25"/>
       <c r="F210" s="25"/>
@@ -15454,17 +15943,346 @@
       <c r="CL210" s="6"/>
       <c r="CM210" s="6"/>
     </row>
+    <row r="211" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="25"/>
+      <c r="H211" s="25"/>
+      <c r="I211" s="25"/>
+      <c r="J211" s="25"/>
+      <c r="K211" s="25"/>
+      <c r="L211" s="25"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6"/>
+      <c r="T211" s="6"/>
+      <c r="BB211" s="6"/>
+      <c r="BC211" s="6"/>
+      <c r="BD211" s="6"/>
+      <c r="BE211" s="6"/>
+      <c r="BF211" s="6"/>
+      <c r="BG211" s="6"/>
+      <c r="BH211" s="6"/>
+      <c r="BI211" s="6"/>
+      <c r="BJ211" s="6"/>
+      <c r="BK211" s="6"/>
+      <c r="BL211" s="6"/>
+      <c r="BM211" s="6"/>
+      <c r="BX211" s="6"/>
+      <c r="BY211" s="6"/>
+      <c r="BZ211" s="6"/>
+      <c r="CA211" s="6"/>
+      <c r="CB211" s="6"/>
+      <c r="CC211" s="6"/>
+      <c r="CD211" s="6"/>
+      <c r="CE211" s="6"/>
+      <c r="CF211" s="6"/>
+      <c r="CG211" s="6"/>
+      <c r="CH211" s="6"/>
+      <c r="CI211" s="6"/>
+      <c r="CJ211" s="6"/>
+      <c r="CK211" s="6"/>
+      <c r="CL211" s="6"/>
+      <c r="CM211" s="6"/>
+    </row>
+    <row r="212" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="25"/>
+      <c r="H212" s="25"/>
+      <c r="I212" s="25"/>
+      <c r="J212" s="25"/>
+      <c r="K212" s="25"/>
+      <c r="L212" s="25"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="6"/>
+      <c r="BB212" s="6"/>
+      <c r="BC212" s="6"/>
+      <c r="BD212" s="6"/>
+      <c r="BE212" s="6"/>
+      <c r="BF212" s="6"/>
+      <c r="BG212" s="6"/>
+      <c r="BH212" s="6"/>
+      <c r="BI212" s="6"/>
+      <c r="BJ212" s="6"/>
+      <c r="BK212" s="6"/>
+      <c r="BL212" s="6"/>
+      <c r="BM212" s="6"/>
+      <c r="BX212" s="6"/>
+      <c r="BY212" s="6"/>
+      <c r="BZ212" s="6"/>
+      <c r="CA212" s="6"/>
+      <c r="CB212" s="6"/>
+      <c r="CC212" s="6"/>
+      <c r="CD212" s="6"/>
+      <c r="CE212" s="6"/>
+      <c r="CF212" s="6"/>
+      <c r="CG212" s="6"/>
+      <c r="CH212" s="6"/>
+      <c r="CI212" s="6"/>
+      <c r="CJ212" s="6"/>
+      <c r="CK212" s="6"/>
+      <c r="CL212" s="6"/>
+      <c r="CM212" s="6"/>
+    </row>
+    <row r="213" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D213" s="25"/>
+      <c r="E213" s="25"/>
+      <c r="F213" s="25"/>
+      <c r="G213" s="25"/>
+      <c r="H213" s="25"/>
+      <c r="I213" s="25"/>
+      <c r="J213" s="25"/>
+      <c r="K213" s="25"/>
+      <c r="L213" s="25"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="6"/>
+      <c r="BB213" s="6"/>
+      <c r="BC213" s="6"/>
+      <c r="BD213" s="6"/>
+      <c r="BE213" s="6"/>
+      <c r="BF213" s="6"/>
+      <c r="BG213" s="6"/>
+      <c r="BH213" s="6"/>
+      <c r="BI213" s="6"/>
+      <c r="BJ213" s="6"/>
+      <c r="BK213" s="6"/>
+      <c r="BL213" s="6"/>
+      <c r="BM213" s="6"/>
+      <c r="BX213" s="6"/>
+      <c r="BY213" s="6"/>
+      <c r="BZ213" s="6"/>
+      <c r="CA213" s="6"/>
+      <c r="CB213" s="6"/>
+      <c r="CC213" s="6"/>
+      <c r="CD213" s="6"/>
+      <c r="CE213" s="6"/>
+      <c r="CF213" s="6"/>
+      <c r="CG213" s="6"/>
+      <c r="CH213" s="6"/>
+      <c r="CI213" s="6"/>
+      <c r="CJ213" s="6"/>
+      <c r="CK213" s="6"/>
+      <c r="CL213" s="6"/>
+      <c r="CM213" s="6"/>
+    </row>
+    <row r="214" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D214" s="25"/>
+      <c r="E214" s="25"/>
+      <c r="F214" s="25"/>
+      <c r="G214" s="25"/>
+      <c r="H214" s="25"/>
+      <c r="I214" s="25"/>
+      <c r="J214" s="25"/>
+      <c r="K214" s="25"/>
+      <c r="L214" s="25"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="6"/>
+      <c r="T214" s="6"/>
+      <c r="BB214" s="6"/>
+      <c r="BC214" s="6"/>
+      <c r="BD214" s="6"/>
+      <c r="BE214" s="6"/>
+      <c r="BF214" s="6"/>
+      <c r="BG214" s="6"/>
+      <c r="BH214" s="6"/>
+      <c r="BI214" s="6"/>
+      <c r="BJ214" s="6"/>
+      <c r="BK214" s="6"/>
+      <c r="BL214" s="6"/>
+      <c r="BM214" s="6"/>
+      <c r="BX214" s="6"/>
+      <c r="BY214" s="6"/>
+      <c r="BZ214" s="6"/>
+      <c r="CA214" s="6"/>
+      <c r="CB214" s="6"/>
+      <c r="CC214" s="6"/>
+      <c r="CD214" s="6"/>
+      <c r="CE214" s="6"/>
+      <c r="CF214" s="6"/>
+      <c r="CG214" s="6"/>
+      <c r="CH214" s="6"/>
+      <c r="CI214" s="6"/>
+      <c r="CJ214" s="6"/>
+      <c r="CK214" s="6"/>
+      <c r="CL214" s="6"/>
+      <c r="CM214" s="6"/>
+    </row>
+    <row r="215" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D215" s="25"/>
+      <c r="E215" s="25"/>
+      <c r="F215" s="25"/>
+      <c r="G215" s="25"/>
+      <c r="H215" s="25"/>
+      <c r="I215" s="25"/>
+      <c r="J215" s="25"/>
+      <c r="K215" s="25"/>
+      <c r="L215" s="25"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="6"/>
+      <c r="BB215" s="6"/>
+      <c r="BC215" s="6"/>
+      <c r="BD215" s="6"/>
+      <c r="BE215" s="6"/>
+      <c r="BF215" s="6"/>
+      <c r="BG215" s="6"/>
+      <c r="BH215" s="6"/>
+      <c r="BI215" s="6"/>
+      <c r="BJ215" s="6"/>
+      <c r="BK215" s="6"/>
+      <c r="BL215" s="6"/>
+      <c r="BM215" s="6"/>
+      <c r="BX215" s="6"/>
+      <c r="BY215" s="6"/>
+      <c r="BZ215" s="6"/>
+      <c r="CA215" s="6"/>
+      <c r="CB215" s="6"/>
+      <c r="CC215" s="6"/>
+      <c r="CD215" s="6"/>
+      <c r="CE215" s="6"/>
+      <c r="CF215" s="6"/>
+      <c r="CG215" s="6"/>
+      <c r="CH215" s="6"/>
+      <c r="CI215" s="6"/>
+      <c r="CJ215" s="6"/>
+      <c r="CK215" s="6"/>
+      <c r="CL215" s="6"/>
+      <c r="CM215" s="6"/>
+    </row>
+    <row r="216" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
+      <c r="F216" s="25"/>
+      <c r="G216" s="25"/>
+      <c r="H216" s="25"/>
+      <c r="I216" s="25"/>
+      <c r="J216" s="25"/>
+      <c r="K216" s="25"/>
+      <c r="L216" s="25"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="6"/>
+      <c r="BB216" s="6"/>
+      <c r="BC216" s="6"/>
+      <c r="BD216" s="6"/>
+      <c r="BE216" s="6"/>
+      <c r="BF216" s="6"/>
+      <c r="BG216" s="6"/>
+      <c r="BH216" s="6"/>
+      <c r="BI216" s="6"/>
+      <c r="BJ216" s="6"/>
+      <c r="BK216" s="6"/>
+      <c r="BL216" s="6"/>
+      <c r="BM216" s="6"/>
+      <c r="BX216" s="6"/>
+      <c r="BY216" s="6"/>
+      <c r="BZ216" s="6"/>
+      <c r="CA216" s="6"/>
+      <c r="CB216" s="6"/>
+      <c r="CC216" s="6"/>
+      <c r="CD216" s="6"/>
+      <c r="CE216" s="6"/>
+      <c r="CF216" s="6"/>
+      <c r="CG216" s="6"/>
+      <c r="CH216" s="6"/>
+      <c r="CI216" s="6"/>
+      <c r="CJ216" s="6"/>
+      <c r="CK216" s="6"/>
+      <c r="CL216" s="6"/>
+      <c r="CM216" s="6"/>
+    </row>
+    <row r="217" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
+      <c r="F217" s="25"/>
+      <c r="G217" s="25"/>
+      <c r="H217" s="25"/>
+      <c r="I217" s="25"/>
+      <c r="J217" s="25"/>
+      <c r="K217" s="25"/>
+      <c r="L217" s="25"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
+      <c r="BB217" s="6"/>
+      <c r="BC217" s="6"/>
+      <c r="BD217" s="6"/>
+      <c r="BE217" s="6"/>
+      <c r="BF217" s="6"/>
+      <c r="BG217" s="6"/>
+      <c r="BH217" s="6"/>
+      <c r="BI217" s="6"/>
+      <c r="BJ217" s="6"/>
+      <c r="BK217" s="6"/>
+      <c r="BL217" s="6"/>
+      <c r="BM217" s="6"/>
+      <c r="BX217" s="6"/>
+      <c r="BY217" s="6"/>
+      <c r="BZ217" s="6"/>
+      <c r="CA217" s="6"/>
+      <c r="CB217" s="6"/>
+      <c r="CC217" s="6"/>
+      <c r="CD217" s="6"/>
+      <c r="CE217" s="6"/>
+      <c r="CF217" s="6"/>
+      <c r="CG217" s="6"/>
+      <c r="CH217" s="6"/>
+      <c r="CI217" s="6"/>
+      <c r="CJ217" s="6"/>
+      <c r="CK217" s="6"/>
+      <c r="CL217" s="6"/>
+      <c r="CM217" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CN65" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN65">
-      <sortCondition ref="BB1:BB64"/>
+  <autoFilter ref="A1:CN72" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN72">
+      <sortCondition ref="BB1:BB71"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="AS61" r:id="rId1" xr:uid="{7A957ED5-82B4-42C4-A542-9FEBF47E5BF1}"/>
-    <hyperlink ref="AS63" r:id="rId2" xr:uid="{3A8C7F76-5F55-4A52-94BF-819B86627B71}"/>
-    <hyperlink ref="AS9" r:id="rId3" xr:uid="{F393EE3D-E0B3-457A-88A9-3356E8BECEFD}"/>
-    <hyperlink ref="AS11" r:id="rId4" xr:uid="{32E863A6-0F3A-42DF-9A10-4CB806489D40}"/>
+    <hyperlink ref="AS68" r:id="rId1" xr:uid="{7A957ED5-82B4-42C4-A542-9FEBF47E5BF1}"/>
+    <hyperlink ref="AS70" r:id="rId2" xr:uid="{3A8C7F76-5F55-4A52-94BF-819B86627B71}"/>
+    <hyperlink ref="AS10" r:id="rId3" xr:uid="{F393EE3D-E0B3-457A-88A9-3356E8BECEFD}"/>
+    <hyperlink ref="AS12" r:id="rId4" xr:uid="{32E863A6-0F3A-42DF-9A10-4CB806489D40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2022-2023\Modifs appli recherche de stage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Magali\Documents\Métiers de l'eau Réforme 2018\Année 2022-2023\Modifs appli recherche de stage\Recup fichier david et fonctionnement Heroku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E5F930-1CBF-4942-9D58-7392FB443944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5064BC29-45BE-4872-A016-AB266729A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entreprises_Complet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entreprises_Complet2!$A$1:$CN$76</definedName>
     <definedName name="d">Entreprises_Complet2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="432">
   <si>
     <t>Produit</t>
   </si>
@@ -1278,6 +1278,60 @@
   </si>
   <si>
     <t>44.12276221487113, 6.233537854635984</t>
+  </si>
+  <si>
+    <t>SAUR Jausiers</t>
+  </si>
+  <si>
+    <t>Grande rue</t>
+  </si>
+  <si>
+    <t>JAUSIERS</t>
+  </si>
+  <si>
+    <t>44.419239989823936, 6.734263083175851</t>
+  </si>
+  <si>
+    <t>https://www.saur.com/fr/</t>
+  </si>
+  <si>
+    <t>Réparation fuite</t>
+  </si>
+  <si>
+    <t>Rhône-Saône TRA'eau</t>
+  </si>
+  <si>
+    <t>164 rioute de lyon</t>
+  </si>
+  <si>
+    <t>Trévoux</t>
+  </si>
+  <si>
+    <t>https://rste.fr/</t>
+  </si>
+  <si>
+    <t>45.93633579264494, 4.787879802895758</t>
+  </si>
+  <si>
+    <t>705 route de Barjols</t>
+  </si>
+  <si>
+    <t>Le val</t>
+  </si>
+  <si>
+    <t>43.44417688419229, 6.070370926987548</t>
+  </si>
+  <si>
+    <t>Com com Serre-Ponçon val D'avance</t>
+  </si>
+  <si>
+    <t>33 rue de la Lauzière</t>
+  </si>
+  <si>
+    <t>La Batie-neuve</t>
+  </si>
+  <si>
+    <t>44.564282171582796, 6.207497550276762</t>
   </si>
 </sst>
 </file>
@@ -2109,12 +2163,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO217"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:CO221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -2358,7 +2413,7 @@
       </c>
       <c r="CN1" s="42"/>
     </row>
-    <row r="2" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
         <v>238</v>
       </c>
@@ -2369,7 +2424,7 @@
         <v>324</v>
       </c>
       <c r="D2" s="17" t="str">
-        <f t="shared" ref="D2:D45" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
+        <f t="shared" ref="D2:D46" si="0">IF(BF2&lt;&gt;0,";2022_A="&amp;BF2," ")&amp;IF(BG2&lt;&gt;0," ; 2022_i="&amp;BG2," ")&amp;IF(BH2&lt;&gt;0,";2021_A="&amp;BH2," ")&amp;IF(BI2&lt;&gt;0," ; 2021_i="&amp;BI2," ")&amp;IF(BJ2&lt;&gt;0,";2020_A="&amp;BJ2," ")&amp;IF(BK2&lt;&gt;0," ; 2020_i="&amp;BK2," ")&amp;IF(BL2&lt;&gt;0,";2019_A="&amp;BL2," ")&amp;IF(BM2&lt;&gt;0," ; 2019_i="&amp;BM2," ")&amp;IF(BN2&lt;&gt;0,";2018_A="&amp;BN2," ")&amp;IF(BO2&lt;&gt;0," ; 2018_i="&amp;BO2," ")&amp;IF(BP2&lt;&gt;0," ; 2017_A="&amp;BP2," ")&amp;IF(BQ2&lt;&gt;0," ; 2017_i="&amp;BQ2," ")&amp;IF(BR2&lt;&gt;0," ; 2016_A="&amp;BR2," ")&amp;IF(BS2&lt;&gt;0," ; 2016_i="&amp;BS2," ")&amp;IF(BT2&lt;&gt;0," ; 2015_A="&amp;BT2," ")&amp;IF(BU2&lt;&gt;0," ; 2015_i="&amp;BU2," ")&amp;IF(BV2&lt;&gt;0," ; 2014_A="&amp;BV2," ")&amp;IF(BW2&lt;&gt;0," ; 2014_i="&amp;BW2," ")</f>
         <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E2" s="46"/>
@@ -2455,7 +2510,7 @@
       <c r="BW2" s="60"/>
       <c r="CN2" s="11"/>
     </row>
-    <row r="3" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47" t="s">
         <v>73</v>
       </c>
@@ -2552,7 +2607,7 @@
       <c r="BW3" s="60"/>
       <c r="CN3" s="11"/>
     </row>
-    <row r="4" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
         <v>73</v>
       </c>
@@ -2649,7 +2704,7 @@
       <c r="BW4" s="60"/>
       <c r="CN4" s="11"/>
     </row>
-    <row r="5" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47" t="s">
         <v>300</v>
       </c>
@@ -2748,19 +2803,19 @@
       <c r="BW5" s="60"/>
       <c r="CN5" s="11"/>
     </row>
-    <row r="6" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
-        <v>238</v>
+        <v>73</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
@@ -2799,22 +2854,20 @@
       <c r="AM6" s="10"/>
       <c r="AN6" s="26"/>
       <c r="AO6" s="48" t="s">
-        <v>270</v>
+        <v>429</v>
       </c>
       <c r="AP6" s="48" t="s">
-        <v>71</v>
+        <v>430</v>
       </c>
       <c r="AQ6" s="51">
-        <v>13014</v>
-      </c>
-      <c r="AR6" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="AS6" s="53" t="s">
-        <v>273</v>
-      </c>
+        <v>5230</v>
+      </c>
+      <c r="AR6" s="52">
+        <v>492502050</v>
+      </c>
+      <c r="AS6" s="53"/>
       <c r="AT6" s="54" t="s">
-        <v>271</v>
+        <v>431</v>
       </c>
       <c r="AU6" s="14"/>
       <c r="AV6" s="61"/>
@@ -2826,13 +2879,13 @@
       <c r="BC6" s="45"/>
       <c r="BE6" s="45"/>
       <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
+      <c r="BG6" s="59">
+        <v>1</v>
+      </c>
       <c r="BH6" s="59"/>
       <c r="BI6" s="59"/>
       <c r="BJ6" s="59"/>
-      <c r="BK6" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK6" s="59"/>
       <c r="BL6" s="59"/>
       <c r="BM6" s="59"/>
       <c r="BN6" s="60"/>
@@ -2847,19 +2900,19 @@
       <c r="BW6" s="60"/>
       <c r="CN6" s="11"/>
     </row>
-    <row r="7" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="47" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="D7" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
@@ -2898,22 +2951,22 @@
       <c r="AM7" s="10"/>
       <c r="AN7" s="26"/>
       <c r="AO7" s="48" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="AP7" s="48" t="s">
-        <v>359</v>
+        <v>71</v>
       </c>
       <c r="AQ7" s="51">
-        <v>6410</v>
+        <v>13014</v>
       </c>
       <c r="AR7" s="52" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="AS7" s="53" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="AT7" s="54" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="AU7" s="14"/>
       <c r="AV7" s="61"/>
@@ -2927,11 +2980,11 @@
       <c r="BF7" s="59"/>
       <c r="BG7" s="59"/>
       <c r="BH7" s="59"/>
-      <c r="BI7" s="59">
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="59"/>
+      <c r="BK7" s="59">
         <v>1</v>
       </c>
-      <c r="BJ7" s="59"/>
-      <c r="BK7" s="59"/>
       <c r="BL7" s="59"/>
       <c r="BM7" s="59"/>
       <c r="BN7" s="60"/>
@@ -2946,7 +2999,7 @@
       <c r="BW7" s="60"/>
       <c r="CN7" s="11"/>
     </row>
-    <row r="8" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
         <v>73</v>
       </c>
@@ -2954,11 +3007,11 @@
         <v>312</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  ; 2022_i=1    ; 2020_i=1            </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -2997,22 +3050,22 @@
       <c r="AM8" s="10"/>
       <c r="AN8" s="26"/>
       <c r="AO8" s="48" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="AP8" s="48" t="s">
-        <v>185</v>
+        <v>359</v>
       </c>
       <c r="AQ8" s="51">
-        <v>6120</v>
+        <v>6410</v>
       </c>
       <c r="AR8" s="52" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="AS8" s="53" t="s">
         <v>104</v>
       </c>
       <c r="AT8" s="54" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="AU8" s="14"/>
       <c r="AV8" s="61"/>
@@ -3024,15 +3077,13 @@
       <c r="BC8" s="45"/>
       <c r="BE8" s="45"/>
       <c r="BF8" s="59"/>
-      <c r="BG8" s="59">
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59">
         <v>1</v>
       </c>
-      <c r="BH8" s="59"/>
-      <c r="BI8" s="59"/>
       <c r="BJ8" s="59"/>
-      <c r="BK8" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK8" s="59"/>
       <c r="BL8" s="59"/>
       <c r="BM8" s="59"/>
       <c r="BN8" s="60"/>
@@ -3047,7 +3098,7 @@
       <c r="BW8" s="60"/>
       <c r="CN8" s="11"/>
     </row>
-    <row r="9" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="47" t="s">
         <v>73</v>
       </c>
@@ -3055,11 +3106,11 @@
         <v>312</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">  ; 2022_i=1    ; 2020_i=1            </v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -3098,20 +3149,22 @@
       <c r="AM9" s="10"/>
       <c r="AN9" s="26"/>
       <c r="AO9" s="48" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AP9" s="48" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="AQ9" s="51">
-        <v>6140</v>
-      </c>
-      <c r="AR9" s="52"/>
+        <v>6120</v>
+      </c>
+      <c r="AR9" s="52" t="s">
+        <v>267</v>
+      </c>
       <c r="AS9" s="53" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AT9" s="54" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AU9" s="14"/>
       <c r="AV9" s="61"/>
@@ -3123,15 +3176,17 @@
       <c r="BC9" s="45"/>
       <c r="BE9" s="45"/>
       <c r="BF9" s="59"/>
-      <c r="BG9" s="59"/>
+      <c r="BG9" s="59">
+        <v>1</v>
+      </c>
       <c r="BH9" s="59"/>
       <c r="BI9" s="59"/>
       <c r="BJ9" s="59"/>
-      <c r="BK9" s="59"/>
+      <c r="BK9" s="59">
+        <v>1</v>
+      </c>
       <c r="BL9" s="59"/>
-      <c r="BM9" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM9" s="59"/>
       <c r="BN9" s="60"/>
       <c r="BO9" s="60"/>
       <c r="BP9" s="60"/>
@@ -3144,7 +3199,7 @@
       <c r="BW9" s="60"/>
       <c r="CN9" s="11"/>
     </row>
-    <row r="10" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="47" t="s">
         <v>73</v>
       </c>
@@ -3152,11 +3207,11 @@
         <v>312</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ; 2021_i=2              </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -3195,22 +3250,20 @@
       <c r="AM10" s="10"/>
       <c r="AN10" s="26"/>
       <c r="AO10" s="48" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="AP10" s="48" t="s">
-        <v>353</v>
+        <v>264</v>
       </c>
       <c r="AQ10" s="51">
-        <v>84120</v>
-      </c>
-      <c r="AR10" s="52" t="s">
-        <v>354</v>
-      </c>
+        <v>6140</v>
+      </c>
+      <c r="AR10" s="52"/>
       <c r="AS10" s="53" t="s">
-        <v>355</v>
+        <v>94</v>
       </c>
       <c r="AT10" s="54" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
       <c r="AU10" s="14"/>
       <c r="AV10" s="61"/>
@@ -3224,13 +3277,13 @@
       <c r="BF10" s="59"/>
       <c r="BG10" s="59"/>
       <c r="BH10" s="59"/>
-      <c r="BI10" s="59">
-        <v>2</v>
-      </c>
+      <c r="BI10" s="59"/>
       <c r="BJ10" s="59"/>
       <c r="BK10" s="59"/>
       <c r="BL10" s="59"/>
-      <c r="BM10" s="59"/>
+      <c r="BM10" s="59">
+        <v>1</v>
+      </c>
       <c r="BN10" s="60"/>
       <c r="BO10" s="60"/>
       <c r="BP10" s="60"/>
@@ -3243,19 +3296,19 @@
       <c r="BW10" s="60"/>
       <c r="CN10" s="11"/>
     </row>
-    <row r="11" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">    ; 2021_i=2              </v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -3293,21 +3346,23 @@
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="26"/>
-      <c r="AO11" s="48"/>
+      <c r="AO11" s="48" t="s">
+        <v>352</v>
+      </c>
       <c r="AP11" s="48" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="AQ11" s="51">
-        <v>7350</v>
+        <v>84120</v>
       </c>
       <c r="AR11" s="52" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="AS11" s="53" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="AT11" s="54" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AU11" s="14"/>
       <c r="AV11" s="61"/>
@@ -3322,7 +3377,7 @@
       <c r="BG11" s="59"/>
       <c r="BH11" s="59"/>
       <c r="BI11" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ11" s="59"/>
       <c r="BK11" s="59"/>
@@ -3340,7 +3395,7 @@
       <c r="BW11" s="60"/>
       <c r="CN11" s="11"/>
     </row>
-    <row r="12" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47" t="s">
         <v>300</v>
       </c>
@@ -3348,7 +3403,7 @@
         <v>368</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3390,23 +3445,21 @@
       <c r="AL12" s="10"/>
       <c r="AM12" s="10"/>
       <c r="AN12" s="26"/>
-      <c r="AO12" s="48" t="s">
-        <v>371</v>
-      </c>
+      <c r="AO12" s="48"/>
       <c r="AP12" s="48" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AQ12" s="51">
-        <v>59820</v>
+        <v>7350</v>
       </c>
       <c r="AR12" s="52" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AS12" s="53" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AT12" s="54" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AU12" s="14"/>
       <c r="AV12" s="61"/>
@@ -3439,19 +3492,19 @@
       <c r="BW12" s="60"/>
       <c r="CN12" s="11"/>
     </row>
-    <row r="13" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
       <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -3490,22 +3543,22 @@
       <c r="AM13" s="10"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="48" t="s">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="AP13" s="48" t="s">
-        <v>234</v>
+        <v>370</v>
       </c>
       <c r="AQ13" s="51">
-        <v>13210</v>
+        <v>59820</v>
       </c>
       <c r="AR13" s="52" t="s">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="AS13" s="53" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="AT13" s="54" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="AU13" s="14"/>
       <c r="AV13" s="61"/>
@@ -3519,13 +3572,13 @@
       <c r="BF13" s="59"/>
       <c r="BG13" s="59"/>
       <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
+      <c r="BI13" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ13" s="59"/>
       <c r="BK13" s="59"/>
       <c r="BL13" s="59"/>
-      <c r="BM13" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM13" s="59"/>
       <c r="BN13" s="60"/>
       <c r="BO13" s="60"/>
       <c r="BP13" s="60"/>
@@ -3538,15 +3591,15 @@
       <c r="BW13" s="60"/>
       <c r="CN13" s="11"/>
     </row>
-    <row r="14" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3589,22 +3642,22 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="26"/>
       <c r="AO14" s="48" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AP14" s="48" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AQ14" s="51">
-        <v>13340</v>
+        <v>13210</v>
       </c>
       <c r="AR14" s="52" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AS14" s="53" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AT14" s="54" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AU14" s="14"/>
       <c r="AV14" s="61"/>
@@ -3637,7 +3690,7 @@
       <c r="BW14" s="60"/>
       <c r="CN14" s="11"/>
     </row>
-    <row r="15" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47" t="s">
         <v>300</v>
       </c>
@@ -3645,11 +3698,11 @@
         <v>303</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="D15" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  ; 2022_i=1                </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
@@ -3688,22 +3741,22 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="26"/>
       <c r="AO15" s="48" t="s">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="AP15" s="48" t="s">
-        <v>402</v>
+        <v>243</v>
       </c>
       <c r="AQ15" s="51">
-        <v>38920</v>
+        <v>13340</v>
       </c>
       <c r="AR15" s="52" t="s">
-        <v>403</v>
+        <v>244</v>
       </c>
       <c r="AS15" s="53" t="s">
-        <v>398</v>
+        <v>247</v>
       </c>
       <c r="AT15" s="54" t="s">
-        <v>404</v>
+        <v>246</v>
       </c>
       <c r="AU15" s="14"/>
       <c r="AV15" s="61"/>
@@ -3715,15 +3768,15 @@
       <c r="BC15" s="45"/>
       <c r="BE15" s="45"/>
       <c r="BF15" s="59"/>
-      <c r="BG15" s="59">
-        <v>1</v>
-      </c>
+      <c r="BG15" s="59"/>
       <c r="BH15" s="59"/>
       <c r="BI15" s="59"/>
       <c r="BJ15" s="59"/>
       <c r="BK15" s="59"/>
       <c r="BL15" s="59"/>
-      <c r="BM15" s="59"/>
+      <c r="BM15" s="59">
+        <v>1</v>
+      </c>
       <c r="BN15" s="60"/>
       <c r="BO15" s="60"/>
       <c r="BP15" s="60"/>
@@ -3736,7 +3789,7 @@
       <c r="BW15" s="60"/>
       <c r="CN15" s="11"/>
     </row>
-    <row r="16" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47" t="s">
         <v>300</v>
       </c>
@@ -3744,11 +3797,11 @@
         <v>303</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
       <c r="D16" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                  ; 2014_i=1</v>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
@@ -3787,22 +3840,22 @@
       <c r="AM16" s="10"/>
       <c r="AN16" s="26"/>
       <c r="AO16" s="48" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="AP16" s="48" t="s">
-        <v>309</v>
+        <v>402</v>
       </c>
       <c r="AQ16" s="51">
-        <v>13270</v>
+        <v>38920</v>
       </c>
       <c r="AR16" s="52" t="s">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="AS16" s="53" t="s">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="AT16" s="54" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="AU16" s="14"/>
       <c r="AV16" s="61"/>
@@ -3814,7 +3867,9 @@
       <c r="BC16" s="45"/>
       <c r="BE16" s="45"/>
       <c r="BF16" s="59"/>
-      <c r="BG16" s="59"/>
+      <c r="BG16" s="59">
+        <v>1</v>
+      </c>
       <c r="BH16" s="59"/>
       <c r="BI16" s="59"/>
       <c r="BJ16" s="59"/>
@@ -3830,24 +3885,22 @@
       <c r="BT16" s="60"/>
       <c r="BU16" s="60"/>
       <c r="BV16" s="60"/>
-      <c r="BW16" s="60">
-        <v>1</v>
-      </c>
+      <c r="BW16" s="60"/>
       <c r="CN16" s="11"/>
     </row>
-    <row r="17" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="47" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D17" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">                  ; 2014_i=1</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
@@ -3886,22 +3939,22 @@
       <c r="AM17" s="10"/>
       <c r="AN17" s="26"/>
       <c r="AO17" s="48" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="AP17" s="48" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="AQ17" s="51">
-        <v>13800</v>
+        <v>13270</v>
       </c>
       <c r="AR17" s="52" t="s">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="AS17" s="53" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="AT17" s="54" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="AU17" s="14"/>
       <c r="AV17" s="61"/>
@@ -3919,9 +3972,7 @@
       <c r="BJ17" s="59"/>
       <c r="BK17" s="59"/>
       <c r="BL17" s="59"/>
-      <c r="BM17" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM17" s="59"/>
       <c r="BN17" s="60"/>
       <c r="BO17" s="60"/>
       <c r="BP17" s="60"/>
@@ -3931,18 +3982,20 @@
       <c r="BT17" s="60"/>
       <c r="BU17" s="60"/>
       <c r="BV17" s="60"/>
-      <c r="BW17" s="60"/>
+      <c r="BW17" s="60">
+        <v>1</v>
+      </c>
       <c r="CN17" s="11"/>
     </row>
-    <row r="18" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="47" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -3985,22 +4038,22 @@
       <c r="AM18" s="10"/>
       <c r="AN18" s="26"/>
       <c r="AO18" s="48" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AP18" s="48" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="AQ18" s="51">
-        <v>4200</v>
+        <v>13800</v>
       </c>
       <c r="AR18" s="52" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="AS18" s="53" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="AT18" s="54" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AU18" s="14"/>
       <c r="AV18" s="61"/>
@@ -4033,7 +4086,7 @@
       <c r="BW18" s="60"/>
       <c r="CN18" s="11"/>
     </row>
-    <row r="19" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="47" t="s">
         <v>73</v>
       </c>
@@ -4041,11 +4094,11 @@
         <v>312</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
@@ -4084,20 +4137,22 @@
       <c r="AM19" s="10"/>
       <c r="AN19" s="26"/>
       <c r="AO19" s="48" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="AP19" s="48" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="AQ19" s="51">
-        <v>84300</v>
-      </c>
-      <c r="AR19" s="52"/>
+        <v>4200</v>
+      </c>
+      <c r="AR19" s="52" t="s">
+        <v>225</v>
+      </c>
       <c r="AS19" s="53" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="AT19" s="54" t="s">
-        <v>381</v>
+        <v>224</v>
       </c>
       <c r="AU19" s="14"/>
       <c r="AV19" s="61"/>
@@ -4115,13 +4170,13 @@
       <c r="BJ19" s="59"/>
       <c r="BK19" s="59"/>
       <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
+      <c r="BM19" s="59">
+        <v>1</v>
+      </c>
       <c r="BN19" s="60"/>
       <c r="BO19" s="60"/>
       <c r="BP19" s="60"/>
-      <c r="BQ19" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ19" s="60"/>
       <c r="BR19" s="60"/>
       <c r="BS19" s="60"/>
       <c r="BT19" s="60"/>
@@ -4130,7 +4185,7 @@
       <c r="BW19" s="60"/>
       <c r="CN19" s="11"/>
     </row>
-    <row r="20" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="47" t="s">
         <v>73</v>
       </c>
@@ -4138,11 +4193,11 @@
         <v>312</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D20" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
@@ -4181,22 +4236,20 @@
       <c r="AM20" s="10"/>
       <c r="AN20" s="26"/>
       <c r="AO20" s="48" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AP20" s="48" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AQ20" s="51">
-        <v>83240</v>
-      </c>
-      <c r="AR20" s="52" t="s">
-        <v>196</v>
-      </c>
+        <v>84300</v>
+      </c>
+      <c r="AR20" s="52"/>
       <c r="AS20" s="53" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="AT20" s="54" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="AU20" s="14"/>
       <c r="AV20" s="61"/>
@@ -4216,11 +4269,11 @@
       <c r="BL20" s="59"/>
       <c r="BM20" s="59"/>
       <c r="BN20" s="60"/>
-      <c r="BO20" s="60">
+      <c r="BO20" s="60"/>
+      <c r="BP20" s="60"/>
+      <c r="BQ20" s="60">
         <v>1</v>
       </c>
-      <c r="BP20" s="60"/>
-      <c r="BQ20" s="60"/>
       <c r="BR20" s="60"/>
       <c r="BS20" s="60"/>
       <c r="BT20" s="60"/>
@@ -4229,7 +4282,7 @@
       <c r="BW20" s="60"/>
       <c r="CN20" s="11"/>
     </row>
-    <row r="21" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="47" t="s">
         <v>73</v>
       </c>
@@ -4237,11 +4290,11 @@
         <v>312</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="D21" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  ; 2022_i=1        ; 2018_i=1        </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
@@ -4280,22 +4333,22 @@
       <c r="AM21" s="10"/>
       <c r="AN21" s="26"/>
       <c r="AO21" s="48" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AP21" s="48" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AQ21" s="51">
-        <v>4370</v>
+        <v>83240</v>
       </c>
       <c r="AR21" s="52" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AS21" s="53" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AT21" s="54" t="s">
-        <v>202</v>
+        <v>399</v>
       </c>
       <c r="AU21" s="14"/>
       <c r="AV21" s="61"/>
@@ -4307,9 +4360,7 @@
       <c r="BC21" s="45"/>
       <c r="BE21" s="45"/>
       <c r="BF21" s="59"/>
-      <c r="BG21" s="59">
-        <v>1</v>
-      </c>
+      <c r="BG21" s="59"/>
       <c r="BH21" s="59"/>
       <c r="BI21" s="59"/>
       <c r="BJ21" s="59"/>
@@ -4330,7 +4381,7 @@
       <c r="BW21" s="60"/>
       <c r="CN21" s="11"/>
     </row>
-    <row r="22" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="47" t="s">
         <v>73</v>
       </c>
@@ -4338,11 +4389,11 @@
         <v>312</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>397</v>
+        <v>198</v>
       </c>
       <c r="D22" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  ; 2022_i=1                </v>
+        <v xml:space="preserve">  ; 2022_i=1        ; 2018_i=1        </v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
@@ -4381,22 +4432,22 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="26"/>
       <c r="AO22" s="48" t="s">
-        <v>394</v>
+        <v>199</v>
       </c>
       <c r="AP22" s="48" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="AQ22" s="51">
-        <v>6000</v>
+        <v>4370</v>
       </c>
       <c r="AR22" s="52" t="s">
-        <v>395</v>
+        <v>201</v>
       </c>
       <c r="AS22" s="53" t="s">
-        <v>398</v>
+        <v>203</v>
       </c>
       <c r="AT22" s="54" t="s">
-        <v>396</v>
+        <v>202</v>
       </c>
       <c r="AU22" s="14"/>
       <c r="AV22" s="61"/>
@@ -4418,7 +4469,9 @@
       <c r="BL22" s="59"/>
       <c r="BM22" s="59"/>
       <c r="BN22" s="60"/>
-      <c r="BO22" s="60"/>
+      <c r="BO22" s="60">
+        <v>1</v>
+      </c>
       <c r="BP22" s="60"/>
       <c r="BQ22" s="60"/>
       <c r="BR22" s="60"/>
@@ -4429,7 +4482,7 @@
       <c r="BW22" s="60"/>
       <c r="CN22" s="11"/>
     </row>
-    <row r="23" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="47" t="s">
         <v>73</v>
       </c>
@@ -4437,11 +4490,11 @@
         <v>312</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D23" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
@@ -4480,22 +4533,22 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="26"/>
       <c r="AO23" s="48" t="s">
-        <v>189</v>
+        <v>394</v>
       </c>
       <c r="AP23" s="48" t="s">
-        <v>65</v>
+        <v>249</v>
       </c>
       <c r="AQ23" s="51">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AR23" s="52" t="s">
-        <v>190</v>
+        <v>395</v>
       </c>
       <c r="AS23" s="53" t="s">
-        <v>94</v>
+        <v>398</v>
       </c>
       <c r="AT23" s="54" t="s">
-        <v>191</v>
+        <v>396</v>
       </c>
       <c r="AU23" s="14"/>
       <c r="AV23" s="61"/>
@@ -4507,7 +4560,9 @@
       <c r="BC23" s="45"/>
       <c r="BE23" s="45"/>
       <c r="BF23" s="59"/>
-      <c r="BG23" s="59"/>
+      <c r="BG23" s="59">
+        <v>1</v>
+      </c>
       <c r="BH23" s="59"/>
       <c r="BI23" s="59"/>
       <c r="BJ23" s="59"/>
@@ -4515,9 +4570,7 @@
       <c r="BL23" s="59"/>
       <c r="BM23" s="59"/>
       <c r="BN23" s="60"/>
-      <c r="BO23" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO23" s="60"/>
       <c r="BP23" s="60"/>
       <c r="BQ23" s="60"/>
       <c r="BR23" s="60"/>
@@ -4528,19 +4581,19 @@
       <c r="BW23" s="60"/>
       <c r="CN23" s="11"/>
     </row>
-    <row r="24" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="47" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D24" s="17" t="str">
-        <f>IF(BF24&lt;&gt;0,";2022_A="&amp;BF24," ")&amp;IF(BG24&lt;&gt;0," ; 2022_i="&amp;BG24," ")&amp;IF(BH24&lt;&gt;0,";2021_A="&amp;BH24," ")&amp;IF(BI24&lt;&gt;0," ; 2021_i="&amp;BI24," ")&amp;IF(BJ24&lt;&gt;0,";2020_A="&amp;BJ24," ")&amp;IF(BK24&lt;&gt;0," ; 2020_i="&amp;BK24," ")&amp;IF(BL24&lt;&gt;0,";2019_A="&amp;BL24," ")&amp;IF(BM24&lt;&gt;0," ; 2019_i="&amp;BM24," ")&amp;IF(BN24&lt;&gt;0,";2018_A="&amp;BN24," ")&amp;IF(BO24&lt;&gt;0," ; 2018_i="&amp;BO24," ")&amp;IF(BP24&lt;&gt;0," ; 2017_A="&amp;BP24," ")&amp;IF(BQ24&lt;&gt;0," ; 2017_i="&amp;BQ24," ")&amp;IF(BR24&lt;&gt;0," ; 2016_A="&amp;BR24," ")&amp;IF(BS24&lt;&gt;0," ; 2016_i="&amp;BS24," ")&amp;IF(BT24&lt;&gt;0," ; 2015_A="&amp;BT24," ")&amp;IF(BU24&lt;&gt;0," ; 2015_i="&amp;BU24," ")&amp;IF(BV24&lt;&gt;0," ; 2014_A="&amp;BV24," ")&amp;IF(BW24&lt;&gt;0," ; 2014_i="&amp;BW24," ")</f>
-        <v xml:space="preserve">        ; 2019_i=1  ; 2018_i=1        </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
@@ -4579,22 +4632,22 @@
       <c r="AM24" s="10"/>
       <c r="AN24" s="26"/>
       <c r="AO24" s="48" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="AP24" s="48" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AQ24" s="51">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AR24" s="52" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="AS24" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT24" s="53" t="s">
-        <v>193</v>
+        <v>94</v>
+      </c>
+      <c r="AT24" s="54" t="s">
+        <v>191</v>
       </c>
       <c r="AU24" s="14"/>
       <c r="AV24" s="61"/>
@@ -4612,9 +4665,7 @@
       <c r="BJ24" s="59"/>
       <c r="BK24" s="59"/>
       <c r="BL24" s="59"/>
-      <c r="BM24" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM24" s="59"/>
       <c r="BN24" s="60"/>
       <c r="BO24" s="60">
         <v>1</v>
@@ -4631,17 +4682,17 @@
     </row>
     <row r="25" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="47" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="D25" s="17" t="str">
         <f>IF(BF25&lt;&gt;0,";2022_A="&amp;BF25," ")&amp;IF(BG25&lt;&gt;0," ; 2022_i="&amp;BG25," ")&amp;IF(BH25&lt;&gt;0,";2021_A="&amp;BH25," ")&amp;IF(BI25&lt;&gt;0," ; 2021_i="&amp;BI25," ")&amp;IF(BJ25&lt;&gt;0,";2020_A="&amp;BJ25," ")&amp;IF(BK25&lt;&gt;0," ; 2020_i="&amp;BK25," ")&amp;IF(BL25&lt;&gt;0,";2019_A="&amp;BL25," ")&amp;IF(BM25&lt;&gt;0," ; 2019_i="&amp;BM25," ")&amp;IF(BN25&lt;&gt;0,";2018_A="&amp;BN25," ")&amp;IF(BO25&lt;&gt;0," ; 2018_i="&amp;BO25," ")&amp;IF(BP25&lt;&gt;0," ; 2017_A="&amp;BP25," ")&amp;IF(BQ25&lt;&gt;0," ; 2017_i="&amp;BQ25," ")&amp;IF(BR25&lt;&gt;0," ; 2016_A="&amp;BR25," ")&amp;IF(BS25&lt;&gt;0," ; 2016_i="&amp;BS25," ")&amp;IF(BT25&lt;&gt;0," ; 2015_A="&amp;BT25," ")&amp;IF(BU25&lt;&gt;0," ; 2015_i="&amp;BU25," ")&amp;IF(BV25&lt;&gt;0," ; 2014_A="&amp;BV25," ")&amp;IF(BW25&lt;&gt;0," ; 2014_i="&amp;BW25," ")</f>
-        <v xml:space="preserve">;2022_A=1                 </v>
+        <v xml:space="preserve">        ; 2019_i=1  ; 2018_i=1        </v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46"/>
@@ -4680,7 +4731,7 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="26"/>
       <c r="AO25" s="48" t="s">
-        <v>384</v>
+        <v>106</v>
       </c>
       <c r="AP25" s="48" t="s">
         <v>50</v>
@@ -4688,12 +4739,14 @@
       <c r="AQ25" s="51">
         <v>4000</v>
       </c>
-      <c r="AR25" s="52"/>
+      <c r="AR25" s="52" t="s">
+        <v>107</v>
+      </c>
       <c r="AS25" s="53" t="s">
-        <v>384</v>
+        <v>108</v>
       </c>
       <c r="AT25" s="53" t="s">
-        <v>383</v>
+        <v>193</v>
       </c>
       <c r="AU25" s="14"/>
       <c r="AV25" s="61"/>
@@ -4704,18 +4757,20 @@
       <c r="BA25" s="27"/>
       <c r="BC25" s="45"/>
       <c r="BE25" s="45"/>
-      <c r="BF25" s="59">
-        <v>1</v>
-      </c>
+      <c r="BF25" s="59"/>
       <c r="BG25" s="59"/>
       <c r="BH25" s="59"/>
       <c r="BI25" s="59"/>
       <c r="BJ25" s="59"/>
       <c r="BK25" s="59"/>
       <c r="BL25" s="59"/>
-      <c r="BM25" s="59"/>
+      <c r="BM25" s="59">
+        <v>1</v>
+      </c>
       <c r="BN25" s="60"/>
-      <c r="BO25" s="60"/>
+      <c r="BO25" s="60">
+        <v>1</v>
+      </c>
       <c r="BP25" s="60"/>
       <c r="BQ25" s="60"/>
       <c r="BR25" s="60"/>
@@ -4734,11 +4789,11 @@
         <v>312</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D26" s="17" t="str">
         <f>IF(BF26&lt;&gt;0,";2022_A="&amp;BF26," ")&amp;IF(BG26&lt;&gt;0," ; 2022_i="&amp;BG26," ")&amp;IF(BH26&lt;&gt;0,";2021_A="&amp;BH26," ")&amp;IF(BI26&lt;&gt;0," ; 2021_i="&amp;BI26," ")&amp;IF(BJ26&lt;&gt;0,";2020_A="&amp;BJ26," ")&amp;IF(BK26&lt;&gt;0," ; 2020_i="&amp;BK26," ")&amp;IF(BL26&lt;&gt;0,";2019_A="&amp;BL26," ")&amp;IF(BM26&lt;&gt;0," ; 2019_i="&amp;BM26," ")&amp;IF(BN26&lt;&gt;0,";2018_A="&amp;BN26," ")&amp;IF(BO26&lt;&gt;0," ; 2018_i="&amp;BO26," ")&amp;IF(BP26&lt;&gt;0," ; 2017_A="&amp;BP26," ")&amp;IF(BQ26&lt;&gt;0," ; 2017_i="&amp;BQ26," ")&amp;IF(BR26&lt;&gt;0," ; 2016_A="&amp;BR26," ")&amp;IF(BS26&lt;&gt;0," ; 2016_i="&amp;BS26," ")&amp;IF(BT26&lt;&gt;0," ; 2015_A="&amp;BT26," ")&amp;IF(BU26&lt;&gt;0," ; 2015_i="&amp;BU26," ")&amp;IF(BV26&lt;&gt;0," ; 2014_A="&amp;BV26," ")&amp;IF(BW26&lt;&gt;0," ; 2014_i="&amp;BW26," ")</f>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">;2022_A=1                 </v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
@@ -4777,22 +4832,20 @@
       <c r="AM26" s="10"/>
       <c r="AN26" s="26"/>
       <c r="AO26" s="48" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="AP26" s="48" t="s">
-        <v>364</v>
+        <v>50</v>
       </c>
       <c r="AQ26" s="51">
-        <v>26000</v>
-      </c>
-      <c r="AR26" s="52" t="s">
-        <v>366</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="AR26" s="52"/>
       <c r="AS26" s="53" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AT26" s="53" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="AU26" s="14"/>
       <c r="AV26" s="61"/>
@@ -4803,12 +4856,12 @@
       <c r="BA26" s="27"/>
       <c r="BC26" s="45"/>
       <c r="BE26" s="45"/>
-      <c r="BF26" s="59"/>
+      <c r="BF26" s="59">
+        <v>1</v>
+      </c>
       <c r="BG26" s="59"/>
       <c r="BH26" s="59"/>
-      <c r="BI26" s="59">
-        <v>1</v>
-      </c>
+      <c r="BI26" s="59"/>
       <c r="BJ26" s="59"/>
       <c r="BK26" s="59"/>
       <c r="BL26" s="59"/>
@@ -4825,19 +4878,19 @@
       <c r="BW26" s="60"/>
       <c r="CN26" s="11"/>
     </row>
-    <row r="27" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="D27" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <f>IF(BF27&lt;&gt;0,";2022_A="&amp;BF27," ")&amp;IF(BG27&lt;&gt;0," ; 2022_i="&amp;BG27," ")&amp;IF(BH27&lt;&gt;0,";2021_A="&amp;BH27," ")&amp;IF(BI27&lt;&gt;0," ; 2021_i="&amp;BI27," ")&amp;IF(BJ27&lt;&gt;0,";2020_A="&amp;BJ27," ")&amp;IF(BK27&lt;&gt;0," ; 2020_i="&amp;BK27," ")&amp;IF(BL27&lt;&gt;0,";2019_A="&amp;BL27," ")&amp;IF(BM27&lt;&gt;0," ; 2019_i="&amp;BM27," ")&amp;IF(BN27&lt;&gt;0,";2018_A="&amp;BN27," ")&amp;IF(BO27&lt;&gt;0," ; 2018_i="&amp;BO27," ")&amp;IF(BP27&lt;&gt;0," ; 2017_A="&amp;BP27," ")&amp;IF(BQ27&lt;&gt;0," ; 2017_i="&amp;BQ27," ")&amp;IF(BR27&lt;&gt;0," ; 2016_A="&amp;BR27," ")&amp;IF(BS27&lt;&gt;0," ; 2016_i="&amp;BS27," ")&amp;IF(BT27&lt;&gt;0," ; 2015_A="&amp;BT27," ")&amp;IF(BU27&lt;&gt;0," ; 2015_i="&amp;BU27," ")&amp;IF(BV27&lt;&gt;0," ; 2014_A="&amp;BV27," ")&amp;IF(BW27&lt;&gt;0," ; 2014_i="&amp;BW27," ")</f>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4876,22 +4929,22 @@
       <c r="AM27" s="10"/>
       <c r="AN27" s="26"/>
       <c r="AO27" s="48" t="s">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="AP27" s="48" t="s">
-        <v>249</v>
+        <v>364</v>
       </c>
       <c r="AQ27" s="51">
-        <v>6203</v>
+        <v>26000</v>
       </c>
       <c r="AR27" s="52" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
       <c r="AS27" s="53" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="AT27" s="53" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="AU27" s="14"/>
       <c r="AV27" s="61"/>
@@ -4905,13 +4958,13 @@
       <c r="BF27" s="59"/>
       <c r="BG27" s="59"/>
       <c r="BH27" s="59"/>
-      <c r="BI27" s="59"/>
+      <c r="BI27" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ27" s="59"/>
       <c r="BK27" s="59"/>
       <c r="BL27" s="59"/>
-      <c r="BM27" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM27" s="59"/>
       <c r="BN27" s="60"/>
       <c r="BO27" s="60"/>
       <c r="BP27" s="60"/>
@@ -4924,7 +4977,7 @@
       <c r="BW27" s="60"/>
       <c r="CN27" s="11"/>
     </row>
-    <row r="28" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
         <v>299</v>
       </c>
@@ -4932,11 +4985,11 @@
         <v>316</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D28" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  ; 2022_i=1      ; 2019_i=1          </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4975,22 +5028,22 @@
       <c r="AM28" s="10"/>
       <c r="AN28" s="26"/>
       <c r="AO28" s="48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AP28" s="48" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AQ28" s="51">
-        <v>83390</v>
+        <v>6203</v>
       </c>
       <c r="AR28" s="52" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AS28" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AT28" s="53" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AU28" s="14"/>
       <c r="AV28" s="61"/>
@@ -5002,9 +5055,7 @@
       <c r="BC28" s="45"/>
       <c r="BE28" s="45"/>
       <c r="BF28" s="59"/>
-      <c r="BG28" s="59">
-        <v>1</v>
-      </c>
+      <c r="BG28" s="59"/>
       <c r="BH28" s="59"/>
       <c r="BI28" s="59"/>
       <c r="BJ28" s="59"/>
@@ -5025,19 +5076,19 @@
       <c r="BW28" s="60"/>
       <c r="CN28" s="11"/>
     </row>
-    <row r="29" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>392</v>
+        <v>254</v>
       </c>
       <c r="D29" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">;2022_A=1                 </v>
+        <v xml:space="preserve">  ; 2022_i=1      ; 2019_i=1          </v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -5076,22 +5127,22 @@
       <c r="AM29" s="10"/>
       <c r="AN29" s="26"/>
       <c r="AO29" s="48" t="s">
-        <v>391</v>
+        <v>255</v>
       </c>
       <c r="AP29" s="48" t="s">
-        <v>390</v>
+        <v>256</v>
       </c>
       <c r="AQ29" s="51">
-        <v>83190</v>
-      </c>
-      <c r="AR29" s="52">
-        <v>969390900</v>
+        <v>83390</v>
+      </c>
+      <c r="AR29" s="52" t="s">
+        <v>258</v>
       </c>
       <c r="AS29" s="53" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="AT29" s="53" t="s">
-        <v>393</v>
+        <v>257</v>
       </c>
       <c r="AU29" s="14"/>
       <c r="AV29" s="61"/>
@@ -5102,16 +5153,18 @@
       <c r="BA29" s="27"/>
       <c r="BC29" s="45"/>
       <c r="BE29" s="45"/>
-      <c r="BF29" s="59">
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="59">
         <v>1</v>
       </c>
-      <c r="BG29" s="59"/>
       <c r="BH29" s="59"/>
       <c r="BI29" s="59"/>
       <c r="BJ29" s="59"/>
       <c r="BK29" s="59"/>
       <c r="BL29" s="59"/>
-      <c r="BM29" s="59"/>
+      <c r="BM29" s="59">
+        <v>1</v>
+      </c>
       <c r="BN29" s="60"/>
       <c r="BO29" s="60"/>
       <c r="BP29" s="60"/>
@@ -5124,7 +5177,7 @@
       <c r="BW29" s="60"/>
       <c r="CN29" s="11"/>
     </row>
-    <row r="30" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="47" t="s">
         <v>298</v>
       </c>
@@ -5132,11 +5185,11 @@
         <v>171</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="D30" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">;2022_A=1                 </v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -5175,20 +5228,22 @@
       <c r="AM30" s="10"/>
       <c r="AN30" s="26"/>
       <c r="AO30" s="48" t="s">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="AP30" s="48" t="s">
-        <v>181</v>
+        <v>390</v>
       </c>
       <c r="AQ30" s="51">
-        <v>13600</v>
-      </c>
-      <c r="AR30" s="52"/>
+        <v>83190</v>
+      </c>
+      <c r="AR30" s="52">
+        <v>969390900</v>
+      </c>
       <c r="AS30" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT30" s="54" t="s">
-        <v>183</v>
+        <v>91</v>
+      </c>
+      <c r="AT30" s="53" t="s">
+        <v>393</v>
       </c>
       <c r="AU30" s="14"/>
       <c r="AV30" s="61"/>
@@ -5199,7 +5254,9 @@
       <c r="BA30" s="27"/>
       <c r="BC30" s="45"/>
       <c r="BE30" s="45"/>
-      <c r="BF30" s="59"/>
+      <c r="BF30" s="59">
+        <v>1</v>
+      </c>
       <c r="BG30" s="59"/>
       <c r="BH30" s="59"/>
       <c r="BI30" s="59"/>
@@ -5210,9 +5267,7 @@
       <c r="BN30" s="60"/>
       <c r="BO30" s="60"/>
       <c r="BP30" s="60"/>
-      <c r="BQ30" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ30" s="60"/>
       <c r="BR30" s="60"/>
       <c r="BS30" s="60"/>
       <c r="BT30" s="60"/>
@@ -5221,19 +5276,19 @@
       <c r="BW30" s="60"/>
       <c r="CN30" s="11"/>
     </row>
-    <row r="31" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="D31" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  ; 2022_i=1  ; 2021_i=1              </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
@@ -5272,22 +5327,20 @@
       <c r="AM31" s="10"/>
       <c r="AN31" s="26"/>
       <c r="AO31" s="48" t="s">
-        <v>406</v>
+        <v>180</v>
       </c>
       <c r="AP31" s="48" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="AQ31" s="51">
-        <v>4200</v>
-      </c>
-      <c r="AR31" s="52" t="s">
-        <v>407</v>
-      </c>
+        <v>13600</v>
+      </c>
+      <c r="AR31" s="52"/>
       <c r="AS31" s="53" t="s">
-        <v>408</v>
+        <v>182</v>
       </c>
       <c r="AT31" s="54" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="AU31" s="14"/>
       <c r="AV31" s="61"/>
@@ -5299,13 +5352,9 @@
       <c r="BC31" s="45"/>
       <c r="BE31" s="45"/>
       <c r="BF31" s="59"/>
-      <c r="BG31" s="59">
-        <v>1</v>
-      </c>
+      <c r="BG31" s="59"/>
       <c r="BH31" s="59"/>
-      <c r="BI31" s="59">
-        <v>1</v>
-      </c>
+      <c r="BI31" s="59"/>
       <c r="BJ31" s="59"/>
       <c r="BK31" s="59"/>
       <c r="BL31" s="59"/>
@@ -5313,7 +5362,9 @@
       <c r="BN31" s="60"/>
       <c r="BO31" s="60"/>
       <c r="BP31" s="60"/>
-      <c r="BQ31" s="60"/>
+      <c r="BQ31" s="60">
+        <v>1</v>
+      </c>
       <c r="BR31" s="60"/>
       <c r="BS31" s="60"/>
       <c r="BT31" s="60"/>
@@ -5322,7 +5373,7 @@
       <c r="BW31" s="60"/>
       <c r="CN31" s="11"/>
     </row>
-    <row r="32" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="47" t="s">
         <v>305</v>
       </c>
@@ -5330,11 +5381,11 @@
         <v>317</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>227</v>
+        <v>405</v>
       </c>
       <c r="D32" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ; 2019_i=1          </v>
+        <v xml:space="preserve">  ; 2022_i=1  ; 2021_i=1              </v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
@@ -5373,22 +5424,22 @@
       <c r="AM32" s="10"/>
       <c r="AN32" s="26"/>
       <c r="AO32" s="48" t="s">
-        <v>228</v>
+        <v>406</v>
       </c>
       <c r="AP32" s="48" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="AQ32" s="51">
-        <v>13600</v>
+        <v>4200</v>
       </c>
       <c r="AR32" s="52" t="s">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="AS32" s="53" t="s">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="AT32" s="54" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="AU32" s="14"/>
       <c r="AV32" s="61"/>
@@ -5400,15 +5451,17 @@
       <c r="BC32" s="45"/>
       <c r="BE32" s="45"/>
       <c r="BF32" s="59"/>
-      <c r="BG32" s="59"/>
+      <c r="BG32" s="59">
+        <v>1</v>
+      </c>
       <c r="BH32" s="59"/>
-      <c r="BI32" s="59"/>
+      <c r="BI32" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ32" s="59"/>
       <c r="BK32" s="59"/>
       <c r="BL32" s="59"/>
-      <c r="BM32" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM32" s="59"/>
       <c r="BN32" s="60"/>
       <c r="BO32" s="60"/>
       <c r="BP32" s="60"/>
@@ -5421,19 +5474,19 @@
       <c r="BW32" s="60"/>
       <c r="CN32" s="11"/>
     </row>
-    <row r="33" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="47" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="D33" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">        ; 2019_i=1          </v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
@@ -5472,22 +5525,22 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="26"/>
       <c r="AO33" s="48" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="AP33" s="48" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="AQ33" s="51">
-        <v>83300</v>
+        <v>13600</v>
       </c>
       <c r="AR33" s="52" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AS33" s="53" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="AT33" s="54" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="AU33" s="14"/>
       <c r="AV33" s="61"/>
@@ -5501,13 +5554,13 @@
       <c r="BF33" s="59"/>
       <c r="BG33" s="59"/>
       <c r="BH33" s="59"/>
-      <c r="BI33" s="59">
-        <v>1</v>
-      </c>
+      <c r="BI33" s="59"/>
       <c r="BJ33" s="59"/>
       <c r="BK33" s="59"/>
       <c r="BL33" s="59"/>
-      <c r="BM33" s="59"/>
+      <c r="BM33" s="59">
+        <v>1</v>
+      </c>
       <c r="BN33" s="60"/>
       <c r="BO33" s="60"/>
       <c r="BP33" s="60"/>
@@ -5520,19 +5573,19 @@
       <c r="BW33" s="60"/>
       <c r="CN33" s="11"/>
     </row>
-    <row r="34" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="47" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="D34" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
@@ -5571,22 +5624,22 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="26"/>
       <c r="AO34" s="48" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="AP34" s="48" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="AQ34" s="51">
-        <v>83460</v>
+        <v>83300</v>
       </c>
       <c r="AR34" s="52" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="AS34" s="53" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="AT34" s="54" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="AU34" s="14"/>
       <c r="AV34" s="61"/>
@@ -5600,15 +5653,15 @@
       <c r="BF34" s="59"/>
       <c r="BG34" s="59"/>
       <c r="BH34" s="59"/>
-      <c r="BI34" s="59"/>
+      <c r="BI34" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ34" s="59"/>
       <c r="BK34" s="59"/>
       <c r="BL34" s="59"/>
       <c r="BM34" s="59"/>
       <c r="BN34" s="60"/>
-      <c r="BO34" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO34" s="60"/>
       <c r="BP34" s="60"/>
       <c r="BQ34" s="60"/>
       <c r="BR34" s="60"/>
@@ -5619,7 +5672,7 @@
       <c r="BW34" s="60"/>
       <c r="CN34" s="11"/>
     </row>
-    <row r="35" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="47" t="s">
         <v>73</v>
       </c>
@@ -5627,11 +5680,11 @@
         <v>312</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D35" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            ; 2017_i=1      </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
@@ -5670,22 +5723,22 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="26"/>
       <c r="AO35" s="48" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="AP35" s="48" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="AQ35" s="51">
-        <v>4800</v>
+        <v>83460</v>
       </c>
       <c r="AR35" s="52" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="AS35" s="53" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="AT35" s="54" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="AU35" s="14"/>
       <c r="AV35" s="61"/>
@@ -5705,11 +5758,11 @@
       <c r="BL35" s="59"/>
       <c r="BM35" s="59"/>
       <c r="BN35" s="60"/>
-      <c r="BO35" s="60"/>
+      <c r="BO35" s="60">
+        <v>1</v>
+      </c>
       <c r="BP35" s="60"/>
-      <c r="BQ35" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ35" s="60"/>
       <c r="BR35" s="60"/>
       <c r="BS35" s="60"/>
       <c r="BT35" s="60"/>
@@ -5718,7 +5771,7 @@
       <c r="BW35" s="60"/>
       <c r="CN35" s="11"/>
     </row>
-    <row r="36" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="47" t="s">
         <v>73</v>
       </c>
@@ -5726,7 +5779,7 @@
         <v>312</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D36" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5769,20 +5822,22 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="26"/>
       <c r="AO36" s="48" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AP36" s="48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AQ36" s="51">
-        <v>13290</v>
+        <v>4800</v>
       </c>
       <c r="AR36" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS36" s="53"/>
+        <v>178</v>
+      </c>
+      <c r="AS36" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="AT36" s="54" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU36" s="14"/>
       <c r="AV36" s="61"/>
@@ -5815,7 +5870,7 @@
       <c r="BW36" s="60"/>
       <c r="CN36" s="11"/>
     </row>
-    <row r="37" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="47" t="s">
         <v>73</v>
       </c>
@@ -5823,7 +5878,7 @@
         <v>312</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D37" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5866,22 +5921,20 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="26"/>
       <c r="AO37" s="48" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP37" s="48" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AQ37" s="51">
-        <v>13250</v>
+        <v>13290</v>
       </c>
       <c r="AR37" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS37" s="53" t="s">
-        <v>104</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AS37" s="53"/>
       <c r="AT37" s="54" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AU37" s="14"/>
       <c r="AV37" s="61"/>
@@ -5914,7 +5967,7 @@
       <c r="BW37" s="60"/>
       <c r="CN37" s="11"/>
     </row>
-    <row r="38" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="47" t="s">
         <v>73</v>
       </c>
@@ -5922,11 +5975,11 @@
         <v>312</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D38" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">            ; 2017_i=1      </v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="46"/>
@@ -5965,22 +6018,22 @@
       <c r="AM38" s="10"/>
       <c r="AN38" s="26"/>
       <c r="AO38" s="48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AP38" s="48" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ38" s="51">
-        <v>830130</v>
+        <v>13250</v>
       </c>
       <c r="AR38" s="52" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AS38" s="53" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AT38" s="54" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AU38" s="14"/>
       <c r="AV38" s="61"/>
@@ -6002,18 +6055,18 @@
       <c r="BN38" s="60"/>
       <c r="BO38" s="60"/>
       <c r="BP38" s="60"/>
-      <c r="BQ38" s="60"/>
+      <c r="BQ38" s="60">
+        <v>1</v>
+      </c>
       <c r="BR38" s="60"/>
       <c r="BS38" s="60"/>
       <c r="BT38" s="60"/>
-      <c r="BU38" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU38" s="60"/>
       <c r="BV38" s="60"/>
       <c r="BW38" s="60"/>
       <c r="CN38" s="11"/>
     </row>
-    <row r="39" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="47" t="s">
         <v>73</v>
       </c>
@@ -6021,11 +6074,11 @@
         <v>312</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="D39" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
@@ -6064,20 +6117,22 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="26"/>
       <c r="AO39" s="48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AP39" s="48" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AQ39" s="51">
-        <v>84000</v>
-      </c>
-      <c r="AR39" s="52"/>
+        <v>830130</v>
+      </c>
+      <c r="AR39" s="52" t="s">
+        <v>163</v>
+      </c>
       <c r="AS39" s="53" t="s">
         <v>94</v>
       </c>
       <c r="AT39" s="54" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AU39" s="14"/>
       <c r="AV39" s="61"/>
@@ -6097,20 +6152,20 @@
       <c r="BL39" s="59"/>
       <c r="BM39" s="59"/>
       <c r="BN39" s="60"/>
-      <c r="BO39" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO39" s="60"/>
       <c r="BP39" s="60"/>
       <c r="BQ39" s="60"/>
       <c r="BR39" s="60"/>
       <c r="BS39" s="60"/>
       <c r="BT39" s="60"/>
-      <c r="BU39" s="60"/>
+      <c r="BU39" s="60">
+        <v>1</v>
+      </c>
       <c r="BV39" s="60"/>
       <c r="BW39" s="60"/>
       <c r="CN39" s="11"/>
     </row>
-    <row r="40" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="47" t="s">
         <v>73</v>
       </c>
@@ -6118,11 +6173,11 @@
         <v>312</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="D40" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="46"/>
@@ -6161,22 +6216,20 @@
       <c r="AM40" s="10"/>
       <c r="AN40" s="26"/>
       <c r="AO40" s="48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AP40" s="48" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AQ40" s="51">
-        <v>84700</v>
-      </c>
-      <c r="AR40" s="52" t="s">
-        <v>155</v>
-      </c>
+        <v>84000</v>
+      </c>
+      <c r="AR40" s="52"/>
       <c r="AS40" s="53" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="AT40" s="54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AU40" s="14"/>
       <c r="AV40" s="61"/>
@@ -6196,20 +6249,20 @@
       <c r="BL40" s="59"/>
       <c r="BM40" s="59"/>
       <c r="BN40" s="60"/>
-      <c r="BO40" s="60"/>
+      <c r="BO40" s="60">
+        <v>1</v>
+      </c>
       <c r="BP40" s="60"/>
       <c r="BQ40" s="60"/>
       <c r="BR40" s="60"/>
       <c r="BS40" s="60"/>
       <c r="BT40" s="60"/>
-      <c r="BU40" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU40" s="60"/>
       <c r="BV40" s="60"/>
       <c r="BW40" s="60"/>
       <c r="CN40" s="11"/>
     </row>
-    <row r="41" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="47" t="s">
         <v>73</v>
       </c>
@@ -6217,11 +6270,11 @@
         <v>312</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="D41" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="46"/>
@@ -6260,20 +6313,22 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="26"/>
       <c r="AO41" s="48" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="AP41" s="48" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="AQ41" s="51">
-        <v>13209</v>
-      </c>
-      <c r="AR41" s="52"/>
+        <v>84700</v>
+      </c>
+      <c r="AR41" s="52" t="s">
+        <v>155</v>
+      </c>
       <c r="AS41" s="53" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="AT41" s="54" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="AU41" s="14"/>
       <c r="AV41" s="61"/>
@@ -6293,32 +6348,32 @@
       <c r="BL41" s="59"/>
       <c r="BM41" s="59"/>
       <c r="BN41" s="60"/>
-      <c r="BO41" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO41" s="60"/>
       <c r="BP41" s="60"/>
       <c r="BQ41" s="60"/>
       <c r="BR41" s="60"/>
       <c r="BS41" s="60"/>
       <c r="BT41" s="60"/>
-      <c r="BU41" s="60"/>
+      <c r="BU41" s="60">
+        <v>1</v>
+      </c>
       <c r="BV41" s="60"/>
       <c r="BW41" s="60"/>
       <c r="CN41" s="11"/>
     </row>
-    <row r="42" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="47" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D42" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="46"/>
@@ -6357,22 +6412,20 @@
       <c r="AM42" s="10"/>
       <c r="AN42" s="26"/>
       <c r="AO42" s="48" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="AP42" s="48" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="AQ42" s="51">
-        <v>84200</v>
-      </c>
-      <c r="AR42" s="52" t="s">
-        <v>114</v>
-      </c>
+        <v>13209</v>
+      </c>
+      <c r="AR42" s="52"/>
       <c r="AS42" s="53" t="s">
         <v>104</v>
       </c>
       <c r="AT42" s="54" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="AU42" s="14"/>
       <c r="AV42" s="61"/>
@@ -6388,13 +6441,13 @@
       <c r="BH42" s="59"/>
       <c r="BI42" s="59"/>
       <c r="BJ42" s="59"/>
-      <c r="BK42" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK42" s="59"/>
       <c r="BL42" s="59"/>
       <c r="BM42" s="59"/>
       <c r="BN42" s="60"/>
-      <c r="BO42" s="60"/>
+      <c r="BO42" s="60">
+        <v>1</v>
+      </c>
       <c r="BP42" s="60"/>
       <c r="BQ42" s="60"/>
       <c r="BR42" s="60"/>
@@ -6405,19 +6458,19 @@
       <c r="BW42" s="60"/>
       <c r="CN42" s="11"/>
     </row>
-    <row r="43" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="47" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c r="D43" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      ; 2020_i=1          ; 2015_i=1  </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="46"/>
@@ -6456,22 +6509,22 @@
       <c r="AM43" s="10"/>
       <c r="AN43" s="26"/>
       <c r="AO43" s="48" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="AP43" s="48" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="AQ43" s="51">
-        <v>84290</v>
+        <v>84200</v>
       </c>
       <c r="AR43" s="52" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="AS43" s="53" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AT43" s="54" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AU43" s="14"/>
       <c r="AV43" s="61"/>
@@ -6499,26 +6552,24 @@
       <c r="BR43" s="60"/>
       <c r="BS43" s="60"/>
       <c r="BT43" s="60"/>
-      <c r="BU43" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU43" s="60"/>
       <c r="BV43" s="60"/>
       <c r="BW43" s="60"/>
       <c r="CN43" s="11"/>
     </row>
-    <row r="44" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="47" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="D44" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1        </v>
+        <v xml:space="preserve">      ; 2020_i=1          ; 2015_i=1  </v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="46"/>
@@ -6556,21 +6607,23 @@
       <c r="AL44" s="10"/>
       <c r="AM44" s="10"/>
       <c r="AN44" s="26"/>
-      <c r="AO44" s="48"/>
+      <c r="AO44" s="48" t="s">
+        <v>151</v>
+      </c>
       <c r="AP44" s="48" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="AQ44" s="51">
-        <v>13108</v>
+        <v>84290</v>
       </c>
       <c r="AR44" s="52" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="AS44" s="53" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="AT44" s="54" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="AU44" s="14"/>
       <c r="AV44" s="61"/>
@@ -6586,36 +6639,38 @@
       <c r="BH44" s="59"/>
       <c r="BI44" s="59"/>
       <c r="BJ44" s="59"/>
-      <c r="BK44" s="59"/>
+      <c r="BK44" s="59">
+        <v>1</v>
+      </c>
       <c r="BL44" s="59"/>
       <c r="BM44" s="59"/>
       <c r="BN44" s="60"/>
-      <c r="BO44" s="60">
-        <v>1</v>
-      </c>
+      <c r="BO44" s="60"/>
       <c r="BP44" s="60"/>
       <c r="BQ44" s="60"/>
       <c r="BR44" s="60"/>
       <c r="BS44" s="60"/>
       <c r="BT44" s="60"/>
-      <c r="BU44" s="60"/>
+      <c r="BU44" s="60">
+        <v>1</v>
+      </c>
       <c r="BV44" s="60"/>
       <c r="BW44" s="60"/>
       <c r="CN44" s="11"/>
     </row>
-    <row r="45" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="47" t="s">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="D45" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">          ; 2018_i=1      ; 2015_i=1  </v>
+        <v xml:space="preserve">          ; 2018_i=1        </v>
       </c>
       <c r="E45" s="46"/>
       <c r="F45" s="46"/>
@@ -6653,23 +6708,21 @@
       <c r="AL45" s="10"/>
       <c r="AM45" s="10"/>
       <c r="AN45" s="26"/>
-      <c r="AO45" s="48" t="s">
-        <v>147</v>
-      </c>
+      <c r="AO45" s="48"/>
       <c r="AP45" s="48" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="AQ45" s="51">
-        <v>4000</v>
+        <v>13108</v>
       </c>
       <c r="AR45" s="52" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="AS45" s="53" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="AT45" s="54" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="AU45" s="14"/>
       <c r="AV45" s="61"/>
@@ -6697,26 +6750,24 @@
       <c r="BR45" s="60"/>
       <c r="BS45" s="60"/>
       <c r="BT45" s="60"/>
-      <c r="BU45" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU45" s="60"/>
       <c r="BV45" s="60"/>
       <c r="BW45" s="60"/>
       <c r="CN45" s="11"/>
     </row>
     <row r="46" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="47" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>341</v>
+        <v>146</v>
       </c>
       <c r="D46" s="17" t="str">
-        <f t="shared" ref="D46:D72" si="1">IF(BF46&lt;&gt;0,";2022_A="&amp;BF46," ")&amp;IF(BG46&lt;&gt;0," ; 2022_i="&amp;BG46," ")&amp;IF(BH46&lt;&gt;0,";2021_A="&amp;BH46," ")&amp;IF(BI46&lt;&gt;0," ; 2021_i="&amp;BI46," ")&amp;IF(BJ46&lt;&gt;0,";2020_A="&amp;BJ46," ")&amp;IF(BK46&lt;&gt;0," ; 2020_i="&amp;BK46," ")&amp;IF(BL46&lt;&gt;0,";2019_A="&amp;BL46," ")&amp;IF(BM46&lt;&gt;0," ; 2019_i="&amp;BM46," ")&amp;IF(BN46&lt;&gt;0,";2018_A="&amp;BN46," ")&amp;IF(BO46&lt;&gt;0," ; 2018_i="&amp;BO46," ")&amp;IF(BP46&lt;&gt;0," ; 2017_A="&amp;BP46," ")&amp;IF(BQ46&lt;&gt;0," ; 2017_i="&amp;BQ46," ")&amp;IF(BR46&lt;&gt;0," ; 2016_A="&amp;BR46," ")&amp;IF(BS46&lt;&gt;0," ; 2016_i="&amp;BS46," ")&amp;IF(BT46&lt;&gt;0," ; 2015_A="&amp;BT46," ")&amp;IF(BU46&lt;&gt;0," ; 2015_i="&amp;BU46," ")&amp;IF(BV46&lt;&gt;0," ; 2014_A="&amp;BV46," ")&amp;IF(BW46&lt;&gt;0," ; 2014_i="&amp;BW46," ")</f>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">          ; 2018_i=1      ; 2015_i=1  </v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="46"/>
@@ -6755,22 +6806,22 @@
       <c r="AM46" s="10"/>
       <c r="AN46" s="26"/>
       <c r="AO46" s="48" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AP46" s="48" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AQ46" s="51">
-        <v>13010</v>
+        <v>4000</v>
       </c>
       <c r="AR46" s="52" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AS46" s="53" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AT46" s="54" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AU46" s="14"/>
       <c r="AV46" s="61"/>
@@ -6790,7 +6841,9 @@
       <c r="BL46" s="59"/>
       <c r="BM46" s="59"/>
       <c r="BN46" s="60"/>
-      <c r="BO46" s="60"/>
+      <c r="BO46" s="60">
+        <v>1</v>
+      </c>
       <c r="BP46" s="60"/>
       <c r="BQ46" s="60"/>
       <c r="BR46" s="60"/>
@@ -6803,7 +6856,7 @@
       <c r="BW46" s="60"/>
       <c r="CN46" s="11"/>
     </row>
-    <row r="47" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="47" t="s">
         <v>73</v>
       </c>
@@ -6811,10 +6864,10 @@
         <v>312</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>135</v>
+        <v>341</v>
       </c>
       <c r="D47" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D47:D76" si="1">IF(BF47&lt;&gt;0,";2022_A="&amp;BF47," ")&amp;IF(BG47&lt;&gt;0," ; 2022_i="&amp;BG47," ")&amp;IF(BH47&lt;&gt;0,";2021_A="&amp;BH47," ")&amp;IF(BI47&lt;&gt;0," ; 2021_i="&amp;BI47," ")&amp;IF(BJ47&lt;&gt;0,";2020_A="&amp;BJ47," ")&amp;IF(BK47&lt;&gt;0," ; 2020_i="&amp;BK47," ")&amp;IF(BL47&lt;&gt;0,";2019_A="&amp;BL47," ")&amp;IF(BM47&lt;&gt;0," ; 2019_i="&amp;BM47," ")&amp;IF(BN47&lt;&gt;0,";2018_A="&amp;BN47," ")&amp;IF(BO47&lt;&gt;0," ; 2018_i="&amp;BO47," ")&amp;IF(BP47&lt;&gt;0," ; 2017_A="&amp;BP47," ")&amp;IF(BQ47&lt;&gt;0," ; 2017_i="&amp;BQ47," ")&amp;IF(BR47&lt;&gt;0," ; 2016_A="&amp;BR47," ")&amp;IF(BS47&lt;&gt;0," ; 2016_i="&amp;BS47," ")&amp;IF(BT47&lt;&gt;0," ; 2015_A="&amp;BT47," ")&amp;IF(BU47&lt;&gt;0," ; 2015_i="&amp;BU47," ")&amp;IF(BV47&lt;&gt;0," ; 2014_A="&amp;BV47," ")&amp;IF(BW47&lt;&gt;0," ; 2014_i="&amp;BW47," ")</f>
         <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E47" s="46"/>
@@ -6854,22 +6907,22 @@
       <c r="AM47" s="10"/>
       <c r="AN47" s="26"/>
       <c r="AO47" s="48" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AP47" s="48" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="AQ47" s="51">
-        <v>83310</v>
+        <v>13010</v>
       </c>
       <c r="AR47" s="52" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AS47" s="53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AT47" s="54" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AU47" s="14"/>
       <c r="AV47" s="61"/>
@@ -6902,19 +6955,19 @@
       <c r="BW47" s="60"/>
       <c r="CN47" s="11"/>
     </row>
-    <row r="48" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="47" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D48" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="46"/>
@@ -6953,22 +7006,22 @@
       <c r="AM48" s="10"/>
       <c r="AN48" s="26"/>
       <c r="AO48" s="48" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AP48" s="48" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="AQ48" s="51">
-        <v>84290</v>
+        <v>83310</v>
       </c>
       <c r="AR48" s="52" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="AS48" s="53" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AT48" s="54" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AU48" s="14"/>
       <c r="AV48" s="61"/>
@@ -6984,9 +7037,7 @@
       <c r="BH48" s="59"/>
       <c r="BI48" s="59"/>
       <c r="BJ48" s="59"/>
-      <c r="BK48" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK48" s="59"/>
       <c r="BL48" s="59"/>
       <c r="BM48" s="59"/>
       <c r="BN48" s="60"/>
@@ -6996,24 +7047,26 @@
       <c r="BR48" s="60"/>
       <c r="BS48" s="60"/>
       <c r="BT48" s="60"/>
-      <c r="BU48" s="60"/>
+      <c r="BU48" s="60">
+        <v>1</v>
+      </c>
       <c r="BV48" s="60"/>
       <c r="BW48" s="60"/>
       <c r="CN48" s="11"/>
     </row>
-    <row r="49" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="47" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>132</v>
       </c>
       <c r="D49" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="46"/>
@@ -7052,22 +7105,22 @@
       <c r="AM49" s="10"/>
       <c r="AN49" s="26"/>
       <c r="AO49" s="48" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AP49" s="48" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="AQ49" s="51">
-        <v>84600</v>
+        <v>84290</v>
       </c>
       <c r="AR49" s="52" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="AS49" s="53" t="s">
         <v>133</v>
       </c>
       <c r="AT49" s="54" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="AU49" s="14"/>
       <c r="AV49" s="61"/>
@@ -7083,7 +7136,9 @@
       <c r="BH49" s="59"/>
       <c r="BI49" s="59"/>
       <c r="BJ49" s="59"/>
-      <c r="BK49" s="59"/>
+      <c r="BK49" s="59">
+        <v>1</v>
+      </c>
       <c r="BL49" s="59"/>
       <c r="BM49" s="59"/>
       <c r="BN49" s="60"/>
@@ -7093,22 +7148,20 @@
       <c r="BR49" s="60"/>
       <c r="BS49" s="60"/>
       <c r="BT49" s="60"/>
-      <c r="BU49" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU49" s="60"/>
       <c r="BV49" s="60"/>
       <c r="BW49" s="60"/>
       <c r="CN49" s="11"/>
     </row>
-    <row r="50" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="47" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D50" s="17" t="str">
         <f t="shared" si="1"/>
@@ -7151,22 +7204,22 @@
       <c r="AM50" s="10"/>
       <c r="AN50" s="26"/>
       <c r="AO50" s="48" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP50" s="48" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AQ50" s="51">
-        <v>13790</v>
+        <v>84600</v>
       </c>
       <c r="AR50" s="52" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AS50" s="53" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AT50" s="54" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AU50" s="14"/>
       <c r="AV50" s="61"/>
@@ -7199,19 +7252,19 @@
       <c r="BW50" s="60"/>
       <c r="CN50" s="11"/>
     </row>
-    <row r="51" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="47" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>275</v>
+        <v>123</v>
       </c>
       <c r="D51" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1          </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="46"/>
@@ -7250,22 +7303,22 @@
       <c r="AM51" s="10"/>
       <c r="AN51" s="26"/>
       <c r="AO51" s="48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AP51" s="48" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AQ51" s="51">
-        <v>4100</v>
+        <v>13790</v>
       </c>
       <c r="AR51" s="52" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AS51" s="53" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AT51" s="54" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AU51" s="14"/>
       <c r="AV51" s="61"/>
@@ -7281,13 +7334,9 @@
       <c r="BH51" s="59"/>
       <c r="BI51" s="59"/>
       <c r="BJ51" s="59"/>
-      <c r="BK51" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK51" s="59"/>
       <c r="BL51" s="59"/>
-      <c r="BM51" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM51" s="59"/>
       <c r="BN51" s="60"/>
       <c r="BO51" s="60"/>
       <c r="BP51" s="60"/>
@@ -7295,24 +7344,26 @@
       <c r="BR51" s="60"/>
       <c r="BS51" s="60"/>
       <c r="BT51" s="60"/>
-      <c r="BU51" s="60"/>
+      <c r="BU51" s="60">
+        <v>1</v>
+      </c>
       <c r="BV51" s="60"/>
       <c r="BW51" s="60"/>
       <c r="CN51" s="11"/>
     </row>
-    <row r="52" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="47" t="s">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>316</v>
+        <v>93</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
       <c r="D52" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=2            </v>
+        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1          </v>
       </c>
       <c r="E52" s="46"/>
       <c r="F52" s="46"/>
@@ -7383,10 +7434,12 @@
       <c r="BI52" s="59"/>
       <c r="BJ52" s="59"/>
       <c r="BK52" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL52" s="59"/>
-      <c r="BM52" s="59"/>
+      <c r="BM52" s="59">
+        <v>1</v>
+      </c>
       <c r="BN52" s="60"/>
       <c r="BO52" s="60"/>
       <c r="BP52" s="60"/>
@@ -7399,19 +7452,19 @@
       <c r="BW52" s="60"/>
       <c r="CN52" s="11"/>
     </row>
-    <row r="53" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="47" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="D53" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  ; 2022_i=1    ; 2020_i=1            </v>
+        <v xml:space="preserve">      ; 2020_i=2            </v>
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="46"/>
@@ -7477,14 +7530,12 @@
       <c r="BC53" s="45"/>
       <c r="BE53" s="45"/>
       <c r="BF53" s="59"/>
-      <c r="BG53" s="59">
-        <v>1</v>
-      </c>
+      <c r="BG53" s="59"/>
       <c r="BH53" s="59"/>
       <c r="BI53" s="59"/>
       <c r="BJ53" s="59"/>
       <c r="BK53" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL53" s="59"/>
       <c r="BM53" s="59"/>
@@ -7500,19 +7551,19 @@
       <c r="BW53" s="60"/>
       <c r="CN53" s="11"/>
     </row>
-    <row r="54" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="47" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>274</v>
+        <v>116</v>
       </c>
       <c r="D54" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">                ; 2015_i=1  </v>
+        <v xml:space="preserve">  ; 2022_i=1    ; 2020_i=1            </v>
       </c>
       <c r="E54" s="46"/>
       <c r="F54" s="46"/>
@@ -7578,11 +7629,15 @@
       <c r="BC54" s="45"/>
       <c r="BE54" s="45"/>
       <c r="BF54" s="59"/>
-      <c r="BG54" s="59"/>
+      <c r="BG54" s="59">
+        <v>1</v>
+      </c>
       <c r="BH54" s="59"/>
       <c r="BI54" s="59"/>
       <c r="BJ54" s="59"/>
-      <c r="BK54" s="59"/>
+      <c r="BK54" s="59">
+        <v>1</v>
+      </c>
       <c r="BL54" s="59"/>
       <c r="BM54" s="59"/>
       <c r="BN54" s="60"/>
@@ -7592,26 +7647,24 @@
       <c r="BR54" s="60"/>
       <c r="BS54" s="60"/>
       <c r="BT54" s="60"/>
-      <c r="BU54" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU54" s="60"/>
       <c r="BV54" s="60"/>
       <c r="BW54" s="60"/>
       <c r="CN54" s="11"/>
     </row>
-    <row r="55" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="47" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="D55" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1  ; 2015_i=1  </v>
+        <v xml:space="preserve">                ; 2015_i=1  </v>
       </c>
       <c r="E55" s="46"/>
       <c r="F55" s="46"/>
@@ -7650,22 +7703,22 @@
       <c r="AM55" s="10"/>
       <c r="AN55" s="26"/>
       <c r="AO55" s="48" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AP55" s="48" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AQ55" s="51">
-        <v>84200</v>
+        <v>4100</v>
       </c>
       <c r="AR55" s="52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AS55" s="53" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="AT55" s="54" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AU55" s="14"/>
       <c r="AV55" s="61"/>
@@ -7689,9 +7742,7 @@
       <c r="BP55" s="60"/>
       <c r="BQ55" s="60"/>
       <c r="BR55" s="60"/>
-      <c r="BS55" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS55" s="60"/>
       <c r="BT55" s="60"/>
       <c r="BU55" s="60">
         <v>1</v>
@@ -7700,7 +7751,7 @@
       <c r="BW55" s="60"/>
       <c r="CN55" s="11"/>
     </row>
-    <row r="56" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="47" t="s">
         <v>73</v>
       </c>
@@ -7708,11 +7759,11 @@
         <v>312</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="D56" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  ; 2022_i=1      ; 2019_i=1          </v>
+        <v xml:space="preserve">              ; 2016_i=1  ; 2015_i=1  </v>
       </c>
       <c r="E56" s="46"/>
       <c r="F56" s="46"/>
@@ -7751,20 +7802,22 @@
       <c r="AM56" s="10"/>
       <c r="AN56" s="26"/>
       <c r="AO56" s="48" t="s">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="AP56" s="48" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AQ56" s="51">
-        <v>4100</v>
-      </c>
-      <c r="AR56" s="52"/>
+        <v>84200</v>
+      </c>
+      <c r="AR56" s="52" t="s">
+        <v>114</v>
+      </c>
       <c r="AS56" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT56" s="53" t="s">
-        <v>262</v>
+        <v>104</v>
+      </c>
+      <c r="AT56" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="AU56" s="14"/>
       <c r="AV56" s="61"/>
@@ -7776,42 +7829,42 @@
       <c r="BC56" s="45"/>
       <c r="BE56" s="45"/>
       <c r="BF56" s="59"/>
-      <c r="BG56" s="59">
-        <v>1</v>
-      </c>
+      <c r="BG56" s="59"/>
       <c r="BH56" s="59"/>
       <c r="BI56" s="59"/>
       <c r="BJ56" s="59"/>
       <c r="BK56" s="59"/>
       <c r="BL56" s="59"/>
-      <c r="BM56" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM56" s="59"/>
       <c r="BN56" s="60"/>
       <c r="BO56" s="60"/>
       <c r="BP56" s="60"/>
       <c r="BQ56" s="60"/>
       <c r="BR56" s="60"/>
-      <c r="BS56" s="60"/>
+      <c r="BS56" s="60">
+        <v>1</v>
+      </c>
       <c r="BT56" s="60"/>
-      <c r="BU56" s="60"/>
+      <c r="BU56" s="60">
+        <v>1</v>
+      </c>
       <c r="BV56" s="60"/>
       <c r="BW56" s="60"/>
       <c r="CN56" s="11"/>
     </row>
-    <row r="57" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="47" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="D57" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  ; 2022_i=1                </v>
+        <v xml:space="preserve">  ; 2022_i=1      ; 2019_i=1          </v>
       </c>
       <c r="E57" s="46"/>
       <c r="F57" s="46"/>
@@ -7850,20 +7903,20 @@
       <c r="AM57" s="10"/>
       <c r="AN57" s="26"/>
       <c r="AO57" s="48" t="s">
-        <v>411</v>
+        <v>261</v>
       </c>
       <c r="AP57" s="48" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AQ57" s="51">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="AR57" s="52"/>
       <c r="AS57" s="53" t="s">
-        <v>412</v>
+        <v>133</v>
       </c>
       <c r="AT57" s="53" t="s">
-        <v>413</v>
+        <v>262</v>
       </c>
       <c r="AU57" s="14"/>
       <c r="AV57" s="61"/>
@@ -7883,7 +7936,9 @@
       <c r="BJ57" s="59"/>
       <c r="BK57" s="59"/>
       <c r="BL57" s="59"/>
-      <c r="BM57" s="59"/>
+      <c r="BM57" s="59">
+        <v>1</v>
+      </c>
       <c r="BN57" s="60"/>
       <c r="BO57" s="60"/>
       <c r="BP57" s="60"/>
@@ -7898,17 +7953,17 @@
     </row>
     <row r="58" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="47" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="D58" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">        ; 2019_i=1      ; 2016_i=1    </v>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E58" s="46"/>
       <c r="F58" s="46"/>
@@ -7947,7 +8002,7 @@
       <c r="AM58" s="10"/>
       <c r="AN58" s="26"/>
       <c r="AO58" s="48" t="s">
-        <v>106</v>
+        <v>411</v>
       </c>
       <c r="AP58" s="48" t="s">
         <v>50</v>
@@ -7955,14 +8010,12 @@
       <c r="AQ58" s="51">
         <v>4000</v>
       </c>
-      <c r="AR58" s="52" t="s">
-        <v>107</v>
-      </c>
+      <c r="AR58" s="52"/>
       <c r="AS58" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT58" s="54" t="s">
-        <v>109</v>
+        <v>412</v>
+      </c>
+      <c r="AT58" s="53" t="s">
+        <v>413</v>
       </c>
       <c r="AU58" s="14"/>
       <c r="AV58" s="61"/>
@@ -7974,23 +8027,21 @@
       <c r="BC58" s="45"/>
       <c r="BE58" s="45"/>
       <c r="BF58" s="59"/>
-      <c r="BG58" s="59"/>
+      <c r="BG58" s="59">
+        <v>1</v>
+      </c>
       <c r="BH58" s="59"/>
       <c r="BI58" s="59"/>
       <c r="BJ58" s="59"/>
       <c r="BK58" s="59"/>
       <c r="BL58" s="59"/>
-      <c r="BM58" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM58" s="59"/>
       <c r="BN58" s="60"/>
       <c r="BO58" s="60"/>
       <c r="BP58" s="60"/>
       <c r="BQ58" s="60"/>
       <c r="BR58" s="60"/>
-      <c r="BS58" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS58" s="60"/>
       <c r="BT58" s="60"/>
       <c r="BU58" s="60"/>
       <c r="BV58" s="60"/>
@@ -8005,11 +8056,11 @@
         <v>312</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="D59" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1      ; 2017_i=1  ; 2016_i=1  ; 2015_i=1  </v>
+        <v xml:space="preserve">        ; 2019_i=1      ; 2016_i=1    </v>
       </c>
       <c r="E59" s="46"/>
       <c r="F59" s="46"/>
@@ -8048,22 +8099,22 @@
       <c r="AM59" s="10"/>
       <c r="AN59" s="26"/>
       <c r="AO59" s="48" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AP59" s="48" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AQ59" s="51">
-        <v>6130</v>
+        <v>4000</v>
       </c>
       <c r="AR59" s="52" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AS59" s="53" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AT59" s="54" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AU59" s="14"/>
       <c r="AV59" s="61"/>
@@ -8079,30 +8130,26 @@
       <c r="BH59" s="59"/>
       <c r="BI59" s="59"/>
       <c r="BJ59" s="59"/>
-      <c r="BK59" s="59">
+      <c r="BK59" s="59"/>
+      <c r="BL59" s="59"/>
+      <c r="BM59" s="59">
         <v>1</v>
       </c>
-      <c r="BL59" s="59"/>
-      <c r="BM59" s="59"/>
       <c r="BN59" s="60"/>
       <c r="BO59" s="60"/>
       <c r="BP59" s="60"/>
-      <c r="BQ59" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ59" s="60"/>
       <c r="BR59" s="60"/>
       <c r="BS59" s="60">
         <v>1</v>
       </c>
       <c r="BT59" s="60"/>
-      <c r="BU59" s="60">
-        <v>1</v>
-      </c>
+      <c r="BU59" s="60"/>
       <c r="BV59" s="60"/>
       <c r="BW59" s="60"/>
       <c r="CN59" s="11"/>
     </row>
-    <row r="60" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="47" t="s">
         <v>73</v>
       </c>
@@ -8110,11 +8157,11 @@
         <v>312</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="D60" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">      ; 2020_i=1      ; 2017_i=1  ; 2016_i=1  ; 2015_i=1  </v>
       </c>
       <c r="E60" s="46"/>
       <c r="F60" s="46"/>
@@ -8153,22 +8200,22 @@
       <c r="AM60" s="10"/>
       <c r="AN60" s="26"/>
       <c r="AO60" s="48" t="s">
-        <v>347</v>
+        <v>99</v>
       </c>
       <c r="AP60" s="48" t="s">
-        <v>348</v>
+        <v>101</v>
       </c>
       <c r="AQ60" s="51">
-        <v>26200</v>
+        <v>6130</v>
       </c>
       <c r="AR60" s="52" t="s">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="AS60" s="53" t="s">
         <v>104</v>
       </c>
       <c r="AT60" s="54" t="s">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="AU60" s="14"/>
       <c r="AV60" s="61"/>
@@ -8182,26 +8229,32 @@
       <c r="BF60" s="59"/>
       <c r="BG60" s="59"/>
       <c r="BH60" s="59"/>
-      <c r="BI60" s="59">
+      <c r="BI60" s="59"/>
+      <c r="BJ60" s="59"/>
+      <c r="BK60" s="59">
         <v>1</v>
       </c>
-      <c r="BJ60" s="59"/>
-      <c r="BK60" s="59"/>
       <c r="BL60" s="59"/>
       <c r="BM60" s="59"/>
       <c r="BN60" s="60"/>
       <c r="BO60" s="60"/>
       <c r="BP60" s="60"/>
-      <c r="BQ60" s="60"/>
+      <c r="BQ60" s="60">
+        <v>1</v>
+      </c>
       <c r="BR60" s="60"/>
-      <c r="BS60" s="60"/>
+      <c r="BS60" s="60">
+        <v>1</v>
+      </c>
       <c r="BT60" s="60"/>
-      <c r="BU60" s="60"/>
+      <c r="BU60" s="60">
+        <v>1</v>
+      </c>
       <c r="BV60" s="60"/>
       <c r="BW60" s="60"/>
       <c r="CN60" s="11"/>
     </row>
-    <row r="61" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="47" t="s">
         <v>73</v>
       </c>
@@ -8209,11 +8262,11 @@
         <v>312</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="D61" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
       </c>
       <c r="E61" s="46"/>
       <c r="F61" s="46"/>
@@ -8252,22 +8305,22 @@
       <c r="AM61" s="10"/>
       <c r="AN61" s="26"/>
       <c r="AO61" s="48" t="s">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="AP61" s="48" t="s">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="AQ61" s="51">
-        <v>5200</v>
+        <v>26200</v>
       </c>
       <c r="AR61" s="52" t="s">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="AS61" s="53" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AT61" s="54" t="s">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="AU61" s="14"/>
       <c r="AV61" s="61"/>
@@ -8281,7 +8334,9 @@
       <c r="BF61" s="59"/>
       <c r="BG61" s="59"/>
       <c r="BH61" s="59"/>
-      <c r="BI61" s="59"/>
+      <c r="BI61" s="59">
+        <v>1</v>
+      </c>
       <c r="BJ61" s="59"/>
       <c r="BK61" s="59"/>
       <c r="BL61" s="59"/>
@@ -8291,28 +8346,26 @@
       <c r="BP61" s="60"/>
       <c r="BQ61" s="60"/>
       <c r="BR61" s="60"/>
-      <c r="BS61" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS61" s="60"/>
       <c r="BT61" s="60"/>
       <c r="BU61" s="60"/>
       <c r="BV61" s="60"/>
       <c r="BW61" s="60"/>
       <c r="CN61" s="11"/>
     </row>
-    <row r="62" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47" t="s">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="D62" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1            </v>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E62" s="46"/>
       <c r="F62" s="46"/>
@@ -8351,22 +8404,22 @@
       <c r="AM62" s="10"/>
       <c r="AN62" s="26"/>
       <c r="AO62" s="48" t="s">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="AP62" s="48" t="s">
-        <v>293</v>
+        <v>426</v>
       </c>
       <c r="AQ62" s="51">
-        <v>83470</v>
-      </c>
-      <c r="AR62" s="52" t="s">
-        <v>294</v>
+        <v>83143</v>
+      </c>
+      <c r="AR62" s="52">
+        <v>492924074</v>
       </c>
       <c r="AS62" s="53" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AT62" s="54" t="s">
-        <v>295</v>
+        <v>427</v>
       </c>
       <c r="AU62" s="14"/>
       <c r="AV62" s="61"/>
@@ -8378,13 +8431,13 @@
       <c r="BC62" s="45"/>
       <c r="BE62" s="45"/>
       <c r="BF62" s="59"/>
-      <c r="BG62" s="59"/>
+      <c r="BG62" s="59">
+        <v>1</v>
+      </c>
       <c r="BH62" s="59"/>
       <c r="BI62" s="59"/>
       <c r="BJ62" s="59"/>
-      <c r="BK62" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK62" s="59"/>
       <c r="BL62" s="59"/>
       <c r="BM62" s="59"/>
       <c r="BN62" s="60"/>
@@ -8399,15 +8452,15 @@
       <c r="BW62" s="60"/>
       <c r="CN62" s="11"/>
     </row>
-    <row r="63" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D63" s="17" t="str">
         <f t="shared" si="1"/>
@@ -8450,22 +8503,22 @@
       <c r="AM63" s="10"/>
       <c r="AN63" s="26"/>
       <c r="AO63" s="48" t="s">
-        <v>291</v>
+        <v>95</v>
       </c>
       <c r="AP63" s="48" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ63" s="51">
-        <v>13100</v>
+        <v>5200</v>
       </c>
       <c r="AR63" s="52" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AS63" s="53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AT63" s="54" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AU63" s="14"/>
       <c r="AV63" s="61"/>
@@ -8498,19 +8551,19 @@
       <c r="BW63" s="60"/>
       <c r="CN63" s="11"/>
     </row>
-    <row r="64" spans="1:92" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:92" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47" t="s">
         <v>299</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="D64" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">              ; 2016_i=1    </v>
+        <v xml:space="preserve">      ; 2020_i=1            </v>
       </c>
       <c r="E64" s="46"/>
       <c r="F64" s="46"/>
@@ -8549,22 +8602,22 @@
       <c r="AM64" s="10"/>
       <c r="AN64" s="26"/>
       <c r="AO64" s="48" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="AP64" s="48" t="s">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="AQ64" s="51">
-        <v>13400</v>
+        <v>83470</v>
       </c>
       <c r="AR64" s="52" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="AS64" s="53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AT64" s="54" t="s">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="AU64" s="14"/>
       <c r="AV64" s="61"/>
@@ -8580,7 +8633,9 @@
       <c r="BH64" s="59"/>
       <c r="BI64" s="59"/>
       <c r="BJ64" s="59"/>
-      <c r="BK64" s="59"/>
+      <c r="BK64" s="59">
+        <v>1</v>
+      </c>
       <c r="BL64" s="59"/>
       <c r="BM64" s="59"/>
       <c r="BN64" s="60"/>
@@ -8588,24 +8643,22 @@
       <c r="BP64" s="60"/>
       <c r="BQ64" s="60"/>
       <c r="BR64" s="60"/>
-      <c r="BS64" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS64" s="60"/>
       <c r="BT64" s="60"/>
       <c r="BU64" s="60"/>
       <c r="BV64" s="60"/>
       <c r="BW64" s="60"/>
       <c r="CN64" s="11"/>
     </row>
-    <row r="65" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="D65" s="17" t="str">
         <f t="shared" si="1"/>
@@ -8648,22 +8701,22 @@
       <c r="AM65" s="10"/>
       <c r="AN65" s="26"/>
       <c r="AO65" s="48" t="s">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AP65" s="48" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AQ65" s="51">
-        <v>83170</v>
+        <v>13100</v>
       </c>
       <c r="AR65" s="52" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AS65" s="53" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AT65" s="54" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AU65" s="14"/>
       <c r="AV65" s="61"/>
@@ -8696,15 +8749,15 @@
       <c r="BW65" s="60"/>
       <c r="CN65" s="11"/>
     </row>
-    <row r="66" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="47" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D66" s="17" t="str">
         <f t="shared" si="1"/>
@@ -8747,22 +8800,22 @@
       <c r="AM66" s="10"/>
       <c r="AN66" s="26"/>
       <c r="AO66" s="48" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AP66" s="48" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AQ66" s="51">
-        <v>13002</v>
+        <v>13400</v>
       </c>
       <c r="AR66" s="52" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AS66" s="53" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AT66" s="54" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AU66" s="14"/>
       <c r="AV66" s="61"/>
@@ -8795,19 +8848,19 @@
       <c r="BW66" s="60"/>
       <c r="CN66" s="11"/>
     </row>
-    <row r="67" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="47" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>312</v>
+        <v>419</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>63</v>
+        <v>420</v>
       </c>
       <c r="D67" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1    ; 2017_i=1  ; 2016_i=1    </v>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
       </c>
       <c r="E67" s="46"/>
       <c r="F67" s="46"/>
@@ -8846,22 +8899,22 @@
       <c r="AM67" s="10"/>
       <c r="AN67" s="26"/>
       <c r="AO67" s="48" t="s">
-        <v>64</v>
+        <v>421</v>
       </c>
       <c r="AP67" s="48" t="s">
-        <v>65</v>
+        <v>422</v>
       </c>
       <c r="AQ67" s="51">
-        <v>5000</v>
-      </c>
-      <c r="AR67" s="52" t="s">
-        <v>67</v>
+        <v>1600</v>
+      </c>
+      <c r="AR67" s="52">
+        <v>411830062</v>
       </c>
       <c r="AS67" s="53" t="s">
-        <v>68</v>
+        <v>423</v>
       </c>
       <c r="AT67" s="54" t="s">
-        <v>66</v>
+        <v>424</v>
       </c>
       <c r="AU67" s="14"/>
       <c r="AV67" s="61"/>
@@ -8873,34 +8926,28 @@
       <c r="BC67" s="45"/>
       <c r="BE67" s="45"/>
       <c r="BF67" s="59"/>
-      <c r="BG67" s="59"/>
+      <c r="BG67" s="59">
+        <v>1</v>
+      </c>
       <c r="BH67" s="59"/>
       <c r="BI67" s="59"/>
       <c r="BJ67" s="59"/>
-      <c r="BK67" s="59">
-        <v>1</v>
-      </c>
+      <c r="BK67" s="59"/>
       <c r="BL67" s="59"/>
-      <c r="BM67" s="59">
-        <v>1</v>
-      </c>
+      <c r="BM67" s="59"/>
       <c r="BN67" s="60"/>
       <c r="BO67" s="60"/>
       <c r="BP67" s="60"/>
-      <c r="BQ67" s="60">
-        <v>1</v>
-      </c>
+      <c r="BQ67" s="60"/>
       <c r="BR67" s="60"/>
-      <c r="BS67" s="60">
-        <v>1</v>
-      </c>
+      <c r="BS67" s="60"/>
       <c r="BT67" s="60"/>
       <c r="BU67" s="60"/>
       <c r="BV67" s="60"/>
       <c r="BW67" s="60"/>
       <c r="CN67" s="11"/>
     </row>
-    <row r="68" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="47" t="s">
         <v>299</v>
       </c>
@@ -8908,7 +8955,7 @@
         <v>81</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D68" s="17" t="str">
         <f t="shared" si="1"/>
@@ -8951,22 +8998,22 @@
       <c r="AM68" s="10"/>
       <c r="AN68" s="26"/>
       <c r="AO68" s="48" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AP68" s="48" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AQ68" s="51">
-        <v>83600</v>
-      </c>
-      <c r="AR68" s="52">
-        <v>33969329328</v>
+        <v>83170</v>
+      </c>
+      <c r="AR68" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="AS68" s="53" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AT68" s="54" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="AU68" s="14"/>
       <c r="AV68" s="61"/>
@@ -8999,19 +9046,19 @@
       <c r="BW68" s="60"/>
       <c r="CN68" s="11"/>
     </row>
-    <row r="69" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="47" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="D69" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">  ; 2022_i=1                </v>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
       </c>
       <c r="E69" s="46"/>
       <c r="F69" s="46"/>
@@ -9050,20 +9097,22 @@
       <c r="AM69" s="10"/>
       <c r="AN69" s="26"/>
       <c r="AO69" s="48" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="AP69" s="48" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="AQ69" s="51">
-        <v>6414</v>
+        <v>13002</v>
       </c>
       <c r="AR69" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="AS69" s="53"/>
+        <v>74</v>
+      </c>
+      <c r="AS69" s="53" t="s">
+        <v>75</v>
+      </c>
       <c r="AT69" s="54" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="AU69" s="14"/>
       <c r="AV69" s="61"/>
@@ -9075,9 +9124,7 @@
       <c r="BC69" s="45"/>
       <c r="BE69" s="45"/>
       <c r="BF69" s="59"/>
-      <c r="BG69" s="59">
-        <v>1</v>
-      </c>
+      <c r="BG69" s="59"/>
       <c r="BH69" s="59"/>
       <c r="BI69" s="59"/>
       <c r="BJ69" s="59"/>
@@ -9089,14 +9136,16 @@
       <c r="BP69" s="60"/>
       <c r="BQ69" s="60"/>
       <c r="BR69" s="60"/>
-      <c r="BS69" s="60"/>
+      <c r="BS69" s="60">
+        <v>1</v>
+      </c>
       <c r="BT69" s="60"/>
       <c r="BU69" s="60"/>
       <c r="BV69" s="60"/>
       <c r="BW69" s="60"/>
       <c r="CN69" s="11"/>
     </row>
-    <row r="70" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="47" t="s">
         <v>73</v>
       </c>
@@ -9104,11 +9153,11 @@
         <v>312</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D70" s="17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">    ; 2021_i=1              </v>
+        <v xml:space="preserve">      ; 2020_i=1  ; 2019_i=1    ; 2017_i=1  ; 2016_i=1    </v>
       </c>
       <c r="E70" s="46"/>
       <c r="F70" s="46"/>
@@ -9147,22 +9196,22 @@
       <c r="AM70" s="10"/>
       <c r="AN70" s="26"/>
       <c r="AO70" s="48" t="s">
-        <v>344</v>
+        <v>64</v>
       </c>
       <c r="AP70" s="48" t="s">
-        <v>343</v>
+        <v>65</v>
       </c>
       <c r="AQ70" s="51">
-        <v>11100</v>
+        <v>5000</v>
       </c>
       <c r="AR70" s="52" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="AS70" s="53" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="AT70" s="54" t="s">
-        <v>345</v>
+        <v>66</v>
       </c>
       <c r="AU70" s="14"/>
       <c r="AV70" s="61"/>
@@ -9176,34 +9225,40 @@
       <c r="BF70" s="59"/>
       <c r="BG70" s="59"/>
       <c r="BH70" s="59"/>
-      <c r="BI70" s="59">
+      <c r="BI70" s="59"/>
+      <c r="BJ70" s="59"/>
+      <c r="BK70" s="59">
         <v>1</v>
       </c>
-      <c r="BJ70" s="59"/>
-      <c r="BK70" s="59"/>
       <c r="BL70" s="59"/>
-      <c r="BM70" s="59"/>
+      <c r="BM70" s="59">
+        <v>1</v>
+      </c>
       <c r="BN70" s="60"/>
       <c r="BO70" s="60"/>
       <c r="BP70" s="60"/>
-      <c r="BQ70" s="60"/>
+      <c r="BQ70" s="60">
+        <v>1</v>
+      </c>
       <c r="BR70" s="60"/>
-      <c r="BS70" s="60"/>
+      <c r="BS70" s="60">
+        <v>1</v>
+      </c>
       <c r="BT70" s="60"/>
       <c r="BU70" s="60"/>
       <c r="BV70" s="60"/>
       <c r="BW70" s="60"/>
       <c r="CN70" s="11"/>
     </row>
-    <row r="71" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C71" s="48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D71" s="17" t="str">
         <f t="shared" si="1"/>
@@ -9246,20 +9301,22 @@
       <c r="AM71" s="10"/>
       <c r="AN71" s="26"/>
       <c r="AO71" s="48" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP71" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ71" s="51">
-        <v>83480</v>
-      </c>
-      <c r="AR71" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS71" s="53"/>
+        <v>83600</v>
+      </c>
+      <c r="AR71" s="52">
+        <v>33969329328</v>
+      </c>
+      <c r="AS71" s="53" t="s">
+        <v>105</v>
+      </c>
       <c r="AT71" s="54" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AU71" s="14"/>
       <c r="AV71" s="61"/>
@@ -9292,358 +9349,562 @@
       <c r="BW71" s="60"/>
       <c r="CN71" s="11"/>
     </row>
-    <row r="72" spans="1:93" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A72" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72" s="50" t="s">
-        <v>48</v>
+    <row r="72" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="48" t="s">
+        <v>217</v>
       </c>
       <c r="D72" s="17" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
+      </c>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="26"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="26"/>
+      <c r="AA72" s="26"/>
+      <c r="AB72" s="26"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="26"/>
+      <c r="AG72" s="26"/>
+      <c r="AH72" s="10"/>
+      <c r="AI72" s="10"/>
+      <c r="AJ72" s="26"/>
+      <c r="AK72" s="10"/>
+      <c r="AL72" s="10"/>
+      <c r="AM72" s="10"/>
+      <c r="AN72" s="26"/>
+      <c r="AO72" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP72" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ72" s="51">
+        <v>6414</v>
+      </c>
+      <c r="AR72" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS72" s="53"/>
+      <c r="AT72" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU72" s="14"/>
+      <c r="AV72" s="61"/>
+      <c r="AW72" s="27"/>
+      <c r="AX72" s="26"/>
+      <c r="AY72" s="27"/>
+      <c r="AZ72" s="27"/>
+      <c r="BA72" s="27"/>
+      <c r="BC72" s="45"/>
+      <c r="BE72" s="45"/>
+      <c r="BF72" s="59"/>
+      <c r="BG72" s="59">
+        <v>1</v>
+      </c>
+      <c r="BH72" s="59"/>
+      <c r="BI72" s="59"/>
+      <c r="BJ72" s="59"/>
+      <c r="BK72" s="59"/>
+      <c r="BL72" s="59"/>
+      <c r="BM72" s="59"/>
+      <c r="BN72" s="60"/>
+      <c r="BO72" s="60"/>
+      <c r="BP72" s="60"/>
+      <c r="BQ72" s="60"/>
+      <c r="BR72" s="60"/>
+      <c r="BS72" s="60"/>
+      <c r="BT72" s="60"/>
+      <c r="BU72" s="60"/>
+      <c r="BV72" s="60"/>
+      <c r="BW72" s="60"/>
+      <c r="CN72" s="11"/>
+    </row>
+    <row r="73" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="D73" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  ; 2022_i=1                </v>
+      </c>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="26"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="26"/>
+      <c r="AA73" s="26"/>
+      <c r="AB73" s="26"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="26"/>
+      <c r="AG73" s="26"/>
+      <c r="AH73" s="10"/>
+      <c r="AI73" s="10"/>
+      <c r="AJ73" s="26"/>
+      <c r="AK73" s="10"/>
+      <c r="AL73" s="10"/>
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="26"/>
+      <c r="AO73" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP73" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ73" s="51">
+        <v>4850</v>
+      </c>
+      <c r="AR73" s="52">
+        <v>411830062</v>
+      </c>
+      <c r="AS73" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="AT73" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU73" s="14"/>
+      <c r="AV73" s="61"/>
+      <c r="AW73" s="27"/>
+      <c r="AX73" s="26"/>
+      <c r="AY73" s="27"/>
+      <c r="AZ73" s="27"/>
+      <c r="BA73" s="27"/>
+      <c r="BC73" s="45"/>
+      <c r="BE73" s="45"/>
+      <c r="BF73" s="59"/>
+      <c r="BG73" s="59">
+        <v>1</v>
+      </c>
+      <c r="BH73" s="59"/>
+      <c r="BI73" s="59"/>
+      <c r="BJ73" s="59"/>
+      <c r="BK73" s="59"/>
+      <c r="BL73" s="59"/>
+      <c r="BM73" s="59"/>
+      <c r="BN73" s="60"/>
+      <c r="BO73" s="60"/>
+      <c r="BP73" s="60"/>
+      <c r="BQ73" s="60"/>
+      <c r="BR73" s="60"/>
+      <c r="BS73" s="60"/>
+      <c r="BT73" s="60"/>
+      <c r="BU73" s="60"/>
+      <c r="BV73" s="60"/>
+      <c r="BW73" s="60"/>
+      <c r="CN73" s="11"/>
+    </row>
+    <row r="74" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    ; 2021_i=1              </v>
+      </c>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="26"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="26"/>
+      <c r="AA74" s="26"/>
+      <c r="AB74" s="26"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="26"/>
+      <c r="AG74" s="26"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="26"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="26"/>
+      <c r="AO74" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP74" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="AQ74" s="51">
+        <v>11100</v>
+      </c>
+      <c r="AR74" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS74" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT74" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU74" s="14"/>
+      <c r="AV74" s="61"/>
+      <c r="AW74" s="27"/>
+      <c r="AX74" s="26"/>
+      <c r="AY74" s="27"/>
+      <c r="AZ74" s="27"/>
+      <c r="BA74" s="27"/>
+      <c r="BC74" s="45"/>
+      <c r="BE74" s="45"/>
+      <c r="BF74" s="59"/>
+      <c r="BG74" s="59"/>
+      <c r="BH74" s="59"/>
+      <c r="BI74" s="59">
+        <v>1</v>
+      </c>
+      <c r="BJ74" s="59"/>
+      <c r="BK74" s="59"/>
+      <c r="BL74" s="59"/>
+      <c r="BM74" s="59"/>
+      <c r="BN74" s="60"/>
+      <c r="BO74" s="60"/>
+      <c r="BP74" s="60"/>
+      <c r="BQ74" s="60"/>
+      <c r="BR74" s="60"/>
+      <c r="BS74" s="60"/>
+      <c r="BT74" s="60"/>
+      <c r="BU74" s="60"/>
+      <c r="BV74" s="60"/>
+      <c r="BW74" s="60"/>
+      <c r="CN74" s="11"/>
+    </row>
+    <row r="75" spans="1:93" s="9" customFormat="1" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">              ; 2016_i=1    </v>
+      </c>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="26"/>
+      <c r="AG75" s="26"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="26"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="26"/>
+      <c r="AO75" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP75" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ75" s="51">
+        <v>83480</v>
+      </c>
+      <c r="AR75" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS75" s="53"/>
+      <c r="AT75" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU75" s="14"/>
+      <c r="AV75" s="61"/>
+      <c r="AW75" s="27"/>
+      <c r="AX75" s="26"/>
+      <c r="AY75" s="27"/>
+      <c r="AZ75" s="27"/>
+      <c r="BA75" s="27"/>
+      <c r="BC75" s="45"/>
+      <c r="BE75" s="45"/>
+      <c r="BF75" s="59"/>
+      <c r="BG75" s="59"/>
+      <c r="BH75" s="59"/>
+      <c r="BI75" s="59"/>
+      <c r="BJ75" s="59"/>
+      <c r="BK75" s="59"/>
+      <c r="BL75" s="59"/>
+      <c r="BM75" s="59"/>
+      <c r="BN75" s="60"/>
+      <c r="BO75" s="60"/>
+      <c r="BP75" s="60"/>
+      <c r="BQ75" s="60"/>
+      <c r="BR75" s="60"/>
+      <c r="BS75" s="60">
+        <v>1</v>
+      </c>
+      <c r="BT75" s="60"/>
+      <c r="BU75" s="60"/>
+      <c r="BV75" s="60"/>
+      <c r="BW75" s="60"/>
+      <c r="CN75" s="11"/>
+    </row>
+    <row r="76" spans="1:93" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A76" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="17" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="18"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="19"/>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="18"/>
-      <c r="AD72" s="18"/>
-      <c r="AE72" s="18"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="18"/>
-      <c r="AI72" s="18"/>
-      <c r="AJ72" s="19"/>
-      <c r="AK72" s="18"/>
-      <c r="AL72" s="18"/>
-      <c r="AM72" s="18"/>
-      <c r="AN72" s="19"/>
-      <c r="AO72" s="50" t="s">
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="18"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="18"/>
+      <c r="AD76" s="18"/>
+      <c r="AE76" s="18"/>
+      <c r="AF76" s="19"/>
+      <c r="AG76" s="19"/>
+      <c r="AH76" s="18"/>
+      <c r="AI76" s="18"/>
+      <c r="AJ76" s="19"/>
+      <c r="AK76" s="18"/>
+      <c r="AL76" s="18"/>
+      <c r="AM76" s="18"/>
+      <c r="AN76" s="19"/>
+      <c r="AO76" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AP72" s="50" t="s">
+      <c r="AP76" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AQ72" s="55">
+      <c r="AQ76" s="55">
         <v>4000</v>
       </c>
-      <c r="AR72" s="56" t="s">
+      <c r="AR76" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AS72" s="57" t="s">
+      <c r="AS76" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AT72" s="58" t="s">
+      <c r="AT76" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="AU72" s="20"/>
-      <c r="AV72" s="21"/>
-      <c r="AW72" s="25"/>
-      <c r="AX72" s="19"/>
-      <c r="AY72" s="25"/>
-      <c r="AZ72" s="25"/>
-      <c r="BA72" s="25"/>
-      <c r="BB72" s="9">
-        <f>RANK(BX72,$BX$2:$BX$72)+COUNTIF(BX$2:BX73,BX72)-1</f>
+      <c r="AU76" s="20"/>
+      <c r="AV76" s="21"/>
+      <c r="AW76" s="25"/>
+      <c r="AX76" s="19"/>
+      <c r="AY76" s="25"/>
+      <c r="AZ76" s="25"/>
+      <c r="BA76" s="25"/>
+      <c r="BB76" s="9">
+        <f>RANK(BX76,$BX$2:$BX$76)+COUNTIF(BX$2:BX77,BX76)-1</f>
         <v>1</v>
       </c>
-      <c r="BC72" s="12" t="str">
-        <f>"N° "&amp;BB72&amp;" "&amp;C72</f>
+      <c r="BC76" s="12" t="str">
+        <f>"N° "&amp;BB76&amp;" "&amp;C76</f>
         <v>N° 1 Lycée Pierre Gilles de Gennes</v>
       </c>
-      <c r="BD72" s="9">
-        <f>RANK(BY72,$BY$2:$BY$72)+COUNTIF(BY$2:BY73,BY72)-1</f>
+      <c r="BD76" s="9">
+        <f>RANK(BY76,$BY$2:$BY$76)+COUNTIF(BY$2:BY77,BY76)-1</f>
         <v>1</v>
       </c>
-      <c r="BE72" s="12" t="str">
-        <f>"N° "&amp;BD72&amp;" "&amp;C72</f>
+      <c r="BE76" s="12" t="str">
+        <f>"N° "&amp;BD76&amp;" "&amp;C76</f>
         <v>N° 1 Lycée Pierre Gilles de Gennes</v>
       </c>
-      <c r="BF72" s="12"/>
-      <c r="BG72" s="12"/>
-      <c r="BH72" s="12"/>
-      <c r="BI72" s="12"/>
-      <c r="BJ72" s="12"/>
-      <c r="BK72" s="12"/>
-      <c r="BL72" s="12"/>
-      <c r="BM72" s="12"/>
-      <c r="BX72" s="9">
-        <f>((BF72+BG72)*9)+((BH72+BI72)*8)+((BJ72+BK72)*7)+((BL72+BM72)*6)+((BN72+BO72)*5)+((BP72+BQ72)*4)+((BR72+BS72)*3)+((BT72+BU72)*2)+((BV72+BW72)*1)</f>
+      <c r="BF76" s="12"/>
+      <c r="BG76" s="12"/>
+      <c r="BH76" s="12"/>
+      <c r="BI76" s="12"/>
+      <c r="BJ76" s="12"/>
+      <c r="BK76" s="12"/>
+      <c r="BL76" s="12"/>
+      <c r="BM76" s="12"/>
+      <c r="BX76" s="9">
+        <f>((BF76+BG76)*9)+((BH76+BI76)*8)+((BJ76+BK76)*7)+((BL76+BM76)*6)+((BN76+BO76)*5)+((BP76+BQ76)*4)+((BR76+BS76)*3)+((BT76+BU76)*2)+((BV76+BW76)*1)</f>
         <v>0</v>
       </c>
-      <c r="BY72" s="9">
-        <f>((BG72)*9)+((BI72)*8)+((BK72)*7)+((BM72)*6)+((BO72)*5)+((BQ72)*4)+((BS72)*3)+((BU72)*2)+((BW72)*1)</f>
+      <c r="BY76" s="9">
+        <f>((BG76)*9)+((BI76)*8)+((BK76)*7)+((BM76)*6)+((BO76)*5)+((BQ76)*4)+((BS76)*3)+((BU76)*2)+((BW76)*1)</f>
         <v>0</v>
       </c>
-      <c r="BZ72" s="1">
-        <f>BJ72</f>
+      <c r="BZ76" s="1">
+        <f>BJ76</f>
         <v>0</v>
       </c>
-      <c r="CA72" s="1">
-        <f>BL72</f>
+      <c r="CA76" s="1">
+        <f>BL76</f>
         <v>0</v>
       </c>
-      <c r="CB72" s="1">
-        <f>BN72</f>
+      <c r="CB76" s="1">
+        <f>BN76</f>
         <v>0</v>
       </c>
-      <c r="CC72" s="1">
-        <f>BP72</f>
+      <c r="CC76" s="1">
+        <f>BP76</f>
         <v>0</v>
       </c>
-      <c r="CD72" s="1">
-        <f>BR72</f>
+      <c r="CD76" s="1">
+        <f>BR76</f>
         <v>0</v>
       </c>
-      <c r="CE72" s="1">
-        <f>BT72</f>
+      <c r="CE76" s="1">
+        <f>BT76</f>
         <v>0</v>
       </c>
-      <c r="CF72" s="1">
-        <f>BV72</f>
+      <c r="CF76" s="1">
+        <f>BV76</f>
         <v>0</v>
       </c>
-      <c r="CG72" s="1">
-        <f>BK72</f>
+      <c r="CG76" s="1">
+        <f>BK76</f>
         <v>0</v>
       </c>
-      <c r="CH72" s="1">
-        <f>BM72</f>
+      <c r="CH76" s="1">
+        <f>BM76</f>
         <v>0</v>
       </c>
-      <c r="CI72" s="1">
-        <f>BO72</f>
+      <c r="CI76" s="1">
+        <f>BO76</f>
         <v>0</v>
       </c>
-      <c r="CJ72" s="1">
-        <f>BQ72</f>
+      <c r="CJ76" s="1">
+        <f>BQ76</f>
         <v>0</v>
       </c>
-      <c r="CK72" s="1">
-        <f>BS72</f>
+      <c r="CK76" s="1">
+        <f>BS76</f>
         <v>0</v>
       </c>
-      <c r="CL72" s="1">
-        <f>BU72</f>
+      <c r="CL76" s="1">
+        <f>BU76</f>
         <v>0</v>
       </c>
-      <c r="CM72" s="1">
-        <f>BW72</f>
+      <c r="CM76" s="1">
+        <f>BW76</f>
         <v>0</v>
       </c>
-      <c r="CO72" s="16"/>
-    </row>
-    <row r="73" spans="1:93" x14ac:dyDescent="0.4">
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="BB73" s="6"/>
-      <c r="BC73" s="6"/>
-      <c r="BD73" s="6"/>
-      <c r="BE73" s="6"/>
-      <c r="BF73" s="6"/>
-      <c r="BG73" s="6"/>
-      <c r="BH73" s="6"/>
-      <c r="BI73" s="6"/>
-      <c r="BJ73" s="6"/>
-      <c r="BK73" s="6"/>
-      <c r="BL73" s="6"/>
-      <c r="BM73" s="6"/>
-      <c r="BX73" s="6"/>
-      <c r="BY73" s="6"/>
-      <c r="BZ73" s="6"/>
-      <c r="CA73" s="6"/>
-      <c r="CB73" s="6"/>
-      <c r="CC73" s="6"/>
-      <c r="CD73" s="6"/>
-      <c r="CE73" s="6"/>
-      <c r="CF73" s="6"/>
-      <c r="CG73" s="6"/>
-      <c r="CH73" s="6"/>
-      <c r="CI73" s="6"/>
-      <c r="CJ73" s="6"/>
-      <c r="CK73" s="6"/>
-      <c r="CL73" s="6"/>
-      <c r="CM73" s="6"/>
-    </row>
-    <row r="74" spans="1:93" x14ac:dyDescent="0.4">
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="BB74" s="6"/>
-      <c r="BC74" s="6"/>
-      <c r="BD74" s="6"/>
-      <c r="BE74" s="6"/>
-      <c r="BF74" s="6"/>
-      <c r="BG74" s="6"/>
-      <c r="BH74" s="6"/>
-      <c r="BI74" s="6"/>
-      <c r="BJ74" s="6"/>
-      <c r="BK74" s="6"/>
-      <c r="BL74" s="6"/>
-      <c r="BM74" s="6"/>
-      <c r="BX74" s="6"/>
-      <c r="BY74" s="6"/>
-      <c r="BZ74" s="6"/>
-      <c r="CA74" s="6"/>
-      <c r="CB74" s="6"/>
-      <c r="CC74" s="6"/>
-      <c r="CD74" s="6"/>
-      <c r="CE74" s="6"/>
-      <c r="CF74" s="6"/>
-      <c r="CG74" s="6"/>
-      <c r="CH74" s="6"/>
-      <c r="CI74" s="6"/>
-      <c r="CJ74" s="6"/>
-      <c r="CK74" s="6"/>
-      <c r="CL74" s="6"/>
-      <c r="CM74" s="6"/>
-    </row>
-    <row r="75" spans="1:93" x14ac:dyDescent="0.4">
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="BB75" s="6"/>
-      <c r="BC75" s="6"/>
-      <c r="BD75" s="6"/>
-      <c r="BE75" s="6"/>
-      <c r="BF75" s="6"/>
-      <c r="BG75" s="6"/>
-      <c r="BH75" s="6"/>
-      <c r="BI75" s="6"/>
-      <c r="BJ75" s="6"/>
-      <c r="BK75" s="6"/>
-      <c r="BL75" s="6"/>
-      <c r="BM75" s="6"/>
-      <c r="BX75" s="6"/>
-      <c r="BY75" s="6"/>
-      <c r="BZ75" s="6"/>
-      <c r="CA75" s="6"/>
-      <c r="CB75" s="6"/>
-      <c r="CC75" s="6"/>
-      <c r="CD75" s="6"/>
-      <c r="CE75" s="6"/>
-      <c r="CF75" s="6"/>
-      <c r="CG75" s="6"/>
-      <c r="CH75" s="6"/>
-      <c r="CI75" s="6"/>
-      <c r="CJ75" s="6"/>
-      <c r="CK75" s="6"/>
-      <c r="CL75" s="6"/>
-      <c r="CM75" s="6"/>
-    </row>
-    <row r="76" spans="1:93" x14ac:dyDescent="0.4">
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="BB76" s="6"/>
-      <c r="BC76" s="6"/>
-      <c r="BD76" s="6"/>
-      <c r="BE76" s="6"/>
-      <c r="BF76" s="6"/>
-      <c r="BG76" s="6"/>
-      <c r="BH76" s="6"/>
-      <c r="BI76" s="6"/>
-      <c r="BJ76" s="6"/>
-      <c r="BK76" s="6"/>
-      <c r="BL76" s="6"/>
-      <c r="BM76" s="6"/>
-      <c r="BX76" s="6"/>
-      <c r="BY76" s="6"/>
-      <c r="BZ76" s="6"/>
-      <c r="CA76" s="6"/>
-      <c r="CB76" s="6"/>
-      <c r="CC76" s="6"/>
-      <c r="CD76" s="6"/>
-      <c r="CE76" s="6"/>
-      <c r="CF76" s="6"/>
-      <c r="CG76" s="6"/>
-      <c r="CH76" s="6"/>
-      <c r="CI76" s="6"/>
-      <c r="CJ76" s="6"/>
-      <c r="CK76" s="6"/>
-      <c r="CL76" s="6"/>
-      <c r="CM76" s="6"/>
+      <c r="CO76" s="16"/>
     </row>
     <row r="77" spans="1:93" x14ac:dyDescent="0.4">
       <c r="D77" s="25"/>
@@ -16272,17 +16533,210 @@
       <c r="CL217" s="6"/>
       <c r="CM217" s="6"/>
     </row>
+    <row r="218" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="25"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
+      <c r="J218" s="25"/>
+      <c r="K218" s="25"/>
+      <c r="L218" s="25"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="6"/>
+      <c r="BB218" s="6"/>
+      <c r="BC218" s="6"/>
+      <c r="BD218" s="6"/>
+      <c r="BE218" s="6"/>
+      <c r="BF218" s="6"/>
+      <c r="BG218" s="6"/>
+      <c r="BH218" s="6"/>
+      <c r="BI218" s="6"/>
+      <c r="BJ218" s="6"/>
+      <c r="BK218" s="6"/>
+      <c r="BL218" s="6"/>
+      <c r="BM218" s="6"/>
+      <c r="BX218" s="6"/>
+      <c r="BY218" s="6"/>
+      <c r="BZ218" s="6"/>
+      <c r="CA218" s="6"/>
+      <c r="CB218" s="6"/>
+      <c r="CC218" s="6"/>
+      <c r="CD218" s="6"/>
+      <c r="CE218" s="6"/>
+      <c r="CF218" s="6"/>
+      <c r="CG218" s="6"/>
+      <c r="CH218" s="6"/>
+      <c r="CI218" s="6"/>
+      <c r="CJ218" s="6"/>
+      <c r="CK218" s="6"/>
+      <c r="CL218" s="6"/>
+      <c r="CM218" s="6"/>
+    </row>
+    <row r="219" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="25"/>
+      <c r="G219" s="25"/>
+      <c r="H219" s="25"/>
+      <c r="I219" s="25"/>
+      <c r="J219" s="25"/>
+      <c r="K219" s="25"/>
+      <c r="L219" s="25"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="6"/>
+      <c r="T219" s="6"/>
+      <c r="BB219" s="6"/>
+      <c r="BC219" s="6"/>
+      <c r="BD219" s="6"/>
+      <c r="BE219" s="6"/>
+      <c r="BF219" s="6"/>
+      <c r="BG219" s="6"/>
+      <c r="BH219" s="6"/>
+      <c r="BI219" s="6"/>
+      <c r="BJ219" s="6"/>
+      <c r="BK219" s="6"/>
+      <c r="BL219" s="6"/>
+      <c r="BM219" s="6"/>
+      <c r="BX219" s="6"/>
+      <c r="BY219" s="6"/>
+      <c r="BZ219" s="6"/>
+      <c r="CA219" s="6"/>
+      <c r="CB219" s="6"/>
+      <c r="CC219" s="6"/>
+      <c r="CD219" s="6"/>
+      <c r="CE219" s="6"/>
+      <c r="CF219" s="6"/>
+      <c r="CG219" s="6"/>
+      <c r="CH219" s="6"/>
+      <c r="CI219" s="6"/>
+      <c r="CJ219" s="6"/>
+      <c r="CK219" s="6"/>
+      <c r="CL219" s="6"/>
+      <c r="CM219" s="6"/>
+    </row>
+    <row r="220" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D220" s="25"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="25"/>
+      <c r="G220" s="25"/>
+      <c r="H220" s="25"/>
+      <c r="I220" s="25"/>
+      <c r="J220" s="25"/>
+      <c r="K220" s="25"/>
+      <c r="L220" s="25"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="6"/>
+      <c r="BB220" s="6"/>
+      <c r="BC220" s="6"/>
+      <c r="BD220" s="6"/>
+      <c r="BE220" s="6"/>
+      <c r="BF220" s="6"/>
+      <c r="BG220" s="6"/>
+      <c r="BH220" s="6"/>
+      <c r="BI220" s="6"/>
+      <c r="BJ220" s="6"/>
+      <c r="BK220" s="6"/>
+      <c r="BL220" s="6"/>
+      <c r="BM220" s="6"/>
+      <c r="BX220" s="6"/>
+      <c r="BY220" s="6"/>
+      <c r="BZ220" s="6"/>
+      <c r="CA220" s="6"/>
+      <c r="CB220" s="6"/>
+      <c r="CC220" s="6"/>
+      <c r="CD220" s="6"/>
+      <c r="CE220" s="6"/>
+      <c r="CF220" s="6"/>
+      <c r="CG220" s="6"/>
+      <c r="CH220" s="6"/>
+      <c r="CI220" s="6"/>
+      <c r="CJ220" s="6"/>
+      <c r="CK220" s="6"/>
+      <c r="CL220" s="6"/>
+      <c r="CM220" s="6"/>
+    </row>
+    <row r="221" spans="4:91" x14ac:dyDescent="0.4">
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="25"/>
+      <c r="J221" s="25"/>
+      <c r="K221" s="25"/>
+      <c r="L221" s="25"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="6"/>
+      <c r="BB221" s="6"/>
+      <c r="BC221" s="6"/>
+      <c r="BD221" s="6"/>
+      <c r="BE221" s="6"/>
+      <c r="BF221" s="6"/>
+      <c r="BG221" s="6"/>
+      <c r="BH221" s="6"/>
+      <c r="BI221" s="6"/>
+      <c r="BJ221" s="6"/>
+      <c r="BK221" s="6"/>
+      <c r="BL221" s="6"/>
+      <c r="BM221" s="6"/>
+      <c r="BX221" s="6"/>
+      <c r="BY221" s="6"/>
+      <c r="BZ221" s="6"/>
+      <c r="CA221" s="6"/>
+      <c r="CB221" s="6"/>
+      <c r="CC221" s="6"/>
+      <c r="CD221" s="6"/>
+      <c r="CE221" s="6"/>
+      <c r="CF221" s="6"/>
+      <c r="CG221" s="6"/>
+      <c r="CH221" s="6"/>
+      <c r="CI221" s="6"/>
+      <c r="CJ221" s="6"/>
+      <c r="CK221" s="6"/>
+      <c r="CL221" s="6"/>
+      <c r="CM221" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CN72" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN72">
-      <sortCondition ref="BB1:BB71"/>
+  <autoFilter ref="A1:CN76" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="41">
+      <filters>
+        <filter val="Digne-les-Bains"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN76">
+      <sortCondition ref="BB1:BB75"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="AS68" r:id="rId1" xr:uid="{7A957ED5-82B4-42C4-A542-9FEBF47E5BF1}"/>
-    <hyperlink ref="AS70" r:id="rId2" xr:uid="{3A8C7F76-5F55-4A52-94BF-819B86627B71}"/>
-    <hyperlink ref="AS10" r:id="rId3" xr:uid="{F393EE3D-E0B3-457A-88A9-3356E8BECEFD}"/>
-    <hyperlink ref="AS12" r:id="rId4" xr:uid="{32E863A6-0F3A-42DF-9A10-4CB806489D40}"/>
+    <hyperlink ref="AS71" r:id="rId1" xr:uid="{7A957ED5-82B4-42C4-A542-9FEBF47E5BF1}"/>
+    <hyperlink ref="AS74" r:id="rId2" xr:uid="{3A8C7F76-5F55-4A52-94BF-819B86627B71}"/>
+    <hyperlink ref="AS11" r:id="rId3" xr:uid="{F393EE3D-E0B3-457A-88A9-3356E8BECEFD}"/>
+    <hyperlink ref="AS13" r:id="rId4" xr:uid="{32E863A6-0F3A-42DF-9A10-4CB806489D40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
